--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2099900</v>
+        <v>2388100</v>
       </c>
       <c r="E8" s="3">
-        <v>2073100</v>
+        <v>1651700</v>
       </c>
       <c r="F8" s="3">
-        <v>2633700</v>
+        <v>2048400</v>
       </c>
       <c r="G8" s="3">
-        <v>2847300</v>
+        <v>2022200</v>
       </c>
       <c r="H8" s="3">
-        <v>1888200</v>
+        <v>2018500</v>
       </c>
       <c r="I8" s="3">
+        <v>1058300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1841900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2336400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2033500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2167900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1851800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1985100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2024400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1759600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>970700</v>
+        <v>1075600</v>
       </c>
       <c r="E9" s="3">
-        <v>963000</v>
+        <v>552000</v>
       </c>
       <c r="F9" s="3">
-        <v>1472900</v>
+        <v>946900</v>
       </c>
       <c r="G9" s="3">
-        <v>1748600</v>
+        <v>939400</v>
       </c>
       <c r="H9" s="3">
-        <v>851700</v>
+        <v>935600</v>
       </c>
       <c r="I9" s="3">
+        <v>89300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>830800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1296900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1179300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1315400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>969100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>985300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>913700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>819600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1129200</v>
+        <v>1312500</v>
       </c>
       <c r="E10" s="3">
-        <v>1110100</v>
+        <v>1099700</v>
       </c>
       <c r="F10" s="3">
-        <v>1160900</v>
+        <v>1101500</v>
       </c>
       <c r="G10" s="3">
-        <v>1098700</v>
+        <v>1082800</v>
       </c>
       <c r="H10" s="3">
-        <v>1036500</v>
+        <v>1083000</v>
       </c>
       <c r="I10" s="3">
+        <v>969000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1011100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1039500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>854200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>852600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>882700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>999800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1110600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>940000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>310200</v>
+        <v>299900</v>
       </c>
       <c r="E12" s="3">
-        <v>279200</v>
+        <v>299400</v>
       </c>
       <c r="F12" s="3">
-        <v>310800</v>
+        <v>302600</v>
       </c>
       <c r="G12" s="3">
-        <v>309300</v>
+        <v>272300</v>
       </c>
       <c r="H12" s="3">
-        <v>308100</v>
+        <v>285200</v>
       </c>
       <c r="I12" s="3">
+        <v>259600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K12" s="3">
         <v>275100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>209300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>184400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>171100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>156000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>137200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>127600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1621500</v>
+        <v>1760100</v>
       </c>
       <c r="E17" s="3">
-        <v>1538700</v>
+        <v>1186700</v>
       </c>
       <c r="F17" s="3">
-        <v>2144600</v>
+        <v>1581700</v>
       </c>
       <c r="G17" s="3">
-        <v>2525100</v>
+        <v>1500900</v>
       </c>
       <c r="H17" s="3">
-        <v>1524400</v>
+        <v>1493000</v>
       </c>
       <c r="I17" s="3">
+        <v>512300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1487000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2001600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1860400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1956200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1473400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1479700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1316200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1197200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>478500</v>
+        <v>627900</v>
       </c>
       <c r="E18" s="3">
-        <v>534400</v>
+        <v>465000</v>
       </c>
       <c r="F18" s="3">
-        <v>489200</v>
+        <v>466700</v>
       </c>
       <c r="G18" s="3">
-        <v>322100</v>
+        <v>521300</v>
       </c>
       <c r="H18" s="3">
-        <v>363800</v>
+        <v>525600</v>
       </c>
       <c r="I18" s="3">
+        <v>546000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>354900</v>
+      </c>
+      <c r="K18" s="3">
         <v>334800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>173200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>211700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>378400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>505400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>708200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>562300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1534500</v>
+        <v>76400</v>
       </c>
       <c r="E20" s="3">
-        <v>51700</v>
+        <v>-1229600</v>
       </c>
       <c r="F20" s="3">
-        <v>46300</v>
+        <v>1496900</v>
       </c>
       <c r="G20" s="3">
-        <v>66500</v>
+        <v>50400</v>
       </c>
       <c r="H20" s="3">
-        <v>56600</v>
+        <v>45600</v>
       </c>
       <c r="I20" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K20" s="3">
         <v>50200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-17100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>24600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>32300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>43400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>27100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>105700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2113900</v>
+        <v>801000</v>
       </c>
       <c r="E21" s="3">
-        <v>676900</v>
+        <v>-667300</v>
       </c>
       <c r="F21" s="3">
-        <v>618900</v>
+        <v>2062000</v>
       </c>
       <c r="G21" s="3">
-        <v>486400</v>
+        <v>660300</v>
       </c>
       <c r="H21" s="3">
-        <v>501500</v>
+        <v>652500</v>
       </c>
       <c r="I21" s="3">
+        <v>707800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>489200</v>
+      </c>
+      <c r="K21" s="3">
         <v>452600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>208600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>277000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>441900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>574100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>756900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>682100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2013000</v>
+        <v>704400</v>
       </c>
       <c r="E23" s="3">
-        <v>586000</v>
+        <v>-764600</v>
       </c>
       <c r="F23" s="3">
-        <v>535500</v>
+        <v>1963600</v>
       </c>
       <c r="G23" s="3">
-        <v>388600</v>
+        <v>571700</v>
       </c>
       <c r="H23" s="3">
-        <v>420400</v>
+        <v>571100</v>
       </c>
       <c r="I23" s="3">
+        <v>612400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>410100</v>
+      </c>
+      <c r="K23" s="3">
         <v>385000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>156000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>236300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>410700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>548800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>735300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>668100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>160200</v>
+        <v>151400</v>
       </c>
       <c r="E24" s="3">
-        <v>98100</v>
+        <v>-21600</v>
       </c>
       <c r="F24" s="3">
-        <v>182100</v>
+        <v>156300</v>
       </c>
       <c r="G24" s="3">
-        <v>132000</v>
+        <v>95700</v>
       </c>
       <c r="H24" s="3">
-        <v>120900</v>
+        <v>177300</v>
       </c>
       <c r="I24" s="3">
+        <v>128000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K24" s="3">
         <v>60300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>40600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>43100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>33500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>104400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>140000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>128300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1852800</v>
+        <v>552900</v>
       </c>
       <c r="E26" s="3">
-        <v>487900</v>
+        <v>-743000</v>
       </c>
       <c r="F26" s="3">
-        <v>353400</v>
+        <v>1807300</v>
       </c>
       <c r="G26" s="3">
-        <v>256600</v>
+        <v>476000</v>
       </c>
       <c r="H26" s="3">
-        <v>299500</v>
+        <v>393900</v>
       </c>
       <c r="I26" s="3">
+        <v>484400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K26" s="3">
         <v>324700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>115500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>193200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>377200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>444400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>595300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>539800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1848800</v>
+        <v>497000</v>
       </c>
       <c r="E27" s="3">
-        <v>481300</v>
+        <v>-748300</v>
       </c>
       <c r="F27" s="3">
-        <v>341800</v>
+        <v>1803400</v>
       </c>
       <c r="G27" s="3">
-        <v>243600</v>
+        <v>469500</v>
       </c>
       <c r="H27" s="3">
-        <v>296000</v>
+        <v>382500</v>
       </c>
       <c r="I27" s="3">
+        <v>471700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>288700</v>
+      </c>
+      <c r="K27" s="3">
         <v>302200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>107900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>190800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>375100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>441100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>582200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>535600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,38 +1689,44 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-22300</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-40600</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>1175700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="3">
-        <v>-66900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1534500</v>
+        <v>-76400</v>
       </c>
       <c r="E32" s="3">
-        <v>-51700</v>
+        <v>1229600</v>
       </c>
       <c r="F32" s="3">
-        <v>-46300</v>
+        <v>-1496900</v>
       </c>
       <c r="G32" s="3">
-        <v>-66500</v>
+        <v>-50400</v>
       </c>
       <c r="H32" s="3">
-        <v>-56600</v>
+        <v>-45600</v>
       </c>
       <c r="I32" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-50200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>17100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-24600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-32300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-43400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-27100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-105700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1826500</v>
+        <v>497000</v>
       </c>
       <c r="E33" s="3">
-        <v>440700</v>
+        <v>427400</v>
       </c>
       <c r="F33" s="3">
-        <v>341800</v>
+        <v>1781700</v>
       </c>
       <c r="G33" s="3">
-        <v>243600</v>
+        <v>429900</v>
       </c>
       <c r="H33" s="3">
-        <v>229000</v>
+        <v>333400</v>
       </c>
       <c r="I33" s="3">
+        <v>237600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>223400</v>
+      </c>
+      <c r="K33" s="3">
         <v>302200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>107900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>190800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>375100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>441100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>582200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>535600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1826500</v>
+        <v>497000</v>
       </c>
       <c r="E35" s="3">
-        <v>440700</v>
+        <v>427400</v>
       </c>
       <c r="F35" s="3">
-        <v>341800</v>
+        <v>1781700</v>
       </c>
       <c r="G35" s="3">
-        <v>243600</v>
+        <v>429900</v>
       </c>
       <c r="H35" s="3">
-        <v>229000</v>
+        <v>333400</v>
       </c>
       <c r="I35" s="3">
+        <v>237600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>223400</v>
+      </c>
+      <c r="K35" s="3">
         <v>302200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>107900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>190800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>375100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>441100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>582200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>535600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,360 +2138,410 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>393300</v>
+        <v>782800</v>
       </c>
       <c r="E41" s="3">
-        <v>693300</v>
+        <v>454400</v>
       </c>
       <c r="F41" s="3">
-        <v>592900</v>
+        <v>383700</v>
       </c>
       <c r="G41" s="3">
-        <v>715700</v>
+        <v>676300</v>
       </c>
       <c r="H41" s="3">
-        <v>685600</v>
+        <v>578300</v>
       </c>
       <c r="I41" s="3">
+        <v>698200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>668700</v>
+      </c>
+      <c r="K41" s="3">
         <v>441800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>534800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>410200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>382200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>447100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>587600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>791100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>8413700</v>
+        <v>9781600</v>
       </c>
       <c r="E42" s="3">
-        <v>7277200</v>
+        <v>9629200</v>
       </c>
       <c r="F42" s="3">
-        <v>6839800</v>
+        <v>8207300</v>
       </c>
       <c r="G42" s="3">
-        <v>6395600</v>
+        <v>7098700</v>
       </c>
       <c r="H42" s="3">
-        <v>5403200</v>
+        <v>6672000</v>
       </c>
       <c r="I42" s="3">
+        <v>6238700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5270700</v>
+      </c>
+      <c r="K42" s="3">
         <v>5889700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5683300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5987800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5655100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5658600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5370000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4500100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>675300</v>
+        <v>638100</v>
       </c>
       <c r="E43" s="3">
-        <v>644900</v>
+        <v>583500</v>
       </c>
       <c r="F43" s="3">
-        <v>727600</v>
+        <v>658700</v>
       </c>
       <c r="G43" s="3">
-        <v>591000</v>
+        <v>629100</v>
       </c>
       <c r="H43" s="3">
-        <v>655600</v>
+        <v>709700</v>
       </c>
       <c r="I43" s="3">
+        <v>576500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>639500</v>
+      </c>
+      <c r="K43" s="3">
         <v>554400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>637900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>537200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>483700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>505200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>546600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>618300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>98500</v>
+        <v>78700</v>
       </c>
       <c r="E44" s="3">
-        <v>569100</v>
+        <v>91100</v>
       </c>
       <c r="F44" s="3">
-        <v>613800</v>
+        <v>96100</v>
       </c>
       <c r="G44" s="3">
-        <v>152900</v>
+        <v>555200</v>
       </c>
       <c r="H44" s="3">
-        <v>902600</v>
+        <v>598700</v>
       </c>
       <c r="I44" s="3">
+        <v>149100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>880500</v>
+      </c>
+      <c r="K44" s="3">
         <v>814400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>734800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>812500</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="3">
-        <v>229500</v>
+      <c r="O44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>229500</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2262800</v>
+        <v>1346200</v>
       </c>
       <c r="E45" s="3">
-        <v>1295700</v>
+        <v>1153100</v>
       </c>
       <c r="F45" s="3">
-        <v>1505900</v>
+        <v>2207300</v>
       </c>
       <c r="G45" s="3">
-        <v>2004100</v>
+        <v>1263900</v>
       </c>
       <c r="H45" s="3">
-        <v>1385100</v>
+        <v>1468900</v>
       </c>
       <c r="I45" s="3">
+        <v>1954900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1351100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1249200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1503400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1445900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2209500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1940600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1537400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1120900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11843700</v>
+        <v>12627400</v>
       </c>
       <c r="E46" s="3">
-        <v>10480300</v>
+        <v>11911300</v>
       </c>
       <c r="F46" s="3">
-        <v>10279900</v>
+        <v>11553100</v>
       </c>
       <c r="G46" s="3">
-        <v>9859300</v>
+        <v>10223200</v>
       </c>
       <c r="H46" s="3">
-        <v>9032200</v>
+        <v>10027700</v>
       </c>
       <c r="I46" s="3">
+        <v>9617500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8810600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8949500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9094200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9193700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8730600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8551400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8041600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7181800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7200</v>
+        <v>538800</v>
       </c>
       <c r="E47" s="3">
-        <v>7200</v>
+        <v>1631100</v>
       </c>
       <c r="F47" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G47" s="3">
-        <v>767100</v>
+        <v>7000</v>
       </c>
       <c r="H47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>748200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K47" s="3">
         <v>21500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>21500</v>
       </c>
-      <c r="J47" s="3">
-        <v>21500</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>413300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>74200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>366500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>758300</v>
+        <v>639600</v>
       </c>
       <c r="E48" s="3">
-        <v>887700</v>
+        <v>711800</v>
       </c>
       <c r="F48" s="3">
-        <v>886700</v>
+        <v>720700</v>
       </c>
       <c r="G48" s="3">
-        <v>670500</v>
+        <v>865900</v>
       </c>
       <c r="H48" s="3">
-        <v>761300</v>
+        <v>864900</v>
       </c>
       <c r="I48" s="3">
+        <v>654100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>742600</v>
+      </c>
+      <c r="K48" s="3">
         <v>699200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>611500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>559400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>498100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>442500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>398600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>351900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2336,35 +2557,41 @@
       <c r="G49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="3">
-        <v>505100</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="3">
+        <v>492700</v>
+      </c>
+      <c r="K49" s="3">
         <v>84200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>84700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>88000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>88500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>86500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>86900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>85600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2574400</v>
+        <v>2801000</v>
       </c>
       <c r="E52" s="3">
-        <v>1939800</v>
+        <v>1438800</v>
       </c>
       <c r="F52" s="3">
-        <v>1946000</v>
+        <v>2530300</v>
       </c>
       <c r="G52" s="3">
-        <v>1934000</v>
+        <v>1892200</v>
       </c>
       <c r="H52" s="3">
-        <v>1156700</v>
+        <v>1898300</v>
       </c>
       <c r="I52" s="3">
+        <v>1886500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1128300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1064000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>773500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>287400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>544500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>588900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>726800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>453800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15183600</v>
+        <v>16606800</v>
       </c>
       <c r="E54" s="3">
-        <v>13315000</v>
+        <v>15692900</v>
       </c>
       <c r="F54" s="3">
-        <v>13119700</v>
+        <v>14811100</v>
       </c>
       <c r="G54" s="3">
-        <v>12478200</v>
+        <v>12988300</v>
       </c>
       <c r="H54" s="3">
-        <v>11476800</v>
+        <v>12797800</v>
       </c>
       <c r="I54" s="3">
+        <v>12172000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11195300</v>
+      </c>
+      <c r="K54" s="3">
         <v>10818400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10585300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10541800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9869200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9676800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9328300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8439600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2878,210 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>175000</v>
+        <v>167500</v>
       </c>
       <c r="E57" s="3">
-        <v>374400</v>
+        <v>169700</v>
       </c>
       <c r="F57" s="3">
-        <v>423200</v>
+        <v>170700</v>
       </c>
       <c r="G57" s="3">
-        <v>172400</v>
+        <v>365200</v>
       </c>
       <c r="H57" s="3">
-        <v>369400</v>
+        <v>412800</v>
       </c>
       <c r="I57" s="3">
+        <v>168200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>360300</v>
+      </c>
+      <c r="K57" s="3">
         <v>331200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>339400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>362500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>307000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>281800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>234400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>203000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2223200</v>
+        <v>2746600</v>
       </c>
       <c r="E58" s="3">
-        <v>1944700</v>
+        <v>2355300</v>
       </c>
       <c r="F58" s="3">
-        <v>2028000</v>
+        <v>2168700</v>
       </c>
       <c r="G58" s="3">
-        <v>1959700</v>
+        <v>1897000</v>
       </c>
       <c r="H58" s="3">
-        <v>1957900</v>
+        <v>1978300</v>
       </c>
       <c r="I58" s="3">
+        <v>1911700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1909900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1825900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1365400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>983000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>850800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>798100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>665400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>554900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2567800</v>
+        <v>3161100</v>
       </c>
       <c r="E59" s="3">
-        <v>2549500</v>
+        <v>2827500</v>
       </c>
       <c r="F59" s="3">
-        <v>2747000</v>
+        <v>2504800</v>
       </c>
       <c r="G59" s="3">
-        <v>2905300</v>
+        <v>2487000</v>
       </c>
       <c r="H59" s="3">
-        <v>2425400</v>
+        <v>2679600</v>
       </c>
       <c r="I59" s="3">
+        <v>2834000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2365900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2092900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2295300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2179300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1824600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1916500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2096200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2083000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4965900</v>
+        <v>6075300</v>
       </c>
       <c r="E60" s="3">
-        <v>4868700</v>
+        <v>5352500</v>
       </c>
       <c r="F60" s="3">
-        <v>5198200</v>
+        <v>4844100</v>
       </c>
       <c r="G60" s="3">
-        <v>5037400</v>
+        <v>4749200</v>
       </c>
       <c r="H60" s="3">
-        <v>4752700</v>
+        <v>5070700</v>
       </c>
       <c r="I60" s="3">
+        <v>4913900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4636100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4250000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4000100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3524800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2982400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2996300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2995900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2788800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>173200</v>
+        <v>147400</v>
       </c>
       <c r="E62" s="3">
-        <v>197600</v>
+        <v>117600</v>
       </c>
       <c r="F62" s="3">
-        <v>158300</v>
+        <v>169000</v>
       </c>
       <c r="G62" s="3">
-        <v>64200</v>
+        <v>192700</v>
       </c>
       <c r="H62" s="3">
-        <v>89800</v>
+        <v>154500</v>
       </c>
       <c r="I62" s="3">
+        <v>62600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>87600</v>
+      </c>
+      <c r="K62" s="3">
         <v>84800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>60500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>34400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>41800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>27800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>57100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6089700</v>
+        <v>7845700</v>
       </c>
       <c r="E66" s="3">
-        <v>6004500</v>
+        <v>7091900</v>
       </c>
       <c r="F66" s="3">
-        <v>6265900</v>
+        <v>5940300</v>
       </c>
       <c r="G66" s="3">
-        <v>5988300</v>
+        <v>5857200</v>
       </c>
       <c r="H66" s="3">
-        <v>5253300</v>
+        <v>6112200</v>
       </c>
       <c r="I66" s="3">
+        <v>5841400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5124400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4561000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4202100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3754700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3188400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3215300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3151400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2885400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,28 +3594,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>37</v>
+      <c r="E72" s="3">
+        <v>8062900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="3">
-        <v>6487000</v>
+      <c r="G72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>37</v>
+      <c r="I72" s="3">
+        <v>6327900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>37</v>
@@ -3291,14 +3638,20 @@
       <c r="N72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O72" s="3">
-        <v>5306600</v>
+      <c r="O72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>5306600</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9093900</v>
+        <v>8761100</v>
       </c>
       <c r="E76" s="3">
-        <v>7310500</v>
+        <v>8601100</v>
       </c>
       <c r="F76" s="3">
-        <v>6853800</v>
+        <v>8870800</v>
       </c>
       <c r="G76" s="3">
-        <v>6489800</v>
+        <v>7131100</v>
       </c>
       <c r="H76" s="3">
-        <v>6223600</v>
+        <v>6685600</v>
       </c>
       <c r="I76" s="3">
+        <v>6330600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6070900</v>
+      </c>
+      <c r="K76" s="3">
         <v>6257400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6383200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6787100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6680800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6461500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6176800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5554100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1826500</v>
+        <v>497000</v>
       </c>
       <c r="E81" s="3">
-        <v>440700</v>
+        <v>427400</v>
       </c>
       <c r="F81" s="3">
-        <v>341800</v>
+        <v>1781700</v>
       </c>
       <c r="G81" s="3">
-        <v>243600</v>
+        <v>429900</v>
       </c>
       <c r="H81" s="3">
-        <v>229000</v>
+        <v>333400</v>
       </c>
       <c r="I81" s="3">
+        <v>237600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>223400</v>
+      </c>
+      <c r="K81" s="3">
         <v>302200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>107900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>190800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>375100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>441100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>582200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>535600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98800</v>
+        <v>96600</v>
       </c>
       <c r="E83" s="3">
-        <v>92200</v>
+        <v>97400</v>
       </c>
       <c r="F83" s="3">
-        <v>84300</v>
+        <v>96300</v>
       </c>
       <c r="G83" s="3">
-        <v>97000</v>
+        <v>89900</v>
       </c>
       <c r="H83" s="3">
-        <v>81800</v>
+        <v>82200</v>
       </c>
       <c r="I83" s="3">
+        <v>94600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K83" s="3">
         <v>67600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>52600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>40700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>31300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>25300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>552900</v>
+        <v>909800</v>
       </c>
       <c r="E89" s="3">
-        <v>640700</v>
+        <v>771300</v>
       </c>
       <c r="F89" s="3">
-        <v>485900</v>
+        <v>539300</v>
       </c>
       <c r="G89" s="3">
-        <v>851600</v>
+        <v>625000</v>
       </c>
       <c r="H89" s="3">
-        <v>519000</v>
+        <v>474000</v>
       </c>
       <c r="I89" s="3">
+        <v>830700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>506300</v>
+      </c>
+      <c r="K89" s="3">
         <v>280900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>273300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>576000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>245700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>344500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>598300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>782200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-47300</v>
+        <v>-23000</v>
       </c>
       <c r="E91" s="3">
-        <v>-39400</v>
+        <v>-33000</v>
       </c>
       <c r="F91" s="3">
-        <v>-53000</v>
+        <v>-46100</v>
       </c>
       <c r="G91" s="3">
-        <v>-72500</v>
+        <v>-38400</v>
       </c>
       <c r="H91" s="3">
-        <v>-82900</v>
+        <v>-51700</v>
       </c>
       <c r="I91" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-111200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-96200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-84900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-76000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-64300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-48300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-67700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1015700</v>
+        <v>-346900</v>
       </c>
       <c r="E94" s="3">
-        <v>-483500</v>
+        <v>-972200</v>
       </c>
       <c r="F94" s="3">
-        <v>-680300</v>
+        <v>-990800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1181200</v>
+        <v>-471700</v>
       </c>
       <c r="H94" s="3">
-        <v>-57200</v>
+        <v>-663600</v>
       </c>
       <c r="I94" s="3">
+        <v>-1152200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-555300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-153300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-592900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-140100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-343300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-831600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-670000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-132500</v>
+        <v>-129700</v>
       </c>
       <c r="E96" s="3">
-        <v>-88000</v>
+        <v>-964400</v>
       </c>
       <c r="F96" s="3">
-        <v>-59300</v>
+        <v>-129200</v>
       </c>
       <c r="G96" s="3">
-        <v>-57300</v>
+        <v>-85800</v>
       </c>
       <c r="H96" s="3">
-        <v>-76600</v>
+        <v>-57900</v>
       </c>
       <c r="I96" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-27500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-45300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-92700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-109200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-145500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-136100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-100700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>105100</v>
+        <v>-195100</v>
       </c>
       <c r="E100" s="3">
-        <v>-176900</v>
+        <v>164000</v>
       </c>
       <c r="F100" s="3">
-        <v>59000</v>
+        <v>102500</v>
       </c>
       <c r="G100" s="3">
-        <v>401200</v>
+        <v>-172500</v>
       </c>
       <c r="H100" s="3">
-        <v>-131200</v>
+        <v>57500</v>
       </c>
       <c r="I100" s="3">
+        <v>391400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-41900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-171000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-31700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>16300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>17200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>10400</v>
       </c>
       <c r="E101" s="3">
-        <v>5100</v>
+        <v>-3800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2600</v>
+        <v>5300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>5000</v>
       </c>
       <c r="H101" s="3">
-        <v>7700</v>
+        <v>-2500</v>
       </c>
       <c r="I101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K101" s="3">
         <v>11200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>9900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-352300</v>
+        <v>378200</v>
       </c>
       <c r="E102" s="3">
-        <v>-14500</v>
+        <v>-40700</v>
       </c>
       <c r="F102" s="3">
-        <v>-137900</v>
+        <v>-343600</v>
       </c>
       <c r="G102" s="3">
-        <v>69600</v>
+        <v>-14200</v>
       </c>
       <c r="H102" s="3">
-        <v>338400</v>
+        <v>-134600</v>
       </c>
       <c r="I102" s="3">
+        <v>67900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>330100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-305100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>114500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-25400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-61500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-34000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-217600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>139300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2388100</v>
+        <v>2641000</v>
       </c>
       <c r="E8" s="3">
-        <v>1651700</v>
+        <v>2478000</v>
       </c>
       <c r="F8" s="3">
-        <v>2048400</v>
+        <v>1086400</v>
       </c>
       <c r="G8" s="3">
-        <v>2022200</v>
+        <v>2125500</v>
       </c>
       <c r="H8" s="3">
-        <v>2018500</v>
+        <v>2098300</v>
       </c>
       <c r="I8" s="3">
-        <v>1058300</v>
+        <v>2094500</v>
       </c>
       <c r="J8" s="3">
+        <v>1098200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1841900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2336400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2033500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2167900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1851800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1985100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2024400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1759600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1075600</v>
+        <v>1218900</v>
       </c>
       <c r="E9" s="3">
-        <v>552000</v>
+        <v>1116100</v>
       </c>
       <c r="F9" s="3">
-        <v>946900</v>
+        <v>1800</v>
       </c>
       <c r="G9" s="3">
-        <v>939400</v>
+        <v>982500</v>
       </c>
       <c r="H9" s="3">
-        <v>935600</v>
+        <v>974700</v>
       </c>
       <c r="I9" s="3">
-        <v>89300</v>
+        <v>970800</v>
       </c>
       <c r="J9" s="3">
+        <v>92700</v>
+      </c>
+      <c r="K9" s="3">
         <v>830800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1296900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1179300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1315400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>969100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>985300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>913700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>819600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1312500</v>
+        <v>1422100</v>
       </c>
       <c r="E10" s="3">
-        <v>1099700</v>
+        <v>1361900</v>
       </c>
       <c r="F10" s="3">
-        <v>1101500</v>
+        <v>1084600</v>
       </c>
       <c r="G10" s="3">
-        <v>1082800</v>
+        <v>1143000</v>
       </c>
       <c r="H10" s="3">
-        <v>1083000</v>
+        <v>1123600</v>
       </c>
       <c r="I10" s="3">
-        <v>969000</v>
+        <v>1123700</v>
       </c>
       <c r="J10" s="3">
+        <v>1005500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1011100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1039500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>854200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>852600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>882700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>999800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1110600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>940000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>299900</v>
+        <v>349800</v>
       </c>
       <c r="E12" s="3">
-        <v>299400</v>
+        <v>311200</v>
       </c>
       <c r="F12" s="3">
-        <v>302600</v>
+        <v>329300</v>
       </c>
       <c r="G12" s="3">
-        <v>272300</v>
+        <v>314000</v>
       </c>
       <c r="H12" s="3">
-        <v>285200</v>
+        <v>282600</v>
       </c>
       <c r="I12" s="3">
-        <v>259600</v>
+        <v>295900</v>
       </c>
       <c r="J12" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K12" s="3">
         <v>300500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>275100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>209300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>184400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>171100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>156000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>137200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>127600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1760100</v>
+        <v>2035400</v>
       </c>
       <c r="E17" s="3">
-        <v>1186700</v>
+        <v>1826400</v>
       </c>
       <c r="F17" s="3">
-        <v>1581700</v>
+        <v>761900</v>
       </c>
       <c r="G17" s="3">
-        <v>1500900</v>
+        <v>1641200</v>
       </c>
       <c r="H17" s="3">
-        <v>1493000</v>
+        <v>1557500</v>
       </c>
       <c r="I17" s="3">
-        <v>512300</v>
+        <v>1549200</v>
       </c>
       <c r="J17" s="3">
+        <v>531600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1487000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2001600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1860400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1956200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1473400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1479700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1316200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1197200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>627900</v>
+        <v>605600</v>
       </c>
       <c r="E18" s="3">
-        <v>465000</v>
+        <v>651600</v>
       </c>
       <c r="F18" s="3">
-        <v>466700</v>
+        <v>324500</v>
       </c>
       <c r="G18" s="3">
-        <v>521300</v>
+        <v>484300</v>
       </c>
       <c r="H18" s="3">
-        <v>525600</v>
+        <v>540900</v>
       </c>
       <c r="I18" s="3">
-        <v>546000</v>
+        <v>545300</v>
       </c>
       <c r="J18" s="3">
+        <v>566600</v>
+      </c>
+      <c r="K18" s="3">
         <v>354900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>334800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>173200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>211700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>378400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>505400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>708200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>562300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>76400</v>
+        <v>224500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1229600</v>
+        <v>79300</v>
       </c>
       <c r="F20" s="3">
-        <v>1496900</v>
+        <v>-1276300</v>
       </c>
       <c r="G20" s="3">
-        <v>50400</v>
+        <v>1553200</v>
       </c>
       <c r="H20" s="3">
-        <v>45600</v>
+        <v>52300</v>
       </c>
       <c r="I20" s="3">
-        <v>66400</v>
+        <v>47300</v>
       </c>
       <c r="J20" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K20" s="3">
         <v>55200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>43400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>27100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>105700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>801000</v>
+        <v>959700</v>
       </c>
       <c r="E21" s="3">
-        <v>-667300</v>
+        <v>831100</v>
       </c>
       <c r="F21" s="3">
-        <v>2062000</v>
+        <v>-850800</v>
       </c>
       <c r="G21" s="3">
-        <v>660300</v>
+        <v>2139700</v>
       </c>
       <c r="H21" s="3">
-        <v>652500</v>
+        <v>685200</v>
       </c>
       <c r="I21" s="3">
-        <v>707800</v>
+        <v>677000</v>
       </c>
       <c r="J21" s="3">
+        <v>734400</v>
+      </c>
+      <c r="K21" s="3">
         <v>489200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>452600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>208600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>277000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>441900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>574100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>756900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>682100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>704400</v>
+        <v>830100</v>
       </c>
       <c r="E23" s="3">
-        <v>-764600</v>
+        <v>730900</v>
       </c>
       <c r="F23" s="3">
-        <v>1963600</v>
+        <v>-951800</v>
       </c>
       <c r="G23" s="3">
-        <v>571700</v>
+        <v>2037500</v>
       </c>
       <c r="H23" s="3">
-        <v>571100</v>
+        <v>593200</v>
       </c>
       <c r="I23" s="3">
-        <v>612400</v>
+        <v>592600</v>
       </c>
       <c r="J23" s="3">
+        <v>635400</v>
+      </c>
+      <c r="K23" s="3">
         <v>410100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>385000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>156000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>236300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>410700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>548800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>735300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>668100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>151400</v>
+        <v>154600</v>
       </c>
       <c r="E24" s="3">
-        <v>-21600</v>
+        <v>157100</v>
       </c>
       <c r="F24" s="3">
-        <v>156300</v>
+        <v>-22700</v>
       </c>
       <c r="G24" s="3">
-        <v>95700</v>
+        <v>162200</v>
       </c>
       <c r="H24" s="3">
-        <v>177300</v>
+        <v>99300</v>
       </c>
       <c r="I24" s="3">
-        <v>128000</v>
+        <v>184000</v>
       </c>
       <c r="J24" s="3">
+        <v>132800</v>
+      </c>
+      <c r="K24" s="3">
         <v>118000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>104400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>140000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>128300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>552900</v>
+        <v>675500</v>
       </c>
       <c r="E26" s="3">
-        <v>-743000</v>
+        <v>573800</v>
       </c>
       <c r="F26" s="3">
-        <v>1807300</v>
+        <v>-929100</v>
       </c>
       <c r="G26" s="3">
-        <v>476000</v>
+        <v>1875400</v>
       </c>
       <c r="H26" s="3">
-        <v>393900</v>
+        <v>493900</v>
       </c>
       <c r="I26" s="3">
-        <v>484400</v>
+        <v>408700</v>
       </c>
       <c r="J26" s="3">
+        <v>502600</v>
+      </c>
+      <c r="K26" s="3">
         <v>292100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>324700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>115500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>193200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>377200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>444400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>595300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>539800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>497000</v>
+        <v>659000</v>
       </c>
       <c r="E27" s="3">
-        <v>-748300</v>
+        <v>515700</v>
       </c>
       <c r="F27" s="3">
-        <v>1803400</v>
+        <v>-735400</v>
       </c>
       <c r="G27" s="3">
-        <v>469500</v>
+        <v>1871300</v>
       </c>
       <c r="H27" s="3">
-        <v>382500</v>
+        <v>487100</v>
       </c>
       <c r="I27" s="3">
-        <v>471700</v>
+        <v>396900</v>
       </c>
       <c r="J27" s="3">
+        <v>489400</v>
+      </c>
+      <c r="K27" s="3">
         <v>288700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>302200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>190800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>375100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>441100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>582200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>535600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1704,31 +1765,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1175700</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-21700</v>
+        <v>1178900</v>
       </c>
       <c r="G29" s="3">
-        <v>-39600</v>
+        <v>-22500</v>
       </c>
       <c r="H29" s="3">
-        <v>-49100</v>
+        <v>-41100</v>
       </c>
       <c r="I29" s="3">
-        <v>-234000</v>
+        <v>-50900</v>
       </c>
       <c r="J29" s="3">
+        <v>-242900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-65300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-76400</v>
+        <v>-224500</v>
       </c>
       <c r="E32" s="3">
-        <v>1229600</v>
+        <v>-79300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1496900</v>
+        <v>1276300</v>
       </c>
       <c r="G32" s="3">
-        <v>-50400</v>
+        <v>-1553200</v>
       </c>
       <c r="H32" s="3">
-        <v>-45600</v>
+        <v>-52300</v>
       </c>
       <c r="I32" s="3">
-        <v>-66400</v>
+        <v>-47300</v>
       </c>
       <c r="J32" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-55200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-43400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-105700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>497000</v>
+        <v>659000</v>
       </c>
       <c r="E33" s="3">
-        <v>427400</v>
+        <v>515700</v>
       </c>
       <c r="F33" s="3">
-        <v>1781700</v>
+        <v>443500</v>
       </c>
       <c r="G33" s="3">
-        <v>429900</v>
+        <v>1848800</v>
       </c>
       <c r="H33" s="3">
-        <v>333400</v>
+        <v>446100</v>
       </c>
       <c r="I33" s="3">
-        <v>237600</v>
+        <v>346000</v>
       </c>
       <c r="J33" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K33" s="3">
         <v>223400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>302200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>190800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>375100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>441100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>582200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>535600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>497000</v>
+        <v>659000</v>
       </c>
       <c r="E35" s="3">
-        <v>427400</v>
+        <v>515700</v>
       </c>
       <c r="F35" s="3">
-        <v>1781700</v>
+        <v>443500</v>
       </c>
       <c r="G35" s="3">
-        <v>429900</v>
+        <v>1848800</v>
       </c>
       <c r="H35" s="3">
-        <v>333400</v>
+        <v>446100</v>
       </c>
       <c r="I35" s="3">
-        <v>237600</v>
+        <v>346000</v>
       </c>
       <c r="J35" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K35" s="3">
         <v>223400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>302200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>190800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>375100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>441100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>582200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>535600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,193 +2226,203 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>782800</v>
+        <v>1542700</v>
       </c>
       <c r="E41" s="3">
-        <v>454400</v>
+        <v>812200</v>
       </c>
       <c r="F41" s="3">
-        <v>383700</v>
+        <v>471500</v>
       </c>
       <c r="G41" s="3">
-        <v>676300</v>
+        <v>398100</v>
       </c>
       <c r="H41" s="3">
-        <v>578300</v>
+        <v>701800</v>
       </c>
       <c r="I41" s="3">
-        <v>698200</v>
+        <v>600100</v>
       </c>
       <c r="J41" s="3">
+        <v>724500</v>
+      </c>
+      <c r="K41" s="3">
         <v>668700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>441800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>534800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>410200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>382200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>447100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>587600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>791100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>9781600</v>
+        <v>12424100</v>
       </c>
       <c r="E42" s="3">
-        <v>9629200</v>
+        <v>10149900</v>
       </c>
       <c r="F42" s="3">
-        <v>8207300</v>
+        <v>9991800</v>
       </c>
       <c r="G42" s="3">
-        <v>7098700</v>
+        <v>8516300</v>
       </c>
       <c r="H42" s="3">
-        <v>6672000</v>
+        <v>7366000</v>
       </c>
       <c r="I42" s="3">
-        <v>6238700</v>
+        <v>6923300</v>
       </c>
       <c r="J42" s="3">
+        <v>6473600</v>
+      </c>
+      <c r="K42" s="3">
         <v>5270700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5889700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5683300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5987800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5655100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5658600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5370000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4500100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>638100</v>
+        <v>728800</v>
       </c>
       <c r="E43" s="3">
-        <v>583500</v>
+        <v>662200</v>
       </c>
       <c r="F43" s="3">
-        <v>658700</v>
+        <v>605500</v>
       </c>
       <c r="G43" s="3">
-        <v>629100</v>
+        <v>683600</v>
       </c>
       <c r="H43" s="3">
-        <v>709700</v>
+        <v>652800</v>
       </c>
       <c r="I43" s="3">
-        <v>576500</v>
+        <v>736400</v>
       </c>
       <c r="J43" s="3">
+        <v>598200</v>
+      </c>
+      <c r="K43" s="3">
         <v>639500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>554400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>637900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>537200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>483700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>505200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>546600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>618300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>78700</v>
+        <v>81200</v>
       </c>
       <c r="E44" s="3">
-        <v>91100</v>
+        <v>81600</v>
       </c>
       <c r="F44" s="3">
-        <v>96100</v>
+        <v>94500</v>
       </c>
       <c r="G44" s="3">
-        <v>555200</v>
+        <v>99700</v>
       </c>
       <c r="H44" s="3">
-        <v>598700</v>
+        <v>576100</v>
       </c>
       <c r="I44" s="3">
-        <v>149100</v>
+        <v>621200</v>
       </c>
       <c r="J44" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K44" s="3">
         <v>880500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>814400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>734800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>812500</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>37</v>
@@ -2334,214 +2430,229 @@
       <c r="P44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" s="3">
         <v>229500</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1346200</v>
+        <v>1360200</v>
       </c>
       <c r="E45" s="3">
-        <v>1153100</v>
+        <v>1396900</v>
       </c>
       <c r="F45" s="3">
-        <v>2207300</v>
+        <v>1196600</v>
       </c>
       <c r="G45" s="3">
-        <v>1263900</v>
+        <v>2290400</v>
       </c>
       <c r="H45" s="3">
-        <v>1468900</v>
+        <v>1311500</v>
       </c>
       <c r="I45" s="3">
-        <v>1954900</v>
+        <v>1524200</v>
       </c>
       <c r="J45" s="3">
+        <v>2028600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1351100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1249200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1503400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1445900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2209500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1940600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1537400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1120900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12627400</v>
+        <v>16136900</v>
       </c>
       <c r="E46" s="3">
-        <v>11911300</v>
+        <v>13102800</v>
       </c>
       <c r="F46" s="3">
-        <v>11553100</v>
+        <v>12359800</v>
       </c>
       <c r="G46" s="3">
-        <v>10223200</v>
+        <v>11988200</v>
       </c>
       <c r="H46" s="3">
-        <v>10027700</v>
+        <v>10608100</v>
       </c>
       <c r="I46" s="3">
-        <v>9617500</v>
+        <v>10405300</v>
       </c>
       <c r="J46" s="3">
+        <v>9979600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8810600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8949500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9094200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9193700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8730600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8551400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8041600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7181800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>538800</v>
+        <v>991000</v>
       </c>
       <c r="E47" s="3">
-        <v>1631100</v>
+        <v>559100</v>
       </c>
       <c r="F47" s="3">
-        <v>7000</v>
+        <v>1692500</v>
       </c>
       <c r="G47" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H47" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="I47" s="3">
-        <v>748200</v>
+        <v>7300</v>
       </c>
       <c r="J47" s="3">
+        <v>776400</v>
+      </c>
+      <c r="K47" s="3">
         <v>21000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>21500</v>
       </c>
       <c r="L47" s="3">
         <v>21500</v>
       </c>
       <c r="M47" s="3">
+        <v>21500</v>
+      </c>
+      <c r="N47" s="3">
         <v>413300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7400</v>
       </c>
       <c r="O47" s="3">
         <v>7400</v>
       </c>
       <c r="P47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>74200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>366500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>639600</v>
+        <v>641400</v>
       </c>
       <c r="E48" s="3">
-        <v>711800</v>
+        <v>663700</v>
       </c>
       <c r="F48" s="3">
-        <v>720700</v>
+        <v>738600</v>
       </c>
       <c r="G48" s="3">
-        <v>865900</v>
+        <v>747800</v>
       </c>
       <c r="H48" s="3">
-        <v>864900</v>
+        <v>898500</v>
       </c>
       <c r="I48" s="3">
-        <v>654100</v>
+        <v>897500</v>
       </c>
       <c r="J48" s="3">
+        <v>678700</v>
+      </c>
+      <c r="K48" s="3">
         <v>742600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>699200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>611500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>559400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>498100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>442500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>398600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>351900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2563,35 +2674,38 @@
       <c r="I49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="3">
         <v>492700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>88000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>88500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>86500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>85600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2801000</v>
+        <v>3168600</v>
       </c>
       <c r="E52" s="3">
-        <v>1438800</v>
+        <v>2906400</v>
       </c>
       <c r="F52" s="3">
-        <v>2530300</v>
+        <v>1493000</v>
       </c>
       <c r="G52" s="3">
-        <v>1892200</v>
+        <v>2625500</v>
       </c>
       <c r="H52" s="3">
-        <v>1898300</v>
+        <v>1963500</v>
       </c>
       <c r="I52" s="3">
-        <v>1886500</v>
+        <v>1969700</v>
       </c>
       <c r="J52" s="3">
+        <v>1957600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1128300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1064000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>773500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>287400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>544500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>588900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>726800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>453800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16606800</v>
+        <v>20937800</v>
       </c>
       <c r="E54" s="3">
-        <v>15692900</v>
+        <v>17232100</v>
       </c>
       <c r="F54" s="3">
-        <v>14811100</v>
+        <v>16283800</v>
       </c>
       <c r="G54" s="3">
-        <v>12988300</v>
+        <v>15368800</v>
       </c>
       <c r="H54" s="3">
-        <v>12797800</v>
+        <v>13477400</v>
       </c>
       <c r="I54" s="3">
-        <v>12172000</v>
+        <v>13279700</v>
       </c>
       <c r="J54" s="3">
+        <v>12630400</v>
+      </c>
+      <c r="K54" s="3">
         <v>11195300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10818400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10585300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10541800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9869200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9676800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9328300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8439600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,208 +3010,221 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>167500</v>
+        <v>124000</v>
       </c>
       <c r="E57" s="3">
-        <v>169700</v>
+        <v>173800</v>
       </c>
       <c r="F57" s="3">
-        <v>170700</v>
+        <v>176100</v>
       </c>
       <c r="G57" s="3">
-        <v>365200</v>
+        <v>177100</v>
       </c>
       <c r="H57" s="3">
-        <v>412800</v>
+        <v>379000</v>
       </c>
       <c r="I57" s="3">
-        <v>168200</v>
+        <v>428300</v>
       </c>
       <c r="J57" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K57" s="3">
         <v>360300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>331200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>339400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>362500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>307000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>281800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>234400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>203000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2746600</v>
+        <v>3185300</v>
       </c>
       <c r="E58" s="3">
-        <v>2355300</v>
+        <v>2850100</v>
       </c>
       <c r="F58" s="3">
-        <v>2168700</v>
+        <v>2444000</v>
       </c>
       <c r="G58" s="3">
-        <v>1897000</v>
+        <v>2250300</v>
       </c>
       <c r="H58" s="3">
-        <v>1978300</v>
+        <v>1968400</v>
       </c>
       <c r="I58" s="3">
-        <v>1911700</v>
+        <v>2052800</v>
       </c>
       <c r="J58" s="3">
+        <v>1983600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1909900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1825900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1365400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>983000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>850800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>798100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>665400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>554900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3161100</v>
+        <v>3254500</v>
       </c>
       <c r="E59" s="3">
-        <v>2827500</v>
+        <v>3280100</v>
       </c>
       <c r="F59" s="3">
-        <v>2504800</v>
+        <v>2934000</v>
       </c>
       <c r="G59" s="3">
-        <v>2487000</v>
+        <v>2599100</v>
       </c>
       <c r="H59" s="3">
-        <v>2679600</v>
+        <v>2580600</v>
       </c>
       <c r="I59" s="3">
-        <v>2834000</v>
+        <v>2780500</v>
       </c>
       <c r="J59" s="3">
+        <v>2940700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2365900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2092900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2295300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2179300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1824600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1916500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2096200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2083000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6075300</v>
+        <v>6563700</v>
       </c>
       <c r="E60" s="3">
-        <v>5352500</v>
+        <v>6304100</v>
       </c>
       <c r="F60" s="3">
-        <v>4844100</v>
+        <v>5554000</v>
       </c>
       <c r="G60" s="3">
-        <v>4749200</v>
+        <v>5026500</v>
       </c>
       <c r="H60" s="3">
-        <v>5070700</v>
+        <v>4928000</v>
       </c>
       <c r="I60" s="3">
-        <v>4913900</v>
+        <v>5261600</v>
       </c>
       <c r="J60" s="3">
+        <v>5098900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4636100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4250000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3524800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2982400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2996300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2995900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2788800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>147400</v>
+        <v>211600</v>
       </c>
       <c r="E62" s="3">
-        <v>117600</v>
+        <v>152900</v>
       </c>
       <c r="F62" s="3">
-        <v>169000</v>
+        <v>122000</v>
       </c>
       <c r="G62" s="3">
-        <v>192700</v>
+        <v>175300</v>
       </c>
       <c r="H62" s="3">
-        <v>154500</v>
+        <v>200000</v>
       </c>
       <c r="I62" s="3">
-        <v>62600</v>
+        <v>160300</v>
       </c>
       <c r="J62" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K62" s="3">
         <v>87600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>60500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>57100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7845700</v>
+        <v>8476400</v>
       </c>
       <c r="E66" s="3">
-        <v>7091900</v>
+        <v>8141100</v>
       </c>
       <c r="F66" s="3">
-        <v>5940300</v>
+        <v>7358900</v>
       </c>
       <c r="G66" s="3">
-        <v>5857200</v>
+        <v>6164000</v>
       </c>
       <c r="H66" s="3">
-        <v>6112200</v>
+        <v>6077700</v>
       </c>
       <c r="I66" s="3">
-        <v>5841400</v>
+        <v>6342400</v>
       </c>
       <c r="J66" s="3">
+        <v>6061400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5124400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4561000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4202100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3754700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3188400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3215300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3151400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2885400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3771,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="3">
-        <v>8062900</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="F72" s="3">
+        <v>8366500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>37</v>
@@ -3620,11 +3794,11 @@
       <c r="H72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="3">
-        <v>6327900</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6566100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>37</v>
@@ -3644,14 +3818,17 @@
       <c r="P72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R72" s="3">
         <v>5306600</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8761100</v>
+        <v>12461400</v>
       </c>
       <c r="E76" s="3">
-        <v>8601100</v>
+        <v>9091000</v>
       </c>
       <c r="F76" s="3">
-        <v>8870800</v>
+        <v>8924900</v>
       </c>
       <c r="G76" s="3">
-        <v>7131100</v>
+        <v>9204800</v>
       </c>
       <c r="H76" s="3">
-        <v>6685600</v>
+        <v>7399700</v>
       </c>
       <c r="I76" s="3">
-        <v>6330600</v>
+        <v>6937400</v>
       </c>
       <c r="J76" s="3">
+        <v>6569000</v>
+      </c>
+      <c r="K76" s="3">
         <v>6070900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6257400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6383200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6787100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6680800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6461500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6176800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5554100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>497000</v>
+        <v>659000</v>
       </c>
       <c r="E81" s="3">
-        <v>427400</v>
+        <v>515700</v>
       </c>
       <c r="F81" s="3">
-        <v>1781700</v>
+        <v>443500</v>
       </c>
       <c r="G81" s="3">
-        <v>429900</v>
+        <v>1848800</v>
       </c>
       <c r="H81" s="3">
-        <v>333400</v>
+        <v>446100</v>
       </c>
       <c r="I81" s="3">
-        <v>237600</v>
+        <v>346000</v>
       </c>
       <c r="J81" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K81" s="3">
         <v>223400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>302200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>190800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>375100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>441100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>582200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>535600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>96600</v>
+        <v>129600</v>
       </c>
       <c r="E83" s="3">
-        <v>97400</v>
+        <v>100200</v>
       </c>
       <c r="F83" s="3">
-        <v>96300</v>
+        <v>101000</v>
       </c>
       <c r="G83" s="3">
-        <v>89900</v>
+        <v>100000</v>
       </c>
       <c r="H83" s="3">
-        <v>82200</v>
+        <v>93300</v>
       </c>
       <c r="I83" s="3">
-        <v>94600</v>
+        <v>85300</v>
       </c>
       <c r="J83" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K83" s="3">
         <v>79800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>909800</v>
+        <v>693100</v>
       </c>
       <c r="E89" s="3">
-        <v>771300</v>
+        <v>944100</v>
       </c>
       <c r="F89" s="3">
-        <v>539300</v>
+        <v>800300</v>
       </c>
       <c r="G89" s="3">
-        <v>625000</v>
+        <v>559600</v>
       </c>
       <c r="H89" s="3">
-        <v>474000</v>
+        <v>648600</v>
       </c>
       <c r="I89" s="3">
-        <v>830700</v>
+        <v>491800</v>
       </c>
       <c r="J89" s="3">
+        <v>862000</v>
+      </c>
+      <c r="K89" s="3">
         <v>506300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>280900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>273300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>576000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>245700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>344500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>598300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>782200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23000</v>
+        <v>-34400</v>
       </c>
       <c r="E91" s="3">
-        <v>-33000</v>
+        <v>-23900</v>
       </c>
       <c r="F91" s="3">
-        <v>-46100</v>
+        <v>-34200</v>
       </c>
       <c r="G91" s="3">
-        <v>-38400</v>
+        <v>-47900</v>
       </c>
       <c r="H91" s="3">
-        <v>-51700</v>
+        <v>-39900</v>
       </c>
       <c r="I91" s="3">
-        <v>-70700</v>
+        <v>-53700</v>
       </c>
       <c r="J91" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-80900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-111200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-96200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-84900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-64300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-346900</v>
+        <v>-2941900</v>
       </c>
       <c r="E94" s="3">
-        <v>-972200</v>
+        <v>-359900</v>
       </c>
       <c r="F94" s="3">
-        <v>-990800</v>
+        <v>-1008800</v>
       </c>
       <c r="G94" s="3">
-        <v>-471700</v>
+        <v>-1028100</v>
       </c>
       <c r="H94" s="3">
-        <v>-663600</v>
+        <v>-489400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1152200</v>
+        <v>-688600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1195600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-55800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-555300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-153300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-592900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-140100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-343300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-831600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-670000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-129700</v>
+        <v>-162000</v>
       </c>
       <c r="E96" s="3">
-        <v>-964400</v>
+        <v>-134600</v>
       </c>
       <c r="F96" s="3">
-        <v>-129200</v>
+        <v>-1000700</v>
       </c>
       <c r="G96" s="3">
-        <v>-85800</v>
+        <v>-134100</v>
       </c>
       <c r="H96" s="3">
-        <v>-57900</v>
+        <v>-89000</v>
       </c>
       <c r="I96" s="3">
-        <v>-55900</v>
+        <v>-60100</v>
       </c>
       <c r="J96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-74700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-45300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-92700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-109200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-145500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-136100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-100700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-195100</v>
+        <v>2930500</v>
       </c>
       <c r="E100" s="3">
-        <v>164000</v>
+        <v>-202400</v>
       </c>
       <c r="F100" s="3">
-        <v>102500</v>
+        <v>170100</v>
       </c>
       <c r="G100" s="3">
-        <v>-172500</v>
+        <v>106400</v>
       </c>
       <c r="H100" s="3">
-        <v>57500</v>
+        <v>-179000</v>
       </c>
       <c r="I100" s="3">
-        <v>391400</v>
+        <v>59700</v>
       </c>
       <c r="J100" s="3">
+        <v>406100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-127900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-171000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>17200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10400</v>
+        <v>26100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3800</v>
+        <v>10800</v>
       </c>
       <c r="F101" s="3">
-        <v>5300</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="H101" s="3">
-        <v>-2500</v>
+        <v>5200</v>
       </c>
       <c r="I101" s="3">
-        <v>-2000</v>
+        <v>-2600</v>
       </c>
       <c r="J101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K101" s="3">
         <v>7600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>378200</v>
+        <v>707900</v>
       </c>
       <c r="E102" s="3">
-        <v>-40700</v>
+        <v>392500</v>
       </c>
       <c r="F102" s="3">
-        <v>-343600</v>
+        <v>-42200</v>
       </c>
       <c r="G102" s="3">
-        <v>-14200</v>
+        <v>-356600</v>
       </c>
       <c r="H102" s="3">
-        <v>-134600</v>
+        <v>-14700</v>
       </c>
       <c r="I102" s="3">
-        <v>67900</v>
+        <v>-139600</v>
       </c>
       <c r="J102" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K102" s="3">
         <v>330100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-305100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>114500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-61500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-217600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>139300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2641000</v>
+        <v>2838300</v>
       </c>
       <c r="E8" s="3">
-        <v>2478000</v>
+        <v>2766300</v>
       </c>
       <c r="F8" s="3">
-        <v>1086400</v>
+        <v>2595500</v>
       </c>
       <c r="G8" s="3">
-        <v>2125500</v>
+        <v>1137900</v>
       </c>
       <c r="H8" s="3">
-        <v>2098300</v>
+        <v>2226400</v>
       </c>
       <c r="I8" s="3">
-        <v>2094500</v>
+        <v>2197900</v>
       </c>
       <c r="J8" s="3">
+        <v>2193900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1098200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1841900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2336400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2033500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2167900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1851800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1985100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2024400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1759600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1218900</v>
+        <v>1334500</v>
       </c>
       <c r="E9" s="3">
-        <v>1116100</v>
+        <v>1276700</v>
       </c>
       <c r="F9" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
-        <v>982500</v>
-      </c>
       <c r="H9" s="3">
-        <v>974700</v>
+        <v>1029100</v>
       </c>
       <c r="I9" s="3">
-        <v>970800</v>
+        <v>1021000</v>
       </c>
       <c r="J9" s="3">
+        <v>1016900</v>
+      </c>
+      <c r="K9" s="3">
         <v>92700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>830800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1296900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1179300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1315400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>969100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>985300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>913700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>819600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1422100</v>
+        <v>1503800</v>
       </c>
       <c r="E10" s="3">
-        <v>1361900</v>
+        <v>1489600</v>
       </c>
       <c r="F10" s="3">
-        <v>1084600</v>
+        <v>1426500</v>
       </c>
       <c r="G10" s="3">
-        <v>1143000</v>
+        <v>1136100</v>
       </c>
       <c r="H10" s="3">
-        <v>1123600</v>
+        <v>1197200</v>
       </c>
       <c r="I10" s="3">
-        <v>1123700</v>
+        <v>1176900</v>
       </c>
       <c r="J10" s="3">
+        <v>1177100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1005500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1011100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1039500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>854200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>852600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>882700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>999800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1110600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>940000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>349800</v>
+        <v>424300</v>
       </c>
       <c r="E12" s="3">
-        <v>311200</v>
+        <v>366400</v>
       </c>
       <c r="F12" s="3">
-        <v>329300</v>
+        <v>325900</v>
       </c>
       <c r="G12" s="3">
-        <v>314000</v>
+        <v>344900</v>
       </c>
       <c r="H12" s="3">
-        <v>282600</v>
+        <v>328900</v>
       </c>
       <c r="I12" s="3">
-        <v>295900</v>
+        <v>296000</v>
       </c>
       <c r="J12" s="3">
+        <v>310000</v>
+      </c>
+      <c r="K12" s="3">
         <v>269400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>275100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>209300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>184400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>171100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>156000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>137200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>127600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2035400</v>
+        <v>2401700</v>
       </c>
       <c r="E17" s="3">
-        <v>1826400</v>
+        <v>2132000</v>
       </c>
       <c r="F17" s="3">
-        <v>761900</v>
+        <v>1913000</v>
       </c>
       <c r="G17" s="3">
-        <v>1641200</v>
+        <v>798000</v>
       </c>
       <c r="H17" s="3">
-        <v>1557500</v>
+        <v>1719100</v>
       </c>
       <c r="I17" s="3">
-        <v>1549200</v>
+        <v>1631300</v>
       </c>
       <c r="J17" s="3">
+        <v>1622700</v>
+      </c>
+      <c r="K17" s="3">
         <v>531600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1487000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2001600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1860400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1956200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1473400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1479700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1316200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1197200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>605600</v>
+        <v>436600</v>
       </c>
       <c r="E18" s="3">
-        <v>651600</v>
+        <v>634300</v>
       </c>
       <c r="F18" s="3">
-        <v>324500</v>
+        <v>682500</v>
       </c>
       <c r="G18" s="3">
-        <v>484300</v>
+        <v>339900</v>
       </c>
       <c r="H18" s="3">
-        <v>540900</v>
+        <v>507300</v>
       </c>
       <c r="I18" s="3">
-        <v>545300</v>
+        <v>566500</v>
       </c>
       <c r="J18" s="3">
+        <v>571200</v>
+      </c>
+      <c r="K18" s="3">
         <v>566600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>354900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>334800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>173200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>211700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>378400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>505400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>708200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>562300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>224500</v>
+        <v>40500</v>
       </c>
       <c r="E20" s="3">
-        <v>79300</v>
+        <v>235200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1276300</v>
+        <v>83100</v>
       </c>
       <c r="G20" s="3">
-        <v>1553200</v>
+        <v>-1336800</v>
       </c>
       <c r="H20" s="3">
-        <v>52300</v>
+        <v>139200</v>
       </c>
       <c r="I20" s="3">
-        <v>47300</v>
+        <v>54800</v>
       </c>
       <c r="J20" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K20" s="3">
         <v>68900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>55200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>43400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>105700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>959700</v>
+        <v>616000</v>
       </c>
       <c r="E21" s="3">
-        <v>831100</v>
+        <v>1005200</v>
       </c>
       <c r="F21" s="3">
-        <v>-850800</v>
+        <v>870500</v>
       </c>
       <c r="G21" s="3">
-        <v>2139700</v>
+        <v>-891100</v>
       </c>
       <c r="H21" s="3">
-        <v>685200</v>
+        <v>753500</v>
       </c>
       <c r="I21" s="3">
-        <v>677000</v>
+        <v>717700</v>
       </c>
       <c r="J21" s="3">
+        <v>709200</v>
+      </c>
+      <c r="K21" s="3">
         <v>734400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>489200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>452600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>208600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>277000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>441900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>574100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>756900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>682100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>830100</v>
+        <v>477100</v>
       </c>
       <c r="E23" s="3">
-        <v>730900</v>
+        <v>869500</v>
       </c>
       <c r="F23" s="3">
-        <v>-951800</v>
+        <v>765600</v>
       </c>
       <c r="G23" s="3">
-        <v>2037500</v>
+        <v>-997000</v>
       </c>
       <c r="H23" s="3">
-        <v>593200</v>
+        <v>646500</v>
       </c>
       <c r="I23" s="3">
-        <v>592600</v>
+        <v>621300</v>
       </c>
       <c r="J23" s="3">
+        <v>620800</v>
+      </c>
+      <c r="K23" s="3">
         <v>635400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>410100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>385000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>156000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>236300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>410700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>548800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>735300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>668100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>154600</v>
+        <v>52100</v>
       </c>
       <c r="E24" s="3">
-        <v>157100</v>
+        <v>161900</v>
       </c>
       <c r="F24" s="3">
-        <v>-22700</v>
+        <v>164600</v>
       </c>
       <c r="G24" s="3">
-        <v>162200</v>
+        <v>-23700</v>
       </c>
       <c r="H24" s="3">
-        <v>99300</v>
+        <v>13400</v>
       </c>
       <c r="I24" s="3">
-        <v>184000</v>
+        <v>104000</v>
       </c>
       <c r="J24" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K24" s="3">
         <v>132800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>118000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>104400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>140000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>128300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>675500</v>
+        <v>424900</v>
       </c>
       <c r="E26" s="3">
-        <v>573800</v>
+        <v>707600</v>
       </c>
       <c r="F26" s="3">
-        <v>-929100</v>
+        <v>601000</v>
       </c>
       <c r="G26" s="3">
-        <v>1875400</v>
+        <v>-973200</v>
       </c>
       <c r="H26" s="3">
-        <v>493900</v>
+        <v>633100</v>
       </c>
       <c r="I26" s="3">
-        <v>408700</v>
+        <v>517300</v>
       </c>
       <c r="J26" s="3">
+        <v>428100</v>
+      </c>
+      <c r="K26" s="3">
         <v>502600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>292100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>324700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>115500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>193200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>377200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>444400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>595300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>539800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>659000</v>
+        <v>456100</v>
       </c>
       <c r="E27" s="3">
-        <v>515700</v>
+        <v>690300</v>
       </c>
       <c r="F27" s="3">
-        <v>-735400</v>
+        <v>540200</v>
       </c>
       <c r="G27" s="3">
-        <v>1871300</v>
+        <v>-770300</v>
       </c>
       <c r="H27" s="3">
-        <v>487100</v>
+        <v>628900</v>
       </c>
       <c r="I27" s="3">
-        <v>396900</v>
+        <v>510200</v>
       </c>
       <c r="J27" s="3">
+        <v>415700</v>
+      </c>
+      <c r="K27" s="3">
         <v>489400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>288700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>302200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>190800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>375100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>441100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>582200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>535600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,43 +1814,46 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1178900</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-22500</v>
+        <v>1234800</v>
       </c>
       <c r="H29" s="3">
-        <v>-41100</v>
+        <v>1307600</v>
       </c>
       <c r="I29" s="3">
-        <v>-50900</v>
+        <v>-43000</v>
       </c>
       <c r="J29" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-242900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-65300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-224500</v>
+        <v>-40500</v>
       </c>
       <c r="E32" s="3">
-        <v>-79300</v>
+        <v>-235200</v>
       </c>
       <c r="F32" s="3">
-        <v>1276300</v>
+        <v>-83100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1553200</v>
+        <v>1336800</v>
       </c>
       <c r="H32" s="3">
-        <v>-52300</v>
+        <v>-139200</v>
       </c>
       <c r="I32" s="3">
-        <v>-47300</v>
+        <v>-54800</v>
       </c>
       <c r="J32" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-68900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-55200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-105700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>659000</v>
+        <v>456100</v>
       </c>
       <c r="E33" s="3">
-        <v>515700</v>
+        <v>690300</v>
       </c>
       <c r="F33" s="3">
-        <v>443500</v>
+        <v>540200</v>
       </c>
       <c r="G33" s="3">
-        <v>1848800</v>
+        <v>464500</v>
       </c>
       <c r="H33" s="3">
-        <v>446100</v>
+        <v>1936500</v>
       </c>
       <c r="I33" s="3">
-        <v>346000</v>
+        <v>467200</v>
       </c>
       <c r="J33" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K33" s="3">
         <v>246600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>223400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>302200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>190800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>375100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>441100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>582200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>535600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>659000</v>
+        <v>456100</v>
       </c>
       <c r="E35" s="3">
-        <v>515700</v>
+        <v>690300</v>
       </c>
       <c r="F35" s="3">
-        <v>443500</v>
+        <v>540200</v>
       </c>
       <c r="G35" s="3">
-        <v>1848800</v>
+        <v>464500</v>
       </c>
       <c r="H35" s="3">
-        <v>446100</v>
+        <v>1936500</v>
       </c>
       <c r="I35" s="3">
-        <v>346000</v>
+        <v>467200</v>
       </c>
       <c r="J35" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K35" s="3">
         <v>246600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>223400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>302200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>190800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>375100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>441100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>582200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>535600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,205 +2313,215 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1542700</v>
+        <v>983600</v>
       </c>
       <c r="E41" s="3">
-        <v>812200</v>
+        <v>1615900</v>
       </c>
       <c r="F41" s="3">
-        <v>471500</v>
+        <v>850800</v>
       </c>
       <c r="G41" s="3">
-        <v>398100</v>
+        <v>493800</v>
       </c>
       <c r="H41" s="3">
-        <v>701800</v>
+        <v>417000</v>
       </c>
       <c r="I41" s="3">
-        <v>600100</v>
+        <v>735100</v>
       </c>
       <c r="J41" s="3">
+        <v>628600</v>
+      </c>
+      <c r="K41" s="3">
         <v>724500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>668700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>441800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>534800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>410200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>382200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>447100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>587600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>791100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>12424100</v>
+        <v>13985000</v>
       </c>
       <c r="E42" s="3">
-        <v>10149900</v>
+        <v>13013500</v>
       </c>
       <c r="F42" s="3">
-        <v>9991800</v>
+        <v>10631400</v>
       </c>
       <c r="G42" s="3">
-        <v>8516300</v>
+        <v>10465800</v>
       </c>
       <c r="H42" s="3">
-        <v>7366000</v>
+        <v>8920400</v>
       </c>
       <c r="I42" s="3">
-        <v>6923300</v>
+        <v>7715400</v>
       </c>
       <c r="J42" s="3">
+        <v>7251700</v>
+      </c>
+      <c r="K42" s="3">
         <v>6473600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5270700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5889700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5683300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5987800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5655100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5658600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5370000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4500100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>728800</v>
+        <v>752800</v>
       </c>
       <c r="E43" s="3">
-        <v>662200</v>
+        <v>763400</v>
       </c>
       <c r="F43" s="3">
-        <v>605500</v>
+        <v>693600</v>
       </c>
       <c r="G43" s="3">
-        <v>683600</v>
+        <v>634200</v>
       </c>
       <c r="H43" s="3">
-        <v>652800</v>
+        <v>716000</v>
       </c>
       <c r="I43" s="3">
-        <v>736400</v>
+        <v>683700</v>
       </c>
       <c r="J43" s="3">
+        <v>771400</v>
+      </c>
+      <c r="K43" s="3">
         <v>598200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>639500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>554400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>637900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>537200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>483700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>505200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>546600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>618300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>81200</v>
+        <v>79800</v>
       </c>
       <c r="E44" s="3">
-        <v>81600</v>
+        <v>85000</v>
       </c>
       <c r="F44" s="3">
-        <v>94500</v>
+        <v>85500</v>
       </c>
       <c r="G44" s="3">
-        <v>99700</v>
+        <v>99000</v>
       </c>
       <c r="H44" s="3">
-        <v>576100</v>
+        <v>104500</v>
       </c>
       <c r="I44" s="3">
-        <v>621200</v>
+        <v>603400</v>
       </c>
       <c r="J44" s="3">
+        <v>650700</v>
+      </c>
+      <c r="K44" s="3">
         <v>154800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>880500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>814400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>734800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>812500</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>37</v>
@@ -2433,279 +2529,297 @@
       <c r="Q44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="3">
         <v>229500</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1360200</v>
+        <v>1504700</v>
       </c>
       <c r="E45" s="3">
-        <v>1396900</v>
+        <v>1424700</v>
       </c>
       <c r="F45" s="3">
-        <v>1196600</v>
+        <v>1463100</v>
       </c>
       <c r="G45" s="3">
-        <v>2290400</v>
+        <v>1253300</v>
       </c>
       <c r="H45" s="3">
-        <v>1311500</v>
+        <v>2399100</v>
       </c>
       <c r="I45" s="3">
-        <v>1524200</v>
+        <v>1373700</v>
       </c>
       <c r="J45" s="3">
+        <v>1596500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2028600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1351100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1249200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1503400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1445900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2209500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1940600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1537400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1120900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16136900</v>
+        <v>17306000</v>
       </c>
       <c r="E46" s="3">
-        <v>13102800</v>
+        <v>16902500</v>
       </c>
       <c r="F46" s="3">
-        <v>12359800</v>
+        <v>13724400</v>
       </c>
       <c r="G46" s="3">
-        <v>11988200</v>
+        <v>12946200</v>
       </c>
       <c r="H46" s="3">
-        <v>10608100</v>
+        <v>12556900</v>
       </c>
       <c r="I46" s="3">
-        <v>10405300</v>
+        <v>11111400</v>
       </c>
       <c r="J46" s="3">
+        <v>10898900</v>
+      </c>
+      <c r="K46" s="3">
         <v>9979600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8810600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8949500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9094200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9193700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8730600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8551400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8041600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7181800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>991000</v>
+        <v>646500</v>
       </c>
       <c r="E47" s="3">
-        <v>559100</v>
+        <v>1038000</v>
       </c>
       <c r="F47" s="3">
-        <v>1692500</v>
+        <v>585700</v>
       </c>
       <c r="G47" s="3">
-        <v>7300</v>
+        <v>1772800</v>
       </c>
       <c r="H47" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="I47" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="J47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K47" s="3">
         <v>776400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>21500</v>
       </c>
       <c r="M47" s="3">
         <v>21500</v>
       </c>
       <c r="N47" s="3">
+        <v>21500</v>
+      </c>
+      <c r="O47" s="3">
         <v>413300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>7400</v>
       </c>
       <c r="P47" s="3">
         <v>7400</v>
       </c>
       <c r="Q47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R47" s="3">
         <v>74200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>366500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>641400</v>
+        <v>675300</v>
       </c>
       <c r="E48" s="3">
-        <v>663700</v>
+        <v>671800</v>
       </c>
       <c r="F48" s="3">
-        <v>738600</v>
+        <v>695200</v>
       </c>
       <c r="G48" s="3">
-        <v>747800</v>
+        <v>773600</v>
       </c>
       <c r="H48" s="3">
-        <v>898500</v>
+        <v>783300</v>
       </c>
       <c r="I48" s="3">
-        <v>897500</v>
+        <v>941200</v>
       </c>
       <c r="J48" s="3">
+        <v>940000</v>
+      </c>
+      <c r="K48" s="3">
         <v>678700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>742600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>699200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>611500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>559400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>498100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>442500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>398600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>351900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>492700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>88000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>88500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>85600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3168600</v>
+        <v>3388800</v>
       </c>
       <c r="E52" s="3">
-        <v>2906400</v>
+        <v>3318900</v>
       </c>
       <c r="F52" s="3">
-        <v>1493000</v>
+        <v>3044300</v>
       </c>
       <c r="G52" s="3">
-        <v>2625500</v>
+        <v>1563800</v>
       </c>
       <c r="H52" s="3">
-        <v>1963500</v>
+        <v>2750100</v>
       </c>
       <c r="I52" s="3">
-        <v>1969700</v>
+        <v>2056600</v>
       </c>
       <c r="J52" s="3">
+        <v>2063200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1957600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1128300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1064000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>773500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>287400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>544500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>588900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>726800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>453800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20937800</v>
+        <v>22016600</v>
       </c>
       <c r="E54" s="3">
-        <v>17232100</v>
+        <v>21931200</v>
       </c>
       <c r="F54" s="3">
-        <v>16283800</v>
+        <v>18049600</v>
       </c>
       <c r="G54" s="3">
-        <v>15368800</v>
+        <v>17056400</v>
       </c>
       <c r="H54" s="3">
-        <v>13477400</v>
+        <v>16097900</v>
       </c>
       <c r="I54" s="3">
-        <v>13279700</v>
+        <v>14116800</v>
       </c>
       <c r="J54" s="3">
+        <v>13909700</v>
+      </c>
+      <c r="K54" s="3">
         <v>12630400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11195300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10818400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10585300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10541800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9869200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9676800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9328300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8439600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,220 +3141,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>124000</v>
+        <v>151700</v>
       </c>
       <c r="E57" s="3">
-        <v>173800</v>
+        <v>129900</v>
       </c>
       <c r="F57" s="3">
-        <v>176100</v>
+        <v>182100</v>
       </c>
       <c r="G57" s="3">
-        <v>177100</v>
+        <v>184400</v>
       </c>
       <c r="H57" s="3">
-        <v>379000</v>
+        <v>185500</v>
       </c>
       <c r="I57" s="3">
-        <v>428300</v>
+        <v>397000</v>
       </c>
       <c r="J57" s="3">
+        <v>448600</v>
+      </c>
+      <c r="K57" s="3">
         <v>174500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>360300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>331200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>339400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>362500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>307000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>281800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>234400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>203000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3185300</v>
+        <v>3384300</v>
       </c>
       <c r="E58" s="3">
-        <v>2850100</v>
+        <v>3336400</v>
       </c>
       <c r="F58" s="3">
-        <v>2444000</v>
+        <v>2985300</v>
       </c>
       <c r="G58" s="3">
-        <v>2250300</v>
+        <v>2559900</v>
       </c>
       <c r="H58" s="3">
-        <v>1968400</v>
+        <v>2357100</v>
       </c>
       <c r="I58" s="3">
-        <v>2052800</v>
+        <v>2061800</v>
       </c>
       <c r="J58" s="3">
+        <v>2150100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1983600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1909900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1825900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1365400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>983000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>850800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>798100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>665400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>554900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3254500</v>
+        <v>3602900</v>
       </c>
       <c r="E59" s="3">
-        <v>3280100</v>
+        <v>3408900</v>
       </c>
       <c r="F59" s="3">
-        <v>2934000</v>
+        <v>3435800</v>
       </c>
       <c r="G59" s="3">
-        <v>2599100</v>
+        <v>3073200</v>
       </c>
       <c r="H59" s="3">
-        <v>2580600</v>
+        <v>2722400</v>
       </c>
       <c r="I59" s="3">
-        <v>2780500</v>
+        <v>2703100</v>
       </c>
       <c r="J59" s="3">
+        <v>2912400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2940700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2365900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2092900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2295300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2179300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1824600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1916500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2096200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2083000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6563700</v>
+        <v>7138800</v>
       </c>
       <c r="E60" s="3">
-        <v>6304100</v>
+        <v>6875100</v>
       </c>
       <c r="F60" s="3">
-        <v>5554000</v>
+        <v>6603100</v>
       </c>
       <c r="G60" s="3">
-        <v>5026500</v>
+        <v>5817500</v>
       </c>
       <c r="H60" s="3">
-        <v>4928000</v>
+        <v>5265000</v>
       </c>
       <c r="I60" s="3">
-        <v>5261600</v>
+        <v>5161800</v>
       </c>
       <c r="J60" s="3">
+        <v>5511200</v>
+      </c>
+      <c r="K60" s="3">
         <v>5098900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4636100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4250000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3524800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2982400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2996300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2995900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2788800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>211600</v>
+        <v>159400</v>
       </c>
       <c r="E62" s="3">
-        <v>152900</v>
+        <v>221700</v>
       </c>
       <c r="F62" s="3">
-        <v>122000</v>
+        <v>160200</v>
       </c>
       <c r="G62" s="3">
-        <v>175300</v>
+        <v>127800</v>
       </c>
       <c r="H62" s="3">
-        <v>200000</v>
+        <v>183600</v>
       </c>
       <c r="I62" s="3">
-        <v>160300</v>
+        <v>209500</v>
       </c>
       <c r="J62" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K62" s="3">
         <v>65000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>60500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>57100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8476400</v>
+        <v>9048800</v>
       </c>
       <c r="E66" s="3">
-        <v>8141100</v>
+        <v>8878600</v>
       </c>
       <c r="F66" s="3">
-        <v>7358900</v>
+        <v>8527300</v>
       </c>
       <c r="G66" s="3">
-        <v>6164000</v>
+        <v>7708000</v>
       </c>
       <c r="H66" s="3">
-        <v>6077700</v>
+        <v>6456400</v>
       </c>
       <c r="I66" s="3">
-        <v>6342400</v>
+        <v>6366100</v>
       </c>
       <c r="J66" s="3">
+        <v>6643200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6061400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5124400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4561000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4202100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3754700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3188400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3215300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3151400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2885400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3785,11 +3959,11 @@
       <c r="E72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="3">
-        <v>8366500</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="G72" s="3">
+        <v>8763500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
@@ -3797,11 +3971,11 @@
       <c r="I72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="3">
         <v>6566100</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>37</v>
@@ -3821,14 +3995,17 @@
       <c r="Q72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="3">
         <v>5306600</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12461400</v>
+        <v>12967700</v>
       </c>
       <c r="E76" s="3">
-        <v>9091000</v>
+        <v>13052600</v>
       </c>
       <c r="F76" s="3">
-        <v>8924900</v>
+        <v>9522300</v>
       </c>
       <c r="G76" s="3">
-        <v>9204800</v>
+        <v>9348300</v>
       </c>
       <c r="H76" s="3">
-        <v>7399700</v>
+        <v>9641500</v>
       </c>
       <c r="I76" s="3">
-        <v>6937400</v>
+        <v>7750700</v>
       </c>
       <c r="J76" s="3">
+        <v>7266500</v>
+      </c>
+      <c r="K76" s="3">
         <v>6569000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6070900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6257400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6383200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6787100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6680800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6461500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6176800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5554100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>659000</v>
+        <v>456100</v>
       </c>
       <c r="E81" s="3">
-        <v>515700</v>
+        <v>690300</v>
       </c>
       <c r="F81" s="3">
-        <v>443500</v>
+        <v>540200</v>
       </c>
       <c r="G81" s="3">
-        <v>1848800</v>
+        <v>464500</v>
       </c>
       <c r="H81" s="3">
-        <v>446100</v>
+        <v>1936500</v>
       </c>
       <c r="I81" s="3">
-        <v>346000</v>
+        <v>467200</v>
       </c>
       <c r="J81" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K81" s="3">
         <v>246600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>223400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>302200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>190800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>375100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>441100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>582200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>535600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>129600</v>
+        <v>138900</v>
       </c>
       <c r="E83" s="3">
-        <v>100200</v>
+        <v>135700</v>
       </c>
       <c r="F83" s="3">
-        <v>101000</v>
+        <v>105000</v>
       </c>
       <c r="G83" s="3">
-        <v>100000</v>
+        <v>105800</v>
       </c>
       <c r="H83" s="3">
-        <v>93300</v>
+        <v>104700</v>
       </c>
       <c r="I83" s="3">
-        <v>85300</v>
+        <v>97700</v>
       </c>
       <c r="J83" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K83" s="3">
         <v>98200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>693100</v>
+        <v>821600</v>
       </c>
       <c r="E89" s="3">
-        <v>944100</v>
+        <v>726000</v>
       </c>
       <c r="F89" s="3">
-        <v>800300</v>
+        <v>988900</v>
       </c>
       <c r="G89" s="3">
-        <v>559600</v>
+        <v>838300</v>
       </c>
       <c r="H89" s="3">
-        <v>648600</v>
+        <v>586200</v>
       </c>
       <c r="I89" s="3">
-        <v>491800</v>
+        <v>679300</v>
       </c>
       <c r="J89" s="3">
+        <v>515200</v>
+      </c>
+      <c r="K89" s="3">
         <v>862000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>506300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>280900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>273300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>576000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>245700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>344500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>598300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>782200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34400</v>
+        <v>-53400</v>
       </c>
       <c r="E91" s="3">
-        <v>-23900</v>
+        <v>-36100</v>
       </c>
       <c r="F91" s="3">
-        <v>-34200</v>
+        <v>-25000</v>
       </c>
       <c r="G91" s="3">
-        <v>-47900</v>
+        <v>-35900</v>
       </c>
       <c r="H91" s="3">
-        <v>-39900</v>
+        <v>-50200</v>
       </c>
       <c r="I91" s="3">
-        <v>-53700</v>
+        <v>-41700</v>
       </c>
       <c r="J91" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-73400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-96200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-84900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-76000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-64300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2941900</v>
+        <v>-1141200</v>
       </c>
       <c r="E94" s="3">
-        <v>-359900</v>
+        <v>-3081500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1008800</v>
+        <v>-377000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1028100</v>
+        <v>-1056700</v>
       </c>
       <c r="H94" s="3">
-        <v>-489400</v>
+        <v>-1076900</v>
       </c>
       <c r="I94" s="3">
-        <v>-688600</v>
+        <v>-512600</v>
       </c>
       <c r="J94" s="3">
+        <v>-721200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-555300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-153300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-592900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-140100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-343300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-831600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-670000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-162000</v>
+        <v>-209600</v>
       </c>
       <c r="E96" s="3">
-        <v>-134600</v>
+        <v>-169600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1000700</v>
+        <v>-140900</v>
       </c>
       <c r="G96" s="3">
-        <v>-134100</v>
+        <v>-1048200</v>
       </c>
       <c r="H96" s="3">
-        <v>-89000</v>
+        <v>-140500</v>
       </c>
       <c r="I96" s="3">
-        <v>-60100</v>
+        <v>-93300</v>
       </c>
       <c r="J96" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-58000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-74700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-45300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-92700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-109200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-145500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-136100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-100700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2930500</v>
+        <v>-379700</v>
       </c>
       <c r="E100" s="3">
-        <v>-202400</v>
+        <v>3069600</v>
       </c>
       <c r="F100" s="3">
-        <v>170100</v>
+        <v>-212000</v>
       </c>
       <c r="G100" s="3">
-        <v>106400</v>
+        <v>178200</v>
       </c>
       <c r="H100" s="3">
-        <v>-179000</v>
+        <v>111400</v>
       </c>
       <c r="I100" s="3">
-        <v>59700</v>
+        <v>-187500</v>
       </c>
       <c r="J100" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K100" s="3">
         <v>406100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-127900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-171000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>17200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26100</v>
+        <v>-3800</v>
       </c>
       <c r="E101" s="3">
-        <v>10800</v>
+        <v>27400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>11300</v>
       </c>
       <c r="G101" s="3">
-        <v>5500</v>
+        <v>-4100</v>
       </c>
       <c r="H101" s="3">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2600</v>
+        <v>5400</v>
       </c>
       <c r="J101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>707900</v>
+        <v>-703100</v>
       </c>
       <c r="E102" s="3">
-        <v>392500</v>
+        <v>741400</v>
       </c>
       <c r="F102" s="3">
-        <v>-42200</v>
+        <v>411100</v>
       </c>
       <c r="G102" s="3">
-        <v>-356600</v>
+        <v>-44200</v>
       </c>
       <c r="H102" s="3">
-        <v>-14700</v>
+        <v>-373500</v>
       </c>
       <c r="I102" s="3">
-        <v>-139600</v>
+        <v>-15400</v>
       </c>
       <c r="J102" s="3">
+        <v>-146300</v>
+      </c>
+      <c r="K102" s="3">
         <v>70400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>330100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-305100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>114500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-61500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-217600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>139300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2838300</v>
+        <v>2850600</v>
       </c>
       <c r="E8" s="3">
-        <v>2766300</v>
+        <v>2778300</v>
       </c>
       <c r="F8" s="3">
-        <v>2595500</v>
+        <v>2606800</v>
       </c>
       <c r="G8" s="3">
-        <v>1137900</v>
+        <v>2404000</v>
       </c>
       <c r="H8" s="3">
-        <v>2226400</v>
+        <v>2236000</v>
       </c>
       <c r="I8" s="3">
-        <v>2197900</v>
+        <v>2207400</v>
       </c>
       <c r="J8" s="3">
-        <v>2193900</v>
+        <v>2203400</v>
       </c>
       <c r="K8" s="3">
         <v>1098200</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1334500</v>
+        <v>1340200</v>
       </c>
       <c r="E9" s="3">
-        <v>1276700</v>
+        <v>1282200</v>
       </c>
       <c r="F9" s="3">
-        <v>1169000</v>
+        <v>1174100</v>
       </c>
       <c r="G9" s="3">
-        <v>1800</v>
+        <v>1151400</v>
       </c>
       <c r="H9" s="3">
-        <v>1029100</v>
+        <v>1033600</v>
       </c>
       <c r="I9" s="3">
-        <v>1021000</v>
+        <v>1025400</v>
       </c>
       <c r="J9" s="3">
-        <v>1016900</v>
+        <v>1021300</v>
       </c>
       <c r="K9" s="3">
         <v>92700</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1503800</v>
+        <v>1510400</v>
       </c>
       <c r="E10" s="3">
-        <v>1489600</v>
+        <v>1496000</v>
       </c>
       <c r="F10" s="3">
-        <v>1426500</v>
+        <v>1432700</v>
       </c>
       <c r="G10" s="3">
-        <v>1136100</v>
+        <v>1252500</v>
       </c>
       <c r="H10" s="3">
-        <v>1197200</v>
+        <v>1202400</v>
       </c>
       <c r="I10" s="3">
-        <v>1176900</v>
+        <v>1182000</v>
       </c>
       <c r="J10" s="3">
-        <v>1177100</v>
+        <v>1182200</v>
       </c>
       <c r="K10" s="3">
         <v>1005500</v>
@@ -942,25 +942,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>424300</v>
+        <v>426100</v>
       </c>
       <c r="E12" s="3">
-        <v>366400</v>
+        <v>367900</v>
       </c>
       <c r="F12" s="3">
-        <v>325900</v>
+        <v>327400</v>
       </c>
       <c r="G12" s="3">
-        <v>344900</v>
+        <v>692900</v>
       </c>
       <c r="H12" s="3">
-        <v>328900</v>
+        <v>330300</v>
       </c>
       <c r="I12" s="3">
-        <v>296000</v>
+        <v>297300</v>
       </c>
       <c r="J12" s="3">
-        <v>310000</v>
+        <v>311300</v>
       </c>
       <c r="K12" s="3">
         <v>269400</v>
@@ -1185,25 +1185,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2401700</v>
+        <v>2412100</v>
       </c>
       <c r="E17" s="3">
-        <v>2132000</v>
+        <v>2141200</v>
       </c>
       <c r="F17" s="3">
-        <v>1913000</v>
+        <v>1921300</v>
       </c>
       <c r="G17" s="3">
-        <v>798000</v>
+        <v>1949200</v>
       </c>
       <c r="H17" s="3">
-        <v>1719100</v>
+        <v>1726600</v>
       </c>
       <c r="I17" s="3">
-        <v>1631300</v>
+        <v>1638400</v>
       </c>
       <c r="J17" s="3">
-        <v>1622700</v>
+        <v>1629700</v>
       </c>
       <c r="K17" s="3">
         <v>531600</v>
@@ -1241,25 +1241,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>436600</v>
+        <v>438500</v>
       </c>
       <c r="E18" s="3">
-        <v>634300</v>
+        <v>637100</v>
       </c>
       <c r="F18" s="3">
-        <v>682500</v>
+        <v>685400</v>
       </c>
       <c r="G18" s="3">
-        <v>339900</v>
+        <v>454700</v>
       </c>
       <c r="H18" s="3">
-        <v>507300</v>
+        <v>509500</v>
       </c>
       <c r="I18" s="3">
-        <v>566500</v>
+        <v>569000</v>
       </c>
       <c r="J18" s="3">
-        <v>571200</v>
+        <v>573700</v>
       </c>
       <c r="K18" s="3">
         <v>566600</v>
@@ -1319,25 +1319,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="E20" s="3">
-        <v>235200</v>
+        <v>236200</v>
       </c>
       <c r="F20" s="3">
-        <v>83100</v>
+        <v>83400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1336800</v>
+        <v>151500</v>
       </c>
       <c r="H20" s="3">
-        <v>139200</v>
+        <v>139800</v>
       </c>
       <c r="I20" s="3">
-        <v>54800</v>
+        <v>55000</v>
       </c>
       <c r="J20" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="K20" s="3">
         <v>68900</v>
@@ -1375,25 +1375,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>616000</v>
+        <v>618600</v>
       </c>
       <c r="E21" s="3">
-        <v>1005200</v>
+        <v>1009600</v>
       </c>
       <c r="F21" s="3">
-        <v>870500</v>
+        <v>874300</v>
       </c>
       <c r="G21" s="3">
-        <v>-891100</v>
+        <v>712600</v>
       </c>
       <c r="H21" s="3">
-        <v>753500</v>
+        <v>756800</v>
       </c>
       <c r="I21" s="3">
-        <v>717700</v>
+        <v>720800</v>
       </c>
       <c r="J21" s="3">
-        <v>709200</v>
+        <v>712200</v>
       </c>
       <c r="K21" s="3">
         <v>734400</v>
@@ -1487,25 +1487,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>477100</v>
+        <v>479100</v>
       </c>
       <c r="E23" s="3">
-        <v>869500</v>
+        <v>873200</v>
       </c>
       <c r="F23" s="3">
-        <v>765600</v>
+        <v>768900</v>
       </c>
       <c r="G23" s="3">
-        <v>-997000</v>
+        <v>606300</v>
       </c>
       <c r="H23" s="3">
-        <v>646500</v>
+        <v>649300</v>
       </c>
       <c r="I23" s="3">
-        <v>621300</v>
+        <v>624000</v>
       </c>
       <c r="J23" s="3">
-        <v>620800</v>
+        <v>623500</v>
       </c>
       <c r="K23" s="3">
         <v>635400</v>
@@ -1543,25 +1543,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>52100</v>
+        <v>52400</v>
       </c>
       <c r="E24" s="3">
-        <v>161900</v>
+        <v>162600</v>
       </c>
       <c r="F24" s="3">
-        <v>164600</v>
+        <v>165300</v>
       </c>
       <c r="G24" s="3">
-        <v>-23700</v>
+        <v>133900</v>
       </c>
       <c r="H24" s="3">
         <v>13400</v>
       </c>
       <c r="I24" s="3">
-        <v>104000</v>
+        <v>104500</v>
       </c>
       <c r="J24" s="3">
-        <v>192700</v>
+        <v>193500</v>
       </c>
       <c r="K24" s="3">
         <v>132800</v>
@@ -1655,25 +1655,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>424900</v>
+        <v>426800</v>
       </c>
       <c r="E26" s="3">
-        <v>707600</v>
+        <v>710600</v>
       </c>
       <c r="F26" s="3">
-        <v>601000</v>
+        <v>603600</v>
       </c>
       <c r="G26" s="3">
-        <v>-973200</v>
+        <v>472400</v>
       </c>
       <c r="H26" s="3">
-        <v>633100</v>
+        <v>635900</v>
       </c>
       <c r="I26" s="3">
-        <v>517300</v>
+        <v>519600</v>
       </c>
       <c r="J26" s="3">
-        <v>428100</v>
+        <v>429900</v>
       </c>
       <c r="K26" s="3">
         <v>502600</v>
@@ -1711,25 +1711,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>456100</v>
+        <v>458100</v>
       </c>
       <c r="E27" s="3">
-        <v>690300</v>
+        <v>693300</v>
       </c>
       <c r="F27" s="3">
-        <v>540200</v>
+        <v>542500</v>
       </c>
       <c r="G27" s="3">
-        <v>-770300</v>
+        <v>466500</v>
       </c>
       <c r="H27" s="3">
-        <v>628900</v>
+        <v>631600</v>
       </c>
       <c r="I27" s="3">
-        <v>510200</v>
+        <v>512500</v>
       </c>
       <c r="J27" s="3">
-        <v>415700</v>
+        <v>417500</v>
       </c>
       <c r="K27" s="3">
         <v>489400</v>
@@ -1832,16 +1832,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1234800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1307600</v>
+        <v>1313300</v>
       </c>
       <c r="I29" s="3">
-        <v>-43000</v>
+        <v>-43200</v>
       </c>
       <c r="J29" s="3">
-        <v>-53400</v>
+        <v>-53600</v>
       </c>
       <c r="K29" s="3">
         <v>-242900</v>
@@ -1991,25 +1991,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="E32" s="3">
-        <v>-235200</v>
+        <v>-236200</v>
       </c>
       <c r="F32" s="3">
-        <v>-83100</v>
+        <v>-83400</v>
       </c>
       <c r="G32" s="3">
-        <v>1336800</v>
+        <v>-151500</v>
       </c>
       <c r="H32" s="3">
-        <v>-139200</v>
+        <v>-139800</v>
       </c>
       <c r="I32" s="3">
-        <v>-54800</v>
+        <v>-55000</v>
       </c>
       <c r="J32" s="3">
-        <v>-49500</v>
+        <v>-49800</v>
       </c>
       <c r="K32" s="3">
         <v>-68900</v>
@@ -2047,25 +2047,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>456100</v>
+        <v>458100</v>
       </c>
       <c r="E33" s="3">
-        <v>690300</v>
+        <v>693300</v>
       </c>
       <c r="F33" s="3">
-        <v>540200</v>
+        <v>542500</v>
       </c>
       <c r="G33" s="3">
-        <v>464500</v>
+        <v>466500</v>
       </c>
       <c r="H33" s="3">
-        <v>1936500</v>
+        <v>1944900</v>
       </c>
       <c r="I33" s="3">
-        <v>467200</v>
+        <v>469200</v>
       </c>
       <c r="J33" s="3">
-        <v>362400</v>
+        <v>363900</v>
       </c>
       <c r="K33" s="3">
         <v>246600</v>
@@ -2159,25 +2159,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>456100</v>
+        <v>458100</v>
       </c>
       <c r="E35" s="3">
-        <v>690300</v>
+        <v>693300</v>
       </c>
       <c r="F35" s="3">
-        <v>540200</v>
+        <v>542500</v>
       </c>
       <c r="G35" s="3">
-        <v>464500</v>
+        <v>466500</v>
       </c>
       <c r="H35" s="3">
-        <v>1936500</v>
+        <v>1944900</v>
       </c>
       <c r="I35" s="3">
-        <v>467200</v>
+        <v>469200</v>
       </c>
       <c r="J35" s="3">
-        <v>362400</v>
+        <v>363900</v>
       </c>
       <c r="K35" s="3">
         <v>246600</v>
@@ -2320,25 +2320,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>983600</v>
+        <v>987900</v>
       </c>
       <c r="E41" s="3">
-        <v>1615900</v>
+        <v>1623000</v>
       </c>
       <c r="F41" s="3">
-        <v>850800</v>
+        <v>854500</v>
       </c>
       <c r="G41" s="3">
-        <v>493800</v>
+        <v>496000</v>
       </c>
       <c r="H41" s="3">
-        <v>417000</v>
+        <v>418800</v>
       </c>
       <c r="I41" s="3">
-        <v>735100</v>
+        <v>738300</v>
       </c>
       <c r="J41" s="3">
-        <v>628600</v>
+        <v>631300</v>
       </c>
       <c r="K41" s="3">
         <v>724500</v>
@@ -2376,25 +2376,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13985000</v>
+        <v>14045600</v>
       </c>
       <c r="E42" s="3">
-        <v>13013500</v>
+        <v>13069900</v>
       </c>
       <c r="F42" s="3">
-        <v>10631400</v>
+        <v>10677600</v>
       </c>
       <c r="G42" s="3">
-        <v>10465800</v>
+        <v>10511200</v>
       </c>
       <c r="H42" s="3">
-        <v>8920400</v>
+        <v>8959100</v>
       </c>
       <c r="I42" s="3">
-        <v>7715400</v>
+        <v>7748900</v>
       </c>
       <c r="J42" s="3">
-        <v>7251700</v>
+        <v>7283200</v>
       </c>
       <c r="K42" s="3">
         <v>6473600</v>
@@ -2432,25 +2432,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>752800</v>
+        <v>756100</v>
       </c>
       <c r="E43" s="3">
-        <v>763400</v>
+        <v>766700</v>
       </c>
       <c r="F43" s="3">
-        <v>693600</v>
+        <v>696600</v>
       </c>
       <c r="G43" s="3">
-        <v>634200</v>
+        <v>637000</v>
       </c>
       <c r="H43" s="3">
-        <v>716000</v>
+        <v>719100</v>
       </c>
       <c r="I43" s="3">
-        <v>683700</v>
+        <v>686700</v>
       </c>
       <c r="J43" s="3">
-        <v>771400</v>
+        <v>774700</v>
       </c>
       <c r="K43" s="3">
         <v>598200</v>
@@ -2488,25 +2488,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>79800</v>
+        <v>80100</v>
       </c>
       <c r="E44" s="3">
-        <v>85000</v>
+        <v>85400</v>
       </c>
       <c r="F44" s="3">
-        <v>85500</v>
+        <v>85900</v>
       </c>
       <c r="G44" s="3">
-        <v>99000</v>
+        <v>99400</v>
       </c>
       <c r="H44" s="3">
-        <v>104500</v>
+        <v>104900</v>
       </c>
       <c r="I44" s="3">
-        <v>603400</v>
+        <v>606000</v>
       </c>
       <c r="J44" s="3">
-        <v>650700</v>
+        <v>653500</v>
       </c>
       <c r="K44" s="3">
         <v>154800</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1504700</v>
+        <v>1511300</v>
       </c>
       <c r="E45" s="3">
-        <v>1424700</v>
+        <v>1430900</v>
       </c>
       <c r="F45" s="3">
-        <v>1463100</v>
+        <v>1469500</v>
       </c>
       <c r="G45" s="3">
-        <v>1253300</v>
+        <v>1258800</v>
       </c>
       <c r="H45" s="3">
-        <v>2399100</v>
+        <v>2409500</v>
       </c>
       <c r="I45" s="3">
-        <v>1373700</v>
+        <v>1379700</v>
       </c>
       <c r="J45" s="3">
-        <v>1596500</v>
+        <v>1603500</v>
       </c>
       <c r="K45" s="3">
         <v>2028600</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17306000</v>
+        <v>17381000</v>
       </c>
       <c r="E46" s="3">
-        <v>16902500</v>
+        <v>16975900</v>
       </c>
       <c r="F46" s="3">
-        <v>13724400</v>
+        <v>13784000</v>
       </c>
       <c r="G46" s="3">
-        <v>12946200</v>
+        <v>13002300</v>
       </c>
       <c r="H46" s="3">
-        <v>12556900</v>
+        <v>12611400</v>
       </c>
       <c r="I46" s="3">
-        <v>11111400</v>
+        <v>11159600</v>
       </c>
       <c r="J46" s="3">
-        <v>10898900</v>
+        <v>10946200</v>
       </c>
       <c r="K46" s="3">
         <v>9979600</v>
@@ -2656,16 +2656,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>646500</v>
+        <v>649300</v>
       </c>
       <c r="E47" s="3">
-        <v>1038000</v>
+        <v>1042500</v>
       </c>
       <c r="F47" s="3">
-        <v>585700</v>
+        <v>588200</v>
       </c>
       <c r="G47" s="3">
-        <v>1772800</v>
+        <v>1780500</v>
       </c>
       <c r="H47" s="3">
         <v>7600</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>675300</v>
+        <v>678200</v>
       </c>
       <c r="E48" s="3">
-        <v>671800</v>
+        <v>674700</v>
       </c>
       <c r="F48" s="3">
-        <v>695200</v>
+        <v>698200</v>
       </c>
       <c r="G48" s="3">
-        <v>773600</v>
+        <v>776900</v>
       </c>
       <c r="H48" s="3">
-        <v>783300</v>
+        <v>786700</v>
       </c>
       <c r="I48" s="3">
-        <v>941200</v>
+        <v>945300</v>
       </c>
       <c r="J48" s="3">
-        <v>940000</v>
+        <v>944100</v>
       </c>
       <c r="K48" s="3">
         <v>678700</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3388800</v>
+        <v>3403500</v>
       </c>
       <c r="E52" s="3">
-        <v>3318900</v>
+        <v>3333300</v>
       </c>
       <c r="F52" s="3">
-        <v>3044300</v>
+        <v>3057500</v>
       </c>
       <c r="G52" s="3">
-        <v>1563800</v>
+        <v>1570600</v>
       </c>
       <c r="H52" s="3">
-        <v>2750100</v>
+        <v>2762000</v>
       </c>
       <c r="I52" s="3">
-        <v>2056600</v>
+        <v>2065600</v>
       </c>
       <c r="J52" s="3">
-        <v>2063200</v>
+        <v>2072100</v>
       </c>
       <c r="K52" s="3">
         <v>1957600</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22016600</v>
+        <v>22112100</v>
       </c>
       <c r="E54" s="3">
-        <v>21931200</v>
+        <v>22026300</v>
       </c>
       <c r="F54" s="3">
-        <v>18049600</v>
+        <v>18127900</v>
       </c>
       <c r="G54" s="3">
-        <v>17056400</v>
+        <v>17130400</v>
       </c>
       <c r="H54" s="3">
-        <v>16097900</v>
+        <v>16167800</v>
       </c>
       <c r="I54" s="3">
-        <v>14116800</v>
+        <v>14178000</v>
       </c>
       <c r="J54" s="3">
-        <v>13909700</v>
+        <v>13970100</v>
       </c>
       <c r="K54" s="3">
         <v>12630400</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151700</v>
+        <v>152300</v>
       </c>
       <c r="E57" s="3">
-        <v>129900</v>
+        <v>130400</v>
       </c>
       <c r="F57" s="3">
-        <v>182100</v>
+        <v>182900</v>
       </c>
       <c r="G57" s="3">
-        <v>184400</v>
+        <v>185200</v>
       </c>
       <c r="H57" s="3">
-        <v>185500</v>
+        <v>186300</v>
       </c>
       <c r="I57" s="3">
-        <v>397000</v>
+        <v>398700</v>
       </c>
       <c r="J57" s="3">
-        <v>448600</v>
+        <v>450600</v>
       </c>
       <c r="K57" s="3">
         <v>174500</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3384300</v>
+        <v>3399000</v>
       </c>
       <c r="E58" s="3">
-        <v>3336400</v>
+        <v>3350900</v>
       </c>
       <c r="F58" s="3">
-        <v>2985300</v>
+        <v>2998200</v>
       </c>
       <c r="G58" s="3">
-        <v>2559900</v>
+        <v>2571000</v>
       </c>
       <c r="H58" s="3">
-        <v>2357100</v>
+        <v>2367300</v>
       </c>
       <c r="I58" s="3">
-        <v>2061800</v>
+        <v>2070800</v>
       </c>
       <c r="J58" s="3">
-        <v>2150100</v>
+        <v>2159500</v>
       </c>
       <c r="K58" s="3">
         <v>1983600</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3602900</v>
+        <v>3618500</v>
       </c>
       <c r="E59" s="3">
-        <v>3408900</v>
+        <v>3423700</v>
       </c>
       <c r="F59" s="3">
-        <v>3435800</v>
+        <v>3450700</v>
       </c>
       <c r="G59" s="3">
-        <v>3073200</v>
+        <v>3086500</v>
       </c>
       <c r="H59" s="3">
-        <v>2722400</v>
+        <v>2734200</v>
       </c>
       <c r="I59" s="3">
-        <v>2703100</v>
+        <v>2714800</v>
       </c>
       <c r="J59" s="3">
-        <v>2912400</v>
+        <v>2925100</v>
       </c>
       <c r="K59" s="3">
         <v>2940700</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7138800</v>
+        <v>7169800</v>
       </c>
       <c r="E60" s="3">
-        <v>6875100</v>
+        <v>6905000</v>
       </c>
       <c r="F60" s="3">
-        <v>6603100</v>
+        <v>6631800</v>
       </c>
       <c r="G60" s="3">
-        <v>5817500</v>
+        <v>5842800</v>
       </c>
       <c r="H60" s="3">
-        <v>5265000</v>
+        <v>5287800</v>
       </c>
       <c r="I60" s="3">
-        <v>5161800</v>
+        <v>5184200</v>
       </c>
       <c r="J60" s="3">
-        <v>5511200</v>
+        <v>5535100</v>
       </c>
       <c r="K60" s="3">
         <v>5098900</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>159400</v>
+        <v>160100</v>
       </c>
       <c r="E62" s="3">
-        <v>221700</v>
+        <v>222600</v>
       </c>
       <c r="F62" s="3">
-        <v>160200</v>
+        <v>160900</v>
       </c>
       <c r="G62" s="3">
-        <v>127800</v>
+        <v>128300</v>
       </c>
       <c r="H62" s="3">
-        <v>183600</v>
+        <v>184400</v>
       </c>
       <c r="I62" s="3">
-        <v>209500</v>
+        <v>210400</v>
       </c>
       <c r="J62" s="3">
-        <v>167900</v>
+        <v>168600</v>
       </c>
       <c r="K62" s="3">
         <v>65000</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9048800</v>
+        <v>9088100</v>
       </c>
       <c r="E66" s="3">
-        <v>8878600</v>
+        <v>8917100</v>
       </c>
       <c r="F66" s="3">
-        <v>8527300</v>
+        <v>8564300</v>
       </c>
       <c r="G66" s="3">
-        <v>7708000</v>
+        <v>7741500</v>
       </c>
       <c r="H66" s="3">
-        <v>6456400</v>
+        <v>6484400</v>
       </c>
       <c r="I66" s="3">
-        <v>6366100</v>
+        <v>6393700</v>
       </c>
       <c r="J66" s="3">
-        <v>6643200</v>
+        <v>6672100</v>
       </c>
       <c r="K66" s="3">
         <v>6061400</v>
@@ -3963,7 +3963,7 @@
         <v>37</v>
       </c>
       <c r="G72" s="3">
-        <v>8763500</v>
+        <v>8801500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12967700</v>
+        <v>13024000</v>
       </c>
       <c r="E76" s="3">
-        <v>13052600</v>
+        <v>13109300</v>
       </c>
       <c r="F76" s="3">
-        <v>9522300</v>
+        <v>9563600</v>
       </c>
       <c r="G76" s="3">
-        <v>9348300</v>
+        <v>9388900</v>
       </c>
       <c r="H76" s="3">
-        <v>9641500</v>
+        <v>9683400</v>
       </c>
       <c r="I76" s="3">
-        <v>7750700</v>
+        <v>7784300</v>
       </c>
       <c r="J76" s="3">
-        <v>7266500</v>
+        <v>7298000</v>
       </c>
       <c r="K76" s="3">
         <v>6569000</v>
@@ -4351,25 +4351,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>456100</v>
+        <v>458100</v>
       </c>
       <c r="E81" s="3">
-        <v>690300</v>
+        <v>693300</v>
       </c>
       <c r="F81" s="3">
-        <v>540200</v>
+        <v>542500</v>
       </c>
       <c r="G81" s="3">
-        <v>464500</v>
+        <v>466500</v>
       </c>
       <c r="H81" s="3">
-        <v>1936500</v>
+        <v>1944900</v>
       </c>
       <c r="I81" s="3">
-        <v>467200</v>
+        <v>469200</v>
       </c>
       <c r="J81" s="3">
-        <v>362400</v>
+        <v>363900</v>
       </c>
       <c r="K81" s="3">
         <v>246600</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>138900</v>
+        <v>139500</v>
       </c>
       <c r="E83" s="3">
-        <v>135700</v>
+        <v>136300</v>
       </c>
       <c r="F83" s="3">
-        <v>105000</v>
+        <v>105400</v>
       </c>
       <c r="G83" s="3">
-        <v>105800</v>
+        <v>106300</v>
       </c>
       <c r="H83" s="3">
-        <v>104700</v>
+        <v>105200</v>
       </c>
       <c r="I83" s="3">
-        <v>97700</v>
+        <v>98100</v>
       </c>
       <c r="J83" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="K83" s="3">
         <v>98200</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>821600</v>
+        <v>825200</v>
       </c>
       <c r="E89" s="3">
-        <v>726000</v>
+        <v>729100</v>
       </c>
       <c r="F89" s="3">
-        <v>988900</v>
+        <v>993200</v>
       </c>
       <c r="G89" s="3">
-        <v>838300</v>
+        <v>841900</v>
       </c>
       <c r="H89" s="3">
-        <v>586200</v>
+        <v>588700</v>
       </c>
       <c r="I89" s="3">
-        <v>679300</v>
+        <v>682300</v>
       </c>
       <c r="J89" s="3">
-        <v>515200</v>
+        <v>517400</v>
       </c>
       <c r="K89" s="3">
         <v>862000</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53400</v>
+        <v>-53600</v>
       </c>
       <c r="E91" s="3">
-        <v>-36100</v>
+        <v>-36200</v>
       </c>
       <c r="F91" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="G91" s="3">
-        <v>-35900</v>
+        <v>-36000</v>
       </c>
       <c r="H91" s="3">
-        <v>-50200</v>
+        <v>-50400</v>
       </c>
       <c r="I91" s="3">
-        <v>-41700</v>
+        <v>-41900</v>
       </c>
       <c r="J91" s="3">
-        <v>-56200</v>
+        <v>-56500</v>
       </c>
       <c r="K91" s="3">
         <v>-73400</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1141200</v>
+        <v>-1146200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3081500</v>
+        <v>-3094900</v>
       </c>
       <c r="F94" s="3">
-        <v>-377000</v>
+        <v>-378600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1056700</v>
+        <v>-1061200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1076900</v>
+        <v>-1081600</v>
       </c>
       <c r="I94" s="3">
-        <v>-512600</v>
+        <v>-514900</v>
       </c>
       <c r="J94" s="3">
-        <v>-721200</v>
+        <v>-724400</v>
       </c>
       <c r="K94" s="3">
         <v>-1195600</v>
@@ -5089,25 +5089,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-209600</v>
+        <v>-210500</v>
       </c>
       <c r="E96" s="3">
-        <v>-169600</v>
+        <v>-170400</v>
       </c>
       <c r="F96" s="3">
-        <v>-140900</v>
+        <v>-141600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1048200</v>
+        <v>-1052700</v>
       </c>
       <c r="H96" s="3">
-        <v>-140500</v>
+        <v>-141100</v>
       </c>
       <c r="I96" s="3">
-        <v>-93300</v>
+        <v>-93700</v>
       </c>
       <c r="J96" s="3">
-        <v>-62900</v>
+        <v>-63200</v>
       </c>
       <c r="K96" s="3">
         <v>-58000</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-379700</v>
+        <v>-381400</v>
       </c>
       <c r="E100" s="3">
-        <v>3069600</v>
+        <v>3082900</v>
       </c>
       <c r="F100" s="3">
-        <v>-212000</v>
+        <v>-213000</v>
       </c>
       <c r="G100" s="3">
-        <v>178200</v>
+        <v>179000</v>
       </c>
       <c r="H100" s="3">
-        <v>111400</v>
+        <v>111900</v>
       </c>
       <c r="I100" s="3">
-        <v>-187500</v>
+        <v>-188300</v>
       </c>
       <c r="J100" s="3">
-        <v>62500</v>
+        <v>62800</v>
       </c>
       <c r="K100" s="3">
         <v>406100</v>
@@ -5372,7 +5372,7 @@
         <v>-3800</v>
       </c>
       <c r="E101" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="F101" s="3">
         <v>11300</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-703100</v>
+        <v>-706200</v>
       </c>
       <c r="E102" s="3">
-        <v>741400</v>
+        <v>744700</v>
       </c>
       <c r="F102" s="3">
-        <v>411100</v>
+        <v>412900</v>
       </c>
       <c r="G102" s="3">
-        <v>-44200</v>
+        <v>-44400</v>
       </c>
       <c r="H102" s="3">
-        <v>-373500</v>
+        <v>-375100</v>
       </c>
       <c r="I102" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="J102" s="3">
-        <v>-146300</v>
+        <v>-146900</v>
       </c>
       <c r="K102" s="3">
         <v>70400</v>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2850600</v>
+        <v>3200900</v>
       </c>
       <c r="E8" s="3">
-        <v>2778300</v>
+        <v>3083000</v>
       </c>
       <c r="F8" s="3">
-        <v>2606800</v>
+        <v>2910900</v>
       </c>
       <c r="G8" s="3">
-        <v>2404000</v>
+        <v>2837000</v>
       </c>
       <c r="H8" s="3">
-        <v>2236000</v>
+        <v>2661900</v>
       </c>
       <c r="I8" s="3">
+        <v>2454800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2283300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2207400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2203400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1098200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1841900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2336400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2033500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2167900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1851800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1985100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2024400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1759600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1340200</v>
+        <v>1476600</v>
       </c>
       <c r="E9" s="3">
-        <v>1282200</v>
+        <v>1534200</v>
       </c>
       <c r="F9" s="3">
-        <v>1174100</v>
+        <v>1368600</v>
       </c>
       <c r="G9" s="3">
-        <v>1151400</v>
+        <v>1309300</v>
       </c>
       <c r="H9" s="3">
-        <v>1033600</v>
+        <v>1198900</v>
       </c>
       <c r="I9" s="3">
+        <v>1146200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1025400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1021300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>92700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>830800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1296900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1179300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1315400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>969100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>985300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>913700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>819600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1510400</v>
+        <v>1724300</v>
       </c>
       <c r="E10" s="3">
-        <v>1496000</v>
+        <v>1548800</v>
       </c>
       <c r="F10" s="3">
-        <v>1432700</v>
+        <v>1542300</v>
       </c>
       <c r="G10" s="3">
-        <v>1252500</v>
+        <v>1527700</v>
       </c>
       <c r="H10" s="3">
-        <v>1202400</v>
+        <v>1463000</v>
       </c>
       <c r="I10" s="3">
+        <v>1308600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1227900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1182000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1182200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1005500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1011100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1039500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>854200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>852600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>882700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>999800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1110600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>940000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>426100</v>
+        <v>477400</v>
       </c>
       <c r="E12" s="3">
-        <v>367900</v>
+        <v>472600</v>
       </c>
       <c r="F12" s="3">
-        <v>327400</v>
+        <v>435100</v>
       </c>
       <c r="G12" s="3">
-        <v>692900</v>
+        <v>375700</v>
       </c>
       <c r="H12" s="3">
-        <v>330300</v>
+        <v>334300</v>
       </c>
       <c r="I12" s="3">
+        <v>353800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>337300</v>
+      </c>
+      <c r="K12" s="3">
         <v>297300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>311300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>269400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>275100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>209300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>184400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>171100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>156000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>137200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>127600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2412100</v>
+        <v>2533900</v>
       </c>
       <c r="E17" s="3">
-        <v>2141200</v>
+        <v>2613100</v>
       </c>
       <c r="F17" s="3">
-        <v>1921300</v>
+        <v>2463100</v>
       </c>
       <c r="G17" s="3">
-        <v>1949200</v>
+        <v>2186500</v>
       </c>
       <c r="H17" s="3">
-        <v>1726600</v>
+        <v>1962000</v>
       </c>
       <c r="I17" s="3">
+        <v>1990400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1763100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1638400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1629700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>531600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1487000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2001600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1860400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1956200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1473400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1479700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1316200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1197200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>438500</v>
+        <v>667000</v>
       </c>
       <c r="E18" s="3">
-        <v>637100</v>
+        <v>469900</v>
       </c>
       <c r="F18" s="3">
-        <v>685400</v>
+        <v>447800</v>
       </c>
       <c r="G18" s="3">
-        <v>454700</v>
+        <v>650500</v>
       </c>
       <c r="H18" s="3">
-        <v>509500</v>
+        <v>699900</v>
       </c>
       <c r="I18" s="3">
+        <v>464400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>520300</v>
+      </c>
+      <c r="K18" s="3">
         <v>569000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>573700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>566600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>354900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>334800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>173200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>211700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>378400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>505400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>708200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>562300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>40600</v>
+        <v>235800</v>
       </c>
       <c r="E20" s="3">
-        <v>236200</v>
+        <v>-237800</v>
       </c>
       <c r="F20" s="3">
-        <v>83400</v>
+        <v>41500</v>
       </c>
       <c r="G20" s="3">
-        <v>151500</v>
+        <v>241200</v>
       </c>
       <c r="H20" s="3">
-        <v>139800</v>
+        <v>85200</v>
       </c>
       <c r="I20" s="3">
+        <v>154700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K20" s="3">
         <v>55000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>49800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>68900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>55200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>50200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-17100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>24600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>32300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>43400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>27100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>105700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>618600</v>
+        <v>1030700</v>
       </c>
       <c r="E21" s="3">
-        <v>1009600</v>
+        <v>382200</v>
       </c>
       <c r="F21" s="3">
-        <v>874300</v>
+        <v>631700</v>
       </c>
       <c r="G21" s="3">
-        <v>712600</v>
+        <v>1030900</v>
       </c>
       <c r="H21" s="3">
-        <v>756800</v>
+        <v>892800</v>
       </c>
       <c r="I21" s="3">
+        <v>727600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>772800</v>
+      </c>
+      <c r="K21" s="3">
         <v>720800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>712200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>734400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>489200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>452600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>208600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>277000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>441900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>574100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>756900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>682100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,120 +1560,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>479100</v>
+        <v>902800</v>
       </c>
       <c r="E23" s="3">
-        <v>873200</v>
+        <v>232100</v>
       </c>
       <c r="F23" s="3">
-        <v>768900</v>
+        <v>489300</v>
       </c>
       <c r="G23" s="3">
-        <v>606300</v>
+        <v>891700</v>
       </c>
       <c r="H23" s="3">
-        <v>649300</v>
+        <v>785100</v>
       </c>
       <c r="I23" s="3">
+        <v>619100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>663000</v>
+      </c>
+      <c r="K23" s="3">
         <v>624000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>623500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>635400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>410100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>385000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>156000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>236300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>410700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>548800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>735300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>668100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>52400</v>
+        <v>198700</v>
       </c>
       <c r="E24" s="3">
-        <v>162600</v>
+        <v>86200</v>
       </c>
       <c r="F24" s="3">
-        <v>165300</v>
+        <v>53500</v>
       </c>
       <c r="G24" s="3">
-        <v>133900</v>
+        <v>166100</v>
       </c>
       <c r="H24" s="3">
-        <v>13400</v>
+        <v>168800</v>
       </c>
       <c r="I24" s="3">
+        <v>136700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K24" s="3">
         <v>104500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>193500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>132800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>118000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>60300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>40600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>43100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>33500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>104400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>140000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>128300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>426800</v>
+        <v>704200</v>
       </c>
       <c r="E26" s="3">
-        <v>710600</v>
+        <v>145800</v>
       </c>
       <c r="F26" s="3">
-        <v>603600</v>
+        <v>435800</v>
       </c>
       <c r="G26" s="3">
-        <v>472400</v>
+        <v>725600</v>
       </c>
       <c r="H26" s="3">
-        <v>635900</v>
+        <v>616300</v>
       </c>
       <c r="I26" s="3">
+        <v>482400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>649300</v>
+      </c>
+      <c r="K26" s="3">
         <v>519600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>429900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>502600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>292100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>324700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>115500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>193200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>377200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>444400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>595300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>539800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>458100</v>
+        <v>692600</v>
       </c>
       <c r="E27" s="3">
-        <v>693300</v>
+        <v>152200</v>
       </c>
       <c r="F27" s="3">
-        <v>542500</v>
+        <v>467800</v>
       </c>
       <c r="G27" s="3">
-        <v>466500</v>
+        <v>707900</v>
       </c>
       <c r="H27" s="3">
-        <v>631600</v>
+        <v>554000</v>
       </c>
       <c r="I27" s="3">
+        <v>476400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K27" s="3">
         <v>512500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>417500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>489400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>288700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>302200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>107900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>190800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>375100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>441100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>582200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>535600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1828,39 +1949,39 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1313300</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1341100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-43200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-53600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-242900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-65300</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-40600</v>
+        <v>-235800</v>
       </c>
       <c r="E32" s="3">
-        <v>-236200</v>
+        <v>237800</v>
       </c>
       <c r="F32" s="3">
-        <v>-83400</v>
+        <v>-41500</v>
       </c>
       <c r="G32" s="3">
-        <v>-151500</v>
+        <v>-241200</v>
       </c>
       <c r="H32" s="3">
-        <v>-139800</v>
+        <v>-85200</v>
       </c>
       <c r="I32" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-55000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-49800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-68900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-55200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-50200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>17100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-24600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-43400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-27100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-105700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>458100</v>
+        <v>692600</v>
       </c>
       <c r="E33" s="3">
-        <v>693300</v>
+        <v>152200</v>
       </c>
       <c r="F33" s="3">
-        <v>542500</v>
+        <v>467800</v>
       </c>
       <c r="G33" s="3">
-        <v>466500</v>
+        <v>707900</v>
       </c>
       <c r="H33" s="3">
-        <v>1944900</v>
+        <v>554000</v>
       </c>
       <c r="I33" s="3">
+        <v>476400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1986100</v>
+      </c>
+      <c r="K33" s="3">
         <v>469200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>363900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>246600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>223400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>302200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>107900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>190800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>375100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>441100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>582200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>535600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>458100</v>
+        <v>692600</v>
       </c>
       <c r="E35" s="3">
-        <v>693300</v>
+        <v>152200</v>
       </c>
       <c r="F35" s="3">
-        <v>542500</v>
+        <v>467800</v>
       </c>
       <c r="G35" s="3">
-        <v>466500</v>
+        <v>707900</v>
       </c>
       <c r="H35" s="3">
-        <v>1944900</v>
+        <v>554000</v>
       </c>
       <c r="I35" s="3">
+        <v>476400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1986100</v>
+      </c>
+      <c r="K35" s="3">
         <v>469200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>363900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>246600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>223400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>302200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>107900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>190800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>375100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>441100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>582200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>535600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,456 +2485,506 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>987900</v>
+        <v>1371500</v>
       </c>
       <c r="E41" s="3">
-        <v>1623000</v>
+        <v>1422400</v>
       </c>
       <c r="F41" s="3">
-        <v>854500</v>
+        <v>1008800</v>
       </c>
       <c r="G41" s="3">
-        <v>496000</v>
+        <v>1657300</v>
       </c>
       <c r="H41" s="3">
-        <v>418800</v>
+        <v>872500</v>
       </c>
       <c r="I41" s="3">
+        <v>506500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>427700</v>
+      </c>
+      <c r="K41" s="3">
         <v>738300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>631300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>724500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>668700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>441800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>534800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>410200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>382200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>447100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>587600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>791100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>14045600</v>
+        <v>14153000</v>
       </c>
       <c r="E42" s="3">
-        <v>13069900</v>
+        <v>13159800</v>
       </c>
       <c r="F42" s="3">
-        <v>10677600</v>
+        <v>14342600</v>
       </c>
       <c r="G42" s="3">
-        <v>10511200</v>
+        <v>13346300</v>
       </c>
       <c r="H42" s="3">
-        <v>8959100</v>
+        <v>10903300</v>
       </c>
       <c r="I42" s="3">
+        <v>10733400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9148500</v>
+      </c>
+      <c r="K42" s="3">
         <v>7748900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7283200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6473600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5270700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5889700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5683300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5987800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5655100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>5658600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>5370000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>4500100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>756100</v>
+        <v>788900</v>
       </c>
       <c r="E43" s="3">
-        <v>766700</v>
+        <v>714000</v>
       </c>
       <c r="F43" s="3">
-        <v>696600</v>
+        <v>772100</v>
       </c>
       <c r="G43" s="3">
-        <v>637000</v>
+        <v>782900</v>
       </c>
       <c r="H43" s="3">
-        <v>719100</v>
+        <v>711300</v>
       </c>
       <c r="I43" s="3">
+        <v>650500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>734300</v>
+      </c>
+      <c r="K43" s="3">
         <v>686700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>774700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>598200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>639500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>554400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>637900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>537200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>483700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>505200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>546600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>618300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>80100</v>
+        <v>136500</v>
       </c>
       <c r="E44" s="3">
-        <v>85400</v>
+        <v>96900</v>
       </c>
       <c r="F44" s="3">
-        <v>85900</v>
+        <v>81800</v>
       </c>
       <c r="G44" s="3">
-        <v>99400</v>
+        <v>87200</v>
       </c>
       <c r="H44" s="3">
-        <v>104900</v>
+        <v>87700</v>
       </c>
       <c r="I44" s="3">
+        <v>101500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K44" s="3">
         <v>606000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>653500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>154800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>880500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>814400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>734800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>812500</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S44" s="3">
-        <v>229500</v>
+      <c r="S44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>229500</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1511300</v>
+        <v>1573800</v>
       </c>
       <c r="E45" s="3">
-        <v>1430900</v>
+        <v>1429600</v>
       </c>
       <c r="F45" s="3">
-        <v>1469500</v>
+        <v>1543200</v>
       </c>
       <c r="G45" s="3">
-        <v>1258800</v>
+        <v>1461100</v>
       </c>
       <c r="H45" s="3">
-        <v>2409500</v>
+        <v>1500500</v>
       </c>
       <c r="I45" s="3">
+        <v>1285400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2460400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1379700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1603500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2028600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1351100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1249200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1503400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1445900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2209500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1940600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1537400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1120900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17381000</v>
+        <v>18023600</v>
       </c>
       <c r="E46" s="3">
-        <v>16975900</v>
+        <v>16822700</v>
       </c>
       <c r="F46" s="3">
-        <v>13784000</v>
+        <v>17748500</v>
       </c>
       <c r="G46" s="3">
-        <v>13002300</v>
+        <v>17334700</v>
       </c>
       <c r="H46" s="3">
-        <v>12611400</v>
+        <v>14075400</v>
       </c>
       <c r="I46" s="3">
+        <v>13277200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>12878000</v>
+      </c>
+      <c r="K46" s="3">
         <v>11159600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10946200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9979600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8810600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8949500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9094200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9193700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8730600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8551400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8041600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7181800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>649300</v>
+        <v>1051500</v>
       </c>
       <c r="E47" s="3">
-        <v>1042500</v>
+        <v>2861400</v>
       </c>
       <c r="F47" s="3">
-        <v>588200</v>
+        <v>663000</v>
       </c>
       <c r="G47" s="3">
-        <v>1780500</v>
+        <v>1064500</v>
       </c>
       <c r="H47" s="3">
+        <v>600600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1818100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K47" s="3">
         <v>7600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>7600</v>
       </c>
-      <c r="J47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>776400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>21000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>21500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>21500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>413300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>74200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>366500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>678200</v>
+        <v>1374100</v>
       </c>
       <c r="E48" s="3">
-        <v>674700</v>
+        <v>1483200</v>
       </c>
       <c r="F48" s="3">
-        <v>698200</v>
+        <v>1347800</v>
       </c>
       <c r="G48" s="3">
-        <v>776900</v>
+        <v>1347600</v>
       </c>
       <c r="H48" s="3">
-        <v>786700</v>
+        <v>1288300</v>
       </c>
       <c r="I48" s="3">
+        <v>1371700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1318800</v>
+      </c>
+      <c r="K48" s="3">
         <v>945300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>944100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>678700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>742600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>699200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>611500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>559400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>498100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>442500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>398600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>351900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2788,38 +3009,44 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>492700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>84200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>84700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>88000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>88500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>86500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>86900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>85600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3403500</v>
+        <v>3030900</v>
       </c>
       <c r="E52" s="3">
-        <v>3333300</v>
+        <v>966600</v>
       </c>
       <c r="F52" s="3">
-        <v>3057500</v>
+        <v>2820200</v>
       </c>
       <c r="G52" s="3">
-        <v>1570600</v>
+        <v>2745100</v>
       </c>
       <c r="H52" s="3">
-        <v>2762000</v>
+        <v>2546800</v>
       </c>
       <c r="I52" s="3">
+        <v>1025400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2305000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2065600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2072100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1957600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1128300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1064000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>773500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>287400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>544500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>588900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>726800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>453800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22112100</v>
+        <v>23480100</v>
       </c>
       <c r="E54" s="3">
-        <v>22026300</v>
+        <v>22133900</v>
       </c>
       <c r="F54" s="3">
-        <v>18127900</v>
+        <v>22579600</v>
       </c>
       <c r="G54" s="3">
-        <v>17130400</v>
+        <v>22492000</v>
       </c>
       <c r="H54" s="3">
-        <v>16167800</v>
+        <v>18511200</v>
       </c>
       <c r="I54" s="3">
+        <v>17492500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16509600</v>
+      </c>
+      <c r="K54" s="3">
         <v>14178000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13970100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12630400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11195300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10818400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10585300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10541800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9869200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9676800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9328300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8439600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3401,258 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>152300</v>
+        <v>167100</v>
       </c>
       <c r="E57" s="3">
-        <v>130400</v>
+        <v>177000</v>
       </c>
       <c r="F57" s="3">
-        <v>182900</v>
+        <v>155600</v>
       </c>
       <c r="G57" s="3">
-        <v>185200</v>
+        <v>133200</v>
       </c>
       <c r="H57" s="3">
-        <v>186300</v>
+        <v>186700</v>
       </c>
       <c r="I57" s="3">
+        <v>189100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>190200</v>
+      </c>
+      <c r="K57" s="3">
         <v>398700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>450600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>174500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>360300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>331200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>339400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>362500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>307000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>281800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>234400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>203000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3399000</v>
+        <v>3405200</v>
       </c>
       <c r="E58" s="3">
-        <v>3350900</v>
+        <v>3042900</v>
       </c>
       <c r="F58" s="3">
-        <v>2998200</v>
+        <v>3470800</v>
       </c>
       <c r="G58" s="3">
-        <v>2571000</v>
+        <v>3421700</v>
       </c>
       <c r="H58" s="3">
-        <v>2367300</v>
+        <v>3061600</v>
       </c>
       <c r="I58" s="3">
+        <v>2625400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2417300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2070800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2159500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1983600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1909900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1825900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1365400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>983000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>850800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>798100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>665400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>554900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3618500</v>
+        <v>4329200</v>
       </c>
       <c r="E59" s="3">
-        <v>3423700</v>
+        <v>4072500</v>
       </c>
       <c r="F59" s="3">
-        <v>3450700</v>
+        <v>3695000</v>
       </c>
       <c r="G59" s="3">
-        <v>3086500</v>
+        <v>3496000</v>
       </c>
       <c r="H59" s="3">
-        <v>2734200</v>
+        <v>3523600</v>
       </c>
       <c r="I59" s="3">
+        <v>3151800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2792000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2714800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2925100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2940700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2365900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2092900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2295300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2179300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1824600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1916500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2096200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2083000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7169800</v>
+        <v>7901600</v>
       </c>
       <c r="E60" s="3">
-        <v>6905000</v>
+        <v>7292500</v>
       </c>
       <c r="F60" s="3">
-        <v>6631800</v>
+        <v>7321400</v>
       </c>
       <c r="G60" s="3">
-        <v>5842800</v>
+        <v>7050900</v>
       </c>
       <c r="H60" s="3">
-        <v>5287800</v>
+        <v>6772000</v>
       </c>
       <c r="I60" s="3">
+        <v>5966300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5399600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5184200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5535100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5098900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4636100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4250000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4000100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3524800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2982400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2996300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2995900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2788800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,64 +3707,76 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>160100</v>
+        <v>270700</v>
       </c>
       <c r="E62" s="3">
-        <v>222600</v>
+        <v>208600</v>
       </c>
       <c r="F62" s="3">
-        <v>160900</v>
+        <v>163500</v>
       </c>
       <c r="G62" s="3">
-        <v>128300</v>
+        <v>227300</v>
       </c>
       <c r="H62" s="3">
-        <v>184400</v>
+        <v>164300</v>
       </c>
       <c r="I62" s="3">
+        <v>131000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>188300</v>
+      </c>
+      <c r="K62" s="3">
         <v>210400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>168600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>65000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>87600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>84800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>60500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>34400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>17800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>41800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>27800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>57100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9088100</v>
+        <v>10109000</v>
       </c>
       <c r="E66" s="3">
-        <v>8917100</v>
+        <v>9321300</v>
       </c>
       <c r="F66" s="3">
-        <v>8564300</v>
+        <v>9280200</v>
       </c>
       <c r="G66" s="3">
-        <v>7741500</v>
+        <v>9105600</v>
       </c>
       <c r="H66" s="3">
-        <v>6484400</v>
+        <v>8745400</v>
       </c>
       <c r="I66" s="3">
+        <v>7905100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6621500</v>
+      </c>
+      <c r="K66" s="3">
         <v>6393700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6672100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6061400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5124400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4561000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4202100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3754700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3188400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3215300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3151400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2885400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,40 +4289,46 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>37</v>
+      <c r="E72" s="3">
+        <v>10201700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="3">
-        <v>8801500</v>
+      <c r="G72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>37</v>
+      <c r="I72" s="3">
+        <v>8987600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="3">
-        <v>6566100</v>
+      <c r="K72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>37</v>
+      <c r="M72" s="3">
+        <v>6566100</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>37</v>
@@ -3998,14 +4345,20 @@
       <c r="R72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="3">
-        <v>5306600</v>
+      <c r="S72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>5306600</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13024000</v>
+        <v>13371100</v>
       </c>
       <c r="E76" s="3">
-        <v>13109300</v>
+        <v>12812600</v>
       </c>
       <c r="F76" s="3">
-        <v>9563600</v>
+        <v>13299400</v>
       </c>
       <c r="G76" s="3">
-        <v>9388900</v>
+        <v>13386400</v>
       </c>
       <c r="H76" s="3">
-        <v>9683400</v>
+        <v>9765800</v>
       </c>
       <c r="I76" s="3">
+        <v>9587400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9888100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7784300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7298000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6569000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6070900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6257400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6383200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6787100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6680800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6461500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6176800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5554100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>458100</v>
+        <v>692600</v>
       </c>
       <c r="E81" s="3">
-        <v>693300</v>
+        <v>152200</v>
       </c>
       <c r="F81" s="3">
-        <v>542500</v>
+        <v>467800</v>
       </c>
       <c r="G81" s="3">
-        <v>466500</v>
+        <v>707900</v>
       </c>
       <c r="H81" s="3">
-        <v>1944900</v>
+        <v>554000</v>
       </c>
       <c r="I81" s="3">
+        <v>476400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1986100</v>
+      </c>
+      <c r="K81" s="3">
         <v>469200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>363900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>246600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>223400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>302200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>107900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>190800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>375100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>441100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>582200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>535600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>139500</v>
+        <v>127900</v>
       </c>
       <c r="E83" s="3">
-        <v>136300</v>
+        <v>150200</v>
       </c>
       <c r="F83" s="3">
-        <v>105400</v>
+        <v>142400</v>
       </c>
       <c r="G83" s="3">
-        <v>106300</v>
+        <v>139200</v>
       </c>
       <c r="H83" s="3">
-        <v>105200</v>
+        <v>107700</v>
       </c>
       <c r="I83" s="3">
+        <v>108500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K83" s="3">
         <v>98100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>89700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>98200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>79800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>67600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>52600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>40700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>31300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>25300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>14100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>825200</v>
+        <v>864700</v>
       </c>
       <c r="E89" s="3">
-        <v>729100</v>
+        <v>1281500</v>
       </c>
       <c r="F89" s="3">
-        <v>993200</v>
+        <v>842600</v>
       </c>
       <c r="G89" s="3">
-        <v>841900</v>
+        <v>744500</v>
       </c>
       <c r="H89" s="3">
-        <v>588700</v>
+        <v>1014200</v>
       </c>
       <c r="I89" s="3">
+        <v>859700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>601200</v>
+      </c>
+      <c r="K89" s="3">
         <v>682300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>517400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>862000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>506300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>280900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>273300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>576000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>245700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>344500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>598300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>782200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53600</v>
+        <v>-51400</v>
       </c>
       <c r="E91" s="3">
-        <v>-36200</v>
+        <v>-47300</v>
       </c>
       <c r="F91" s="3">
-        <v>-25100</v>
+        <v>-54700</v>
       </c>
       <c r="G91" s="3">
-        <v>-36000</v>
+        <v>-37000</v>
       </c>
       <c r="H91" s="3">
-        <v>-50400</v>
+        <v>-25600</v>
       </c>
       <c r="I91" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-41900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-56500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-73400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-80900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-111200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-96200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-84900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-64300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-48300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-67700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1146200</v>
+        <v>-1111600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3094900</v>
+        <v>163000</v>
       </c>
       <c r="F94" s="3">
-        <v>-378600</v>
+        <v>-1170400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1061200</v>
+        <v>-3160300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1081600</v>
+        <v>-386700</v>
       </c>
       <c r="I94" s="3">
+        <v>-1083700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1104500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-514900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-724400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-55800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-555300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-153300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-592900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-140100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-343300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-831600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-670000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5548,72 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-210500</v>
+        <v>-40700</v>
       </c>
       <c r="E96" s="3">
-        <v>-170400</v>
+        <v>-134400</v>
       </c>
       <c r="F96" s="3">
-        <v>-141600</v>
+        <v>-214900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1052700</v>
+        <v>-174000</v>
       </c>
       <c r="H96" s="3">
-        <v>-141100</v>
+        <v>-144600</v>
       </c>
       <c r="I96" s="3">
+        <v>-1075000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-144100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-93700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-63200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-58000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-74700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-27500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-45300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-92700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-145500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-136100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-100700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-381400</v>
+        <v>219200</v>
       </c>
       <c r="E100" s="3">
-        <v>3082900</v>
+        <v>-994700</v>
       </c>
       <c r="F100" s="3">
-        <v>-213000</v>
+        <v>-389400</v>
       </c>
       <c r="G100" s="3">
-        <v>179000</v>
+        <v>3148100</v>
       </c>
       <c r="H100" s="3">
-        <v>111900</v>
+        <v>-217500</v>
       </c>
       <c r="I100" s="3">
+        <v>182800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>114300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-188300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>62800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>406100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-127900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-41900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-31700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>16300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>17200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3800</v>
+        <v>5600</v>
       </c>
       <c r="E101" s="3">
-        <v>27500</v>
+        <v>-10500</v>
       </c>
       <c r="F101" s="3">
-        <v>11300</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
-        <v>-4100</v>
+        <v>28100</v>
       </c>
       <c r="H101" s="3">
-        <v>5800</v>
+        <v>11600</v>
       </c>
       <c r="I101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K101" s="3">
         <v>5400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>7600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>11200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>9900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-706200</v>
+        <v>-22100</v>
       </c>
       <c r="E102" s="3">
-        <v>744700</v>
+        <v>439400</v>
       </c>
       <c r="F102" s="3">
-        <v>412900</v>
+        <v>-721100</v>
       </c>
       <c r="G102" s="3">
-        <v>-44400</v>
+        <v>760400</v>
       </c>
       <c r="H102" s="3">
-        <v>-375100</v>
+        <v>421600</v>
       </c>
       <c r="I102" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-383000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-15500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-146900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>70400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>330100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-305100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>114500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-25400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-34000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-217600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>139300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3200900</v>
+        <v>3159200</v>
       </c>
       <c r="E8" s="3">
-        <v>3083000</v>
+        <v>3042900</v>
       </c>
       <c r="F8" s="3">
-        <v>2910900</v>
+        <v>2873000</v>
       </c>
       <c r="G8" s="3">
-        <v>2837000</v>
+        <v>2800100</v>
       </c>
       <c r="H8" s="3">
-        <v>2661900</v>
+        <v>2627300</v>
       </c>
       <c r="I8" s="3">
-        <v>2454800</v>
+        <v>2422800</v>
       </c>
       <c r="J8" s="3">
-        <v>2283300</v>
+        <v>2253600</v>
       </c>
       <c r="K8" s="3">
         <v>2207400</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1476600</v>
+        <v>1457400</v>
       </c>
       <c r="E9" s="3">
-        <v>1534200</v>
+        <v>1514200</v>
       </c>
       <c r="F9" s="3">
-        <v>1368600</v>
+        <v>1350800</v>
       </c>
       <c r="G9" s="3">
-        <v>1309300</v>
+        <v>1292300</v>
       </c>
       <c r="H9" s="3">
-        <v>1198900</v>
+        <v>1183300</v>
       </c>
       <c r="I9" s="3">
-        <v>1146200</v>
+        <v>1131300</v>
       </c>
       <c r="J9" s="3">
-        <v>1055500</v>
+        <v>1041700</v>
       </c>
       <c r="K9" s="3">
         <v>1025400</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1724300</v>
+        <v>1701900</v>
       </c>
       <c r="E10" s="3">
-        <v>1548800</v>
+        <v>1528700</v>
       </c>
       <c r="F10" s="3">
-        <v>1542300</v>
+        <v>1522200</v>
       </c>
       <c r="G10" s="3">
-        <v>1527700</v>
+        <v>1507800</v>
       </c>
       <c r="H10" s="3">
-        <v>1463000</v>
+        <v>1444000</v>
       </c>
       <c r="I10" s="3">
-        <v>1308600</v>
+        <v>1291500</v>
       </c>
       <c r="J10" s="3">
-        <v>1227900</v>
+        <v>1211900</v>
       </c>
       <c r="K10" s="3">
         <v>1182000</v>
@@ -969,25 +969,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>477400</v>
+        <v>471200</v>
       </c>
       <c r="E12" s="3">
-        <v>472600</v>
+        <v>466500</v>
       </c>
       <c r="F12" s="3">
-        <v>435100</v>
+        <v>429500</v>
       </c>
       <c r="G12" s="3">
-        <v>375700</v>
+        <v>370800</v>
       </c>
       <c r="H12" s="3">
-        <v>334300</v>
+        <v>329900</v>
       </c>
       <c r="I12" s="3">
-        <v>353800</v>
+        <v>349100</v>
       </c>
       <c r="J12" s="3">
-        <v>337300</v>
+        <v>332900</v>
       </c>
       <c r="K12" s="3">
         <v>297300</v>
@@ -1238,25 +1238,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2533900</v>
+        <v>2500900</v>
       </c>
       <c r="E17" s="3">
-        <v>2613100</v>
+        <v>2579100</v>
       </c>
       <c r="F17" s="3">
-        <v>2463100</v>
+        <v>2431000</v>
       </c>
       <c r="G17" s="3">
-        <v>2186500</v>
+        <v>2158000</v>
       </c>
       <c r="H17" s="3">
-        <v>1962000</v>
+        <v>1936400</v>
       </c>
       <c r="I17" s="3">
-        <v>1990400</v>
+        <v>1964500</v>
       </c>
       <c r="J17" s="3">
-        <v>1763100</v>
+        <v>1740100</v>
       </c>
       <c r="K17" s="3">
         <v>1638400</v>
@@ -1300,25 +1300,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>667000</v>
+        <v>658400</v>
       </c>
       <c r="E18" s="3">
-        <v>469900</v>
+        <v>463800</v>
       </c>
       <c r="F18" s="3">
-        <v>447800</v>
+        <v>441900</v>
       </c>
       <c r="G18" s="3">
-        <v>650500</v>
+        <v>642100</v>
       </c>
       <c r="H18" s="3">
-        <v>699900</v>
+        <v>690800</v>
       </c>
       <c r="I18" s="3">
-        <v>464400</v>
+        <v>458300</v>
       </c>
       <c r="J18" s="3">
-        <v>520300</v>
+        <v>513500</v>
       </c>
       <c r="K18" s="3">
         <v>569000</v>
@@ -1386,25 +1386,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>235800</v>
+        <v>232700</v>
       </c>
       <c r="E20" s="3">
-        <v>-237800</v>
+        <v>-234700</v>
       </c>
       <c r="F20" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="G20" s="3">
-        <v>241200</v>
+        <v>238000</v>
       </c>
       <c r="H20" s="3">
-        <v>85200</v>
+        <v>84100</v>
       </c>
       <c r="I20" s="3">
-        <v>154700</v>
+        <v>152700</v>
       </c>
       <c r="J20" s="3">
-        <v>142800</v>
+        <v>140900</v>
       </c>
       <c r="K20" s="3">
         <v>55000</v>
@@ -1448,25 +1448,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1030700</v>
+        <v>1017300</v>
       </c>
       <c r="E21" s="3">
-        <v>382200</v>
+        <v>377300</v>
       </c>
       <c r="F21" s="3">
-        <v>631700</v>
+        <v>623500</v>
       </c>
       <c r="G21" s="3">
-        <v>1030900</v>
+        <v>1017500</v>
       </c>
       <c r="H21" s="3">
-        <v>892800</v>
+        <v>881200</v>
       </c>
       <c r="I21" s="3">
-        <v>727600</v>
+        <v>718200</v>
       </c>
       <c r="J21" s="3">
-        <v>772800</v>
+        <v>762700</v>
       </c>
       <c r="K21" s="3">
         <v>720800</v>
@@ -1572,25 +1572,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>902800</v>
+        <v>891100</v>
       </c>
       <c r="E23" s="3">
-        <v>232100</v>
+        <v>229000</v>
       </c>
       <c r="F23" s="3">
-        <v>489300</v>
+        <v>482900</v>
       </c>
       <c r="G23" s="3">
-        <v>891700</v>
+        <v>880100</v>
       </c>
       <c r="H23" s="3">
-        <v>785100</v>
+        <v>774900</v>
       </c>
       <c r="I23" s="3">
-        <v>619100</v>
+        <v>611000</v>
       </c>
       <c r="J23" s="3">
-        <v>663000</v>
+        <v>654400</v>
       </c>
       <c r="K23" s="3">
         <v>624000</v>
@@ -1634,25 +1634,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>198700</v>
+        <v>196100</v>
       </c>
       <c r="E24" s="3">
-        <v>86200</v>
+        <v>85100</v>
       </c>
       <c r="F24" s="3">
-        <v>53500</v>
+        <v>52800</v>
       </c>
       <c r="G24" s="3">
-        <v>166100</v>
+        <v>163900</v>
       </c>
       <c r="H24" s="3">
-        <v>168800</v>
+        <v>166600</v>
       </c>
       <c r="I24" s="3">
-        <v>136700</v>
+        <v>134900</v>
       </c>
       <c r="J24" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="K24" s="3">
         <v>104500</v>
@@ -1758,25 +1758,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>704200</v>
+        <v>695000</v>
       </c>
       <c r="E26" s="3">
-        <v>145800</v>
+        <v>143900</v>
       </c>
       <c r="F26" s="3">
-        <v>435800</v>
+        <v>430100</v>
       </c>
       <c r="G26" s="3">
-        <v>725600</v>
+        <v>716200</v>
       </c>
       <c r="H26" s="3">
-        <v>616300</v>
+        <v>608300</v>
       </c>
       <c r="I26" s="3">
-        <v>482400</v>
+        <v>476100</v>
       </c>
       <c r="J26" s="3">
-        <v>649300</v>
+        <v>640900</v>
       </c>
       <c r="K26" s="3">
         <v>519600</v>
@@ -1820,25 +1820,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>692600</v>
+        <v>683500</v>
       </c>
       <c r="E27" s="3">
-        <v>152200</v>
+        <v>150200</v>
       </c>
       <c r="F27" s="3">
-        <v>467800</v>
+        <v>461700</v>
       </c>
       <c r="G27" s="3">
-        <v>707900</v>
+        <v>698700</v>
       </c>
       <c r="H27" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="I27" s="3">
-        <v>476400</v>
+        <v>470200</v>
       </c>
       <c r="J27" s="3">
-        <v>645000</v>
+        <v>636600</v>
       </c>
       <c r="K27" s="3">
         <v>512500</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>1341100</v>
+        <v>1323600</v>
       </c>
       <c r="K29" s="3">
         <v>-43200</v>
@@ -2130,25 +2130,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-235800</v>
+        <v>-232700</v>
       </c>
       <c r="E32" s="3">
-        <v>237800</v>
+        <v>234700</v>
       </c>
       <c r="F32" s="3">
-        <v>-41500</v>
+        <v>-41000</v>
       </c>
       <c r="G32" s="3">
-        <v>-241200</v>
+        <v>-238000</v>
       </c>
       <c r="H32" s="3">
-        <v>-85200</v>
+        <v>-84100</v>
       </c>
       <c r="I32" s="3">
-        <v>-154700</v>
+        <v>-152700</v>
       </c>
       <c r="J32" s="3">
-        <v>-142800</v>
+        <v>-140900</v>
       </c>
       <c r="K32" s="3">
         <v>-55000</v>
@@ -2192,25 +2192,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>692600</v>
+        <v>683500</v>
       </c>
       <c r="E33" s="3">
-        <v>152200</v>
+        <v>150200</v>
       </c>
       <c r="F33" s="3">
-        <v>467800</v>
+        <v>461700</v>
       </c>
       <c r="G33" s="3">
-        <v>707900</v>
+        <v>698700</v>
       </c>
       <c r="H33" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="I33" s="3">
-        <v>476400</v>
+        <v>470200</v>
       </c>
       <c r="J33" s="3">
-        <v>1986100</v>
+        <v>1960200</v>
       </c>
       <c r="K33" s="3">
         <v>469200</v>
@@ -2316,25 +2316,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>692600</v>
+        <v>683500</v>
       </c>
       <c r="E35" s="3">
-        <v>152200</v>
+        <v>150200</v>
       </c>
       <c r="F35" s="3">
-        <v>467800</v>
+        <v>461700</v>
       </c>
       <c r="G35" s="3">
-        <v>707900</v>
+        <v>698700</v>
       </c>
       <c r="H35" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="I35" s="3">
-        <v>476400</v>
+        <v>470200</v>
       </c>
       <c r="J35" s="3">
-        <v>1986100</v>
+        <v>1960200</v>
       </c>
       <c r="K35" s="3">
         <v>469200</v>
@@ -2493,25 +2493,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1371500</v>
+        <v>1353600</v>
       </c>
       <c r="E41" s="3">
-        <v>1422400</v>
+        <v>1403900</v>
       </c>
       <c r="F41" s="3">
-        <v>1008800</v>
+        <v>995700</v>
       </c>
       <c r="G41" s="3">
-        <v>1657300</v>
+        <v>1635700</v>
       </c>
       <c r="H41" s="3">
-        <v>872500</v>
+        <v>861200</v>
       </c>
       <c r="I41" s="3">
-        <v>506500</v>
+        <v>499900</v>
       </c>
       <c r="J41" s="3">
-        <v>427700</v>
+        <v>422100</v>
       </c>
       <c r="K41" s="3">
         <v>738300</v>
@@ -2555,25 +2555,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>14153000</v>
+        <v>13968800</v>
       </c>
       <c r="E42" s="3">
-        <v>13159800</v>
+        <v>12988600</v>
       </c>
       <c r="F42" s="3">
-        <v>14342600</v>
+        <v>14156000</v>
       </c>
       <c r="G42" s="3">
-        <v>13346300</v>
+        <v>13172600</v>
       </c>
       <c r="H42" s="3">
-        <v>10903300</v>
+        <v>10761400</v>
       </c>
       <c r="I42" s="3">
-        <v>10733400</v>
+        <v>10593800</v>
       </c>
       <c r="J42" s="3">
-        <v>9148500</v>
+        <v>9029400</v>
       </c>
       <c r="K42" s="3">
         <v>7748900</v>
@@ -2617,25 +2617,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>788900</v>
+        <v>778600</v>
       </c>
       <c r="E43" s="3">
-        <v>714000</v>
+        <v>704700</v>
       </c>
       <c r="F43" s="3">
-        <v>772100</v>
+        <v>762000</v>
       </c>
       <c r="G43" s="3">
-        <v>782900</v>
+        <v>772700</v>
       </c>
       <c r="H43" s="3">
-        <v>711300</v>
+        <v>702100</v>
       </c>
       <c r="I43" s="3">
-        <v>650500</v>
+        <v>642000</v>
       </c>
       <c r="J43" s="3">
-        <v>734300</v>
+        <v>724700</v>
       </c>
       <c r="K43" s="3">
         <v>686700</v>
@@ -2679,25 +2679,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>136500</v>
+        <v>134700</v>
       </c>
       <c r="E44" s="3">
-        <v>96900</v>
+        <v>95700</v>
       </c>
       <c r="F44" s="3">
-        <v>81800</v>
+        <v>80700</v>
       </c>
       <c r="G44" s="3">
-        <v>87200</v>
+        <v>86000</v>
       </c>
       <c r="H44" s="3">
-        <v>87700</v>
+        <v>86600</v>
       </c>
       <c r="I44" s="3">
-        <v>101500</v>
+        <v>100200</v>
       </c>
       <c r="J44" s="3">
-        <v>107100</v>
+        <v>105700</v>
       </c>
       <c r="K44" s="3">
         <v>606000</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1573800</v>
+        <v>1553300</v>
       </c>
       <c r="E45" s="3">
-        <v>1429600</v>
+        <v>1411000</v>
       </c>
       <c r="F45" s="3">
-        <v>1543200</v>
+        <v>1523100</v>
       </c>
       <c r="G45" s="3">
-        <v>1461100</v>
+        <v>1442100</v>
       </c>
       <c r="H45" s="3">
-        <v>1500500</v>
+        <v>1481000</v>
       </c>
       <c r="I45" s="3">
-        <v>1285400</v>
+        <v>1268600</v>
       </c>
       <c r="J45" s="3">
-        <v>2460400</v>
+        <v>2428400</v>
       </c>
       <c r="K45" s="3">
         <v>1379700</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18023600</v>
+        <v>17789100</v>
       </c>
       <c r="E46" s="3">
-        <v>16822700</v>
+        <v>16603800</v>
       </c>
       <c r="F46" s="3">
-        <v>17748500</v>
+        <v>17517600</v>
       </c>
       <c r="G46" s="3">
-        <v>17334700</v>
+        <v>17109200</v>
       </c>
       <c r="H46" s="3">
-        <v>14075400</v>
+        <v>13892300</v>
       </c>
       <c r="I46" s="3">
-        <v>13277200</v>
+        <v>13104500</v>
       </c>
       <c r="J46" s="3">
-        <v>12878000</v>
+        <v>12710400</v>
       </c>
       <c r="K46" s="3">
         <v>11159600</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1051500</v>
+        <v>1037800</v>
       </c>
       <c r="E47" s="3">
-        <v>2861400</v>
+        <v>2824200</v>
       </c>
       <c r="F47" s="3">
-        <v>663000</v>
+        <v>654400</v>
       </c>
       <c r="G47" s="3">
-        <v>1064500</v>
+        <v>1050700</v>
       </c>
       <c r="H47" s="3">
-        <v>600600</v>
+        <v>592800</v>
       </c>
       <c r="I47" s="3">
-        <v>1818100</v>
+        <v>1794500</v>
       </c>
       <c r="J47" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="K47" s="3">
         <v>7600</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1374100</v>
+        <v>1356200</v>
       </c>
       <c r="E48" s="3">
-        <v>1483200</v>
+        <v>1463900</v>
       </c>
       <c r="F48" s="3">
-        <v>1347800</v>
+        <v>1330300</v>
       </c>
       <c r="G48" s="3">
-        <v>1347600</v>
+        <v>1330100</v>
       </c>
       <c r="H48" s="3">
-        <v>1288300</v>
+        <v>1271600</v>
       </c>
       <c r="I48" s="3">
-        <v>1371700</v>
+        <v>1353900</v>
       </c>
       <c r="J48" s="3">
-        <v>1318800</v>
+        <v>1301600</v>
       </c>
       <c r="K48" s="3">
         <v>945300</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3030900</v>
+        <v>2991400</v>
       </c>
       <c r="E52" s="3">
-        <v>966600</v>
+        <v>954000</v>
       </c>
       <c r="F52" s="3">
-        <v>2820200</v>
+        <v>2783500</v>
       </c>
       <c r="G52" s="3">
-        <v>2745100</v>
+        <v>2709400</v>
       </c>
       <c r="H52" s="3">
-        <v>2546800</v>
+        <v>2513700</v>
       </c>
       <c r="I52" s="3">
-        <v>1025400</v>
+        <v>1012100</v>
       </c>
       <c r="J52" s="3">
-        <v>2305000</v>
+        <v>2275000</v>
       </c>
       <c r="K52" s="3">
         <v>2065600</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23480100</v>
+        <v>23174600</v>
       </c>
       <c r="E54" s="3">
-        <v>22133900</v>
+        <v>21845800</v>
       </c>
       <c r="F54" s="3">
-        <v>22579600</v>
+        <v>22285800</v>
       </c>
       <c r="G54" s="3">
-        <v>22492000</v>
+        <v>22199300</v>
       </c>
       <c r="H54" s="3">
-        <v>18511200</v>
+        <v>18270300</v>
       </c>
       <c r="I54" s="3">
-        <v>17492500</v>
+        <v>17264900</v>
       </c>
       <c r="J54" s="3">
-        <v>16509600</v>
+        <v>16294800</v>
       </c>
       <c r="K54" s="3">
         <v>14178000</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>167100</v>
+        <v>164900</v>
       </c>
       <c r="E57" s="3">
-        <v>177000</v>
+        <v>174700</v>
       </c>
       <c r="F57" s="3">
-        <v>155600</v>
+        <v>153500</v>
       </c>
       <c r="G57" s="3">
-        <v>133200</v>
+        <v>131500</v>
       </c>
       <c r="H57" s="3">
+        <v>184300</v>
+      </c>
+      <c r="I57" s="3">
         <v>186700</v>
       </c>
-      <c r="I57" s="3">
-        <v>189100</v>
-      </c>
       <c r="J57" s="3">
-        <v>190200</v>
+        <v>187800</v>
       </c>
       <c r="K57" s="3">
         <v>398700</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3405200</v>
+        <v>3360900</v>
       </c>
       <c r="E58" s="3">
-        <v>3042900</v>
+        <v>3003300</v>
       </c>
       <c r="F58" s="3">
-        <v>3470800</v>
+        <v>3425700</v>
       </c>
       <c r="G58" s="3">
-        <v>3421700</v>
+        <v>3377200</v>
       </c>
       <c r="H58" s="3">
-        <v>3061600</v>
+        <v>3021800</v>
       </c>
       <c r="I58" s="3">
-        <v>2625400</v>
+        <v>2591200</v>
       </c>
       <c r="J58" s="3">
-        <v>2417300</v>
+        <v>2385900</v>
       </c>
       <c r="K58" s="3">
         <v>2070800</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4329200</v>
+        <v>4272900</v>
       </c>
       <c r="E59" s="3">
-        <v>4072500</v>
+        <v>4019600</v>
       </c>
       <c r="F59" s="3">
-        <v>3695000</v>
+        <v>3646900</v>
       </c>
       <c r="G59" s="3">
-        <v>3496000</v>
+        <v>3450600</v>
       </c>
       <c r="H59" s="3">
-        <v>3523600</v>
+        <v>3477800</v>
       </c>
       <c r="I59" s="3">
-        <v>3151800</v>
+        <v>3110800</v>
       </c>
       <c r="J59" s="3">
-        <v>2792000</v>
+        <v>2755700</v>
       </c>
       <c r="K59" s="3">
         <v>2714800</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7901600</v>
+        <v>7798700</v>
       </c>
       <c r="E60" s="3">
-        <v>7292500</v>
+        <v>7197600</v>
       </c>
       <c r="F60" s="3">
-        <v>7321400</v>
+        <v>7226100</v>
       </c>
       <c r="G60" s="3">
-        <v>7050900</v>
+        <v>6959200</v>
       </c>
       <c r="H60" s="3">
-        <v>6772000</v>
+        <v>6683900</v>
       </c>
       <c r="I60" s="3">
-        <v>5966300</v>
+        <v>5888700</v>
       </c>
       <c r="J60" s="3">
-        <v>5399600</v>
+        <v>5329300</v>
       </c>
       <c r="K60" s="3">
         <v>5184200</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>270700</v>
+        <v>267200</v>
       </c>
       <c r="E62" s="3">
-        <v>208600</v>
+        <v>205900</v>
       </c>
       <c r="F62" s="3">
-        <v>163500</v>
+        <v>161400</v>
       </c>
       <c r="G62" s="3">
-        <v>227300</v>
+        <v>224400</v>
       </c>
       <c r="H62" s="3">
-        <v>164300</v>
+        <v>162100</v>
       </c>
       <c r="I62" s="3">
-        <v>131000</v>
+        <v>129300</v>
       </c>
       <c r="J62" s="3">
-        <v>188300</v>
+        <v>185900</v>
       </c>
       <c r="K62" s="3">
         <v>210400</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10109000</v>
+        <v>9977500</v>
       </c>
       <c r="E66" s="3">
-        <v>9321300</v>
+        <v>9200000</v>
       </c>
       <c r="F66" s="3">
-        <v>9280200</v>
+        <v>9159500</v>
       </c>
       <c r="G66" s="3">
-        <v>9105600</v>
+        <v>8987100</v>
       </c>
       <c r="H66" s="3">
-        <v>8745400</v>
+        <v>8631600</v>
       </c>
       <c r="I66" s="3">
-        <v>7905100</v>
+        <v>7802300</v>
       </c>
       <c r="J66" s="3">
-        <v>6621500</v>
+        <v>6535300</v>
       </c>
       <c r="K66" s="3">
         <v>6393700</v>
@@ -4304,7 +4304,7 @@
         <v>37</v>
       </c>
       <c r="E72" s="3">
-        <v>10201700</v>
+        <v>10068900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>37</v>
@@ -4316,7 +4316,7 @@
         <v>37</v>
       </c>
       <c r="I72" s="3">
-        <v>8987600</v>
+        <v>8870600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>37</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13371100</v>
+        <v>13197100</v>
       </c>
       <c r="E76" s="3">
-        <v>12812600</v>
+        <v>12645900</v>
       </c>
       <c r="F76" s="3">
-        <v>13299400</v>
+        <v>13126300</v>
       </c>
       <c r="G76" s="3">
-        <v>13386400</v>
+        <v>13212200</v>
       </c>
       <c r="H76" s="3">
-        <v>9765800</v>
+        <v>9638700</v>
       </c>
       <c r="I76" s="3">
-        <v>9587400</v>
+        <v>9462600</v>
       </c>
       <c r="J76" s="3">
-        <v>9888100</v>
+        <v>9759400</v>
       </c>
       <c r="K76" s="3">
         <v>7784300</v>
@@ -4740,25 +4740,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>692600</v>
+        <v>683500</v>
       </c>
       <c r="E81" s="3">
-        <v>152200</v>
+        <v>150200</v>
       </c>
       <c r="F81" s="3">
-        <v>467800</v>
+        <v>461700</v>
       </c>
       <c r="G81" s="3">
-        <v>707900</v>
+        <v>698700</v>
       </c>
       <c r="H81" s="3">
-        <v>554000</v>
+        <v>546800</v>
       </c>
       <c r="I81" s="3">
-        <v>476400</v>
+        <v>470200</v>
       </c>
       <c r="J81" s="3">
-        <v>1986100</v>
+        <v>1960200</v>
       </c>
       <c r="K81" s="3">
         <v>469200</v>
@@ -4826,25 +4826,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127900</v>
+        <v>126200</v>
       </c>
       <c r="E83" s="3">
-        <v>150200</v>
+        <v>148200</v>
       </c>
       <c r="F83" s="3">
-        <v>142400</v>
+        <v>140600</v>
       </c>
       <c r="G83" s="3">
-        <v>139200</v>
+        <v>137400</v>
       </c>
       <c r="H83" s="3">
-        <v>107700</v>
+        <v>106300</v>
       </c>
       <c r="I83" s="3">
-        <v>108500</v>
+        <v>107100</v>
       </c>
       <c r="J83" s="3">
-        <v>107400</v>
+        <v>106000</v>
       </c>
       <c r="K83" s="3">
         <v>98100</v>
@@ -5198,25 +5198,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>864700</v>
+        <v>853500</v>
       </c>
       <c r="E89" s="3">
-        <v>1281500</v>
+        <v>1264800</v>
       </c>
       <c r="F89" s="3">
-        <v>842600</v>
+        <v>831600</v>
       </c>
       <c r="G89" s="3">
-        <v>744500</v>
+        <v>734800</v>
       </c>
       <c r="H89" s="3">
-        <v>1014200</v>
+        <v>1001000</v>
       </c>
       <c r="I89" s="3">
-        <v>859700</v>
+        <v>848500</v>
       </c>
       <c r="J89" s="3">
-        <v>601200</v>
+        <v>593400</v>
       </c>
       <c r="K89" s="3">
         <v>682300</v>
@@ -5284,25 +5284,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51400</v>
+        <v>-50800</v>
       </c>
       <c r="E91" s="3">
-        <v>-47300</v>
+        <v>-46700</v>
       </c>
       <c r="F91" s="3">
-        <v>-54700</v>
+        <v>-54000</v>
       </c>
       <c r="G91" s="3">
-        <v>-37000</v>
+        <v>-36500</v>
       </c>
       <c r="H91" s="3">
-        <v>-25600</v>
+        <v>-25300</v>
       </c>
       <c r="I91" s="3">
-        <v>-36800</v>
+        <v>-36300</v>
       </c>
       <c r="J91" s="3">
-        <v>-51400</v>
+        <v>-50800</v>
       </c>
       <c r="K91" s="3">
         <v>-41900</v>
@@ -5470,25 +5470,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1111600</v>
+        <v>-1097100</v>
       </c>
       <c r="E94" s="3">
-        <v>163000</v>
+        <v>160900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1170400</v>
+        <v>-1155200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3160300</v>
+        <v>-3119200</v>
       </c>
       <c r="H94" s="3">
-        <v>-386700</v>
+        <v>-381600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1083700</v>
+        <v>-1069600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1104500</v>
+        <v>-1090100</v>
       </c>
       <c r="K94" s="3">
         <v>-514900</v>
@@ -5556,25 +5556,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-40700</v>
+        <v>-40200</v>
       </c>
       <c r="E96" s="3">
-        <v>-134400</v>
+        <v>-132600</v>
       </c>
       <c r="F96" s="3">
-        <v>-214900</v>
+        <v>-212100</v>
       </c>
       <c r="G96" s="3">
-        <v>-174000</v>
+        <v>-171700</v>
       </c>
       <c r="H96" s="3">
-        <v>-144600</v>
+        <v>-142700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1075000</v>
+        <v>-1061000</v>
       </c>
       <c r="J96" s="3">
-        <v>-144100</v>
+        <v>-142200</v>
       </c>
       <c r="K96" s="3">
         <v>-93700</v>
@@ -5804,25 +5804,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>219200</v>
+        <v>216400</v>
       </c>
       <c r="E100" s="3">
-        <v>-994700</v>
+        <v>-981700</v>
       </c>
       <c r="F100" s="3">
-        <v>-389400</v>
+        <v>-384400</v>
       </c>
       <c r="G100" s="3">
-        <v>3148100</v>
+        <v>3107100</v>
       </c>
       <c r="H100" s="3">
-        <v>-217500</v>
+        <v>-214600</v>
       </c>
       <c r="I100" s="3">
-        <v>182800</v>
+        <v>180400</v>
       </c>
       <c r="J100" s="3">
-        <v>114300</v>
+        <v>112800</v>
       </c>
       <c r="K100" s="3">
         <v>-188300</v>
@@ -5866,25 +5866,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="F101" s="3">
         <v>-3900</v>
       </c>
       <c r="G101" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="H101" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="I101" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J101" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K101" s="3">
         <v>5400</v>
@@ -5928,25 +5928,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="E102" s="3">
-        <v>439400</v>
+        <v>433700</v>
       </c>
       <c r="F102" s="3">
-        <v>-721100</v>
+        <v>-711700</v>
       </c>
       <c r="G102" s="3">
-        <v>760400</v>
+        <v>750500</v>
       </c>
       <c r="H102" s="3">
-        <v>421600</v>
+        <v>416100</v>
       </c>
       <c r="I102" s="3">
-        <v>-45400</v>
+        <v>-44800</v>
       </c>
       <c r="J102" s="3">
-        <v>-383000</v>
+        <v>-378000</v>
       </c>
       <c r="K102" s="3">
         <v>-15500</v>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3159200</v>
+        <v>3474200</v>
       </c>
       <c r="E8" s="3">
-        <v>3042900</v>
+        <v>3213300</v>
       </c>
       <c r="F8" s="3">
-        <v>2873000</v>
+        <v>3212200</v>
       </c>
       <c r="G8" s="3">
-        <v>2800100</v>
+        <v>3093900</v>
       </c>
       <c r="H8" s="3">
-        <v>2627300</v>
+        <v>2921100</v>
       </c>
       <c r="I8" s="3">
+        <v>2847000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2671300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2422800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2253600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2207400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2203400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1098200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1841900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2336400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2033500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2167900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1851800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1985100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2024400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1759600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1457400</v>
+        <v>1625100</v>
       </c>
       <c r="E9" s="3">
-        <v>1514200</v>
+        <v>1461500</v>
       </c>
       <c r="F9" s="3">
-        <v>1350800</v>
+        <v>1481800</v>
       </c>
       <c r="G9" s="3">
-        <v>1292300</v>
+        <v>1539600</v>
       </c>
       <c r="H9" s="3">
-        <v>1183300</v>
+        <v>1373400</v>
       </c>
       <c r="I9" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1203100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1131300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1041700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1025400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1021300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>92700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>830800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1296900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1179300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1315400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>969100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>985300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>913700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>819600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1701900</v>
+        <v>1849100</v>
       </c>
       <c r="E10" s="3">
-        <v>1528700</v>
+        <v>1751800</v>
       </c>
       <c r="F10" s="3">
-        <v>1522200</v>
+        <v>1730400</v>
       </c>
       <c r="G10" s="3">
-        <v>1507800</v>
+        <v>1554300</v>
       </c>
       <c r="H10" s="3">
-        <v>1444000</v>
+        <v>1547700</v>
       </c>
       <c r="I10" s="3">
+        <v>1533100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1468200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1291500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1211900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1182000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1182200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1005500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1011100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1039500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>854200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>852600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>882700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>999800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1110600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>940000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>471200</v>
+        <v>588900</v>
       </c>
       <c r="E12" s="3">
-        <v>466500</v>
+        <v>533400</v>
       </c>
       <c r="F12" s="3">
-        <v>429500</v>
+        <v>479100</v>
       </c>
       <c r="G12" s="3">
-        <v>370800</v>
+        <v>474300</v>
       </c>
       <c r="H12" s="3">
-        <v>329900</v>
+        <v>436700</v>
       </c>
       <c r="I12" s="3">
+        <v>377000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>335500</v>
+      </c>
+      <c r="K12" s="3">
         <v>349100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>332900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>297300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>311300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>269400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>275100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>209300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>184400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>171100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>156000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>137200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>127600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2500900</v>
+        <v>2883100</v>
       </c>
       <c r="E17" s="3">
-        <v>2579100</v>
+        <v>2624900</v>
       </c>
       <c r="F17" s="3">
-        <v>2431000</v>
+        <v>2542800</v>
       </c>
       <c r="G17" s="3">
-        <v>2158000</v>
+        <v>2622300</v>
       </c>
       <c r="H17" s="3">
-        <v>1936400</v>
+        <v>2471800</v>
       </c>
       <c r="I17" s="3">
+        <v>2194200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1968900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1964500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1740100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1638400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1629700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>531600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1487000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2001600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1860400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1956200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1473400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1479700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1316200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1197200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>658400</v>
+        <v>591000</v>
       </c>
       <c r="E18" s="3">
-        <v>463800</v>
+        <v>588400</v>
       </c>
       <c r="F18" s="3">
-        <v>441900</v>
+        <v>669400</v>
       </c>
       <c r="G18" s="3">
-        <v>642100</v>
+        <v>471500</v>
       </c>
       <c r="H18" s="3">
-        <v>690800</v>
+        <v>449300</v>
       </c>
       <c r="I18" s="3">
+        <v>652800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>702400</v>
+      </c>
+      <c r="K18" s="3">
         <v>458300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>513500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>569000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>573700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>566600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>354900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>334800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>173200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>211700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>378400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>505400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>708200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>562300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>232700</v>
+        <v>55700</v>
       </c>
       <c r="E20" s="3">
-        <v>-234700</v>
+        <v>130200</v>
       </c>
       <c r="F20" s="3">
-        <v>41000</v>
+        <v>236600</v>
       </c>
       <c r="G20" s="3">
-        <v>238000</v>
+        <v>-238700</v>
       </c>
       <c r="H20" s="3">
-        <v>84100</v>
+        <v>41700</v>
       </c>
       <c r="I20" s="3">
+        <v>242000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K20" s="3">
         <v>152700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>140900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>49800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>68900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>55200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>50200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>24600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>32300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>43400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>27100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>105700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1017300</v>
+        <v>772900</v>
       </c>
       <c r="E21" s="3">
-        <v>377300</v>
+        <v>846000</v>
       </c>
       <c r="F21" s="3">
-        <v>623500</v>
+        <v>1034400</v>
       </c>
       <c r="G21" s="3">
-        <v>1017500</v>
+        <v>383600</v>
       </c>
       <c r="H21" s="3">
-        <v>881200</v>
+        <v>633900</v>
       </c>
       <c r="I21" s="3">
+        <v>1034500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>896000</v>
+      </c>
+      <c r="K21" s="3">
         <v>718200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>762700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>720800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>712200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>734400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>489200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>452600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>208600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>277000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>441900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>574100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>756900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>682100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>891100</v>
+        <v>646800</v>
       </c>
       <c r="E23" s="3">
-        <v>229000</v>
+        <v>718500</v>
       </c>
       <c r="F23" s="3">
-        <v>482900</v>
+        <v>906000</v>
       </c>
       <c r="G23" s="3">
-        <v>880100</v>
+        <v>232900</v>
       </c>
       <c r="H23" s="3">
-        <v>774900</v>
+        <v>491000</v>
       </c>
       <c r="I23" s="3">
+        <v>894900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>787900</v>
+      </c>
+      <c r="K23" s="3">
         <v>611000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>654400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>624000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>623500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>635400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>410100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>385000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>156000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>236300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>410700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>548800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>735300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>668100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>196100</v>
+        <v>126400</v>
       </c>
       <c r="E24" s="3">
-        <v>85100</v>
+        <v>174300</v>
       </c>
       <c r="F24" s="3">
-        <v>52800</v>
+        <v>199400</v>
       </c>
       <c r="G24" s="3">
-        <v>163900</v>
+        <v>86500</v>
       </c>
       <c r="H24" s="3">
-        <v>166600</v>
+        <v>53700</v>
       </c>
       <c r="I24" s="3">
+        <v>166700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K24" s="3">
         <v>134900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>13500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>104500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>193500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>132800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>118000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>60300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>40600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>43100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>33500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>104400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>140000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>128300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>695000</v>
+        <v>520300</v>
       </c>
       <c r="E26" s="3">
-        <v>143900</v>
+        <v>544300</v>
       </c>
       <c r="F26" s="3">
-        <v>430100</v>
+        <v>706700</v>
       </c>
       <c r="G26" s="3">
-        <v>716200</v>
+        <v>146400</v>
       </c>
       <c r="H26" s="3">
-        <v>608300</v>
+        <v>437300</v>
       </c>
       <c r="I26" s="3">
+        <v>728200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>618500</v>
+      </c>
+      <c r="K26" s="3">
         <v>476100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>640900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>519600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>429900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>502600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>292100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>324700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>115500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>193200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>377200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>444400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>595300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>539800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>683500</v>
+        <v>498100</v>
       </c>
       <c r="E27" s="3">
-        <v>150200</v>
+        <v>554500</v>
       </c>
       <c r="F27" s="3">
-        <v>461700</v>
+        <v>695000</v>
       </c>
       <c r="G27" s="3">
-        <v>698700</v>
+        <v>152800</v>
       </c>
       <c r="H27" s="3">
-        <v>546800</v>
+        <v>469400</v>
       </c>
       <c r="I27" s="3">
+        <v>710400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>555900</v>
+      </c>
+      <c r="K27" s="3">
         <v>470200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>636600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>512500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>417500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>489400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>288700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>302200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>107900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>190800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>375100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>441100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>582200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>535600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,16 +2054,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -1955,39 +2077,39 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1323600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-43200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-53600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-242900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-65300</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-232700</v>
+        <v>-55700</v>
       </c>
       <c r="E32" s="3">
-        <v>234700</v>
+        <v>-130200</v>
       </c>
       <c r="F32" s="3">
-        <v>-41000</v>
+        <v>-236600</v>
       </c>
       <c r="G32" s="3">
-        <v>-238000</v>
+        <v>238700</v>
       </c>
       <c r="H32" s="3">
-        <v>-84100</v>
+        <v>-41700</v>
       </c>
       <c r="I32" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-152700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-140900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-49800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-68900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-55200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-50200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>17100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-24600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-32300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-43400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-27100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-105700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>683500</v>
+        <v>498100</v>
       </c>
       <c r="E33" s="3">
-        <v>150200</v>
+        <v>554500</v>
       </c>
       <c r="F33" s="3">
-        <v>461700</v>
+        <v>695000</v>
       </c>
       <c r="G33" s="3">
-        <v>698700</v>
+        <v>152800</v>
       </c>
       <c r="H33" s="3">
-        <v>546800</v>
+        <v>469400</v>
       </c>
       <c r="I33" s="3">
+        <v>710400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>555900</v>
+      </c>
+      <c r="K33" s="3">
         <v>470200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1960200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>469200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>363900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>246600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>223400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>302200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>107900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>190800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>375100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>441100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>582200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>535600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>683500</v>
+        <v>498100</v>
       </c>
       <c r="E35" s="3">
-        <v>150200</v>
+        <v>554500</v>
       </c>
       <c r="F35" s="3">
-        <v>461700</v>
+        <v>695000</v>
       </c>
       <c r="G35" s="3">
-        <v>698700</v>
+        <v>152800</v>
       </c>
       <c r="H35" s="3">
-        <v>546800</v>
+        <v>469400</v>
       </c>
       <c r="I35" s="3">
+        <v>710400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>555900</v>
+      </c>
+      <c r="K35" s="3">
         <v>470200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1960200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>469200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>363900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>246600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>223400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>302200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>107900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>190800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>375100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>441100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>582200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>535600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,504 +2659,554 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1353600</v>
+        <v>3486100</v>
       </c>
       <c r="E41" s="3">
-        <v>1403900</v>
+        <v>1555500</v>
       </c>
       <c r="F41" s="3">
-        <v>995700</v>
+        <v>1376300</v>
       </c>
       <c r="G41" s="3">
-        <v>1635700</v>
+        <v>1427400</v>
       </c>
       <c r="H41" s="3">
-        <v>861200</v>
+        <v>1012400</v>
       </c>
       <c r="I41" s="3">
+        <v>1663100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>875600</v>
+      </c>
+      <c r="K41" s="3">
         <v>499900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>422100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>738300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>631300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>724500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>668700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>441800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>534800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>410200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>382200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>447100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>587600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>791100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13968800</v>
+        <v>10813100</v>
       </c>
       <c r="E42" s="3">
-        <v>12988600</v>
+        <v>14238700</v>
       </c>
       <c r="F42" s="3">
-        <v>14156000</v>
+        <v>14202900</v>
       </c>
       <c r="G42" s="3">
-        <v>13172600</v>
+        <v>13206200</v>
       </c>
       <c r="H42" s="3">
-        <v>10761400</v>
+        <v>14393200</v>
       </c>
       <c r="I42" s="3">
+        <v>13393300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>10941700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10593800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9029400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>7748900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7283200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>6473600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5270700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5889700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5683300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>5987800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>5655100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5658600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5370000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>4500100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>778600</v>
+        <v>848900</v>
       </c>
       <c r="E43" s="3">
-        <v>704700</v>
+        <v>697100</v>
       </c>
       <c r="F43" s="3">
-        <v>762000</v>
+        <v>791700</v>
       </c>
       <c r="G43" s="3">
-        <v>772700</v>
+        <v>716500</v>
       </c>
       <c r="H43" s="3">
-        <v>702100</v>
+        <v>774800</v>
       </c>
       <c r="I43" s="3">
+        <v>785700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>713800</v>
+      </c>
+      <c r="K43" s="3">
         <v>642000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>724700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>686700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>774700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>598200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>639500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>554400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>637900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>537200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>483700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>505200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>546600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>618300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>134700</v>
+        <v>162600</v>
       </c>
       <c r="E44" s="3">
-        <v>95700</v>
+        <v>138400</v>
       </c>
       <c r="F44" s="3">
-        <v>80700</v>
+        <v>136900</v>
       </c>
       <c r="G44" s="3">
-        <v>86000</v>
+        <v>97300</v>
       </c>
       <c r="H44" s="3">
-        <v>86600</v>
+        <v>82100</v>
       </c>
       <c r="I44" s="3">
+        <v>87500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K44" s="3">
         <v>100200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>105700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>606000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>653500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>154800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>880500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>814400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>734800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>812500</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U44" s="3">
-        <v>229500</v>
+      <c r="U44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>229500</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1553300</v>
+        <v>1745500</v>
       </c>
       <c r="E45" s="3">
-        <v>1411000</v>
+        <v>1524800</v>
       </c>
       <c r="F45" s="3">
-        <v>1523100</v>
+        <v>1579300</v>
       </c>
       <c r="G45" s="3">
-        <v>1442100</v>
+        <v>1434700</v>
       </c>
       <c r="H45" s="3">
-        <v>1481000</v>
+        <v>1548700</v>
       </c>
       <c r="I45" s="3">
+        <v>1466300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1505800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1268600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2428400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1379700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1603500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2028600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1351100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1249200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1503400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1445900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2209500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1940600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1537400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1120900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17789100</v>
+        <v>17056200</v>
       </c>
       <c r="E46" s="3">
-        <v>16603800</v>
+        <v>18154600</v>
       </c>
       <c r="F46" s="3">
-        <v>17517600</v>
+        <v>18087200</v>
       </c>
       <c r="G46" s="3">
-        <v>17109200</v>
+        <v>16882000</v>
       </c>
       <c r="H46" s="3">
-        <v>13892300</v>
+        <v>17811100</v>
       </c>
       <c r="I46" s="3">
+        <v>17395900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>14125000</v>
+      </c>
+      <c r="K46" s="3">
         <v>13104500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>12710400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11159600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10946200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9979600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8810600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8949500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9094200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9193700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8730600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8551400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8041600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7181800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1037800</v>
+        <v>1088600</v>
       </c>
       <c r="E47" s="3">
-        <v>2824200</v>
+        <v>1111600</v>
       </c>
       <c r="F47" s="3">
-        <v>654400</v>
+        <v>1055200</v>
       </c>
       <c r="G47" s="3">
-        <v>1050700</v>
+        <v>2871500</v>
       </c>
       <c r="H47" s="3">
-        <v>592800</v>
+        <v>665400</v>
       </c>
       <c r="I47" s="3">
+        <v>1068300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>602800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1794500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>776400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>21000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>21500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>21500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>413300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>7400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>7400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>74200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>366500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1356200</v>
+        <v>1419900</v>
       </c>
       <c r="E48" s="3">
-        <v>1463900</v>
+        <v>1382300</v>
       </c>
       <c r="F48" s="3">
-        <v>1330300</v>
+        <v>1379000</v>
       </c>
       <c r="G48" s="3">
-        <v>1330100</v>
+        <v>1488400</v>
       </c>
       <c r="H48" s="3">
-        <v>1271600</v>
+        <v>1352600</v>
       </c>
       <c r="I48" s="3">
+        <v>1352400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1292900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1353900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1301600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>945300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>944100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>678700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>742600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>699200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>611500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>559400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>498100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>442500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>398600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>351900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3015,38 +3237,44 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>492700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>84200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>84700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>88000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>88500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>86500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>86900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>85600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2991400</v>
+        <v>3573000</v>
       </c>
       <c r="E52" s="3">
-        <v>954000</v>
+        <v>3596000</v>
       </c>
       <c r="F52" s="3">
-        <v>2783500</v>
+        <v>3041500</v>
       </c>
       <c r="G52" s="3">
-        <v>2709400</v>
+        <v>970000</v>
       </c>
       <c r="H52" s="3">
-        <v>2513700</v>
+        <v>2830200</v>
       </c>
       <c r="I52" s="3">
+        <v>2754800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2555800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1012100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2275000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2065600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2072100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1957600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1128300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1064000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>773500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>287400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>544500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>588900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>726800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>453800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23174600</v>
+        <v>23137700</v>
       </c>
       <c r="E54" s="3">
-        <v>21845800</v>
+        <v>24244400</v>
       </c>
       <c r="F54" s="3">
-        <v>22285800</v>
+        <v>23562900</v>
       </c>
       <c r="G54" s="3">
-        <v>22199300</v>
+        <v>22211900</v>
       </c>
       <c r="H54" s="3">
-        <v>18270300</v>
+        <v>22659200</v>
       </c>
       <c r="I54" s="3">
+        <v>22571300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>18576400</v>
+      </c>
+      <c r="K54" s="3">
         <v>17264900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16294800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>14178000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13970100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12630400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11195300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10818400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10585300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10541800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9869200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9676800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9328300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8439600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,256 +3663,282 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>164900</v>
+        <v>172000</v>
       </c>
       <c r="E57" s="3">
-        <v>174700</v>
+        <v>139300</v>
       </c>
       <c r="F57" s="3">
-        <v>153500</v>
+        <v>167700</v>
       </c>
       <c r="G57" s="3">
-        <v>131500</v>
+        <v>177600</v>
       </c>
       <c r="H57" s="3">
-        <v>184300</v>
+        <v>156100</v>
       </c>
       <c r="I57" s="3">
+        <v>133700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>187400</v>
+      </c>
+      <c r="K57" s="3">
         <v>186700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>187800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>398700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>450600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>174500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>360300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>331200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>339400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>362500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>307000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>281800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>234400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>203000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3360900</v>
+        <v>3070800</v>
       </c>
       <c r="E58" s="3">
-        <v>3003300</v>
+        <v>4256600</v>
       </c>
       <c r="F58" s="3">
-        <v>3425700</v>
+        <v>3417200</v>
       </c>
       <c r="G58" s="3">
-        <v>3377200</v>
+        <v>3053700</v>
       </c>
       <c r="H58" s="3">
-        <v>3021800</v>
+        <v>3483100</v>
       </c>
       <c r="I58" s="3">
+        <v>3433800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3072400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2591200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2385900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2070800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2159500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1983600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1909900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1825900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1365400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>983000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>850800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>798100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>665400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>554900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4272900</v>
+        <v>4429900</v>
       </c>
       <c r="E59" s="3">
-        <v>4019600</v>
+        <v>4111900</v>
       </c>
       <c r="F59" s="3">
-        <v>3646900</v>
+        <v>4344500</v>
       </c>
       <c r="G59" s="3">
-        <v>3450600</v>
+        <v>4086900</v>
       </c>
       <c r="H59" s="3">
-        <v>3477800</v>
+        <v>3708000</v>
       </c>
       <c r="I59" s="3">
+        <v>3508400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3536000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3110800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2755700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2714800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2925100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2940700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2365900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2092900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2295300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2179300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1824600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1916500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2096200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2083000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7798700</v>
+        <v>7672700</v>
       </c>
       <c r="E60" s="3">
-        <v>7197600</v>
+        <v>8507700</v>
       </c>
       <c r="F60" s="3">
-        <v>7226100</v>
+        <v>7929400</v>
       </c>
       <c r="G60" s="3">
-        <v>6959200</v>
+        <v>7318200</v>
       </c>
       <c r="H60" s="3">
-        <v>6683900</v>
+        <v>7347200</v>
       </c>
       <c r="I60" s="3">
+        <v>7075800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6795900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5888700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5329300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5184200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5535100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5098900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4636100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4250000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4000100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3524800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2982400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2996300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2995900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2788800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,70 +3999,82 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>267200</v>
+        <v>364800</v>
       </c>
       <c r="E62" s="3">
-        <v>205900</v>
+        <v>313200</v>
       </c>
       <c r="F62" s="3">
-        <v>161400</v>
+        <v>271700</v>
       </c>
       <c r="G62" s="3">
-        <v>224400</v>
+        <v>209300</v>
       </c>
       <c r="H62" s="3">
-        <v>162100</v>
+        <v>164100</v>
       </c>
       <c r="I62" s="3">
+        <v>228100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K62" s="3">
         <v>129300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>185900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>210400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>168600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>65000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>87600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>84800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>60500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>34400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>17800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>41800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>27800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>57100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9977500</v>
+        <v>10021100</v>
       </c>
       <c r="E66" s="3">
-        <v>9200000</v>
+        <v>10759000</v>
       </c>
       <c r="F66" s="3">
-        <v>9159500</v>
+        <v>10144700</v>
       </c>
       <c r="G66" s="3">
-        <v>8987100</v>
+        <v>9354100</v>
       </c>
       <c r="H66" s="3">
-        <v>8631600</v>
+        <v>9312900</v>
       </c>
       <c r="I66" s="3">
+        <v>9137700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8776200</v>
+      </c>
+      <c r="K66" s="3">
         <v>7802300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6535300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6393700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6672100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6061400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5124400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4561000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4202100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3754700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3188400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3215300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3151400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2885400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,46 +4637,52 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="3">
-        <v>10068900</v>
+      <c r="E72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>37</v>
+      <c r="G72" s="3">
+        <v>10237600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="3">
-        <v>8870600</v>
+      <c r="I72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>37</v>
+      <c r="K72" s="3">
+        <v>8870600</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="3">
-        <v>6566100</v>
+      <c r="M72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>37</v>
+      <c r="O72" s="3">
+        <v>6566100</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>37</v>
@@ -4351,14 +4699,20 @@
       <c r="T72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U72" s="3">
-        <v>5306600</v>
+      <c r="U72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>5306600</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13197100</v>
+        <v>13116600</v>
       </c>
       <c r="E76" s="3">
-        <v>12645900</v>
+        <v>13485500</v>
       </c>
       <c r="F76" s="3">
-        <v>13126300</v>
+        <v>13418200</v>
       </c>
       <c r="G76" s="3">
-        <v>13212200</v>
+        <v>12857800</v>
       </c>
       <c r="H76" s="3">
-        <v>9638700</v>
+        <v>13346200</v>
       </c>
       <c r="I76" s="3">
+        <v>13433600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9800200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9462600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9759400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7784300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7298000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6569000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6070900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6257400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6383200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6787100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6680800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6461500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6176800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5554100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>683500</v>
+        <v>498100</v>
       </c>
       <c r="E81" s="3">
-        <v>150200</v>
+        <v>554500</v>
       </c>
       <c r="F81" s="3">
-        <v>461700</v>
+        <v>695000</v>
       </c>
       <c r="G81" s="3">
-        <v>698700</v>
+        <v>152800</v>
       </c>
       <c r="H81" s="3">
-        <v>546800</v>
+        <v>469400</v>
       </c>
       <c r="I81" s="3">
+        <v>710400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>555900</v>
+      </c>
+      <c r="K81" s="3">
         <v>470200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1960200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>469200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>363900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>246600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>223400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>302200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>107900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>190800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>375100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>441100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>582200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>535600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126200</v>
+        <v>126100</v>
       </c>
       <c r="E83" s="3">
-        <v>148200</v>
+        <v>127500</v>
       </c>
       <c r="F83" s="3">
-        <v>140600</v>
+        <v>128400</v>
       </c>
       <c r="G83" s="3">
-        <v>137400</v>
+        <v>150700</v>
       </c>
       <c r="H83" s="3">
-        <v>106300</v>
+        <v>142900</v>
       </c>
       <c r="I83" s="3">
+        <v>139700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K83" s="3">
         <v>107100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>106000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>98100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>89700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>98200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>79800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>67600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>52600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>40700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>31300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>25300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>21700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>853500</v>
+        <v>985200</v>
       </c>
       <c r="E89" s="3">
-        <v>1264800</v>
+        <v>739400</v>
       </c>
       <c r="F89" s="3">
-        <v>831600</v>
+        <v>867800</v>
       </c>
       <c r="G89" s="3">
-        <v>734800</v>
+        <v>1286000</v>
       </c>
       <c r="H89" s="3">
-        <v>1001000</v>
+        <v>845600</v>
       </c>
       <c r="I89" s="3">
+        <v>747200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1017700</v>
+      </c>
+      <c r="K89" s="3">
         <v>848500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>593400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>682300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>517400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>862000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>506300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>280900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>273300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>576000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>245700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>344500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>598300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>782200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-50800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-46700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-54000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-36300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-50800</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-41900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-56500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-73400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-80900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-111200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-96200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-84900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-76000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-64300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-48300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-67700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1097100</v>
+        <v>3312400</v>
       </c>
       <c r="E94" s="3">
-        <v>160900</v>
+        <v>-867800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1155200</v>
+        <v>-1115500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3119200</v>
+        <v>163600</v>
       </c>
       <c r="H94" s="3">
-        <v>-381600</v>
+        <v>-1174500</v>
       </c>
       <c r="I94" s="3">
+        <v>-3171400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1069600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1090100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-514900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-724400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-55800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-555300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-592900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-140100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-343300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-831600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-670000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +6016,78 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-40200</v>
+        <v>-161000</v>
       </c>
       <c r="E96" s="3">
-        <v>-132600</v>
+        <v>-200200</v>
       </c>
       <c r="F96" s="3">
-        <v>-212100</v>
+        <v>-40800</v>
       </c>
       <c r="G96" s="3">
-        <v>-171700</v>
+        <v>-134800</v>
       </c>
       <c r="H96" s="3">
-        <v>-142700</v>
+        <v>-215700</v>
       </c>
       <c r="I96" s="3">
+        <v>-174600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1061000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-142200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-93700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-63200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-58000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-74700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-27500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-92700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-109200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-145500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-136100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-100700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>216400</v>
+        <v>-2331900</v>
       </c>
       <c r="E100" s="3">
-        <v>-981700</v>
+        <v>309600</v>
       </c>
       <c r="F100" s="3">
-        <v>-384400</v>
+        <v>220000</v>
       </c>
       <c r="G100" s="3">
-        <v>3107100</v>
+        <v>-998200</v>
       </c>
       <c r="H100" s="3">
-        <v>-214600</v>
+        <v>-390800</v>
       </c>
       <c r="I100" s="3">
+        <v>3159200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-218200</v>
+      </c>
+      <c r="K100" s="3">
         <v>180400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>112800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-188300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>62800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>406100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-127900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-41900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-171000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-31700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>16300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>17200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>-10400</v>
+        <v>-3900</v>
       </c>
       <c r="F101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
-        <v>27700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>11400</v>
-      </c>
       <c r="I101" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>11200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-3500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>9900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21800</v>
+        <v>1968000</v>
       </c>
       <c r="E102" s="3">
-        <v>433700</v>
+        <v>177200</v>
       </c>
       <c r="F102" s="3">
-        <v>-711700</v>
+        <v>-22100</v>
       </c>
       <c r="G102" s="3">
-        <v>750500</v>
+        <v>440900</v>
       </c>
       <c r="H102" s="3">
-        <v>416100</v>
+        <v>-723700</v>
       </c>
       <c r="I102" s="3">
+        <v>763100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>423100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-44800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-378000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-15500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-146900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>70400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>330100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-305100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>114500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-25400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-61500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-34000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-217600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>139300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3474200</v>
+        <v>3500800</v>
       </c>
       <c r="E8" s="3">
-        <v>3213300</v>
+        <v>3237900</v>
       </c>
       <c r="F8" s="3">
-        <v>3212200</v>
+        <v>3236800</v>
       </c>
       <c r="G8" s="3">
-        <v>3093900</v>
+        <v>3117600</v>
       </c>
       <c r="H8" s="3">
-        <v>2921100</v>
+        <v>2943500</v>
       </c>
       <c r="I8" s="3">
-        <v>2847000</v>
+        <v>2868800</v>
       </c>
       <c r="J8" s="3">
-        <v>2671300</v>
+        <v>2691800</v>
       </c>
       <c r="K8" s="3">
         <v>2422800</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1625100</v>
+        <v>1637500</v>
       </c>
       <c r="E9" s="3">
-        <v>1461500</v>
+        <v>1472700</v>
       </c>
       <c r="F9" s="3">
-        <v>1481800</v>
+        <v>1493100</v>
       </c>
       <c r="G9" s="3">
-        <v>1539600</v>
+        <v>1551400</v>
       </c>
       <c r="H9" s="3">
-        <v>1373400</v>
+        <v>1383900</v>
       </c>
       <c r="I9" s="3">
-        <v>1314000</v>
+        <v>1324000</v>
       </c>
       <c r="J9" s="3">
-        <v>1203100</v>
+        <v>1212300</v>
       </c>
       <c r="K9" s="3">
         <v>1131300</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1849100</v>
+        <v>1863300</v>
       </c>
       <c r="E10" s="3">
-        <v>1751800</v>
+        <v>1765300</v>
       </c>
       <c r="F10" s="3">
-        <v>1730400</v>
+        <v>1743700</v>
       </c>
       <c r="G10" s="3">
-        <v>1554300</v>
+        <v>1566200</v>
       </c>
       <c r="H10" s="3">
-        <v>1547700</v>
+        <v>1559600</v>
       </c>
       <c r="I10" s="3">
-        <v>1533100</v>
+        <v>1544800</v>
       </c>
       <c r="J10" s="3">
-        <v>1468200</v>
+        <v>1479400</v>
       </c>
       <c r="K10" s="3">
         <v>1291500</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>588900</v>
+        <v>593400</v>
       </c>
       <c r="E12" s="3">
-        <v>533400</v>
+        <v>537500</v>
       </c>
       <c r="F12" s="3">
-        <v>479100</v>
+        <v>482800</v>
       </c>
       <c r="G12" s="3">
-        <v>474300</v>
+        <v>477900</v>
       </c>
       <c r="H12" s="3">
-        <v>436700</v>
+        <v>440000</v>
       </c>
       <c r="I12" s="3">
-        <v>377000</v>
+        <v>379900</v>
       </c>
       <c r="J12" s="3">
-        <v>335500</v>
+        <v>338000</v>
       </c>
       <c r="K12" s="3">
         <v>349100</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2883100</v>
+        <v>2905200</v>
       </c>
       <c r="E17" s="3">
-        <v>2624900</v>
+        <v>2645100</v>
       </c>
       <c r="F17" s="3">
-        <v>2542800</v>
+        <v>2562300</v>
       </c>
       <c r="G17" s="3">
-        <v>2622300</v>
+        <v>2642400</v>
       </c>
       <c r="H17" s="3">
-        <v>2471800</v>
+        <v>2490700</v>
       </c>
       <c r="I17" s="3">
-        <v>2194200</v>
+        <v>2211000</v>
       </c>
       <c r="J17" s="3">
-        <v>1968900</v>
+        <v>1984000</v>
       </c>
       <c r="K17" s="3">
         <v>1964500</v>
@@ -1360,25 +1360,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>591000</v>
+        <v>595600</v>
       </c>
       <c r="E18" s="3">
-        <v>588400</v>
+        <v>592900</v>
       </c>
       <c r="F18" s="3">
-        <v>669400</v>
+        <v>674500</v>
       </c>
       <c r="G18" s="3">
-        <v>471500</v>
+        <v>475200</v>
       </c>
       <c r="H18" s="3">
-        <v>449300</v>
+        <v>452800</v>
       </c>
       <c r="I18" s="3">
-        <v>652800</v>
+        <v>657800</v>
       </c>
       <c r="J18" s="3">
-        <v>702400</v>
+        <v>707800</v>
       </c>
       <c r="K18" s="3">
         <v>458300</v>
@@ -1454,25 +1454,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>55700</v>
+        <v>56200</v>
       </c>
       <c r="E20" s="3">
-        <v>130200</v>
+        <v>131200</v>
       </c>
       <c r="F20" s="3">
-        <v>236600</v>
+        <v>238500</v>
       </c>
       <c r="G20" s="3">
-        <v>-238700</v>
+        <v>-240500</v>
       </c>
       <c r="H20" s="3">
-        <v>41700</v>
+        <v>42000</v>
       </c>
       <c r="I20" s="3">
-        <v>242000</v>
+        <v>243900</v>
       </c>
       <c r="J20" s="3">
-        <v>85500</v>
+        <v>86200</v>
       </c>
       <c r="K20" s="3">
         <v>152700</v>
@@ -1522,25 +1522,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>772900</v>
+        <v>778800</v>
       </c>
       <c r="E21" s="3">
-        <v>846000</v>
+        <v>852500</v>
       </c>
       <c r="F21" s="3">
-        <v>1034400</v>
+        <v>1042300</v>
       </c>
       <c r="G21" s="3">
-        <v>383600</v>
+        <v>386500</v>
       </c>
       <c r="H21" s="3">
-        <v>633900</v>
+        <v>638800</v>
       </c>
       <c r="I21" s="3">
-        <v>1034500</v>
+        <v>1042500</v>
       </c>
       <c r="J21" s="3">
-        <v>896000</v>
+        <v>902800</v>
       </c>
       <c r="K21" s="3">
         <v>718200</v>
@@ -1658,25 +1658,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>646800</v>
+        <v>651700</v>
       </c>
       <c r="E23" s="3">
-        <v>718500</v>
+        <v>724100</v>
       </c>
       <c r="F23" s="3">
-        <v>906000</v>
+        <v>913000</v>
       </c>
       <c r="G23" s="3">
-        <v>232900</v>
+        <v>234700</v>
       </c>
       <c r="H23" s="3">
-        <v>491000</v>
+        <v>494800</v>
       </c>
       <c r="I23" s="3">
-        <v>894900</v>
+        <v>901700</v>
       </c>
       <c r="J23" s="3">
-        <v>787900</v>
+        <v>794000</v>
       </c>
       <c r="K23" s="3">
         <v>611000</v>
@@ -1726,25 +1726,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>126400</v>
+        <v>127400</v>
       </c>
       <c r="E24" s="3">
-        <v>174300</v>
+        <v>175600</v>
       </c>
       <c r="F24" s="3">
-        <v>199400</v>
+        <v>200900</v>
       </c>
       <c r="G24" s="3">
-        <v>86500</v>
+        <v>87200</v>
       </c>
       <c r="H24" s="3">
-        <v>53700</v>
+        <v>54100</v>
       </c>
       <c r="I24" s="3">
-        <v>166700</v>
+        <v>167900</v>
       </c>
       <c r="J24" s="3">
-        <v>169400</v>
+        <v>170700</v>
       </c>
       <c r="K24" s="3">
         <v>134900</v>
@@ -1862,25 +1862,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>520300</v>
+        <v>524300</v>
       </c>
       <c r="E26" s="3">
-        <v>544300</v>
+        <v>548400</v>
       </c>
       <c r="F26" s="3">
-        <v>706700</v>
+        <v>712100</v>
       </c>
       <c r="G26" s="3">
-        <v>146400</v>
+        <v>147500</v>
       </c>
       <c r="H26" s="3">
-        <v>437300</v>
+        <v>440700</v>
       </c>
       <c r="I26" s="3">
-        <v>728200</v>
+        <v>733800</v>
       </c>
       <c r="J26" s="3">
-        <v>618500</v>
+        <v>623300</v>
       </c>
       <c r="K26" s="3">
         <v>476100</v>
@@ -1930,25 +1930,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>498100</v>
+        <v>502000</v>
       </c>
       <c r="E27" s="3">
-        <v>554500</v>
+        <v>558700</v>
       </c>
       <c r="F27" s="3">
-        <v>695000</v>
+        <v>700300</v>
       </c>
       <c r="G27" s="3">
-        <v>152800</v>
+        <v>153900</v>
       </c>
       <c r="H27" s="3">
-        <v>469400</v>
+        <v>473000</v>
       </c>
       <c r="I27" s="3">
-        <v>710400</v>
+        <v>715900</v>
       </c>
       <c r="J27" s="3">
-        <v>555900</v>
+        <v>560200</v>
       </c>
       <c r="K27" s="3">
         <v>470200</v>
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-55700</v>
+        <v>-56200</v>
       </c>
       <c r="E32" s="3">
-        <v>-130200</v>
+        <v>-131200</v>
       </c>
       <c r="F32" s="3">
-        <v>-236600</v>
+        <v>-238500</v>
       </c>
       <c r="G32" s="3">
-        <v>238700</v>
+        <v>240500</v>
       </c>
       <c r="H32" s="3">
-        <v>-41700</v>
+        <v>-42000</v>
       </c>
       <c r="I32" s="3">
-        <v>-242000</v>
+        <v>-243900</v>
       </c>
       <c r="J32" s="3">
-        <v>-85500</v>
+        <v>-86200</v>
       </c>
       <c r="K32" s="3">
         <v>-152700</v>
@@ -2338,25 +2338,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>498100</v>
+        <v>502000</v>
       </c>
       <c r="E33" s="3">
-        <v>554500</v>
+        <v>558700</v>
       </c>
       <c r="F33" s="3">
-        <v>695000</v>
+        <v>700300</v>
       </c>
       <c r="G33" s="3">
-        <v>152800</v>
+        <v>153900</v>
       </c>
       <c r="H33" s="3">
-        <v>469400</v>
+        <v>473000</v>
       </c>
       <c r="I33" s="3">
-        <v>710400</v>
+        <v>715900</v>
       </c>
       <c r="J33" s="3">
-        <v>555900</v>
+        <v>560200</v>
       </c>
       <c r="K33" s="3">
         <v>470200</v>
@@ -2474,25 +2474,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>498100</v>
+        <v>502000</v>
       </c>
       <c r="E35" s="3">
-        <v>554500</v>
+        <v>558700</v>
       </c>
       <c r="F35" s="3">
-        <v>695000</v>
+        <v>700300</v>
       </c>
       <c r="G35" s="3">
-        <v>152800</v>
+        <v>153900</v>
       </c>
       <c r="H35" s="3">
-        <v>469400</v>
+        <v>473000</v>
       </c>
       <c r="I35" s="3">
-        <v>710400</v>
+        <v>715900</v>
       </c>
       <c r="J35" s="3">
-        <v>555900</v>
+        <v>560200</v>
       </c>
       <c r="K35" s="3">
         <v>470200</v>
@@ -2667,25 +2667,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3486100</v>
+        <v>3512800</v>
       </c>
       <c r="E41" s="3">
-        <v>1555500</v>
+        <v>1567500</v>
       </c>
       <c r="F41" s="3">
-        <v>1376300</v>
+        <v>1386900</v>
       </c>
       <c r="G41" s="3">
-        <v>1427400</v>
+        <v>1438300</v>
       </c>
       <c r="H41" s="3">
-        <v>1012400</v>
+        <v>1020100</v>
       </c>
       <c r="I41" s="3">
-        <v>1663100</v>
+        <v>1675900</v>
       </c>
       <c r="J41" s="3">
-        <v>875600</v>
+        <v>882300</v>
       </c>
       <c r="K41" s="3">
         <v>499900</v>
@@ -2735,25 +2735,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>10813100</v>
+        <v>10895900</v>
       </c>
       <c r="E42" s="3">
-        <v>14238700</v>
+        <v>14347800</v>
       </c>
       <c r="F42" s="3">
-        <v>14202900</v>
+        <v>14311800</v>
       </c>
       <c r="G42" s="3">
-        <v>13206200</v>
+        <v>13307400</v>
       </c>
       <c r="H42" s="3">
-        <v>14393200</v>
+        <v>14503500</v>
       </c>
       <c r="I42" s="3">
-        <v>13393300</v>
+        <v>13496000</v>
       </c>
       <c r="J42" s="3">
-        <v>10941700</v>
+        <v>11025600</v>
       </c>
       <c r="K42" s="3">
         <v>10593800</v>
@@ -2803,25 +2803,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>848900</v>
+        <v>855400</v>
       </c>
       <c r="E43" s="3">
-        <v>697100</v>
+        <v>702400</v>
       </c>
       <c r="F43" s="3">
+        <v>797700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>722000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>780800</v>
+      </c>
+      <c r="I43" s="3">
         <v>791700</v>
       </c>
-      <c r="G43" s="3">
-        <v>716500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>774800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>785700</v>
-      </c>
       <c r="J43" s="3">
-        <v>713800</v>
+        <v>719300</v>
       </c>
       <c r="K43" s="3">
         <v>642000</v>
@@ -2871,25 +2871,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>162600</v>
+        <v>163900</v>
       </c>
       <c r="E44" s="3">
-        <v>138400</v>
+        <v>139500</v>
       </c>
       <c r="F44" s="3">
-        <v>136900</v>
+        <v>138000</v>
       </c>
       <c r="G44" s="3">
-        <v>97300</v>
+        <v>98000</v>
       </c>
       <c r="H44" s="3">
-        <v>82100</v>
+        <v>82700</v>
       </c>
       <c r="I44" s="3">
-        <v>87500</v>
+        <v>88200</v>
       </c>
       <c r="J44" s="3">
-        <v>88000</v>
+        <v>88700</v>
       </c>
       <c r="K44" s="3">
         <v>100200</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1745500</v>
+        <v>1758900</v>
       </c>
       <c r="E45" s="3">
-        <v>1524800</v>
+        <v>1536500</v>
       </c>
       <c r="F45" s="3">
-        <v>1579300</v>
+        <v>1591400</v>
       </c>
       <c r="G45" s="3">
-        <v>1434700</v>
+        <v>1445700</v>
       </c>
       <c r="H45" s="3">
-        <v>1548700</v>
+        <v>1560500</v>
       </c>
       <c r="I45" s="3">
-        <v>1466300</v>
+        <v>1477500</v>
       </c>
       <c r="J45" s="3">
-        <v>1505800</v>
+        <v>1517400</v>
       </c>
       <c r="K45" s="3">
         <v>1268600</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17056200</v>
+        <v>17186900</v>
       </c>
       <c r="E46" s="3">
-        <v>18154600</v>
+        <v>18293700</v>
       </c>
       <c r="F46" s="3">
-        <v>18087200</v>
+        <v>18225800</v>
       </c>
       <c r="G46" s="3">
-        <v>16882000</v>
+        <v>17011400</v>
       </c>
       <c r="H46" s="3">
-        <v>17811100</v>
+        <v>17947600</v>
       </c>
       <c r="I46" s="3">
-        <v>17395900</v>
+        <v>17529200</v>
       </c>
       <c r="J46" s="3">
-        <v>14125000</v>
+        <v>14233300</v>
       </c>
       <c r="K46" s="3">
         <v>13104500</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1088600</v>
+        <v>1096900</v>
       </c>
       <c r="E47" s="3">
-        <v>1111600</v>
+        <v>1120100</v>
       </c>
       <c r="F47" s="3">
-        <v>1055200</v>
+        <v>1063300</v>
       </c>
       <c r="G47" s="3">
-        <v>2871500</v>
+        <v>2893500</v>
       </c>
       <c r="H47" s="3">
-        <v>665400</v>
+        <v>670500</v>
       </c>
       <c r="I47" s="3">
-        <v>1068300</v>
+        <v>1076500</v>
       </c>
       <c r="J47" s="3">
-        <v>602800</v>
+        <v>607400</v>
       </c>
       <c r="K47" s="3">
         <v>1794500</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1419900</v>
+        <v>1430800</v>
       </c>
       <c r="E48" s="3">
-        <v>1382300</v>
+        <v>1392900</v>
       </c>
       <c r="F48" s="3">
-        <v>1379000</v>
+        <v>1389500</v>
       </c>
       <c r="G48" s="3">
-        <v>1488400</v>
+        <v>1499800</v>
       </c>
       <c r="H48" s="3">
-        <v>1352600</v>
+        <v>1362900</v>
       </c>
       <c r="I48" s="3">
-        <v>1352400</v>
+        <v>1362800</v>
       </c>
       <c r="J48" s="3">
-        <v>1292900</v>
+        <v>1302800</v>
       </c>
       <c r="K48" s="3">
         <v>1353900</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3573000</v>
+        <v>3600400</v>
       </c>
       <c r="E52" s="3">
-        <v>3596000</v>
+        <v>3623600</v>
       </c>
       <c r="F52" s="3">
-        <v>3041500</v>
+        <v>3064900</v>
       </c>
       <c r="G52" s="3">
-        <v>970000</v>
+        <v>977400</v>
       </c>
       <c r="H52" s="3">
-        <v>2830200</v>
+        <v>2851800</v>
       </c>
       <c r="I52" s="3">
-        <v>2754800</v>
+        <v>2775900</v>
       </c>
       <c r="J52" s="3">
-        <v>2555800</v>
+        <v>2575400</v>
       </c>
       <c r="K52" s="3">
         <v>1012100</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23137700</v>
+        <v>23315100</v>
       </c>
       <c r="E54" s="3">
-        <v>24244400</v>
+        <v>24430200</v>
       </c>
       <c r="F54" s="3">
-        <v>23562900</v>
+        <v>23743500</v>
       </c>
       <c r="G54" s="3">
-        <v>22211900</v>
+        <v>22382100</v>
       </c>
       <c r="H54" s="3">
-        <v>22659200</v>
+        <v>22832900</v>
       </c>
       <c r="I54" s="3">
-        <v>22571300</v>
+        <v>22744300</v>
       </c>
       <c r="J54" s="3">
-        <v>18576400</v>
+        <v>18718800</v>
       </c>
       <c r="K54" s="3">
         <v>17264900</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>172000</v>
+        <v>173400</v>
       </c>
       <c r="E57" s="3">
-        <v>139300</v>
+        <v>140400</v>
       </c>
       <c r="F57" s="3">
-        <v>167700</v>
+        <v>169000</v>
       </c>
       <c r="G57" s="3">
-        <v>177600</v>
+        <v>179000</v>
       </c>
       <c r="H57" s="3">
-        <v>156100</v>
+        <v>157300</v>
       </c>
       <c r="I57" s="3">
-        <v>133700</v>
+        <v>134700</v>
       </c>
       <c r="J57" s="3">
-        <v>187400</v>
+        <v>188800</v>
       </c>
       <c r="K57" s="3">
         <v>186700</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3070800</v>
+        <v>3094300</v>
       </c>
       <c r="E58" s="3">
-        <v>4256600</v>
+        <v>4289200</v>
       </c>
       <c r="F58" s="3">
-        <v>3417200</v>
+        <v>3443400</v>
       </c>
       <c r="G58" s="3">
-        <v>3053700</v>
+        <v>3077100</v>
       </c>
       <c r="H58" s="3">
-        <v>3483100</v>
+        <v>3509800</v>
       </c>
       <c r="I58" s="3">
-        <v>3433800</v>
+        <v>3460100</v>
       </c>
       <c r="J58" s="3">
-        <v>3072400</v>
+        <v>3096000</v>
       </c>
       <c r="K58" s="3">
         <v>2591200</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4429900</v>
+        <v>4463900</v>
       </c>
       <c r="E59" s="3">
-        <v>4111900</v>
+        <v>4143400</v>
       </c>
       <c r="F59" s="3">
-        <v>4344500</v>
+        <v>4377800</v>
       </c>
       <c r="G59" s="3">
-        <v>4086900</v>
+        <v>4118200</v>
       </c>
       <c r="H59" s="3">
-        <v>3708000</v>
+        <v>3736400</v>
       </c>
       <c r="I59" s="3">
-        <v>3508400</v>
+        <v>3535300</v>
       </c>
       <c r="J59" s="3">
-        <v>3536000</v>
+        <v>3563100</v>
       </c>
       <c r="K59" s="3">
         <v>3110800</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7672700</v>
+        <v>7731500</v>
       </c>
       <c r="E60" s="3">
-        <v>8507700</v>
+        <v>8573000</v>
       </c>
       <c r="F60" s="3">
-        <v>7929400</v>
+        <v>7990200</v>
       </c>
       <c r="G60" s="3">
-        <v>7318200</v>
+        <v>7374300</v>
       </c>
       <c r="H60" s="3">
-        <v>7347200</v>
+        <v>7403500</v>
       </c>
       <c r="I60" s="3">
-        <v>7075800</v>
+        <v>7130000</v>
       </c>
       <c r="J60" s="3">
-        <v>6795900</v>
+        <v>6848000</v>
       </c>
       <c r="K60" s="3">
         <v>5888700</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>364800</v>
+        <v>367600</v>
       </c>
       <c r="E62" s="3">
-        <v>313200</v>
+        <v>315600</v>
       </c>
       <c r="F62" s="3">
-        <v>271700</v>
+        <v>273700</v>
       </c>
       <c r="G62" s="3">
-        <v>209300</v>
+        <v>211000</v>
       </c>
       <c r="H62" s="3">
-        <v>164100</v>
+        <v>165300</v>
       </c>
       <c r="I62" s="3">
-        <v>228100</v>
+        <v>229900</v>
       </c>
       <c r="J62" s="3">
-        <v>164800</v>
+        <v>166100</v>
       </c>
       <c r="K62" s="3">
         <v>129300</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10021100</v>
+        <v>10097900</v>
       </c>
       <c r="E66" s="3">
-        <v>10759000</v>
+        <v>10841400</v>
       </c>
       <c r="F66" s="3">
-        <v>10144700</v>
+        <v>10222400</v>
       </c>
       <c r="G66" s="3">
-        <v>9354100</v>
+        <v>9425800</v>
       </c>
       <c r="H66" s="3">
-        <v>9312900</v>
+        <v>9384300</v>
       </c>
       <c r="I66" s="3">
-        <v>9137700</v>
+        <v>9207700</v>
       </c>
       <c r="J66" s="3">
-        <v>8776200</v>
+        <v>8843500</v>
       </c>
       <c r="K66" s="3">
         <v>7802300</v>
@@ -4658,7 +4658,7 @@
         <v>37</v>
       </c>
       <c r="G72" s="3">
-        <v>10237600</v>
+        <v>10316100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13116600</v>
+        <v>13217100</v>
       </c>
       <c r="E76" s="3">
-        <v>13485500</v>
+        <v>13588800</v>
       </c>
       <c r="F76" s="3">
-        <v>13418200</v>
+        <v>13521100</v>
       </c>
       <c r="G76" s="3">
-        <v>12857800</v>
+        <v>12956300</v>
       </c>
       <c r="H76" s="3">
-        <v>13346200</v>
+        <v>13448500</v>
       </c>
       <c r="I76" s="3">
-        <v>13433600</v>
+        <v>13536600</v>
       </c>
       <c r="J76" s="3">
-        <v>9800200</v>
+        <v>9875400</v>
       </c>
       <c r="K76" s="3">
         <v>9462600</v>
@@ -5130,25 +5130,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>498100</v>
+        <v>502000</v>
       </c>
       <c r="E81" s="3">
-        <v>554500</v>
+        <v>558700</v>
       </c>
       <c r="F81" s="3">
-        <v>695000</v>
+        <v>700300</v>
       </c>
       <c r="G81" s="3">
-        <v>152800</v>
+        <v>153900</v>
       </c>
       <c r="H81" s="3">
-        <v>469400</v>
+        <v>473000</v>
       </c>
       <c r="I81" s="3">
-        <v>710400</v>
+        <v>715900</v>
       </c>
       <c r="J81" s="3">
-        <v>555900</v>
+        <v>560200</v>
       </c>
       <c r="K81" s="3">
         <v>470200</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126100</v>
+        <v>127100</v>
       </c>
       <c r="E83" s="3">
-        <v>127500</v>
+        <v>128500</v>
       </c>
       <c r="F83" s="3">
-        <v>128400</v>
+        <v>129300</v>
       </c>
       <c r="G83" s="3">
-        <v>150700</v>
+        <v>151800</v>
       </c>
       <c r="H83" s="3">
-        <v>142900</v>
+        <v>144000</v>
       </c>
       <c r="I83" s="3">
-        <v>139700</v>
+        <v>140700</v>
       </c>
       <c r="J83" s="3">
-        <v>108000</v>
+        <v>108900</v>
       </c>
       <c r="K83" s="3">
         <v>107100</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>985200</v>
+        <v>992700</v>
       </c>
       <c r="E89" s="3">
-        <v>739400</v>
+        <v>745100</v>
       </c>
       <c r="F89" s="3">
-        <v>867800</v>
+        <v>874400</v>
       </c>
       <c r="G89" s="3">
-        <v>1286000</v>
+        <v>1295900</v>
       </c>
       <c r="H89" s="3">
-        <v>845600</v>
+        <v>852100</v>
       </c>
       <c r="I89" s="3">
-        <v>747200</v>
+        <v>752900</v>
       </c>
       <c r="J89" s="3">
-        <v>1017700</v>
+        <v>1025500</v>
       </c>
       <c r="K89" s="3">
         <v>848500</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63800</v>
+        <v>-64300</v>
       </c>
       <c r="E91" s="3">
-        <v>-66000</v>
+        <v>-66600</v>
       </c>
       <c r="F91" s="3">
-        <v>-51600</v>
+        <v>-52000</v>
       </c>
       <c r="G91" s="3">
-        <v>-47500</v>
+        <v>-47900</v>
       </c>
       <c r="H91" s="3">
-        <v>-54900</v>
+        <v>-55400</v>
       </c>
       <c r="I91" s="3">
-        <v>-37100</v>
+        <v>-37400</v>
       </c>
       <c r="J91" s="3">
-        <v>-25700</v>
+        <v>-25900</v>
       </c>
       <c r="K91" s="3">
         <v>-36300</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3312400</v>
+        <v>3337800</v>
       </c>
       <c r="E94" s="3">
-        <v>-867800</v>
+        <v>-874500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1115500</v>
+        <v>-1124100</v>
       </c>
       <c r="G94" s="3">
-        <v>163600</v>
+        <v>164900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1174500</v>
+        <v>-1183500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3171400</v>
+        <v>-3195700</v>
       </c>
       <c r="J94" s="3">
-        <v>-388000</v>
+        <v>-391000</v>
       </c>
       <c r="K94" s="3">
         <v>-1069600</v>
@@ -6024,25 +6024,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-161000</v>
+        <v>-162200</v>
       </c>
       <c r="E96" s="3">
-        <v>-200200</v>
+        <v>-201800</v>
       </c>
       <c r="F96" s="3">
-        <v>-40800</v>
+        <v>-41200</v>
       </c>
       <c r="G96" s="3">
-        <v>-134800</v>
+        <v>-135900</v>
       </c>
       <c r="H96" s="3">
-        <v>-215700</v>
+        <v>-217300</v>
       </c>
       <c r="I96" s="3">
-        <v>-174600</v>
+        <v>-175900</v>
       </c>
       <c r="J96" s="3">
-        <v>-145100</v>
+        <v>-146200</v>
       </c>
       <c r="K96" s="3">
         <v>-1061000</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2331900</v>
+        <v>-2349800</v>
       </c>
       <c r="E100" s="3">
-        <v>309600</v>
+        <v>311900</v>
       </c>
       <c r="F100" s="3">
-        <v>220000</v>
+        <v>221700</v>
       </c>
       <c r="G100" s="3">
-        <v>-998200</v>
+        <v>-1005800</v>
       </c>
       <c r="H100" s="3">
-        <v>-390800</v>
+        <v>-393800</v>
       </c>
       <c r="I100" s="3">
-        <v>3159200</v>
+        <v>3183400</v>
       </c>
       <c r="J100" s="3">
-        <v>-218200</v>
+        <v>-219900</v>
       </c>
       <c r="K100" s="3">
         <v>180400</v>
@@ -6367,22 +6367,22 @@
         <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F101" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G101" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H101" s="3">
         <v>-3900</v>
       </c>
       <c r="I101" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="J101" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="K101" s="3">
         <v>-4100</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1968000</v>
+        <v>1983100</v>
       </c>
       <c r="E102" s="3">
-        <v>177200</v>
+        <v>178500</v>
       </c>
       <c r="F102" s="3">
-        <v>-22100</v>
+        <v>-22300</v>
       </c>
       <c r="G102" s="3">
-        <v>440900</v>
+        <v>444300</v>
       </c>
       <c r="H102" s="3">
-        <v>-723700</v>
+        <v>-729200</v>
       </c>
       <c r="I102" s="3">
-        <v>763100</v>
+        <v>768900</v>
       </c>
       <c r="J102" s="3">
-        <v>423100</v>
+        <v>426300</v>
       </c>
       <c r="K102" s="3">
         <v>-44800</v>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3500800</v>
+        <v>3591700</v>
       </c>
       <c r="E8" s="3">
-        <v>3237900</v>
+        <v>3270000</v>
       </c>
       <c r="F8" s="3">
-        <v>3236800</v>
+        <v>3024500</v>
       </c>
       <c r="G8" s="3">
-        <v>3117600</v>
+        <v>3023400</v>
       </c>
       <c r="H8" s="3">
-        <v>2943500</v>
+        <v>2912100</v>
       </c>
       <c r="I8" s="3">
-        <v>2868800</v>
+        <v>2749500</v>
       </c>
       <c r="J8" s="3">
+        <v>2679700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2691800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2422800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2253600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2207400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2203400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1098200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1841900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2336400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2033500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2167900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1851800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1985100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2024400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1759600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1637500</v>
+        <v>1688100</v>
       </c>
       <c r="E9" s="3">
-        <v>1472700</v>
+        <v>1529600</v>
       </c>
       <c r="F9" s="3">
-        <v>1493100</v>
+        <v>1375600</v>
       </c>
       <c r="G9" s="3">
-        <v>1551400</v>
+        <v>1394700</v>
       </c>
       <c r="H9" s="3">
-        <v>1383900</v>
+        <v>1449100</v>
       </c>
       <c r="I9" s="3">
-        <v>1324000</v>
+        <v>1292700</v>
       </c>
       <c r="J9" s="3">
+        <v>1236700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1212300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1131300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1041700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1025400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1021300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>92700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>830800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1296900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1179300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1315400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>969100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>985300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>913700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>819600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1863300</v>
+        <v>1903600</v>
       </c>
       <c r="E10" s="3">
-        <v>1765300</v>
+        <v>1740400</v>
       </c>
       <c r="F10" s="3">
-        <v>1743700</v>
+        <v>1648900</v>
       </c>
       <c r="G10" s="3">
-        <v>1566200</v>
+        <v>1628700</v>
       </c>
       <c r="H10" s="3">
-        <v>1559600</v>
+        <v>1462900</v>
       </c>
       <c r="I10" s="3">
-        <v>1544800</v>
+        <v>1456800</v>
       </c>
       <c r="J10" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1479400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1291500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1211900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1182000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1182200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1005500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1011100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1039500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>854200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>852600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>882700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>999800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1110600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>940000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>593400</v>
+        <v>567000</v>
       </c>
       <c r="E12" s="3">
-        <v>537500</v>
+        <v>554300</v>
       </c>
       <c r="F12" s="3">
-        <v>482800</v>
+        <v>502000</v>
       </c>
       <c r="G12" s="3">
-        <v>477900</v>
+        <v>450900</v>
       </c>
       <c r="H12" s="3">
-        <v>440000</v>
+        <v>446400</v>
       </c>
       <c r="I12" s="3">
-        <v>379900</v>
+        <v>411000</v>
       </c>
       <c r="J12" s="3">
+        <v>354900</v>
+      </c>
+      <c r="K12" s="3">
         <v>338000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>349100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>332900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>297300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>311300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>269400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>275100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>209300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>184400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>171100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>156000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>137200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>127600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2905200</v>
+        <v>2912600</v>
       </c>
       <c r="E17" s="3">
-        <v>2645100</v>
+        <v>2713700</v>
       </c>
       <c r="F17" s="3">
-        <v>2562300</v>
+        <v>2470700</v>
       </c>
       <c r="G17" s="3">
-        <v>2642400</v>
+        <v>2393400</v>
       </c>
       <c r="H17" s="3">
-        <v>2490700</v>
+        <v>2468300</v>
       </c>
       <c r="I17" s="3">
-        <v>2211000</v>
+        <v>2326500</v>
       </c>
       <c r="J17" s="3">
+        <v>2065200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1984000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1964500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1740100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1638400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1629700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>531600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1487000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2001600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1860400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1956200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1473400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1479700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1316200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1197200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>595600</v>
+        <v>679100</v>
       </c>
       <c r="E18" s="3">
-        <v>592900</v>
+        <v>556300</v>
       </c>
       <c r="F18" s="3">
-        <v>674500</v>
+        <v>553800</v>
       </c>
       <c r="G18" s="3">
-        <v>475200</v>
+        <v>630000</v>
       </c>
       <c r="H18" s="3">
-        <v>452800</v>
+        <v>443800</v>
       </c>
       <c r="I18" s="3">
-        <v>657800</v>
+        <v>422900</v>
       </c>
       <c r="J18" s="3">
+        <v>614500</v>
+      </c>
+      <c r="K18" s="3">
         <v>707800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>458300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>513500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>569000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>573700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>566600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>354900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>334800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>173200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>211700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>378400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>505400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>708200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>562300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>56200</v>
+        <v>293000</v>
       </c>
       <c r="E20" s="3">
-        <v>131200</v>
+        <v>52500</v>
       </c>
       <c r="F20" s="3">
-        <v>238500</v>
+        <v>122500</v>
       </c>
       <c r="G20" s="3">
-        <v>-240500</v>
+        <v>222700</v>
       </c>
       <c r="H20" s="3">
-        <v>42000</v>
+        <v>-224600</v>
       </c>
       <c r="I20" s="3">
-        <v>243900</v>
+        <v>39200</v>
       </c>
       <c r="J20" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K20" s="3">
         <v>86200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>152700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>140900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>55000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>49800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>68900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>55200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>50200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>24600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>43400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>27100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>105700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>778800</v>
+        <v>1095300</v>
       </c>
       <c r="E21" s="3">
-        <v>852500</v>
+        <v>727500</v>
       </c>
       <c r="F21" s="3">
-        <v>1042300</v>
+        <v>796300</v>
       </c>
       <c r="G21" s="3">
-        <v>386500</v>
+        <v>973600</v>
       </c>
       <c r="H21" s="3">
-        <v>638800</v>
+        <v>361000</v>
       </c>
       <c r="I21" s="3">
-        <v>1042500</v>
+        <v>596700</v>
       </c>
       <c r="J21" s="3">
+        <v>973700</v>
+      </c>
+      <c r="K21" s="3">
         <v>902800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>718200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>762700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>720800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>712200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>734400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>489200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>452600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>208600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>277000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>441900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>574100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>756900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>682100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>651700</v>
+        <v>972100</v>
       </c>
       <c r="E23" s="3">
-        <v>724100</v>
+        <v>608800</v>
       </c>
       <c r="F23" s="3">
-        <v>913000</v>
+        <v>676300</v>
       </c>
       <c r="G23" s="3">
-        <v>234700</v>
+        <v>852800</v>
       </c>
       <c r="H23" s="3">
-        <v>494800</v>
+        <v>219200</v>
       </c>
       <c r="I23" s="3">
-        <v>901700</v>
+        <v>462100</v>
       </c>
       <c r="J23" s="3">
+        <v>842300</v>
+      </c>
+      <c r="K23" s="3">
         <v>794000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>611000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>654400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>624000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>623500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>635400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>410100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>385000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>156000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>236300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>410700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>548800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>735300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>668100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>127400</v>
+        <v>137600</v>
       </c>
       <c r="E24" s="3">
-        <v>175600</v>
+        <v>119000</v>
       </c>
       <c r="F24" s="3">
-        <v>200900</v>
+        <v>164000</v>
       </c>
       <c r="G24" s="3">
-        <v>87200</v>
+        <v>187600</v>
       </c>
       <c r="H24" s="3">
-        <v>54100</v>
+        <v>81400</v>
       </c>
       <c r="I24" s="3">
-        <v>167900</v>
+        <v>50500</v>
       </c>
       <c r="J24" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K24" s="3">
         <v>170700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>134900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>104500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>193500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>132800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>118000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>104400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>140000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>128300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>524300</v>
+        <v>834500</v>
       </c>
       <c r="E26" s="3">
-        <v>548400</v>
+        <v>489700</v>
       </c>
       <c r="F26" s="3">
-        <v>712100</v>
+        <v>512300</v>
       </c>
       <c r="G26" s="3">
-        <v>147500</v>
+        <v>665100</v>
       </c>
       <c r="H26" s="3">
-        <v>440700</v>
+        <v>137800</v>
       </c>
       <c r="I26" s="3">
-        <v>733800</v>
+        <v>411600</v>
       </c>
       <c r="J26" s="3">
+        <v>685400</v>
+      </c>
+      <c r="K26" s="3">
         <v>623300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>476100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>640900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>519600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>429900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>502600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>292100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>324700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>115500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>193200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>377200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>444400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>595300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>539800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>502000</v>
+        <v>839100</v>
       </c>
       <c r="E27" s="3">
-        <v>558700</v>
+        <v>468900</v>
       </c>
       <c r="F27" s="3">
-        <v>700300</v>
+        <v>521900</v>
       </c>
       <c r="G27" s="3">
-        <v>153900</v>
+        <v>654200</v>
       </c>
       <c r="H27" s="3">
-        <v>473000</v>
+        <v>143800</v>
       </c>
       <c r="I27" s="3">
-        <v>715900</v>
+        <v>441800</v>
       </c>
       <c r="J27" s="3">
+        <v>668700</v>
+      </c>
+      <c r="K27" s="3">
         <v>560200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>470200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>636600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>512500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>417500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>489400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>288700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>302200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>190800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>375100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>441100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>582200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>535600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,13 +2117,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>37</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>37</v>
@@ -2074,14 +2134,14 @@
       <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2090,28 +2150,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1323600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-43200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-53600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-242900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-65300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-56200</v>
+        <v>-293000</v>
       </c>
       <c r="E32" s="3">
-        <v>-131200</v>
+        <v>-52500</v>
       </c>
       <c r="F32" s="3">
-        <v>-238500</v>
+        <v>-122500</v>
       </c>
       <c r="G32" s="3">
-        <v>240500</v>
+        <v>-222700</v>
       </c>
       <c r="H32" s="3">
-        <v>-42000</v>
+        <v>224600</v>
       </c>
       <c r="I32" s="3">
-        <v>-243900</v>
+        <v>-39200</v>
       </c>
       <c r="J32" s="3">
+        <v>-227800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-86200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-152700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-140900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-55000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-49800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-68900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-50200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-24600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-43400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-27100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-105700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>502000</v>
+        <v>839100</v>
       </c>
       <c r="E33" s="3">
-        <v>558700</v>
+        <v>468900</v>
       </c>
       <c r="F33" s="3">
-        <v>700300</v>
+        <v>521900</v>
       </c>
       <c r="G33" s="3">
-        <v>153900</v>
+        <v>654200</v>
       </c>
       <c r="H33" s="3">
-        <v>473000</v>
+        <v>143800</v>
       </c>
       <c r="I33" s="3">
-        <v>715900</v>
+        <v>441800</v>
       </c>
       <c r="J33" s="3">
+        <v>668700</v>
+      </c>
+      <c r="K33" s="3">
         <v>560200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>470200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1960200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>469200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>363900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>246600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>223400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>302200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>190800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>375100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>441100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>582200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>535600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>502000</v>
+        <v>839100</v>
       </c>
       <c r="E35" s="3">
-        <v>558700</v>
+        <v>468900</v>
       </c>
       <c r="F35" s="3">
-        <v>700300</v>
+        <v>521900</v>
       </c>
       <c r="G35" s="3">
-        <v>153900</v>
+        <v>654200</v>
       </c>
       <c r="H35" s="3">
-        <v>473000</v>
+        <v>143800</v>
       </c>
       <c r="I35" s="3">
-        <v>715900</v>
+        <v>441800</v>
       </c>
       <c r="J35" s="3">
+        <v>668700</v>
+      </c>
+      <c r="K35" s="3">
         <v>560200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>470200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1960200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>469200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>363900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>246600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>223400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>302200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>190800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>375100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>441100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>582200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>535600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,265 +2746,275 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3512800</v>
+        <v>2136400</v>
       </c>
       <c r="E41" s="3">
-        <v>1567500</v>
+        <v>3281200</v>
       </c>
       <c r="F41" s="3">
-        <v>1386900</v>
+        <v>1464100</v>
       </c>
       <c r="G41" s="3">
-        <v>1438300</v>
+        <v>1295400</v>
       </c>
       <c r="H41" s="3">
-        <v>1020100</v>
+        <v>1343500</v>
       </c>
       <c r="I41" s="3">
-        <v>1675900</v>
+        <v>952900</v>
       </c>
       <c r="J41" s="3">
+        <v>1565400</v>
+      </c>
+      <c r="K41" s="3">
         <v>882300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>499900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>422100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>738300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>631300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>724500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>668700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>441800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>534800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>410200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>382200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>447100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>587600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>791100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>10895900</v>
+        <v>12236200</v>
       </c>
       <c r="E42" s="3">
-        <v>14347800</v>
+        <v>10177700</v>
       </c>
       <c r="F42" s="3">
-        <v>14311800</v>
+        <v>13402000</v>
       </c>
       <c r="G42" s="3">
-        <v>13307400</v>
+        <v>13368300</v>
       </c>
       <c r="H42" s="3">
-        <v>14503500</v>
+        <v>12430200</v>
       </c>
       <c r="I42" s="3">
-        <v>13496000</v>
+        <v>13547400</v>
       </c>
       <c r="J42" s="3">
+        <v>12606300</v>
+      </c>
+      <c r="K42" s="3">
         <v>11025600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10593800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9029400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7748900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7283200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6473600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5270700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5889700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5683300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5987800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5655100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5658600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5370000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4500100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>855400</v>
+        <v>811700</v>
       </c>
       <c r="E43" s="3">
-        <v>702400</v>
+        <v>799000</v>
       </c>
       <c r="F43" s="3">
-        <v>797700</v>
+        <v>656100</v>
       </c>
       <c r="G43" s="3">
-        <v>722000</v>
+        <v>745200</v>
       </c>
       <c r="H43" s="3">
-        <v>780800</v>
+        <v>674400</v>
       </c>
       <c r="I43" s="3">
-        <v>791700</v>
+        <v>729300</v>
       </c>
       <c r="J43" s="3">
+        <v>739500</v>
+      </c>
+      <c r="K43" s="3">
         <v>719300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>642000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>724700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>686700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>774700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>598200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>639500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>554400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>637900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>537200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>483700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>505200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>546600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>618300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>163900</v>
+        <v>142200</v>
       </c>
       <c r="E44" s="3">
-        <v>139500</v>
+        <v>153000</v>
       </c>
       <c r="F44" s="3">
-        <v>138000</v>
+        <v>130300</v>
       </c>
       <c r="G44" s="3">
-        <v>98000</v>
+        <v>128900</v>
       </c>
       <c r="H44" s="3">
-        <v>82700</v>
+        <v>91500</v>
       </c>
       <c r="I44" s="3">
-        <v>88200</v>
+        <v>77300</v>
       </c>
       <c r="J44" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K44" s="3">
         <v>88700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>105700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>606000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>653500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>154800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>880500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>814400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>734800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>812500</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>37</v>
@@ -2927,286 +3022,301 @@
       <c r="V44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X44" s="3">
         <v>229500</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1758900</v>
+        <v>1342900</v>
       </c>
       <c r="E45" s="3">
-        <v>1536500</v>
+        <v>1643000</v>
       </c>
       <c r="F45" s="3">
-        <v>1591400</v>
+        <v>1435200</v>
       </c>
       <c r="G45" s="3">
-        <v>1445700</v>
+        <v>1486500</v>
       </c>
       <c r="H45" s="3">
-        <v>1560500</v>
+        <v>1350400</v>
       </c>
       <c r="I45" s="3">
-        <v>1477500</v>
+        <v>1457600</v>
       </c>
       <c r="J45" s="3">
+        <v>1380100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1517400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1268600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2428400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1379700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1603500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2028600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1351100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1249200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1503400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1445900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2209500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1940600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1537400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1120900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17186900</v>
+        <v>16669400</v>
       </c>
       <c r="E46" s="3">
-        <v>18293700</v>
+        <v>16053900</v>
       </c>
       <c r="F46" s="3">
-        <v>18225800</v>
+        <v>17087700</v>
       </c>
       <c r="G46" s="3">
-        <v>17011400</v>
+        <v>17024300</v>
       </c>
       <c r="H46" s="3">
-        <v>17947600</v>
+        <v>15890000</v>
       </c>
       <c r="I46" s="3">
-        <v>17529200</v>
+        <v>16764400</v>
       </c>
       <c r="J46" s="3">
+        <v>16373600</v>
+      </c>
+      <c r="K46" s="3">
         <v>14233300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13104500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12710400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11159600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10946200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9979600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8810600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8949500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9094200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9193700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8730600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8551400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8041600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7181800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1096900</v>
+        <v>3629300</v>
       </c>
       <c r="E47" s="3">
-        <v>1120100</v>
+        <v>1024600</v>
       </c>
       <c r="F47" s="3">
-        <v>1063300</v>
+        <v>1046300</v>
       </c>
       <c r="G47" s="3">
-        <v>2893500</v>
+        <v>993200</v>
       </c>
       <c r="H47" s="3">
-        <v>670500</v>
+        <v>2702800</v>
       </c>
       <c r="I47" s="3">
-        <v>1076500</v>
+        <v>626300</v>
       </c>
       <c r="J47" s="3">
+        <v>1005500</v>
+      </c>
+      <c r="K47" s="3">
         <v>607400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1794500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7700</v>
-      </c>
-      <c r="M47" s="3">
-        <v>7600</v>
       </c>
       <c r="N47" s="3">
         <v>7600</v>
       </c>
       <c r="O47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P47" s="3">
         <v>776400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>21500</v>
       </c>
       <c r="R47" s="3">
         <v>21500</v>
       </c>
       <c r="S47" s="3">
+        <v>21500</v>
+      </c>
+      <c r="T47" s="3">
         <v>413300</v>
-      </c>
-      <c r="T47" s="3">
-        <v>7400</v>
       </c>
       <c r="U47" s="3">
         <v>7400</v>
       </c>
       <c r="V47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="W47" s="3">
         <v>74200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>366500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1430800</v>
+        <v>954600</v>
       </c>
       <c r="E48" s="3">
-        <v>1392900</v>
+        <v>730400</v>
       </c>
       <c r="F48" s="3">
-        <v>1389500</v>
+        <v>691800</v>
       </c>
       <c r="G48" s="3">
-        <v>1499800</v>
+        <v>685400</v>
       </c>
       <c r="H48" s="3">
-        <v>1362900</v>
+        <v>785200</v>
       </c>
       <c r="I48" s="3">
-        <v>1362800</v>
+        <v>654200</v>
       </c>
       <c r="J48" s="3">
+        <v>650800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1302800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1353900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1301600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>945300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>944100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>678700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>742600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>699200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>611500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>559400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>498100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>442500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>398600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>351900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3243,38 +3353,41 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>492700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>88000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>88500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>86500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>86900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>85600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600400</v>
+        <v>1387700</v>
       </c>
       <c r="E52" s="3">
-        <v>3623600</v>
+        <v>3969100</v>
       </c>
       <c r="F52" s="3">
-        <v>3064900</v>
+        <v>3994000</v>
       </c>
       <c r="G52" s="3">
-        <v>977400</v>
+        <v>3475300</v>
       </c>
       <c r="H52" s="3">
-        <v>2851800</v>
+        <v>1528700</v>
       </c>
       <c r="I52" s="3">
-        <v>2775900</v>
+        <v>3282800</v>
       </c>
       <c r="J52" s="3">
+        <v>3215000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2575400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1012100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2275000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2065600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2072100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1957600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1128300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1064000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>773500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>287400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>544500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>588900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>726800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>453800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23315100</v>
+        <v>22641000</v>
       </c>
       <c r="E54" s="3">
-        <v>24430200</v>
+        <v>21778100</v>
       </c>
       <c r="F54" s="3">
-        <v>23743500</v>
+        <v>22819700</v>
       </c>
       <c r="G54" s="3">
-        <v>22382100</v>
+        <v>22178300</v>
       </c>
       <c r="H54" s="3">
-        <v>22832900</v>
+        <v>20906600</v>
       </c>
       <c r="I54" s="3">
-        <v>22744300</v>
+        <v>21327700</v>
       </c>
       <c r="J54" s="3">
+        <v>21244900</v>
+      </c>
+      <c r="K54" s="3">
         <v>18718800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17264900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16294800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14178000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13970100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12630400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11195300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10818400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10585300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10541800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9869200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9676800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9328300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8439600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,285 +3794,298 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>173400</v>
+        <v>145200</v>
       </c>
       <c r="E57" s="3">
-        <v>140400</v>
+        <v>161900</v>
       </c>
       <c r="F57" s="3">
-        <v>169000</v>
+        <v>131100</v>
       </c>
       <c r="G57" s="3">
-        <v>179000</v>
+        <v>157800</v>
       </c>
       <c r="H57" s="3">
-        <v>157300</v>
+        <v>167200</v>
       </c>
       <c r="I57" s="3">
-        <v>134700</v>
+        <v>146900</v>
       </c>
       <c r="J57" s="3">
+        <v>125800</v>
+      </c>
+      <c r="K57" s="3">
         <v>188800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>186700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>187800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>398700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>450600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>174500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>360300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>331200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>339400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>362500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>307000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>281800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>234400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>203000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3094300</v>
+        <v>2851800</v>
       </c>
       <c r="E58" s="3">
-        <v>4289200</v>
+        <v>2890300</v>
       </c>
       <c r="F58" s="3">
-        <v>3443400</v>
+        <v>4006500</v>
       </c>
       <c r="G58" s="3">
-        <v>3077100</v>
+        <v>3216400</v>
       </c>
       <c r="H58" s="3">
-        <v>3509800</v>
+        <v>2874200</v>
       </c>
       <c r="I58" s="3">
-        <v>3460100</v>
+        <v>3278400</v>
       </c>
       <c r="J58" s="3">
+        <v>3232000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3096000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2591200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2385900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2070800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2159500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1983600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1909900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1825900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1365400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>983000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>850800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>798100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>665400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>554900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4463900</v>
+        <v>4445000</v>
       </c>
       <c r="E59" s="3">
-        <v>4143400</v>
+        <v>4169600</v>
       </c>
       <c r="F59" s="3">
-        <v>4377800</v>
+        <v>3870200</v>
       </c>
       <c r="G59" s="3">
-        <v>4118200</v>
+        <v>4089200</v>
       </c>
       <c r="H59" s="3">
-        <v>3736400</v>
+        <v>3846700</v>
       </c>
       <c r="I59" s="3">
-        <v>3535300</v>
+        <v>3490100</v>
       </c>
       <c r="J59" s="3">
+        <v>3302200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3563100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3110800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2755700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2714800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2925100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2940700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2365900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2092900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2295300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2179300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1824600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1916500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2096200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2083000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7731500</v>
+        <v>7441900</v>
       </c>
       <c r="E60" s="3">
-        <v>8573000</v>
+        <v>7221900</v>
       </c>
       <c r="F60" s="3">
-        <v>7990200</v>
+        <v>8007800</v>
       </c>
       <c r="G60" s="3">
-        <v>7374300</v>
+        <v>7463500</v>
       </c>
       <c r="H60" s="3">
-        <v>7403500</v>
+        <v>6888100</v>
       </c>
       <c r="I60" s="3">
-        <v>7130000</v>
+        <v>6915400</v>
       </c>
       <c r="J60" s="3">
+        <v>6660000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6848000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5888700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5329300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5184200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5535100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5098900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4636100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4250000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4000100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3524800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2982400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2996300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2995900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2788800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>187900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4005,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>367600</v>
+        <v>360100</v>
       </c>
       <c r="E62" s="3">
-        <v>315600</v>
+        <v>343300</v>
       </c>
       <c r="F62" s="3">
-        <v>273700</v>
+        <v>294800</v>
       </c>
       <c r="G62" s="3">
-        <v>211000</v>
+        <v>255700</v>
       </c>
       <c r="H62" s="3">
-        <v>165300</v>
+        <v>197000</v>
       </c>
       <c r="I62" s="3">
-        <v>229900</v>
+        <v>154400</v>
       </c>
       <c r="J62" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K62" s="3">
         <v>166100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>129300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>185900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>210400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>168600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>65000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>60500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>41800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>57100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10097900</v>
+        <v>8593400</v>
       </c>
       <c r="E66" s="3">
-        <v>10841400</v>
+        <v>9432300</v>
       </c>
       <c r="F66" s="3">
-        <v>10222400</v>
+        <v>10126700</v>
       </c>
       <c r="G66" s="3">
-        <v>9425800</v>
+        <v>9548500</v>
       </c>
       <c r="H66" s="3">
-        <v>9384300</v>
+        <v>8804400</v>
       </c>
       <c r="I66" s="3">
-        <v>9207700</v>
+        <v>8765700</v>
       </c>
       <c r="J66" s="3">
+        <v>8600700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8843500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7802300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6535300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6393700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6672100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6061400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5124400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4561000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4202100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3754700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3188400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3215300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3151400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2885400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,13 +4813,16 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>37</v>
+      <c r="D72" s="3">
+        <v>11603100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>37</v>
@@ -4657,11 +4830,11 @@
       <c r="F72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="3">
-        <v>10316100</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="H72" s="3">
+        <v>9636000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>37</v>
@@ -4669,11 +4842,11 @@
       <c r="J72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="3">
         <v>8870600</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>37</v>
@@ -4681,11 +4854,11 @@
       <c r="N72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" s="3">
         <v>6566100</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>37</v>
@@ -4705,14 +4878,17 @@
       <c r="V72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X72" s="3">
         <v>5306600</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13217100</v>
+        <v>14047500</v>
       </c>
       <c r="E76" s="3">
-        <v>13588800</v>
+        <v>12345800</v>
       </c>
       <c r="F76" s="3">
-        <v>13521100</v>
+        <v>12693000</v>
       </c>
       <c r="G76" s="3">
-        <v>12956300</v>
+        <v>12629700</v>
       </c>
       <c r="H76" s="3">
-        <v>13448500</v>
+        <v>12102200</v>
       </c>
       <c r="I76" s="3">
-        <v>13536600</v>
+        <v>12562000</v>
       </c>
       <c r="J76" s="3">
+        <v>12644200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9875400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9462600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9759400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7784300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7298000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6569000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6070900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6257400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6383200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6787100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6680800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6461500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6176800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5554100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>502000</v>
+        <v>839100</v>
       </c>
       <c r="E81" s="3">
-        <v>558700</v>
+        <v>468900</v>
       </c>
       <c r="F81" s="3">
-        <v>700300</v>
+        <v>521900</v>
       </c>
       <c r="G81" s="3">
-        <v>153900</v>
+        <v>654200</v>
       </c>
       <c r="H81" s="3">
-        <v>473000</v>
+        <v>143800</v>
       </c>
       <c r="I81" s="3">
-        <v>715900</v>
+        <v>441800</v>
       </c>
       <c r="J81" s="3">
+        <v>668700</v>
+      </c>
+      <c r="K81" s="3">
         <v>560200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>470200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1960200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>469200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>363900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>246600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>223400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>302200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>190800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>375100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>441100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>582200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>535600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127100</v>
+        <v>123200</v>
       </c>
       <c r="E83" s="3">
-        <v>128500</v>
+        <v>118700</v>
       </c>
       <c r="F83" s="3">
-        <v>129300</v>
+        <v>120000</v>
       </c>
       <c r="G83" s="3">
-        <v>151800</v>
+        <v>120800</v>
       </c>
       <c r="H83" s="3">
-        <v>144000</v>
+        <v>141800</v>
       </c>
       <c r="I83" s="3">
-        <v>140700</v>
+        <v>134500</v>
       </c>
       <c r="J83" s="3">
+        <v>131500</v>
+      </c>
+      <c r="K83" s="3">
         <v>108900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>107100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>98100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>98200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>67600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>992700</v>
+        <v>1233200</v>
       </c>
       <c r="E89" s="3">
-        <v>745100</v>
+        <v>927300</v>
       </c>
       <c r="F89" s="3">
-        <v>874400</v>
+        <v>696000</v>
       </c>
       <c r="G89" s="3">
-        <v>1295900</v>
+        <v>816800</v>
       </c>
       <c r="H89" s="3">
-        <v>852100</v>
+        <v>1210500</v>
       </c>
       <c r="I89" s="3">
-        <v>752900</v>
+        <v>795900</v>
       </c>
       <c r="J89" s="3">
+        <v>703200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1025500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>848500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>593400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>682300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>517400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>862000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>506300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>280900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>273300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>576000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>245700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>344500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>598300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>782200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-111200</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-64300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-66600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-52000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-55400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-36300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-50800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-73400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-80900</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-111200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-96200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-84900</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-76000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-64300</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-67700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3337800</v>
+        <v>-2294000</v>
       </c>
       <c r="E94" s="3">
-        <v>-874500</v>
+        <v>3117800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1124100</v>
+        <v>-816900</v>
       </c>
       <c r="G94" s="3">
-        <v>164900</v>
+        <v>-1050000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1183500</v>
+        <v>154000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3195700</v>
+        <v>-1105500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2985100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-391000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1069600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1090100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-514900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-724400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-555300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-153300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-592900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-140100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-343300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-831600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-670000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-162200</v>
+        <v>-138600</v>
       </c>
       <c r="E96" s="3">
-        <v>-201800</v>
+        <v>-151500</v>
       </c>
       <c r="F96" s="3">
-        <v>-41200</v>
+        <v>-188500</v>
       </c>
       <c r="G96" s="3">
-        <v>-135900</v>
+        <v>-38400</v>
       </c>
       <c r="H96" s="3">
-        <v>-217300</v>
+        <v>-126900</v>
       </c>
       <c r="I96" s="3">
-        <v>-175900</v>
+        <v>-203000</v>
       </c>
       <c r="J96" s="3">
+        <v>-164300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-146200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1061000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-142200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-93700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-63200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-58000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-74700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-45300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-92700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-109200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-145500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-136100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-100700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2349800</v>
+        <v>-158200</v>
       </c>
       <c r="E100" s="3">
-        <v>311900</v>
+        <v>-2194800</v>
       </c>
       <c r="F100" s="3">
-        <v>221700</v>
+        <v>291400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1005800</v>
+        <v>207100</v>
       </c>
       <c r="H100" s="3">
-        <v>-393800</v>
+        <v>-939500</v>
       </c>
       <c r="I100" s="3">
-        <v>3183400</v>
+        <v>-367800</v>
       </c>
       <c r="J100" s="3">
+        <v>2973500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-219900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>180400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>112800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-188300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>62800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>406100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-127900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-171000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-31700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>16300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>17200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>-11900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4000</v>
+        <v>2100</v>
       </c>
       <c r="F101" s="3">
-        <v>5700</v>
+        <v>-3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-10600</v>
+        <v>5300</v>
       </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>-9900</v>
       </c>
       <c r="I101" s="3">
-        <v>28400</v>
+        <v>-3700</v>
       </c>
       <c r="J101" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K101" s="3">
         <v>11700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1983100</v>
+        <v>-1230900</v>
       </c>
       <c r="E102" s="3">
-        <v>178500</v>
+        <v>1852400</v>
       </c>
       <c r="F102" s="3">
-        <v>-22300</v>
+        <v>166800</v>
       </c>
       <c r="G102" s="3">
-        <v>444300</v>
+        <v>-20800</v>
       </c>
       <c r="H102" s="3">
-        <v>-729200</v>
+        <v>415000</v>
       </c>
       <c r="I102" s="3">
-        <v>768900</v>
+        <v>-681100</v>
       </c>
       <c r="J102" s="3">
+        <v>718200</v>
+      </c>
+      <c r="K102" s="3">
         <v>426300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-378000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-146900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>70400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>330100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-305100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>114500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-61500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-34000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-217600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>139300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3591700</v>
+        <v>3381900</v>
       </c>
       <c r="E8" s="3">
-        <v>3270000</v>
+        <v>3439900</v>
       </c>
       <c r="F8" s="3">
-        <v>3024500</v>
+        <v>3559300</v>
       </c>
       <c r="G8" s="3">
-        <v>3023400</v>
+        <v>3240500</v>
       </c>
       <c r="H8" s="3">
-        <v>2912100</v>
+        <v>2997200</v>
       </c>
       <c r="I8" s="3">
+        <v>2996100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2885800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2749500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2679700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2691800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2422800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2253600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2207400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2203400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1098200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1841900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2336400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2033500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2167900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1851800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1985100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2024400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1759600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1688100</v>
+        <v>1492100</v>
       </c>
       <c r="E9" s="3">
-        <v>1529600</v>
+        <v>1565400</v>
       </c>
       <c r="F9" s="3">
-        <v>1375600</v>
+        <v>1672900</v>
       </c>
       <c r="G9" s="3">
-        <v>1394700</v>
+        <v>1515800</v>
       </c>
       <c r="H9" s="3">
-        <v>1449100</v>
+        <v>1363200</v>
       </c>
       <c r="I9" s="3">
+        <v>1382100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1436100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1292700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1236700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1212300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1131300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1041700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1025400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1021300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>92700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>830800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1296900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1179300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1315400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>969100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>985300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>913700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>819600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1903600</v>
+        <v>1889800</v>
       </c>
       <c r="E10" s="3">
-        <v>1740400</v>
+        <v>1874500</v>
       </c>
       <c r="F10" s="3">
-        <v>1648900</v>
+        <v>1886400</v>
       </c>
       <c r="G10" s="3">
-        <v>1628700</v>
+        <v>1724700</v>
       </c>
       <c r="H10" s="3">
-        <v>1462900</v>
+        <v>1634000</v>
       </c>
       <c r="I10" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1449700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1456800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1443000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1479400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1291500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1211900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1182000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1182200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1005500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1011100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1039500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>854200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>852600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>882700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>999800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1110600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>940000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>567000</v>
+        <v>523000</v>
       </c>
       <c r="E12" s="3">
-        <v>554300</v>
+        <v>496200</v>
       </c>
       <c r="F12" s="3">
-        <v>502000</v>
+        <v>561900</v>
       </c>
       <c r="G12" s="3">
-        <v>450900</v>
+        <v>549300</v>
       </c>
       <c r="H12" s="3">
-        <v>446400</v>
+        <v>497500</v>
       </c>
       <c r="I12" s="3">
+        <v>446900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>442400</v>
+      </c>
+      <c r="K12" s="3">
         <v>411000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>354900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>338000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>349100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>332900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>297300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>311300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>269400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>300500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>275100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>209300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>184400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>171100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>156000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>137200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>127600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2912600</v>
+        <v>2659600</v>
       </c>
       <c r="E17" s="3">
-        <v>2713700</v>
+        <v>2635700</v>
       </c>
       <c r="F17" s="3">
-        <v>2470700</v>
+        <v>2886300</v>
       </c>
       <c r="G17" s="3">
-        <v>2393400</v>
+        <v>2689200</v>
       </c>
       <c r="H17" s="3">
-        <v>2468300</v>
+        <v>2448400</v>
       </c>
       <c r="I17" s="3">
+        <v>2371800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2446000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2326500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2065200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1984000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1964500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1740100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1638400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1629700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>531600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1487000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2001600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1860400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1956200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1473400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1479700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1316200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1197200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>679100</v>
+        <v>722300</v>
       </c>
       <c r="E18" s="3">
-        <v>556300</v>
+        <v>804200</v>
       </c>
       <c r="F18" s="3">
-        <v>553800</v>
+        <v>672900</v>
       </c>
       <c r="G18" s="3">
-        <v>630000</v>
+        <v>551300</v>
       </c>
       <c r="H18" s="3">
-        <v>443800</v>
+        <v>548800</v>
       </c>
       <c r="I18" s="3">
+        <v>624400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>439800</v>
+      </c>
+      <c r="K18" s="3">
         <v>422900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>614500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>707800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>458300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>513500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>569000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>573700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>566600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>354900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>334800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>173200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>211700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>378400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>505400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>708200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>562300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>293000</v>
+        <v>114600</v>
       </c>
       <c r="E20" s="3">
-        <v>52500</v>
+        <v>4100</v>
       </c>
       <c r="F20" s="3">
-        <v>122500</v>
+        <v>290400</v>
       </c>
       <c r="G20" s="3">
-        <v>222700</v>
+        <v>52000</v>
       </c>
       <c r="H20" s="3">
-        <v>-224600</v>
+        <v>121400</v>
       </c>
       <c r="I20" s="3">
+        <v>220700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-222600</v>
+      </c>
+      <c r="K20" s="3">
         <v>39200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>227800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>86200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>152700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>140900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>55000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>49800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>68900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>55200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>50200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-17100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>24600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>32300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>43400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>27100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>105700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1095300</v>
+        <v>925900</v>
       </c>
       <c r="E21" s="3">
-        <v>727500</v>
+        <v>920200</v>
       </c>
       <c r="F21" s="3">
-        <v>796300</v>
+        <v>1085400</v>
       </c>
       <c r="G21" s="3">
-        <v>973600</v>
+        <v>720900</v>
       </c>
       <c r="H21" s="3">
-        <v>361000</v>
+        <v>789100</v>
       </c>
       <c r="I21" s="3">
+        <v>964800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>357800</v>
+      </c>
+      <c r="K21" s="3">
         <v>596700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>973700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>902800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>718200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>762700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>720800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>712200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>734400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>489200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>452600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>208600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>277000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>441900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>574100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>756900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>682100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>972100</v>
+        <v>836900</v>
       </c>
       <c r="E23" s="3">
-        <v>608800</v>
+        <v>808300</v>
       </c>
       <c r="F23" s="3">
-        <v>676300</v>
+        <v>963300</v>
       </c>
       <c r="G23" s="3">
-        <v>852800</v>
+        <v>603300</v>
       </c>
       <c r="H23" s="3">
-        <v>219200</v>
+        <v>670200</v>
       </c>
       <c r="I23" s="3">
+        <v>845100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>217200</v>
+      </c>
+      <c r="K23" s="3">
         <v>462100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>842300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>794000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>611000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>654400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>624000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>623500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>635400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>410100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>385000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>156000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>236300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>410700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>548800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>735300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>668100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>137600</v>
+        <v>183900</v>
       </c>
       <c r="E24" s="3">
-        <v>119000</v>
+        <v>178100</v>
       </c>
       <c r="F24" s="3">
-        <v>164000</v>
+        <v>136400</v>
       </c>
       <c r="G24" s="3">
-        <v>187600</v>
+        <v>117900</v>
       </c>
       <c r="H24" s="3">
-        <v>81400</v>
+        <v>162600</v>
       </c>
       <c r="I24" s="3">
+        <v>186000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K24" s="3">
         <v>50500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>156900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>170700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>134900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>104500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>193500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>132800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>118000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>60300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>40600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>43100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>33500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>104400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>140000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>128300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>834500</v>
+        <v>653000</v>
       </c>
       <c r="E26" s="3">
-        <v>489700</v>
+        <v>630200</v>
       </c>
       <c r="F26" s="3">
-        <v>512300</v>
+        <v>826900</v>
       </c>
       <c r="G26" s="3">
-        <v>665100</v>
+        <v>485300</v>
       </c>
       <c r="H26" s="3">
-        <v>137800</v>
+        <v>507700</v>
       </c>
       <c r="I26" s="3">
+        <v>659100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>136500</v>
+      </c>
+      <c r="K26" s="3">
         <v>411600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>685400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>623300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>476100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>640900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>519600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>429900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>502600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>292100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>324700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>115500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>193200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>377200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>444400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>595300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>539800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>839100</v>
+        <v>681500</v>
       </c>
       <c r="E27" s="3">
-        <v>468900</v>
+        <v>641700</v>
       </c>
       <c r="F27" s="3">
-        <v>521900</v>
+        <v>831500</v>
       </c>
       <c r="G27" s="3">
-        <v>654200</v>
+        <v>464600</v>
       </c>
       <c r="H27" s="3">
-        <v>143800</v>
+        <v>517200</v>
       </c>
       <c r="I27" s="3">
+        <v>648200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K27" s="3">
         <v>441800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>668700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>560200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>470200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>636600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>512500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>417500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>489400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>288700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>302200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>107900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>190800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>375100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>441100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>582200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>535600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,25 +2236,31 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>91200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>37</v>
@@ -2146,39 +2268,39 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1323600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-43200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-53600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-242900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-65300</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-293000</v>
+        <v>-114600</v>
       </c>
       <c r="E32" s="3">
-        <v>-52500</v>
+        <v>-4100</v>
       </c>
       <c r="F32" s="3">
-        <v>-122500</v>
+        <v>-290400</v>
       </c>
       <c r="G32" s="3">
-        <v>-222700</v>
+        <v>-52000</v>
       </c>
       <c r="H32" s="3">
-        <v>224600</v>
+        <v>-121400</v>
       </c>
       <c r="I32" s="3">
+        <v>-220700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>222600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-39200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-227800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-86200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-152700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-140900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-55000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-49800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-68900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-55200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-50200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>17100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-24600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-32300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-43400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-27100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-105700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>839100</v>
+        <v>772700</v>
       </c>
       <c r="E33" s="3">
-        <v>468900</v>
+        <v>641700</v>
       </c>
       <c r="F33" s="3">
-        <v>521900</v>
+        <v>831500</v>
       </c>
       <c r="G33" s="3">
-        <v>654200</v>
+        <v>464600</v>
       </c>
       <c r="H33" s="3">
-        <v>143800</v>
+        <v>517200</v>
       </c>
       <c r="I33" s="3">
+        <v>648200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K33" s="3">
         <v>441800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>668700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>560200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>470200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1960200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>469200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>363900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>246600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>223400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>302200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>107900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>190800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>375100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>441100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>582200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>535600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>839100</v>
+        <v>772700</v>
       </c>
       <c r="E35" s="3">
-        <v>468900</v>
+        <v>641700</v>
       </c>
       <c r="F35" s="3">
-        <v>521900</v>
+        <v>831500</v>
       </c>
       <c r="G35" s="3">
-        <v>654200</v>
+        <v>464600</v>
       </c>
       <c r="H35" s="3">
-        <v>143800</v>
+        <v>517200</v>
       </c>
       <c r="I35" s="3">
+        <v>648200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K35" s="3">
         <v>441800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>668700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>560200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>470200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1960200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>469200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>363900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>246600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>223400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>302200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>107900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>190800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>375100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>441100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>582200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>535600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,576 +2919,626 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2136400</v>
+        <v>2403900</v>
       </c>
       <c r="E41" s="3">
-        <v>3281200</v>
+        <v>1438700</v>
       </c>
       <c r="F41" s="3">
-        <v>1464100</v>
+        <v>2117200</v>
       </c>
       <c r="G41" s="3">
-        <v>1295400</v>
+        <v>3251600</v>
       </c>
       <c r="H41" s="3">
-        <v>1343500</v>
+        <v>1450900</v>
       </c>
       <c r="I41" s="3">
+        <v>1283700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1331400</v>
+      </c>
+      <c r="K41" s="3">
         <v>952900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1565400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>882300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>499900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>422100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>738300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>631300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>724500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>668700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>441800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>534800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>410200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>382200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>447100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>587600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>791100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>12236200</v>
+        <v>13885000</v>
       </c>
       <c r="E42" s="3">
-        <v>10177700</v>
+        <v>13529600</v>
       </c>
       <c r="F42" s="3">
-        <v>13402000</v>
+        <v>12125800</v>
       </c>
       <c r="G42" s="3">
-        <v>13368300</v>
+        <v>10085800</v>
       </c>
       <c r="H42" s="3">
-        <v>12430200</v>
+        <v>13281000</v>
       </c>
       <c r="I42" s="3">
+        <v>13247600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>12318000</v>
+      </c>
+      <c r="K42" s="3">
         <v>13547400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>12606300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>11025600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>10593800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>9029400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>7748900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>7283200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>6473600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>5270700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>5889700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5683300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5987800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>5655100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>5658600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>5370000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>4500100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>811700</v>
+        <v>761300</v>
       </c>
       <c r="E43" s="3">
-        <v>799000</v>
+        <v>770700</v>
       </c>
       <c r="F43" s="3">
-        <v>656100</v>
+        <v>804300</v>
       </c>
       <c r="G43" s="3">
-        <v>745200</v>
+        <v>791800</v>
       </c>
       <c r="H43" s="3">
-        <v>674400</v>
+        <v>650200</v>
       </c>
       <c r="I43" s="3">
+        <v>738400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>668300</v>
+      </c>
+      <c r="K43" s="3">
         <v>729300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>739500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>719300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>642000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>724700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>686700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>774700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>598200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>639500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>554400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>637900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>537200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>483700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>505200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>546600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>618300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>142200</v>
+        <v>123200</v>
       </c>
       <c r="E44" s="3">
-        <v>153000</v>
+        <v>125800</v>
       </c>
       <c r="F44" s="3">
-        <v>130300</v>
+        <v>140900</v>
       </c>
       <c r="G44" s="3">
-        <v>128900</v>
+        <v>151700</v>
       </c>
       <c r="H44" s="3">
-        <v>91500</v>
+        <v>129100</v>
       </c>
       <c r="I44" s="3">
+        <v>127700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K44" s="3">
         <v>77300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>82300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>88700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>100200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>105700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>606000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>653500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>154800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>880500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>814400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>734800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>812500</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X44" s="3">
-        <v>229500</v>
+      <c r="X44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>229500</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1342900</v>
+        <v>1519700</v>
       </c>
       <c r="E45" s="3">
-        <v>1643000</v>
+        <v>1523600</v>
       </c>
       <c r="F45" s="3">
-        <v>1435200</v>
+        <v>1330800</v>
       </c>
       <c r="G45" s="3">
-        <v>1486500</v>
+        <v>1628100</v>
       </c>
       <c r="H45" s="3">
-        <v>1350400</v>
+        <v>1422300</v>
       </c>
       <c r="I45" s="3">
+        <v>1473100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1338200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1457600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1380100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1517400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1268600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2428400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1379700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1603500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2028600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1351100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1249200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1503400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1445900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2209500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1940600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1537400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1120900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16669400</v>
+        <v>18693200</v>
       </c>
       <c r="E46" s="3">
-        <v>16053900</v>
+        <v>17388300</v>
       </c>
       <c r="F46" s="3">
-        <v>17087700</v>
+        <v>16519000</v>
       </c>
       <c r="G46" s="3">
-        <v>17024300</v>
+        <v>15909000</v>
       </c>
       <c r="H46" s="3">
-        <v>15890000</v>
+        <v>16933500</v>
       </c>
       <c r="I46" s="3">
+        <v>16870600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15746600</v>
+      </c>
+      <c r="K46" s="3">
         <v>16764400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16373600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>14233300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13104500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>12710400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>11159600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10946200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9979600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8810600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8949500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>9094200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9193700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8730600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8551400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8041600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7181800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3629300</v>
+        <v>653300</v>
       </c>
       <c r="E47" s="3">
-        <v>1024600</v>
+        <v>653300</v>
       </c>
       <c r="F47" s="3">
-        <v>1046300</v>
+        <v>3596500</v>
       </c>
       <c r="G47" s="3">
-        <v>993200</v>
+        <v>1015300</v>
       </c>
       <c r="H47" s="3">
-        <v>2702800</v>
+        <v>1036800</v>
       </c>
       <c r="I47" s="3">
+        <v>984200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2678400</v>
+      </c>
+      <c r="K47" s="3">
         <v>626300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1005500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>607400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1794500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>776400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>21000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>21500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>21500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>413300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>7400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>7400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>74200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>366500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>954600</v>
+        <v>879400</v>
       </c>
       <c r="E48" s="3">
-        <v>730400</v>
+        <v>853100</v>
       </c>
       <c r="F48" s="3">
-        <v>691800</v>
+        <v>946000</v>
       </c>
       <c r="G48" s="3">
-        <v>685400</v>
+        <v>723800</v>
       </c>
       <c r="H48" s="3">
-        <v>785200</v>
+        <v>685500</v>
       </c>
       <c r="I48" s="3">
+        <v>679300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>778100</v>
+      </c>
+      <c r="K48" s="3">
         <v>654200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>650800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1302800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1353900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1301600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>945300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>944100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>678700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>742600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>699200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>611500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>559400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>498100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>442500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>398600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>351900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3356,38 +3578,44 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>492700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>84200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>84700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>88000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>88500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>86500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>86900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>85600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1387700</v>
+        <v>4333300</v>
       </c>
       <c r="E52" s="3">
-        <v>3969100</v>
+        <v>4360200</v>
       </c>
       <c r="F52" s="3">
-        <v>3994000</v>
+        <v>1375200</v>
       </c>
       <c r="G52" s="3">
-        <v>3475300</v>
+        <v>3933300</v>
       </c>
       <c r="H52" s="3">
-        <v>1528700</v>
+        <v>3957900</v>
       </c>
       <c r="I52" s="3">
+        <v>3443900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1514900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3282800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3215000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2575400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1012100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2275000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2065600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2072100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1957600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1128300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1064000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>773500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>287400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>544500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>588900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>726800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>453800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22641000</v>
+        <v>24559300</v>
       </c>
       <c r="E54" s="3">
-        <v>21778100</v>
+        <v>23255000</v>
       </c>
       <c r="F54" s="3">
-        <v>22819700</v>
+        <v>22436600</v>
       </c>
       <c r="G54" s="3">
-        <v>22178300</v>
+        <v>21581500</v>
       </c>
       <c r="H54" s="3">
-        <v>20906600</v>
+        <v>22613800</v>
       </c>
       <c r="I54" s="3">
+        <v>21978100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>20717900</v>
+      </c>
+      <c r="K54" s="3">
         <v>21327700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21244900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18718800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17264900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16294800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14178000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13970100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12630400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11195300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10818400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10585300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10541800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9869200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9676800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>9328300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8439600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,303 +4055,329 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145200</v>
+        <v>137600</v>
       </c>
       <c r="E57" s="3">
-        <v>161900</v>
+        <v>135000</v>
       </c>
       <c r="F57" s="3">
-        <v>131100</v>
+        <v>143800</v>
       </c>
       <c r="G57" s="3">
-        <v>157800</v>
+        <v>160500</v>
       </c>
       <c r="H57" s="3">
-        <v>167200</v>
+        <v>129900</v>
       </c>
       <c r="I57" s="3">
+        <v>156400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K57" s="3">
         <v>146900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>125800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>188800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>186700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>187800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>398700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>450600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>174500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>360300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>331200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>339400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>362500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>307000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>281800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>234400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>203000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2851800</v>
+        <v>4092800</v>
       </c>
       <c r="E58" s="3">
-        <v>2890300</v>
+        <v>3311900</v>
       </c>
       <c r="F58" s="3">
-        <v>4006500</v>
+        <v>2826000</v>
       </c>
       <c r="G58" s="3">
-        <v>3216400</v>
+        <v>2864300</v>
       </c>
       <c r="H58" s="3">
-        <v>2874200</v>
+        <v>3970300</v>
       </c>
       <c r="I58" s="3">
+        <v>3187400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2848300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3278400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3232000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3096000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2591200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2385900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2070800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2159500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1983600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1909900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1825900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1365400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>983000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>850800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>798100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>665400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>554900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4445000</v>
+        <v>4158300</v>
       </c>
       <c r="E59" s="3">
-        <v>4169600</v>
+        <v>4112200</v>
       </c>
       <c r="F59" s="3">
-        <v>3870200</v>
+        <v>4404800</v>
       </c>
       <c r="G59" s="3">
-        <v>4089200</v>
+        <v>4132000</v>
       </c>
       <c r="H59" s="3">
-        <v>3846700</v>
+        <v>3835300</v>
       </c>
       <c r="I59" s="3">
+        <v>4052300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3812000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3490100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3302200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3563100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3110800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2755700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2714800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2925100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2940700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2365900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2092900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2295300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2179300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1824600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1916500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2096200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2083000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7441900</v>
+        <v>8388600</v>
       </c>
       <c r="E60" s="3">
-        <v>7221900</v>
+        <v>7559200</v>
       </c>
       <c r="F60" s="3">
-        <v>8007800</v>
+        <v>7374700</v>
       </c>
       <c r="G60" s="3">
-        <v>7463500</v>
+        <v>7156700</v>
       </c>
       <c r="H60" s="3">
-        <v>6888100</v>
+        <v>7935500</v>
       </c>
       <c r="I60" s="3">
+        <v>7396100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6826000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6915400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6660000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6848000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5888700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5329300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5184200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5535100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5098900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4636100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4250000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4000100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3524800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2982400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2996300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2995900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2788800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>187900</v>
+        <v>490000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>463500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>186200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4150,79 +4436,91 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>360100</v>
+        <v>361000</v>
       </c>
       <c r="E62" s="3">
-        <v>343300</v>
+        <v>370200</v>
       </c>
       <c r="F62" s="3">
-        <v>294800</v>
+        <v>356800</v>
       </c>
       <c r="G62" s="3">
-        <v>255700</v>
+        <v>340200</v>
       </c>
       <c r="H62" s="3">
-        <v>197000</v>
+        <v>292100</v>
       </c>
       <c r="I62" s="3">
+        <v>253400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>195300</v>
+      </c>
+      <c r="K62" s="3">
         <v>154400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>214700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>166100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>129300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>185900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>210400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>168600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>65000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>87600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>84800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>60500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>34400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>17800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>41800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>27800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>57100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8593400</v>
+        <v>9834900</v>
       </c>
       <c r="E66" s="3">
-        <v>9432300</v>
+        <v>8992000</v>
       </c>
       <c r="F66" s="3">
-        <v>10126700</v>
+        <v>8515900</v>
       </c>
       <c r="G66" s="3">
-        <v>9548500</v>
+        <v>9347100</v>
       </c>
       <c r="H66" s="3">
-        <v>8804400</v>
+        <v>10035300</v>
       </c>
       <c r="I66" s="3">
+        <v>9462400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8725000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8765700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8600700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8843500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7802300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6535300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6393700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6672100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6061400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5124400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4561000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4202100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3754700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3188400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3215300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3151400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2885400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,55 +5158,61 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>11603100</v>
+      <c r="D72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>37</v>
+      <c r="F72" s="3">
+        <v>11498300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="3">
-        <v>9636000</v>
+      <c r="H72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>37</v>
+      <c r="J72" s="3">
+        <v>9549100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L72" s="3">
-        <v>8870600</v>
+      <c r="L72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>37</v>
+      <c r="N72" s="3">
+        <v>8870600</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P72" s="3">
-        <v>6566100</v>
+      <c r="P72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>37</v>
+      <c r="R72" s="3">
+        <v>6566100</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>37</v>
@@ -4881,14 +5229,20 @@
       <c r="W72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X72" s="3">
-        <v>5306600</v>
+      <c r="X72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>5306600</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14047500</v>
+        <v>14724300</v>
       </c>
       <c r="E76" s="3">
-        <v>12345800</v>
+        <v>14263000</v>
       </c>
       <c r="F76" s="3">
-        <v>12693000</v>
+        <v>13920800</v>
       </c>
       <c r="G76" s="3">
-        <v>12629700</v>
+        <v>12234400</v>
       </c>
       <c r="H76" s="3">
-        <v>12102200</v>
+        <v>12578400</v>
       </c>
       <c r="I76" s="3">
+        <v>12515700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11993000</v>
+      </c>
+      <c r="K76" s="3">
         <v>12562000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12644200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9875400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9462600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9759400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7784300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7298000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6569000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6070900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6257400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6383200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6787100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6680800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6461500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6176800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5554100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>839100</v>
+        <v>772700</v>
       </c>
       <c r="E81" s="3">
-        <v>468900</v>
+        <v>641700</v>
       </c>
       <c r="F81" s="3">
-        <v>521900</v>
+        <v>831500</v>
       </c>
       <c r="G81" s="3">
-        <v>654200</v>
+        <v>464600</v>
       </c>
       <c r="H81" s="3">
-        <v>143800</v>
+        <v>517200</v>
       </c>
       <c r="I81" s="3">
+        <v>648200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K81" s="3">
         <v>441800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>668700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>560200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>470200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1960200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>469200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>363900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>246600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>223400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>302200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>107900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>190800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>375100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>441100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>582200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>535600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>123200</v>
+        <v>88900</v>
       </c>
       <c r="E83" s="3">
-        <v>118700</v>
+        <v>111900</v>
       </c>
       <c r="F83" s="3">
-        <v>120000</v>
+        <v>122100</v>
       </c>
       <c r="G83" s="3">
-        <v>120800</v>
+        <v>117600</v>
       </c>
       <c r="H83" s="3">
-        <v>141800</v>
+        <v>118900</v>
       </c>
       <c r="I83" s="3">
+        <v>119700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K83" s="3">
         <v>134500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>131500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>108900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>107100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>106000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>98100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>89700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>98200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>79800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>67600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>52600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>40700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>31300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>25300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>21700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>14100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1233200</v>
+        <v>968300</v>
       </c>
       <c r="E89" s="3">
-        <v>927300</v>
+        <v>669200</v>
       </c>
       <c r="F89" s="3">
-        <v>696000</v>
+        <v>1222100</v>
       </c>
       <c r="G89" s="3">
-        <v>816800</v>
+        <v>918900</v>
       </c>
       <c r="H89" s="3">
-        <v>1210500</v>
+        <v>689700</v>
       </c>
       <c r="I89" s="3">
+        <v>809400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1199500</v>
+      </c>
+      <c r="K89" s="3">
         <v>795900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>703200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1025500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>848500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>593400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>682300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>517400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>862000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>506300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>280900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>273300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>576000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>245700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>344500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>598300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>782200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65200</v>
+        <v>-65000</v>
       </c>
       <c r="E91" s="3">
-        <v>-60100</v>
+        <v>-109400</v>
       </c>
       <c r="F91" s="3">
-        <v>-62200</v>
+        <v>-64600</v>
       </c>
       <c r="G91" s="3">
-        <v>-48600</v>
+        <v>-59500</v>
       </c>
       <c r="H91" s="3">
-        <v>-44700</v>
+        <v>-61600</v>
       </c>
       <c r="I91" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-51700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-34900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-25900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-36300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-50800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-41900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-56500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-73400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-80900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-111200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-96200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-84900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-76000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-64300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-48300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-67700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2294000</v>
+        <v>-172800</v>
       </c>
       <c r="E94" s="3">
-        <v>3117800</v>
+        <v>-1611800</v>
       </c>
       <c r="F94" s="3">
-        <v>-816900</v>
+        <v>-2273300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1050000</v>
+        <v>3089600</v>
       </c>
       <c r="H94" s="3">
-        <v>154000</v>
+        <v>-809500</v>
       </c>
       <c r="I94" s="3">
+        <v>-1040500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1105500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2985100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-391000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1069600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1090100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-514900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-724400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-55800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-555300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-153300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-592900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-140100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-343300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-831600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-670000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6717,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-138600</v>
+        <v>-205000</v>
       </c>
       <c r="E96" s="3">
-        <v>-151500</v>
+        <v>-245800</v>
       </c>
       <c r="F96" s="3">
-        <v>-188500</v>
+        <v>-137300</v>
       </c>
       <c r="G96" s="3">
-        <v>-38400</v>
+        <v>-150100</v>
       </c>
       <c r="H96" s="3">
-        <v>-126900</v>
+        <v>-186800</v>
       </c>
       <c r="I96" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-125800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-203000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-164300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-146200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1061000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-142200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-93700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-63200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-74700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-27500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-45300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-92700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-109200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-145500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-136100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-100700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-158200</v>
+        <v>122800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2194800</v>
+        <v>334300</v>
       </c>
       <c r="F100" s="3">
-        <v>291400</v>
+        <v>-156800</v>
       </c>
       <c r="G100" s="3">
-        <v>207100</v>
+        <v>-2175000</v>
       </c>
       <c r="H100" s="3">
-        <v>-939500</v>
+        <v>288700</v>
       </c>
       <c r="I100" s="3">
+        <v>205200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-931000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-367800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2973500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-219900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>180400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>112800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-188300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>62800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>406100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-127900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-41900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-6900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-171000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-31700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>16300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>17200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11900</v>
+        <v>10900</v>
       </c>
       <c r="E101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>5300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>26500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>11700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>7600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>11200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-3500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>9900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1230900</v>
+        <v>929300</v>
       </c>
       <c r="E102" s="3">
-        <v>1852400</v>
+        <v>-611500</v>
       </c>
       <c r="F102" s="3">
-        <v>166800</v>
+        <v>-1219800</v>
       </c>
       <c r="G102" s="3">
-        <v>-20800</v>
+        <v>1835600</v>
       </c>
       <c r="H102" s="3">
-        <v>415000</v>
+        <v>165300</v>
       </c>
       <c r="I102" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>411300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-681100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>718200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>426300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-44800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-378000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-15500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-146900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>70400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>330100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-305100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>114500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-25400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-61500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-34000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-217600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>139300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3381900</v>
+        <v>3223700</v>
       </c>
       <c r="E8" s="3">
-        <v>3439900</v>
+        <v>3279000</v>
       </c>
       <c r="F8" s="3">
-        <v>3559300</v>
+        <v>3392800</v>
       </c>
       <c r="G8" s="3">
-        <v>3240500</v>
+        <v>3088900</v>
       </c>
       <c r="H8" s="3">
-        <v>2997200</v>
+        <v>2857000</v>
       </c>
       <c r="I8" s="3">
-        <v>2996100</v>
+        <v>2856000</v>
       </c>
       <c r="J8" s="3">
-        <v>2885800</v>
+        <v>2750800</v>
       </c>
       <c r="K8" s="3">
         <v>2749500</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1422300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1492100</v>
       </c>
-      <c r="E9" s="3">
-        <v>1565400</v>
-      </c>
       <c r="F9" s="3">
-        <v>1672900</v>
+        <v>1594600</v>
       </c>
       <c r="G9" s="3">
-        <v>1515800</v>
+        <v>1444900</v>
       </c>
       <c r="H9" s="3">
-        <v>1363200</v>
+        <v>1299400</v>
       </c>
       <c r="I9" s="3">
-        <v>1382100</v>
+        <v>1317500</v>
       </c>
       <c r="J9" s="3">
-        <v>1436100</v>
+        <v>1368900</v>
       </c>
       <c r="K9" s="3">
         <v>1292700</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1889800</v>
+        <v>1801500</v>
       </c>
       <c r="E10" s="3">
-        <v>1874500</v>
+        <v>1786800</v>
       </c>
       <c r="F10" s="3">
-        <v>1886400</v>
+        <v>1798200</v>
       </c>
       <c r="G10" s="3">
-        <v>1724700</v>
+        <v>1644100</v>
       </c>
       <c r="H10" s="3">
-        <v>1634000</v>
+        <v>1557600</v>
       </c>
       <c r="I10" s="3">
-        <v>1614000</v>
+        <v>1538500</v>
       </c>
       <c r="J10" s="3">
-        <v>1449700</v>
+        <v>1381900</v>
       </c>
       <c r="K10" s="3">
         <v>1456800</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>523000</v>
+        <v>498600</v>
       </c>
       <c r="E12" s="3">
-        <v>496200</v>
+        <v>473000</v>
       </c>
       <c r="F12" s="3">
-        <v>561900</v>
+        <v>535600</v>
       </c>
       <c r="G12" s="3">
-        <v>549300</v>
+        <v>523600</v>
       </c>
       <c r="H12" s="3">
-        <v>497500</v>
+        <v>474200</v>
       </c>
       <c r="I12" s="3">
-        <v>446900</v>
+        <v>426000</v>
       </c>
       <c r="J12" s="3">
-        <v>442400</v>
+        <v>421700</v>
       </c>
       <c r="K12" s="3">
         <v>411000</v>
@@ -1372,25 +1372,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2659600</v>
+        <v>2535200</v>
       </c>
       <c r="E17" s="3">
-        <v>2635700</v>
+        <v>2512400</v>
       </c>
       <c r="F17" s="3">
-        <v>2886300</v>
+        <v>2751300</v>
       </c>
       <c r="G17" s="3">
-        <v>2689200</v>
+        <v>2563400</v>
       </c>
       <c r="H17" s="3">
-        <v>2448400</v>
+        <v>2333900</v>
       </c>
       <c r="I17" s="3">
-        <v>2371800</v>
+        <v>2260800</v>
       </c>
       <c r="J17" s="3">
-        <v>2446000</v>
+        <v>2331600</v>
       </c>
       <c r="K17" s="3">
         <v>2326500</v>
@@ -1449,25 +1449,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>722300</v>
+        <v>688500</v>
       </c>
       <c r="E18" s="3">
-        <v>804200</v>
+        <v>766600</v>
       </c>
       <c r="F18" s="3">
-        <v>672900</v>
+        <v>641500</v>
       </c>
       <c r="G18" s="3">
-        <v>551300</v>
+        <v>525500</v>
       </c>
       <c r="H18" s="3">
-        <v>548800</v>
+        <v>523100</v>
       </c>
       <c r="I18" s="3">
-        <v>624400</v>
+        <v>595200</v>
       </c>
       <c r="J18" s="3">
-        <v>439800</v>
+        <v>419300</v>
       </c>
       <c r="K18" s="3">
         <v>422900</v>
@@ -1555,25 +1555,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>114600</v>
+        <v>109300</v>
       </c>
       <c r="E20" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F20" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="G20" s="3">
-        <v>52000</v>
+        <v>49500</v>
       </c>
       <c r="H20" s="3">
-        <v>121400</v>
+        <v>115700</v>
       </c>
       <c r="I20" s="3">
-        <v>220700</v>
+        <v>210400</v>
       </c>
       <c r="J20" s="3">
-        <v>-222600</v>
+        <v>-212200</v>
       </c>
       <c r="K20" s="3">
         <v>39200</v>
@@ -1632,25 +1632,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>925900</v>
+        <v>882600</v>
       </c>
       <c r="E21" s="3">
-        <v>920200</v>
+        <v>877100</v>
       </c>
       <c r="F21" s="3">
-        <v>1085400</v>
+        <v>1034600</v>
       </c>
       <c r="G21" s="3">
-        <v>720900</v>
+        <v>687200</v>
       </c>
       <c r="H21" s="3">
-        <v>789100</v>
+        <v>752200</v>
       </c>
       <c r="I21" s="3">
-        <v>964800</v>
+        <v>919700</v>
       </c>
       <c r="J21" s="3">
-        <v>357800</v>
+        <v>341000</v>
       </c>
       <c r="K21" s="3">
         <v>596700</v>
@@ -1786,25 +1786,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>836900</v>
+        <v>797800</v>
       </c>
       <c r="E23" s="3">
-        <v>808300</v>
+        <v>770500</v>
       </c>
       <c r="F23" s="3">
-        <v>963300</v>
+        <v>918300</v>
       </c>
       <c r="G23" s="3">
-        <v>603300</v>
+        <v>575000</v>
       </c>
       <c r="H23" s="3">
-        <v>670200</v>
+        <v>638900</v>
       </c>
       <c r="I23" s="3">
-        <v>845100</v>
+        <v>805600</v>
       </c>
       <c r="J23" s="3">
-        <v>217200</v>
+        <v>207100</v>
       </c>
       <c r="K23" s="3">
         <v>462100</v>
@@ -1863,25 +1863,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>183900</v>
+        <v>175300</v>
       </c>
       <c r="E24" s="3">
-        <v>178100</v>
+        <v>169700</v>
       </c>
       <c r="F24" s="3">
-        <v>136400</v>
+        <v>130000</v>
       </c>
       <c r="G24" s="3">
-        <v>117900</v>
+        <v>112400</v>
       </c>
       <c r="H24" s="3">
-        <v>162600</v>
+        <v>155000</v>
       </c>
       <c r="I24" s="3">
-        <v>186000</v>
+        <v>177300</v>
       </c>
       <c r="J24" s="3">
-        <v>80700</v>
+        <v>76900</v>
       </c>
       <c r="K24" s="3">
         <v>50500</v>
@@ -2017,25 +2017,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>653000</v>
+        <v>622500</v>
       </c>
       <c r="E26" s="3">
-        <v>630200</v>
+        <v>600800</v>
       </c>
       <c r="F26" s="3">
-        <v>826900</v>
+        <v>788200</v>
       </c>
       <c r="G26" s="3">
-        <v>485300</v>
+        <v>462600</v>
       </c>
       <c r="H26" s="3">
-        <v>507700</v>
+        <v>483900</v>
       </c>
       <c r="I26" s="3">
-        <v>659100</v>
+        <v>628300</v>
       </c>
       <c r="J26" s="3">
-        <v>136500</v>
+        <v>130100</v>
       </c>
       <c r="K26" s="3">
         <v>411600</v>
@@ -2094,25 +2094,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>681500</v>
+        <v>649600</v>
       </c>
       <c r="E27" s="3">
-        <v>641700</v>
+        <v>611600</v>
       </c>
       <c r="F27" s="3">
-        <v>831500</v>
+        <v>792600</v>
       </c>
       <c r="G27" s="3">
-        <v>464600</v>
+        <v>442900</v>
       </c>
       <c r="H27" s="3">
-        <v>517200</v>
+        <v>493000</v>
       </c>
       <c r="I27" s="3">
-        <v>648200</v>
+        <v>617900</v>
       </c>
       <c r="J27" s="3">
-        <v>142500</v>
+        <v>135800</v>
       </c>
       <c r="K27" s="3">
         <v>441800</v>
@@ -2248,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>91200</v>
+        <v>87000</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-114600</v>
+        <v>-109300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="F32" s="3">
-        <v>-290400</v>
+        <v>-276800</v>
       </c>
       <c r="G32" s="3">
-        <v>-52000</v>
+        <v>-49500</v>
       </c>
       <c r="H32" s="3">
-        <v>-121400</v>
+        <v>-115700</v>
       </c>
       <c r="I32" s="3">
-        <v>-220700</v>
+        <v>-210400</v>
       </c>
       <c r="J32" s="3">
-        <v>222600</v>
+        <v>212200</v>
       </c>
       <c r="K32" s="3">
         <v>-39200</v>
@@ -2556,25 +2556,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>772700</v>
+        <v>736600</v>
       </c>
       <c r="E33" s="3">
-        <v>641700</v>
+        <v>611600</v>
       </c>
       <c r="F33" s="3">
-        <v>831500</v>
+        <v>792600</v>
       </c>
       <c r="G33" s="3">
-        <v>464600</v>
+        <v>442900</v>
       </c>
       <c r="H33" s="3">
-        <v>517200</v>
+        <v>493000</v>
       </c>
       <c r="I33" s="3">
-        <v>648200</v>
+        <v>617900</v>
       </c>
       <c r="J33" s="3">
-        <v>142500</v>
+        <v>135800</v>
       </c>
       <c r="K33" s="3">
         <v>441800</v>
@@ -2710,25 +2710,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>772700</v>
+        <v>736600</v>
       </c>
       <c r="E35" s="3">
-        <v>641700</v>
+        <v>611600</v>
       </c>
       <c r="F35" s="3">
-        <v>831500</v>
+        <v>792600</v>
       </c>
       <c r="G35" s="3">
-        <v>464600</v>
+        <v>442900</v>
       </c>
       <c r="H35" s="3">
-        <v>517200</v>
+        <v>493000</v>
       </c>
       <c r="I35" s="3">
-        <v>648200</v>
+        <v>617900</v>
       </c>
       <c r="J35" s="3">
-        <v>142500</v>
+        <v>135800</v>
       </c>
       <c r="K35" s="3">
         <v>441800</v>
@@ -2927,25 +2927,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2403900</v>
+        <v>2291500</v>
       </c>
       <c r="E41" s="3">
-        <v>1438700</v>
+        <v>1371400</v>
       </c>
       <c r="F41" s="3">
-        <v>2117200</v>
+        <v>2018100</v>
       </c>
       <c r="G41" s="3">
-        <v>3251600</v>
+        <v>3099500</v>
       </c>
       <c r="H41" s="3">
-        <v>1450900</v>
+        <v>1383100</v>
       </c>
       <c r="I41" s="3">
-        <v>1283700</v>
+        <v>1223700</v>
       </c>
       <c r="J41" s="3">
-        <v>1331400</v>
+        <v>1269100</v>
       </c>
       <c r="K41" s="3">
         <v>952900</v>
@@ -3004,25 +3004,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13885000</v>
+        <v>13235600</v>
       </c>
       <c r="E42" s="3">
-        <v>13529600</v>
+        <v>12896800</v>
       </c>
       <c r="F42" s="3">
-        <v>12125800</v>
+        <v>11558700</v>
       </c>
       <c r="G42" s="3">
-        <v>10085800</v>
+        <v>9614100</v>
       </c>
       <c r="H42" s="3">
-        <v>13281000</v>
+        <v>12659800</v>
       </c>
       <c r="I42" s="3">
-        <v>13247600</v>
+        <v>12628000</v>
       </c>
       <c r="J42" s="3">
-        <v>12318000</v>
+        <v>11741800</v>
       </c>
       <c r="K42" s="3">
         <v>13547400</v>
@@ -3081,25 +3081,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>761300</v>
+        <v>725700</v>
       </c>
       <c r="E43" s="3">
-        <v>770700</v>
+        <v>734600</v>
       </c>
       <c r="F43" s="3">
-        <v>804300</v>
+        <v>766700</v>
       </c>
       <c r="G43" s="3">
-        <v>791800</v>
+        <v>754800</v>
       </c>
       <c r="H43" s="3">
-        <v>650200</v>
+        <v>619800</v>
       </c>
       <c r="I43" s="3">
-        <v>738400</v>
+        <v>703900</v>
       </c>
       <c r="J43" s="3">
-        <v>668300</v>
+        <v>637000</v>
       </c>
       <c r="K43" s="3">
         <v>729300</v>
@@ -3158,25 +3158,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>123200</v>
+        <v>117500</v>
       </c>
       <c r="E44" s="3">
-        <v>125800</v>
+        <v>119900</v>
       </c>
       <c r="F44" s="3">
-        <v>140900</v>
+        <v>134300</v>
       </c>
       <c r="G44" s="3">
-        <v>151700</v>
+        <v>144600</v>
       </c>
       <c r="H44" s="3">
-        <v>129100</v>
+        <v>123100</v>
       </c>
       <c r="I44" s="3">
-        <v>127700</v>
+        <v>121800</v>
       </c>
       <c r="J44" s="3">
-        <v>90700</v>
+        <v>86500</v>
       </c>
       <c r="K44" s="3">
         <v>77300</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1519700</v>
+        <v>1448700</v>
       </c>
       <c r="E45" s="3">
-        <v>1523600</v>
+        <v>1452400</v>
       </c>
       <c r="F45" s="3">
-        <v>1330800</v>
+        <v>1268500</v>
       </c>
       <c r="G45" s="3">
-        <v>1628100</v>
+        <v>1552000</v>
       </c>
       <c r="H45" s="3">
-        <v>1422300</v>
+        <v>1355700</v>
       </c>
       <c r="I45" s="3">
-        <v>1473100</v>
+        <v>1404200</v>
       </c>
       <c r="J45" s="3">
-        <v>1338200</v>
+        <v>1275600</v>
       </c>
       <c r="K45" s="3">
         <v>1457600</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18693200</v>
+        <v>17818900</v>
       </c>
       <c r="E46" s="3">
-        <v>17388300</v>
+        <v>16575000</v>
       </c>
       <c r="F46" s="3">
-        <v>16519000</v>
+        <v>15746300</v>
       </c>
       <c r="G46" s="3">
-        <v>15909000</v>
+        <v>15164900</v>
       </c>
       <c r="H46" s="3">
-        <v>16933500</v>
+        <v>16141500</v>
       </c>
       <c r="I46" s="3">
-        <v>16870600</v>
+        <v>16081600</v>
       </c>
       <c r="J46" s="3">
-        <v>15746600</v>
+        <v>15010100</v>
       </c>
       <c r="K46" s="3">
         <v>16764400</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>653300</v>
+        <v>622800</v>
       </c>
       <c r="E47" s="3">
-        <v>653300</v>
+        <v>622800</v>
       </c>
       <c r="F47" s="3">
-        <v>3596500</v>
+        <v>3428300</v>
       </c>
       <c r="G47" s="3">
-        <v>1015300</v>
+        <v>967900</v>
       </c>
       <c r="H47" s="3">
-        <v>1036800</v>
+        <v>988300</v>
       </c>
       <c r="I47" s="3">
-        <v>984200</v>
+        <v>938200</v>
       </c>
       <c r="J47" s="3">
-        <v>2678400</v>
+        <v>2553100</v>
       </c>
       <c r="K47" s="3">
         <v>626300</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>879400</v>
+        <v>838300</v>
       </c>
       <c r="E48" s="3">
-        <v>853100</v>
+        <v>813200</v>
       </c>
       <c r="F48" s="3">
-        <v>946000</v>
+        <v>901700</v>
       </c>
       <c r="G48" s="3">
-        <v>723800</v>
+        <v>690000</v>
       </c>
       <c r="H48" s="3">
-        <v>685500</v>
+        <v>653500</v>
       </c>
       <c r="I48" s="3">
-        <v>679300</v>
+        <v>647500</v>
       </c>
       <c r="J48" s="3">
-        <v>778100</v>
+        <v>741700</v>
       </c>
       <c r="K48" s="3">
         <v>654200</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4333300</v>
+        <v>4130700</v>
       </c>
       <c r="E52" s="3">
-        <v>4360200</v>
+        <v>4156300</v>
       </c>
       <c r="F52" s="3">
-        <v>1375200</v>
+        <v>1310800</v>
       </c>
       <c r="G52" s="3">
-        <v>3933300</v>
+        <v>3749300</v>
       </c>
       <c r="H52" s="3">
-        <v>3957900</v>
+        <v>3772800</v>
       </c>
       <c r="I52" s="3">
-        <v>3443900</v>
+        <v>3282900</v>
       </c>
       <c r="J52" s="3">
-        <v>1514900</v>
+        <v>1444000</v>
       </c>
       <c r="K52" s="3">
         <v>3282800</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24559300</v>
+        <v>23410600</v>
       </c>
       <c r="E54" s="3">
-        <v>23255000</v>
+        <v>22167300</v>
       </c>
       <c r="F54" s="3">
-        <v>22436600</v>
+        <v>21387200</v>
       </c>
       <c r="G54" s="3">
-        <v>21581500</v>
+        <v>20572100</v>
       </c>
       <c r="H54" s="3">
-        <v>22613800</v>
+        <v>21556100</v>
       </c>
       <c r="I54" s="3">
-        <v>21978100</v>
+        <v>20950100</v>
       </c>
       <c r="J54" s="3">
-        <v>20717900</v>
+        <v>19748900</v>
       </c>
       <c r="K54" s="3">
         <v>21327700</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>137600</v>
+        <v>131100</v>
       </c>
       <c r="E57" s="3">
-        <v>135000</v>
+        <v>128700</v>
       </c>
       <c r="F57" s="3">
-        <v>143800</v>
+        <v>137100</v>
       </c>
       <c r="G57" s="3">
-        <v>160500</v>
+        <v>153000</v>
       </c>
       <c r="H57" s="3">
-        <v>129900</v>
+        <v>123800</v>
       </c>
       <c r="I57" s="3">
-        <v>156400</v>
+        <v>149100</v>
       </c>
       <c r="J57" s="3">
-        <v>165700</v>
+        <v>157900</v>
       </c>
       <c r="K57" s="3">
         <v>146900</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4092800</v>
+        <v>3901400</v>
       </c>
       <c r="E58" s="3">
-        <v>3311900</v>
+        <v>3157000</v>
       </c>
       <c r="F58" s="3">
-        <v>2826000</v>
+        <v>2693800</v>
       </c>
       <c r="G58" s="3">
-        <v>2864300</v>
+        <v>2730300</v>
       </c>
       <c r="H58" s="3">
-        <v>3970300</v>
+        <v>3784600</v>
       </c>
       <c r="I58" s="3">
-        <v>3187400</v>
+        <v>3038300</v>
       </c>
       <c r="J58" s="3">
-        <v>2848300</v>
+        <v>2715100</v>
       </c>
       <c r="K58" s="3">
         <v>3278400</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4158300</v>
+        <v>3963800</v>
       </c>
       <c r="E59" s="3">
-        <v>4112200</v>
+        <v>3919900</v>
       </c>
       <c r="F59" s="3">
-        <v>4404800</v>
+        <v>4198800</v>
       </c>
       <c r="G59" s="3">
-        <v>4132000</v>
+        <v>3938700</v>
       </c>
       <c r="H59" s="3">
-        <v>3835300</v>
+        <v>3655900</v>
       </c>
       <c r="I59" s="3">
-        <v>4052300</v>
+        <v>3862800</v>
       </c>
       <c r="J59" s="3">
-        <v>3812000</v>
+        <v>3633700</v>
       </c>
       <c r="K59" s="3">
         <v>3490100</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8388600</v>
+        <v>7996300</v>
       </c>
       <c r="E60" s="3">
-        <v>7559200</v>
+        <v>7205600</v>
       </c>
       <c r="F60" s="3">
-        <v>7374700</v>
+        <v>7029800</v>
       </c>
       <c r="G60" s="3">
-        <v>7156700</v>
+        <v>6822000</v>
       </c>
       <c r="H60" s="3">
-        <v>7935500</v>
+        <v>7564400</v>
       </c>
       <c r="I60" s="3">
-        <v>7396100</v>
+        <v>7050200</v>
       </c>
       <c r="J60" s="3">
-        <v>6826000</v>
+        <v>6506700</v>
       </c>
       <c r="K60" s="3">
         <v>6915400</v>
@@ -4371,13 +4371,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>490000</v>
+        <v>467100</v>
       </c>
       <c r="E61" s="3">
-        <v>463500</v>
+        <v>441800</v>
       </c>
       <c r="F61" s="3">
-        <v>186200</v>
+        <v>177500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>361000</v>
+        <v>344100</v>
       </c>
       <c r="E62" s="3">
-        <v>370200</v>
+        <v>352900</v>
       </c>
       <c r="F62" s="3">
-        <v>356800</v>
+        <v>340100</v>
       </c>
       <c r="G62" s="3">
-        <v>340200</v>
+        <v>324300</v>
       </c>
       <c r="H62" s="3">
-        <v>292100</v>
+        <v>278500</v>
       </c>
       <c r="I62" s="3">
-        <v>253400</v>
+        <v>241500</v>
       </c>
       <c r="J62" s="3">
-        <v>195300</v>
+        <v>186100</v>
       </c>
       <c r="K62" s="3">
         <v>154400</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9834900</v>
+        <v>9374900</v>
       </c>
       <c r="E66" s="3">
-        <v>8992000</v>
+        <v>8571500</v>
       </c>
       <c r="F66" s="3">
-        <v>8515900</v>
+        <v>8117600</v>
       </c>
       <c r="G66" s="3">
-        <v>9347100</v>
+        <v>8909900</v>
       </c>
       <c r="H66" s="3">
-        <v>10035300</v>
+        <v>9566000</v>
       </c>
       <c r="I66" s="3">
-        <v>9462400</v>
+        <v>9019800</v>
       </c>
       <c r="J66" s="3">
-        <v>8725000</v>
+        <v>8316900</v>
       </c>
       <c r="K66" s="3">
         <v>8765700</v>
@@ -5176,7 +5176,7 @@
         <v>37</v>
       </c>
       <c r="F72" s="3">
-        <v>11498300</v>
+        <v>10960600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>37</v>
@@ -5188,7 +5188,7 @@
         <v>37</v>
       </c>
       <c r="J72" s="3">
-        <v>9549100</v>
+        <v>9102400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>37</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14724300</v>
+        <v>14035600</v>
       </c>
       <c r="E76" s="3">
-        <v>14263000</v>
+        <v>13595900</v>
       </c>
       <c r="F76" s="3">
-        <v>13920800</v>
+        <v>13269700</v>
       </c>
       <c r="G76" s="3">
-        <v>12234400</v>
+        <v>11662200</v>
       </c>
       <c r="H76" s="3">
-        <v>12578400</v>
+        <v>11990100</v>
       </c>
       <c r="I76" s="3">
-        <v>12515700</v>
+        <v>11930300</v>
       </c>
       <c r="J76" s="3">
-        <v>11993000</v>
+        <v>11432100</v>
       </c>
       <c r="K76" s="3">
         <v>12562000</v>
@@ -5714,25 +5714,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>772700</v>
+        <v>736600</v>
       </c>
       <c r="E81" s="3">
-        <v>641700</v>
+        <v>611600</v>
       </c>
       <c r="F81" s="3">
-        <v>831500</v>
+        <v>792600</v>
       </c>
       <c r="G81" s="3">
-        <v>464600</v>
+        <v>442900</v>
       </c>
       <c r="H81" s="3">
-        <v>517200</v>
+        <v>493000</v>
       </c>
       <c r="I81" s="3">
-        <v>648200</v>
+        <v>617900</v>
       </c>
       <c r="J81" s="3">
-        <v>142500</v>
+        <v>135800</v>
       </c>
       <c r="K81" s="3">
         <v>441800</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="E83" s="3">
-        <v>111900</v>
+        <v>106700</v>
       </c>
       <c r="F83" s="3">
-        <v>122100</v>
+        <v>116400</v>
       </c>
       <c r="G83" s="3">
-        <v>117600</v>
+        <v>112100</v>
       </c>
       <c r="H83" s="3">
-        <v>118900</v>
+        <v>113400</v>
       </c>
       <c r="I83" s="3">
-        <v>119700</v>
+        <v>114100</v>
       </c>
       <c r="J83" s="3">
-        <v>140600</v>
+        <v>134000</v>
       </c>
       <c r="K83" s="3">
         <v>134500</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>968300</v>
+        <v>923100</v>
       </c>
       <c r="E89" s="3">
-        <v>669200</v>
+        <v>637900</v>
       </c>
       <c r="F89" s="3">
-        <v>1222100</v>
+        <v>1164900</v>
       </c>
       <c r="G89" s="3">
-        <v>918900</v>
+        <v>875900</v>
       </c>
       <c r="H89" s="3">
-        <v>689700</v>
+        <v>657400</v>
       </c>
       <c r="I89" s="3">
-        <v>809400</v>
+        <v>771500</v>
       </c>
       <c r="J89" s="3">
-        <v>1199500</v>
+        <v>1143400</v>
       </c>
       <c r="K89" s="3">
         <v>795900</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65000</v>
+        <v>-62000</v>
       </c>
       <c r="E91" s="3">
-        <v>-109400</v>
+        <v>-104300</v>
       </c>
       <c r="F91" s="3">
-        <v>-64600</v>
+        <v>-61600</v>
       </c>
       <c r="G91" s="3">
-        <v>-59500</v>
+        <v>-56800</v>
       </c>
       <c r="H91" s="3">
-        <v>-61600</v>
+        <v>-58700</v>
       </c>
       <c r="I91" s="3">
-        <v>-48200</v>
+        <v>-45900</v>
       </c>
       <c r="J91" s="3">
-        <v>-44300</v>
+        <v>-42200</v>
       </c>
       <c r="K91" s="3">
         <v>-51700</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-172800</v>
+        <v>-164700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1611800</v>
+        <v>-1536500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2273300</v>
+        <v>-2167000</v>
       </c>
       <c r="G94" s="3">
-        <v>3089600</v>
+        <v>2945100</v>
       </c>
       <c r="H94" s="3">
-        <v>-809500</v>
+        <v>-771600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1040500</v>
+        <v>-991800</v>
       </c>
       <c r="J94" s="3">
-        <v>152600</v>
+        <v>145500</v>
       </c>
       <c r="K94" s="3">
         <v>-1105500</v>
@@ -6725,25 +6725,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-205000</v>
+        <v>-195400</v>
       </c>
       <c r="E96" s="3">
-        <v>-245800</v>
+        <v>-234300</v>
       </c>
       <c r="F96" s="3">
-        <v>-137300</v>
+        <v>-130900</v>
       </c>
       <c r="G96" s="3">
-        <v>-150100</v>
+        <v>-143100</v>
       </c>
       <c r="H96" s="3">
-        <v>-186800</v>
+        <v>-178000</v>
       </c>
       <c r="I96" s="3">
-        <v>-38100</v>
+        <v>-36300</v>
       </c>
       <c r="J96" s="3">
-        <v>-125800</v>
+        <v>-119900</v>
       </c>
       <c r="K96" s="3">
         <v>-203000</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>122800</v>
+        <v>117000</v>
       </c>
       <c r="E100" s="3">
-        <v>334300</v>
+        <v>318600</v>
       </c>
       <c r="F100" s="3">
-        <v>-156800</v>
+        <v>-149400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2175000</v>
+        <v>-2073300</v>
       </c>
       <c r="H100" s="3">
-        <v>288700</v>
+        <v>275200</v>
       </c>
       <c r="I100" s="3">
-        <v>205200</v>
+        <v>195600</v>
       </c>
       <c r="J100" s="3">
-        <v>-931000</v>
+        <v>-887500</v>
       </c>
       <c r="K100" s="3">
         <v>-367800</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>-11800</v>
+        <v>-11200</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="I101" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="J101" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="K101" s="3">
         <v>-3700</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>929300</v>
+        <v>885800</v>
       </c>
       <c r="E102" s="3">
-        <v>-611500</v>
+        <v>-582900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1219800</v>
+        <v>-1162800</v>
       </c>
       <c r="G102" s="3">
-        <v>1835600</v>
+        <v>1749800</v>
       </c>
       <c r="H102" s="3">
-        <v>165300</v>
+        <v>157500</v>
       </c>
       <c r="I102" s="3">
-        <v>-20600</v>
+        <v>-19700</v>
       </c>
       <c r="J102" s="3">
-        <v>411300</v>
+        <v>392000</v>
       </c>
       <c r="K102" s="3">
         <v>-681100</v>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3223700</v>
+        <v>3641400</v>
       </c>
       <c r="E8" s="3">
-        <v>3279000</v>
+        <v>3508200</v>
       </c>
       <c r="F8" s="3">
-        <v>3392800</v>
+        <v>3326100</v>
       </c>
       <c r="G8" s="3">
-        <v>3088900</v>
+        <v>3383100</v>
       </c>
       <c r="H8" s="3">
-        <v>2857000</v>
+        <v>3500500</v>
       </c>
       <c r="I8" s="3">
+        <v>3187000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2947700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2856000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2750800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2749500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2679700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2691800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2422800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2253600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2207400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2203400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1098200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1841900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2336400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2033500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2167900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1851800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1985100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2024400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1759600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1422300</v>
+        <v>1739200</v>
       </c>
       <c r="E9" s="3">
-        <v>1492100</v>
+        <v>1534300</v>
       </c>
       <c r="F9" s="3">
-        <v>1594600</v>
+        <v>1467400</v>
       </c>
       <c r="G9" s="3">
-        <v>1444900</v>
+        <v>1539500</v>
       </c>
       <c r="H9" s="3">
-        <v>1299400</v>
+        <v>1645300</v>
       </c>
       <c r="I9" s="3">
+        <v>1490800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1340700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1317500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1368900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1292700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1236700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1212300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1131300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1041700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1025400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1021300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>92700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>830800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1296900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1179300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1315400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>969100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>985300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>913700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>819600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1801500</v>
+        <v>1902200</v>
       </c>
       <c r="E10" s="3">
-        <v>1786800</v>
+        <v>1973900</v>
       </c>
       <c r="F10" s="3">
-        <v>1798200</v>
+        <v>1858700</v>
       </c>
       <c r="G10" s="3">
-        <v>1644100</v>
+        <v>1843600</v>
       </c>
       <c r="H10" s="3">
-        <v>1557600</v>
+        <v>1855300</v>
       </c>
       <c r="I10" s="3">
+        <v>1696300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1607100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1538500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1381900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1456800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1443000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1479400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1291500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1211900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1182000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1182200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1005500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1011100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1039500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>854200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>852600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>882700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>999800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1110600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>940000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>498600</v>
+        <v>587400</v>
       </c>
       <c r="E12" s="3">
-        <v>473000</v>
+        <v>570100</v>
       </c>
       <c r="F12" s="3">
-        <v>535600</v>
+        <v>514400</v>
       </c>
       <c r="G12" s="3">
-        <v>523600</v>
+        <v>488000</v>
       </c>
       <c r="H12" s="3">
-        <v>474200</v>
+        <v>552600</v>
       </c>
       <c r="I12" s="3">
+        <v>540200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>489300</v>
+      </c>
+      <c r="K12" s="3">
         <v>426000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>421700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>411000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>354900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>338000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>349100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>332900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>297300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>311300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>269400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>275100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>209300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>184400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>171100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>156000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>137200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>127600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2535200</v>
+        <v>3004600</v>
       </c>
       <c r="E17" s="3">
-        <v>2512400</v>
+        <v>2827200</v>
       </c>
       <c r="F17" s="3">
-        <v>2751300</v>
+        <v>2615700</v>
       </c>
       <c r="G17" s="3">
-        <v>2563400</v>
+        <v>2592200</v>
       </c>
       <c r="H17" s="3">
-        <v>2333900</v>
+        <v>2838700</v>
       </c>
       <c r="I17" s="3">
+        <v>2644800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2408000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2260800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2331600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2326500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2065200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1984000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1964500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1740100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1638400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1629700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>531600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1487000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2001600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1860400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1956200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1473400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1479700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1316200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1197200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>688500</v>
+        <v>636700</v>
       </c>
       <c r="E18" s="3">
-        <v>766600</v>
+        <v>681000</v>
       </c>
       <c r="F18" s="3">
-        <v>641500</v>
+        <v>710400</v>
       </c>
       <c r="G18" s="3">
-        <v>525500</v>
+        <v>790900</v>
       </c>
       <c r="H18" s="3">
-        <v>523100</v>
+        <v>661800</v>
       </c>
       <c r="I18" s="3">
+        <v>542200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>539700</v>
+      </c>
+      <c r="K18" s="3">
         <v>595200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>419300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>422900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>614500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>707800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>458300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>513500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>569000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>573700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>566600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>354900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>334800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>173200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>211700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>378400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>505400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>708200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>562300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>109300</v>
+        <v>49200</v>
       </c>
       <c r="E20" s="3">
-        <v>3900</v>
+        <v>497800</v>
       </c>
       <c r="F20" s="3">
-        <v>276800</v>
+        <v>112700</v>
       </c>
       <c r="G20" s="3">
-        <v>49500</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <v>115700</v>
+        <v>285600</v>
       </c>
       <c r="I20" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K20" s="3">
         <v>210400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-212200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>39200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>227800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>86200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>152700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>140900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>55000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>49800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>68900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>55200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>50200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-17100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>24600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>32300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>43400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>27100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>105700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>882600</v>
+        <v>796400</v>
       </c>
       <c r="E21" s="3">
-        <v>877100</v>
+        <v>1281300</v>
       </c>
       <c r="F21" s="3">
-        <v>1034600</v>
+        <v>910600</v>
       </c>
       <c r="G21" s="3">
-        <v>687200</v>
+        <v>905000</v>
       </c>
       <c r="H21" s="3">
-        <v>752200</v>
+        <v>1067500</v>
       </c>
       <c r="I21" s="3">
+        <v>709000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>776100</v>
+      </c>
+      <c r="K21" s="3">
         <v>919700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>341000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>596700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>973700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>902800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>718200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>762700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>720800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>712200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>734400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>489200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>452600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>208600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>277000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>441900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>574100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>756900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>682100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>797800</v>
+        <v>686000</v>
       </c>
       <c r="E23" s="3">
-        <v>770500</v>
+        <v>1178800</v>
       </c>
       <c r="F23" s="3">
-        <v>918300</v>
+        <v>823100</v>
       </c>
       <c r="G23" s="3">
-        <v>575000</v>
+        <v>794900</v>
       </c>
       <c r="H23" s="3">
-        <v>638900</v>
+        <v>947400</v>
       </c>
       <c r="I23" s="3">
+        <v>593300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>659200</v>
+      </c>
+      <c r="K23" s="3">
         <v>805600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>207100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>462100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>842300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>794000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>611000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>654400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>624000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>623500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>635400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>410100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>385000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>156000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>236300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>410700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>548800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>735300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>668100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>175300</v>
+        <v>138800</v>
       </c>
       <c r="E24" s="3">
-        <v>169700</v>
+        <v>227900</v>
       </c>
       <c r="F24" s="3">
-        <v>130000</v>
+        <v>180900</v>
       </c>
       <c r="G24" s="3">
-        <v>112400</v>
+        <v>175100</v>
       </c>
       <c r="H24" s="3">
-        <v>155000</v>
+        <v>134100</v>
       </c>
       <c r="I24" s="3">
+        <v>116000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>159900</v>
+      </c>
+      <c r="K24" s="3">
         <v>177300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>76900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>50500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>156900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>170700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>134900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>104500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>193500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>132800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>118000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>60300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>40600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>43100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>33500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>104400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>140000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>128300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>622500</v>
+        <v>547100</v>
       </c>
       <c r="E26" s="3">
-        <v>600800</v>
+        <v>950900</v>
       </c>
       <c r="F26" s="3">
-        <v>788200</v>
+        <v>642300</v>
       </c>
       <c r="G26" s="3">
-        <v>462600</v>
+        <v>619800</v>
       </c>
       <c r="H26" s="3">
-        <v>483900</v>
+        <v>813300</v>
       </c>
       <c r="I26" s="3">
+        <v>477300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>499300</v>
+      </c>
+      <c r="K26" s="3">
         <v>628300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>130100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>411600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>685400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>623300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>476100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>640900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>519600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>429900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>502600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>292100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>324700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>115500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>193200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>377200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>444400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>595300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>539800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>649600</v>
+        <v>567700</v>
       </c>
       <c r="E27" s="3">
-        <v>611600</v>
+        <v>962200</v>
       </c>
       <c r="F27" s="3">
-        <v>792600</v>
+        <v>670200</v>
       </c>
       <c r="G27" s="3">
-        <v>442900</v>
+        <v>631100</v>
       </c>
       <c r="H27" s="3">
-        <v>493000</v>
+        <v>817800</v>
       </c>
       <c r="I27" s="3">
+        <v>457000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>508700</v>
+      </c>
+      <c r="K27" s="3">
         <v>617900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>135800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>441800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>668700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>560200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>470200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>636600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>512500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>417500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>489400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>288700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>302200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>107900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>190800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>375100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>441100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>582200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>535600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,31 +2357,37 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>87000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>37</v>
+        <v>89700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>37</v>
@@ -2274,39 +2395,39 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1323600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-53600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-242900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-65300</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-109300</v>
+        <v>-49200</v>
       </c>
       <c r="E32" s="3">
-        <v>-3900</v>
+        <v>-497800</v>
       </c>
       <c r="F32" s="3">
-        <v>-276800</v>
+        <v>-112700</v>
       </c>
       <c r="G32" s="3">
-        <v>-49500</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-115700</v>
+        <v>-285600</v>
       </c>
       <c r="I32" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-210400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>212200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-39200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-227800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-86200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-152700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-140900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-49800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-68900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-55200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-50200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>17100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-24600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-32300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-43400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-27100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-105700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>736600</v>
+        <v>567700</v>
       </c>
       <c r="E33" s="3">
-        <v>611600</v>
+        <v>962200</v>
       </c>
       <c r="F33" s="3">
-        <v>792600</v>
+        <v>760000</v>
       </c>
       <c r="G33" s="3">
-        <v>442900</v>
+        <v>631100</v>
       </c>
       <c r="H33" s="3">
-        <v>493000</v>
+        <v>817800</v>
       </c>
       <c r="I33" s="3">
+        <v>457000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>508700</v>
+      </c>
+      <c r="K33" s="3">
         <v>617900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>135800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>441800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>668700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>560200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>470200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1960200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>469200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>363900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>246600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>223400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>302200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>107900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>190800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>375100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>441100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>582200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>535600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>736600</v>
+        <v>567700</v>
       </c>
       <c r="E35" s="3">
-        <v>611600</v>
+        <v>962200</v>
       </c>
       <c r="F35" s="3">
-        <v>792600</v>
+        <v>760000</v>
       </c>
       <c r="G35" s="3">
-        <v>442900</v>
+        <v>631100</v>
       </c>
       <c r="H35" s="3">
-        <v>493000</v>
+        <v>817800</v>
       </c>
       <c r="I35" s="3">
+        <v>457000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>508700</v>
+      </c>
+      <c r="K35" s="3">
         <v>617900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>135800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>441800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>668700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>560200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>470200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1960200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>469200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>363900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>246600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>223400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>302200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>107900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>190800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>375100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>441100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>582200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>535600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,624 +3092,674 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2291500</v>
+        <v>3574600</v>
       </c>
       <c r="E41" s="3">
-        <v>1371400</v>
+        <v>2585000</v>
       </c>
       <c r="F41" s="3">
-        <v>2018100</v>
+        <v>2364300</v>
       </c>
       <c r="G41" s="3">
-        <v>3099500</v>
+        <v>1414900</v>
       </c>
       <c r="H41" s="3">
-        <v>1383100</v>
+        <v>2082200</v>
       </c>
       <c r="I41" s="3">
+        <v>3198000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1223700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1269100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>952900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1565400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>882300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>499900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>422100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>738300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>631300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>724500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>668700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>441800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>534800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>410200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>382200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>447100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>587600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>791100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13235600</v>
+        <v>13295000</v>
       </c>
       <c r="E42" s="3">
-        <v>12896800</v>
+        <v>14108700</v>
       </c>
       <c r="F42" s="3">
-        <v>11558700</v>
+        <v>13655900</v>
       </c>
       <c r="G42" s="3">
-        <v>9614100</v>
+        <v>13306300</v>
       </c>
       <c r="H42" s="3">
-        <v>12659800</v>
+        <v>11925700</v>
       </c>
       <c r="I42" s="3">
+        <v>9919300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>13061800</v>
+      </c>
+      <c r="K42" s="3">
         <v>12628000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11741800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>13547400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>12606300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>11025600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>10593800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>9029400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>7748900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>7283200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>6473600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5270700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5889700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>5683300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>5987800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>5655100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>5658600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>5370000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>4500100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>725700</v>
+        <v>718500</v>
       </c>
       <c r="E43" s="3">
-        <v>734600</v>
+        <v>748000</v>
       </c>
       <c r="F43" s="3">
-        <v>766700</v>
+        <v>748700</v>
       </c>
       <c r="G43" s="3">
-        <v>754800</v>
+        <v>757900</v>
       </c>
       <c r="H43" s="3">
-        <v>619800</v>
+        <v>791100</v>
       </c>
       <c r="I43" s="3">
+        <v>778800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>639500</v>
+      </c>
+      <c r="K43" s="3">
         <v>703900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>637000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>729300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>739500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>719300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>642000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>724700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>686700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>774700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>598200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>639500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>554400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>637900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>537200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>483700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>505200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>546600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>618300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>117500</v>
+        <v>142700</v>
       </c>
       <c r="E44" s="3">
-        <v>119900</v>
+        <v>134000</v>
       </c>
       <c r="F44" s="3">
-        <v>134300</v>
+        <v>121200</v>
       </c>
       <c r="G44" s="3">
-        <v>144600</v>
+        <v>123700</v>
       </c>
       <c r="H44" s="3">
-        <v>123100</v>
+        <v>138600</v>
       </c>
       <c r="I44" s="3">
+        <v>149200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K44" s="3">
         <v>121800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>86500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>77300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>82300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>88700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>100200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>105700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>606000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>653500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>154800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>880500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>814400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>734800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>812500</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z44" s="3">
-        <v>229500</v>
+      <c r="Z44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>229500</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1448700</v>
+        <v>1170100</v>
       </c>
       <c r="E45" s="3">
-        <v>1452400</v>
+        <v>1323600</v>
       </c>
       <c r="F45" s="3">
-        <v>1268500</v>
+        <v>1494700</v>
       </c>
       <c r="G45" s="3">
-        <v>1552000</v>
+        <v>1498500</v>
       </c>
       <c r="H45" s="3">
-        <v>1355700</v>
+        <v>1308800</v>
       </c>
       <c r="I45" s="3">
+        <v>1601300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1398800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1404200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1275600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1457600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1380100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1517400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1268600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2428400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1379700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1603500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2028600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1351100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1249200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1503400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1445900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>2209500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1940600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1537400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1120900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17818900</v>
+        <v>18900900</v>
       </c>
       <c r="E46" s="3">
-        <v>16575000</v>
+        <v>18899200</v>
       </c>
       <c r="F46" s="3">
-        <v>15746300</v>
+        <v>18384700</v>
       </c>
       <c r="G46" s="3">
-        <v>15164900</v>
+        <v>17101300</v>
       </c>
       <c r="H46" s="3">
-        <v>16141500</v>
+        <v>16246300</v>
       </c>
       <c r="I46" s="3">
+        <v>15646500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>16654100</v>
+      </c>
+      <c r="K46" s="3">
         <v>16081600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15010100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16764400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16373600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14233300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>13104500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12710400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>11159600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10946200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9979600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8810600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8949500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>9094200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>9193700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8730600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8551400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8041600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>7181800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>622800</v>
+        <v>427100</v>
       </c>
       <c r="E47" s="3">
-        <v>622800</v>
+        <v>642500</v>
       </c>
       <c r="F47" s="3">
-        <v>3428300</v>
+        <v>642500</v>
       </c>
       <c r="G47" s="3">
-        <v>967900</v>
+        <v>642500</v>
       </c>
       <c r="H47" s="3">
-        <v>988300</v>
+        <v>3537200</v>
       </c>
       <c r="I47" s="3">
+        <v>998600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1019700</v>
+      </c>
+      <c r="K47" s="3">
         <v>938200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2553100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>626300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1005500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>607400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1794500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>776400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>21000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>21500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>21500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>413300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>7400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>7400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>74200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>366500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>838300</v>
+        <v>910900</v>
       </c>
       <c r="E48" s="3">
-        <v>813200</v>
+        <v>885400</v>
       </c>
       <c r="F48" s="3">
-        <v>901700</v>
+        <v>864900</v>
       </c>
       <c r="G48" s="3">
-        <v>690000</v>
+        <v>839100</v>
       </c>
       <c r="H48" s="3">
-        <v>653500</v>
+        <v>930400</v>
       </c>
       <c r="I48" s="3">
+        <v>711900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>674200</v>
+      </c>
+      <c r="K48" s="3">
         <v>647500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>741700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>654200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>650800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1302800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1353900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1301600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>945300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>944100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>678700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>742600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>699200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>611500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>559400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>498100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>442500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>398600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>351900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3584,38 +3805,44 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>492700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>84200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>84700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>88000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>88500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>86500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>86900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>85600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4130700</v>
+        <v>4573100</v>
       </c>
       <c r="E52" s="3">
-        <v>4156300</v>
+        <v>4377100</v>
       </c>
       <c r="F52" s="3">
-        <v>1310800</v>
+        <v>4261800</v>
       </c>
       <c r="G52" s="3">
-        <v>3749300</v>
+        <v>4288300</v>
       </c>
       <c r="H52" s="3">
-        <v>3772800</v>
+        <v>1352500</v>
       </c>
       <c r="I52" s="3">
+        <v>3868400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3892600</v>
+      </c>
+      <c r="K52" s="3">
         <v>3282900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1444000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3282800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3215000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2575400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1012100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2275000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2065600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2072100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1957600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1128300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1064000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>773500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>287400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>544500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>588900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>726800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>453800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23410600</v>
+        <v>24811900</v>
       </c>
       <c r="E54" s="3">
-        <v>22167300</v>
+        <v>24804300</v>
       </c>
       <c r="F54" s="3">
-        <v>21387200</v>
+        <v>24154000</v>
       </c>
       <c r="G54" s="3">
-        <v>20572100</v>
+        <v>22871200</v>
       </c>
       <c r="H54" s="3">
-        <v>21556100</v>
+        <v>22066300</v>
       </c>
       <c r="I54" s="3">
+        <v>21225400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>22240600</v>
+      </c>
+      <c r="K54" s="3">
         <v>20950100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>19748900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21327700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21244900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18718800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17264900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16294800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14178000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13970100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12630400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11195300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10818400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10585300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10541800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>9869200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>9676800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>9328300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>8439600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,333 +4316,359 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>131100</v>
+        <v>216500</v>
       </c>
       <c r="E57" s="3">
-        <v>128700</v>
+        <v>124600</v>
       </c>
       <c r="F57" s="3">
-        <v>137100</v>
+        <v>135300</v>
       </c>
       <c r="G57" s="3">
-        <v>153000</v>
+        <v>132800</v>
       </c>
       <c r="H57" s="3">
-        <v>123800</v>
+        <v>141500</v>
       </c>
       <c r="I57" s="3">
+        <v>157800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K57" s="3">
         <v>149100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>157900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>146900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>125800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>188800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>186700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>187800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>398700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>450600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>174500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>360300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>331200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>339400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>362500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>307000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>281800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>234400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>203000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3901400</v>
+        <v>3429000</v>
       </c>
       <c r="E58" s="3">
-        <v>3157000</v>
+        <v>3654500</v>
       </c>
       <c r="F58" s="3">
-        <v>2693800</v>
+        <v>4025300</v>
       </c>
       <c r="G58" s="3">
-        <v>2730300</v>
+        <v>3257200</v>
       </c>
       <c r="H58" s="3">
-        <v>3784600</v>
+        <v>2779400</v>
       </c>
       <c r="I58" s="3">
+        <v>2817000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3038300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2715100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3278400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3232000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3096000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2591200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2385900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2070800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2159500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1983600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1909900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1825900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1365400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>983000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>850800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>798100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>665400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>554900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3963800</v>
+        <v>4516300</v>
       </c>
       <c r="E59" s="3">
-        <v>3919900</v>
+        <v>4411400</v>
       </c>
       <c r="F59" s="3">
-        <v>4198800</v>
+        <v>4089700</v>
       </c>
       <c r="G59" s="3">
-        <v>3938700</v>
+        <v>4044400</v>
       </c>
       <c r="H59" s="3">
-        <v>3655900</v>
+        <v>4332100</v>
       </c>
       <c r="I59" s="3">
+        <v>4063800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3772000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3862800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3633700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3490100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3302200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3563100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3110800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2755700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2714800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2925100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2940700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2365900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2092900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2295300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2179300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1824600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1916500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2096200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2083000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7996300</v>
+        <v>8161800</v>
       </c>
       <c r="E60" s="3">
-        <v>7205600</v>
+        <v>8190400</v>
       </c>
       <c r="F60" s="3">
-        <v>7029800</v>
+        <v>8250200</v>
       </c>
       <c r="G60" s="3">
-        <v>6822000</v>
+        <v>7434400</v>
       </c>
       <c r="H60" s="3">
-        <v>7564400</v>
+        <v>7253000</v>
       </c>
       <c r="I60" s="3">
+        <v>7038600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>7804600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7050200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6506700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6915400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6660000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6848000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5888700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5329300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5184200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5535100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5098900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4636100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4250000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4000100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3524800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2982400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2996300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2995900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2788800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>467100</v>
+        <v>524900</v>
       </c>
       <c r="E61" s="3">
-        <v>441800</v>
+        <v>509800</v>
       </c>
       <c r="F61" s="3">
-        <v>177500</v>
+        <v>481900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>455900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>183100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4442,85 +4727,97 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>344100</v>
+        <v>488800</v>
       </c>
       <c r="E62" s="3">
-        <v>352900</v>
+        <v>356200</v>
       </c>
       <c r="F62" s="3">
-        <v>340100</v>
+        <v>355000</v>
       </c>
       <c r="G62" s="3">
-        <v>324300</v>
+        <v>364100</v>
       </c>
       <c r="H62" s="3">
-        <v>278500</v>
+        <v>350900</v>
       </c>
       <c r="I62" s="3">
+        <v>334600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>287300</v>
+      </c>
+      <c r="K62" s="3">
         <v>241500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>186100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>154400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>214700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>166100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>129300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>185900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>210400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>168600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>65000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>87600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>84800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>60500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>34400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>17800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>41800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>27800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>57100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9374900</v>
+        <v>9770400</v>
       </c>
       <c r="E66" s="3">
-        <v>8571500</v>
+        <v>9671800</v>
       </c>
       <c r="F66" s="3">
-        <v>8117600</v>
+        <v>9672600</v>
       </c>
       <c r="G66" s="3">
-        <v>8909900</v>
+        <v>8843600</v>
       </c>
       <c r="H66" s="3">
-        <v>9566000</v>
+        <v>8375300</v>
       </c>
       <c r="I66" s="3">
+        <v>9192900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9869700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9019800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8316900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8765700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8600700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8843500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7802300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6535300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6393700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6672100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6061400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5124400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4561000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4202100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3754700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3188400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3215300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3151400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2885400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5505,14 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5175,50 +5522,50 @@
       <c r="E72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="3">
-        <v>10960600</v>
+      <c r="F72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>37</v>
+      <c r="H72" s="3">
+        <v>11308600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J72" s="3">
-        <v>9102400</v>
+      <c r="J72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>37</v>
+      <c r="L72" s="3">
+        <v>9102400</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N72" s="3">
-        <v>8870600</v>
+      <c r="N72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>37</v>
+      <c r="P72" s="3">
+        <v>8870600</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R72" s="3">
-        <v>6566100</v>
+      <c r="R72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>37</v>
+      <c r="T72" s="3">
+        <v>6566100</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>37</v>
@@ -5235,14 +5582,20 @@
       <c r="Y72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z72" s="3">
-        <v>5306600</v>
+      <c r="Z72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>5306600</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14035600</v>
+        <v>15041500</v>
       </c>
       <c r="E76" s="3">
-        <v>13595900</v>
+        <v>15132500</v>
       </c>
       <c r="F76" s="3">
-        <v>13269700</v>
+        <v>14481300</v>
       </c>
       <c r="G76" s="3">
-        <v>11662200</v>
+        <v>14027600</v>
       </c>
       <c r="H76" s="3">
-        <v>11990100</v>
+        <v>13691000</v>
       </c>
       <c r="I76" s="3">
+        <v>12032500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12370900</v>
+      </c>
+      <c r="K76" s="3">
         <v>11930300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11432100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12562000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12644200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9875400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9462600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9759400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7784300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7298000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6569000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6070900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6257400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6383200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6787100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6680800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6461500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6176800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5554100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>736600</v>
+        <v>567700</v>
       </c>
       <c r="E81" s="3">
-        <v>611600</v>
+        <v>962200</v>
       </c>
       <c r="F81" s="3">
-        <v>792600</v>
+        <v>760000</v>
       </c>
       <c r="G81" s="3">
-        <v>442900</v>
+        <v>631100</v>
       </c>
       <c r="H81" s="3">
-        <v>493000</v>
+        <v>817800</v>
       </c>
       <c r="I81" s="3">
+        <v>457000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>508700</v>
+      </c>
+      <c r="K81" s="3">
         <v>617900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>135800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>441800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>668700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>560200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>470200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1960200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>469200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>363900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>246600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>223400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>302200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>107900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>190800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>375100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>441100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>582200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>535600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>84800</v>
+        <v>110500</v>
       </c>
       <c r="E83" s="3">
-        <v>106700</v>
+        <v>102500</v>
       </c>
       <c r="F83" s="3">
-        <v>116400</v>
+        <v>87500</v>
       </c>
       <c r="G83" s="3">
-        <v>112100</v>
+        <v>110000</v>
       </c>
       <c r="H83" s="3">
-        <v>113400</v>
+        <v>120100</v>
       </c>
       <c r="I83" s="3">
+        <v>115700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K83" s="3">
         <v>114100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>134000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>134500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>131500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>108900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>107100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>106000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>98100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>89700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>98200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>79800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>67600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>52600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>40700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>31300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>25300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>21700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>14100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>923100</v>
+        <v>1293900</v>
       </c>
       <c r="E89" s="3">
-        <v>637900</v>
+        <v>1075200</v>
       </c>
       <c r="F89" s="3">
-        <v>1164900</v>
+        <v>952400</v>
       </c>
       <c r="G89" s="3">
-        <v>875900</v>
+        <v>658100</v>
       </c>
       <c r="H89" s="3">
-        <v>657400</v>
+        <v>1201900</v>
       </c>
       <c r="I89" s="3">
+        <v>903800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>678300</v>
+      </c>
+      <c r="K89" s="3">
         <v>771500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1143400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>795900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>703200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1025500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>848500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>593400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>682300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>517400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>862000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>506300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>280900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>273300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>576000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>245700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>344500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>598300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>782200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62000</v>
+        <v>-50100</v>
       </c>
       <c r="E91" s="3">
-        <v>-104300</v>
+        <v>-80000</v>
       </c>
       <c r="F91" s="3">
-        <v>-61600</v>
+        <v>-63900</v>
       </c>
       <c r="G91" s="3">
-        <v>-56800</v>
+        <v>-107600</v>
       </c>
       <c r="H91" s="3">
-        <v>-58700</v>
+        <v>-63600</v>
       </c>
       <c r="I91" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-42200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-51700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-34900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-25900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-36300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-50800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-41900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-56500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-73400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-80900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-111200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-96200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-84900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-76000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-64300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-48300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-67700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164700</v>
+        <v>555000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1536500</v>
+        <v>141800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2167000</v>
+        <v>-169900</v>
       </c>
       <c r="G94" s="3">
-        <v>2945100</v>
+        <v>-1585200</v>
       </c>
       <c r="H94" s="3">
-        <v>-771600</v>
+        <v>-2235800</v>
       </c>
       <c r="I94" s="3">
+        <v>3038700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-796100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-991800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>145500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1105500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2985100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-391000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1069600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1090100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-514900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-724400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-55800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-555300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-153300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-592900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-140100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-343300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-831600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-670000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7184,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-195400</v>
+        <v>-290000</v>
       </c>
       <c r="E96" s="3">
-        <v>-234300</v>
+        <v>-232300</v>
       </c>
       <c r="F96" s="3">
-        <v>-130900</v>
+        <v>-201600</v>
       </c>
       <c r="G96" s="3">
-        <v>-143100</v>
+        <v>-241800</v>
       </c>
       <c r="H96" s="3">
-        <v>-178000</v>
+        <v>-135100</v>
       </c>
       <c r="I96" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-36300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-119900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-203000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-164300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-146200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1061000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-142200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-93700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-63200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-58000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-74700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-27500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-45300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-92700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-109200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-145500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-136100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-100700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>117000</v>
+        <v>-888000</v>
       </c>
       <c r="E100" s="3">
-        <v>318600</v>
+        <v>-1031900</v>
       </c>
       <c r="F100" s="3">
-        <v>-149400</v>
+        <v>120800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2073300</v>
+        <v>328700</v>
       </c>
       <c r="H100" s="3">
-        <v>275200</v>
+        <v>-154200</v>
       </c>
       <c r="I100" s="3">
+        <v>-2139100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K100" s="3">
         <v>195600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-887500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-367800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2973500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-219900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>180400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>112800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-188300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>62800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>406100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-127900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-41900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-171000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-31700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>16300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>17200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10400</v>
+        <v>7600</v>
       </c>
       <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2000</v>
-      </c>
       <c r="H101" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>26500</v>
+      </c>
+      <c r="O101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="V101" s="3">
+        <v>11200</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-3500</v>
       </c>
-      <c r="I101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>26500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>11700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>5900</v>
-      </c>
-      <c r="P101" s="3">
-        <v>5400</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>7600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>11200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="W101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>9900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>885800</v>
+        <v>968600</v>
       </c>
       <c r="E102" s="3">
-        <v>-582900</v>
+        <v>185600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1162800</v>
+        <v>914000</v>
       </c>
       <c r="G102" s="3">
-        <v>1749800</v>
+        <v>-601400</v>
       </c>
       <c r="H102" s="3">
-        <v>157500</v>
+        <v>-1199700</v>
       </c>
       <c r="I102" s="3">
+        <v>1805300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-19700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>392000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-681100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>718200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>426300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-44800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-378000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-146900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>70400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>330100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-305100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>114500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-25400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-61500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-217600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>139300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3641400</v>
+        <v>3604100</v>
       </c>
       <c r="E8" s="3">
-        <v>3508200</v>
+        <v>3472300</v>
       </c>
       <c r="F8" s="3">
-        <v>3326100</v>
+        <v>3292100</v>
       </c>
       <c r="G8" s="3">
-        <v>3383100</v>
+        <v>3348500</v>
       </c>
       <c r="H8" s="3">
-        <v>3500500</v>
+        <v>3464700</v>
       </c>
       <c r="I8" s="3">
-        <v>3187000</v>
+        <v>3154400</v>
       </c>
       <c r="J8" s="3">
-        <v>2947700</v>
+        <v>2917600</v>
       </c>
       <c r="K8" s="3">
         <v>2856000</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1739200</v>
+        <v>1721400</v>
       </c>
       <c r="E9" s="3">
-        <v>1534300</v>
+        <v>1518600</v>
       </c>
       <c r="F9" s="3">
-        <v>1467400</v>
+        <v>1452400</v>
       </c>
       <c r="G9" s="3">
-        <v>1539500</v>
+        <v>1523800</v>
       </c>
       <c r="H9" s="3">
-        <v>1645300</v>
+        <v>1628400</v>
       </c>
       <c r="I9" s="3">
-        <v>1490800</v>
+        <v>1475500</v>
       </c>
       <c r="J9" s="3">
-        <v>1340700</v>
+        <v>1327000</v>
       </c>
       <c r="K9" s="3">
         <v>1317500</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1902200</v>
+        <v>1882700</v>
       </c>
       <c r="E10" s="3">
-        <v>1973900</v>
+        <v>1953700</v>
       </c>
       <c r="F10" s="3">
-        <v>1858700</v>
+        <v>1839600</v>
       </c>
       <c r="G10" s="3">
-        <v>1843600</v>
+        <v>1824700</v>
       </c>
       <c r="H10" s="3">
-        <v>1855300</v>
+        <v>1836300</v>
       </c>
       <c r="I10" s="3">
-        <v>1696300</v>
+        <v>1678900</v>
       </c>
       <c r="J10" s="3">
-        <v>1607100</v>
+        <v>1590600</v>
       </c>
       <c r="K10" s="3">
         <v>1538500</v>
@@ -1065,25 +1065,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>587400</v>
+        <v>581400</v>
       </c>
       <c r="E12" s="3">
-        <v>570100</v>
+        <v>564200</v>
       </c>
       <c r="F12" s="3">
-        <v>514400</v>
+        <v>509100</v>
       </c>
       <c r="G12" s="3">
-        <v>488000</v>
+        <v>483000</v>
       </c>
       <c r="H12" s="3">
-        <v>552600</v>
+        <v>547000</v>
       </c>
       <c r="I12" s="3">
-        <v>540200</v>
+        <v>534700</v>
       </c>
       <c r="J12" s="3">
-        <v>489300</v>
+        <v>484300</v>
       </c>
       <c r="K12" s="3">
         <v>426000</v>
@@ -1425,25 +1425,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3004600</v>
+        <v>2973900</v>
       </c>
       <c r="E17" s="3">
-        <v>2827200</v>
+        <v>2798200</v>
       </c>
       <c r="F17" s="3">
-        <v>2615700</v>
+        <v>2588900</v>
       </c>
       <c r="G17" s="3">
-        <v>2592200</v>
+        <v>2565600</v>
       </c>
       <c r="H17" s="3">
-        <v>2838700</v>
+        <v>2809700</v>
       </c>
       <c r="I17" s="3">
-        <v>2644800</v>
+        <v>2617800</v>
       </c>
       <c r="J17" s="3">
-        <v>2408000</v>
+        <v>2383300</v>
       </c>
       <c r="K17" s="3">
         <v>2260800</v>
@@ -1508,25 +1508,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>636700</v>
+        <v>630200</v>
       </c>
       <c r="E18" s="3">
-        <v>681000</v>
+        <v>674000</v>
       </c>
       <c r="F18" s="3">
-        <v>710400</v>
+        <v>703100</v>
       </c>
       <c r="G18" s="3">
-        <v>790900</v>
+        <v>782800</v>
       </c>
       <c r="H18" s="3">
-        <v>661800</v>
+        <v>655100</v>
       </c>
       <c r="I18" s="3">
-        <v>542200</v>
+        <v>536600</v>
       </c>
       <c r="J18" s="3">
-        <v>539700</v>
+        <v>534200</v>
       </c>
       <c r="K18" s="3">
         <v>595200</v>
@@ -1622,25 +1622,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>49200</v>
+        <v>48700</v>
       </c>
       <c r="E20" s="3">
-        <v>497800</v>
+        <v>492700</v>
       </c>
       <c r="F20" s="3">
-        <v>112700</v>
+        <v>111600</v>
       </c>
       <c r="G20" s="3">
         <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <v>285600</v>
+        <v>282700</v>
       </c>
       <c r="I20" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="J20" s="3">
-        <v>119400</v>
+        <v>118200</v>
       </c>
       <c r="K20" s="3">
         <v>210400</v>
@@ -1705,25 +1705,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>796400</v>
+        <v>788300</v>
       </c>
       <c r="E21" s="3">
-        <v>1281300</v>
+        <v>1268200</v>
       </c>
       <c r="F21" s="3">
-        <v>910600</v>
+        <v>901300</v>
       </c>
       <c r="G21" s="3">
-        <v>905000</v>
+        <v>895700</v>
       </c>
       <c r="H21" s="3">
-        <v>1067500</v>
+        <v>1056600</v>
       </c>
       <c r="I21" s="3">
-        <v>709000</v>
+        <v>701700</v>
       </c>
       <c r="J21" s="3">
-        <v>776100</v>
+        <v>768200</v>
       </c>
       <c r="K21" s="3">
         <v>919700</v>
@@ -1871,25 +1871,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>686000</v>
+        <v>678900</v>
       </c>
       <c r="E23" s="3">
-        <v>1178800</v>
+        <v>1166700</v>
       </c>
       <c r="F23" s="3">
-        <v>823100</v>
+        <v>814700</v>
       </c>
       <c r="G23" s="3">
-        <v>794900</v>
+        <v>786800</v>
       </c>
       <c r="H23" s="3">
-        <v>947400</v>
+        <v>937700</v>
       </c>
       <c r="I23" s="3">
-        <v>593300</v>
+        <v>587200</v>
       </c>
       <c r="J23" s="3">
-        <v>659200</v>
+        <v>652400</v>
       </c>
       <c r="K23" s="3">
         <v>805600</v>
@@ -1954,25 +1954,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>138800</v>
+        <v>137400</v>
       </c>
       <c r="E24" s="3">
-        <v>227900</v>
+        <v>225500</v>
       </c>
       <c r="F24" s="3">
-        <v>180900</v>
+        <v>179000</v>
       </c>
       <c r="G24" s="3">
-        <v>175100</v>
+        <v>173300</v>
       </c>
       <c r="H24" s="3">
-        <v>134100</v>
+        <v>132800</v>
       </c>
       <c r="I24" s="3">
-        <v>116000</v>
+        <v>114800</v>
       </c>
       <c r="J24" s="3">
-        <v>159900</v>
+        <v>158200</v>
       </c>
       <c r="K24" s="3">
         <v>177300</v>
@@ -2120,25 +2120,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>547100</v>
+        <v>541500</v>
       </c>
       <c r="E26" s="3">
-        <v>950900</v>
+        <v>941200</v>
       </c>
       <c r="F26" s="3">
-        <v>642300</v>
+        <v>635700</v>
       </c>
       <c r="G26" s="3">
-        <v>619800</v>
+        <v>613500</v>
       </c>
       <c r="H26" s="3">
-        <v>813300</v>
+        <v>805000</v>
       </c>
       <c r="I26" s="3">
-        <v>477300</v>
+        <v>472400</v>
       </c>
       <c r="J26" s="3">
-        <v>499300</v>
+        <v>494200</v>
       </c>
       <c r="K26" s="3">
         <v>628300</v>
@@ -2203,25 +2203,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>567700</v>
+        <v>561900</v>
       </c>
       <c r="E27" s="3">
-        <v>962200</v>
+        <v>952300</v>
       </c>
       <c r="F27" s="3">
-        <v>670200</v>
+        <v>663400</v>
       </c>
       <c r="G27" s="3">
-        <v>631100</v>
+        <v>624600</v>
       </c>
       <c r="H27" s="3">
-        <v>817800</v>
+        <v>809400</v>
       </c>
       <c r="I27" s="3">
-        <v>457000</v>
+        <v>452300</v>
       </c>
       <c r="J27" s="3">
-        <v>508700</v>
+        <v>503500</v>
       </c>
       <c r="K27" s="3">
         <v>617900</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>89700</v>
+        <v>88800</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2618,25 +2618,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-49200</v>
+        <v>-48700</v>
       </c>
       <c r="E32" s="3">
-        <v>-497800</v>
+        <v>-492700</v>
       </c>
       <c r="F32" s="3">
-        <v>-112700</v>
+        <v>-111600</v>
       </c>
       <c r="G32" s="3">
         <v>-4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-285600</v>
+        <v>-282700</v>
       </c>
       <c r="I32" s="3">
-        <v>-51100</v>
+        <v>-50600</v>
       </c>
       <c r="J32" s="3">
-        <v>-119400</v>
+        <v>-118200</v>
       </c>
       <c r="K32" s="3">
         <v>-210400</v>
@@ -2701,25 +2701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>567700</v>
+        <v>561900</v>
       </c>
       <c r="E33" s="3">
-        <v>962200</v>
+        <v>952300</v>
       </c>
       <c r="F33" s="3">
-        <v>760000</v>
+        <v>752200</v>
       </c>
       <c r="G33" s="3">
-        <v>631100</v>
+        <v>624600</v>
       </c>
       <c r="H33" s="3">
-        <v>817800</v>
+        <v>809400</v>
       </c>
       <c r="I33" s="3">
-        <v>457000</v>
+        <v>452300</v>
       </c>
       <c r="J33" s="3">
-        <v>508700</v>
+        <v>503500</v>
       </c>
       <c r="K33" s="3">
         <v>617900</v>
@@ -2867,25 +2867,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>567700</v>
+        <v>561900</v>
       </c>
       <c r="E35" s="3">
-        <v>962200</v>
+        <v>952300</v>
       </c>
       <c r="F35" s="3">
-        <v>760000</v>
+        <v>752200</v>
       </c>
       <c r="G35" s="3">
-        <v>631100</v>
+        <v>624600</v>
       </c>
       <c r="H35" s="3">
-        <v>817800</v>
+        <v>809400</v>
       </c>
       <c r="I35" s="3">
-        <v>457000</v>
+        <v>452300</v>
       </c>
       <c r="J35" s="3">
-        <v>508700</v>
+        <v>503500</v>
       </c>
       <c r="K35" s="3">
         <v>617900</v>
@@ -3100,25 +3100,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3574600</v>
+        <v>3538000</v>
       </c>
       <c r="E41" s="3">
-        <v>2585000</v>
+        <v>2558600</v>
       </c>
       <c r="F41" s="3">
-        <v>2364300</v>
+        <v>2340100</v>
       </c>
       <c r="G41" s="3">
-        <v>1414900</v>
+        <v>1400500</v>
       </c>
       <c r="H41" s="3">
-        <v>2082200</v>
+        <v>2060900</v>
       </c>
       <c r="I41" s="3">
-        <v>3198000</v>
+        <v>3165200</v>
       </c>
       <c r="J41" s="3">
-        <v>1427000</v>
+        <v>1412400</v>
       </c>
       <c r="K41" s="3">
         <v>1223700</v>
@@ -3183,25 +3183,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13295000</v>
+        <v>13158900</v>
       </c>
       <c r="E42" s="3">
-        <v>14108700</v>
+        <v>13964300</v>
       </c>
       <c r="F42" s="3">
-        <v>13655900</v>
+        <v>13516100</v>
       </c>
       <c r="G42" s="3">
-        <v>13306300</v>
+        <v>13170100</v>
       </c>
       <c r="H42" s="3">
-        <v>11925700</v>
+        <v>11803600</v>
       </c>
       <c r="I42" s="3">
-        <v>9919300</v>
+        <v>9817800</v>
       </c>
       <c r="J42" s="3">
-        <v>13061800</v>
+        <v>12928100</v>
       </c>
       <c r="K42" s="3">
         <v>12628000</v>
@@ -3266,25 +3266,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>718500</v>
+        <v>711200</v>
       </c>
       <c r="E43" s="3">
-        <v>748000</v>
+        <v>740300</v>
       </c>
       <c r="F43" s="3">
-        <v>748700</v>
+        <v>741000</v>
       </c>
       <c r="G43" s="3">
-        <v>757900</v>
+        <v>750200</v>
       </c>
       <c r="H43" s="3">
-        <v>791100</v>
+        <v>783000</v>
       </c>
       <c r="I43" s="3">
-        <v>778800</v>
+        <v>770800</v>
       </c>
       <c r="J43" s="3">
-        <v>639500</v>
+        <v>632900</v>
       </c>
       <c r="K43" s="3">
         <v>703900</v>
@@ -3349,25 +3349,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>142700</v>
+        <v>141200</v>
       </c>
       <c r="E44" s="3">
-        <v>134000</v>
+        <v>132600</v>
       </c>
       <c r="F44" s="3">
-        <v>121200</v>
+        <v>119900</v>
       </c>
       <c r="G44" s="3">
-        <v>123700</v>
+        <v>122400</v>
       </c>
       <c r="H44" s="3">
-        <v>138600</v>
+        <v>137100</v>
       </c>
       <c r="I44" s="3">
-        <v>149200</v>
+        <v>147600</v>
       </c>
       <c r="J44" s="3">
-        <v>127000</v>
+        <v>125700</v>
       </c>
       <c r="K44" s="3">
         <v>121800</v>
@@ -3432,25 +3432,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1170100</v>
+        <v>1158100</v>
       </c>
       <c r="E45" s="3">
-        <v>1323600</v>
+        <v>1310000</v>
       </c>
       <c r="F45" s="3">
-        <v>1494700</v>
+        <v>1479400</v>
       </c>
       <c r="G45" s="3">
-        <v>1498500</v>
+        <v>1483100</v>
       </c>
       <c r="H45" s="3">
-        <v>1308800</v>
+        <v>1295400</v>
       </c>
       <c r="I45" s="3">
-        <v>1601300</v>
+        <v>1584900</v>
       </c>
       <c r="J45" s="3">
-        <v>1398800</v>
+        <v>1384500</v>
       </c>
       <c r="K45" s="3">
         <v>1404200</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18900900</v>
+        <v>18707400</v>
       </c>
       <c r="E46" s="3">
-        <v>18899200</v>
+        <v>18705800</v>
       </c>
       <c r="F46" s="3">
-        <v>18384700</v>
+        <v>18196500</v>
       </c>
       <c r="G46" s="3">
-        <v>17101300</v>
+        <v>16926300</v>
       </c>
       <c r="H46" s="3">
-        <v>16246300</v>
+        <v>16080000</v>
       </c>
       <c r="I46" s="3">
-        <v>15646500</v>
+        <v>15486300</v>
       </c>
       <c r="J46" s="3">
-        <v>16654100</v>
+        <v>16483600</v>
       </c>
       <c r="K46" s="3">
         <v>16081600</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>427100</v>
+        <v>3058800</v>
       </c>
       <c r="E47" s="3">
-        <v>642500</v>
+        <v>636000</v>
       </c>
       <c r="F47" s="3">
-        <v>642500</v>
+        <v>636000</v>
       </c>
       <c r="G47" s="3">
-        <v>642500</v>
+        <v>636000</v>
       </c>
       <c r="H47" s="3">
-        <v>3537200</v>
+        <v>3501000</v>
       </c>
       <c r="I47" s="3">
-        <v>998600</v>
+        <v>988400</v>
       </c>
       <c r="J47" s="3">
-        <v>1019700</v>
+        <v>1009300</v>
       </c>
       <c r="K47" s="3">
         <v>938200</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>910900</v>
+        <v>1027800</v>
       </c>
       <c r="E48" s="3">
-        <v>885400</v>
+        <v>876400</v>
       </c>
       <c r="F48" s="3">
-        <v>864900</v>
+        <v>856100</v>
       </c>
       <c r="G48" s="3">
-        <v>839100</v>
+        <v>830500</v>
       </c>
       <c r="H48" s="3">
-        <v>930400</v>
+        <v>920800</v>
       </c>
       <c r="I48" s="3">
-        <v>711900</v>
+        <v>704600</v>
       </c>
       <c r="J48" s="3">
-        <v>674200</v>
+        <v>667300</v>
       </c>
       <c r="K48" s="3">
         <v>647500</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4573100</v>
+        <v>1764000</v>
       </c>
       <c r="E52" s="3">
-        <v>4377100</v>
+        <v>4332300</v>
       </c>
       <c r="F52" s="3">
-        <v>4261800</v>
+        <v>4218200</v>
       </c>
       <c r="G52" s="3">
-        <v>4288300</v>
+        <v>4244400</v>
       </c>
       <c r="H52" s="3">
-        <v>1352500</v>
+        <v>1338600</v>
       </c>
       <c r="I52" s="3">
-        <v>3868400</v>
+        <v>3828800</v>
       </c>
       <c r="J52" s="3">
-        <v>3892600</v>
+        <v>3852800</v>
       </c>
       <c r="K52" s="3">
         <v>3282900</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24811900</v>
+        <v>24558000</v>
       </c>
       <c r="E54" s="3">
-        <v>24804300</v>
+        <v>24550400</v>
       </c>
       <c r="F54" s="3">
-        <v>24154000</v>
+        <v>23906700</v>
       </c>
       <c r="G54" s="3">
-        <v>22871200</v>
+        <v>22637100</v>
       </c>
       <c r="H54" s="3">
-        <v>22066300</v>
+        <v>21840500</v>
       </c>
       <c r="I54" s="3">
-        <v>21225400</v>
+        <v>21008100</v>
       </c>
       <c r="J54" s="3">
-        <v>22240600</v>
+        <v>22012900</v>
       </c>
       <c r="K54" s="3">
         <v>20950100</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>216500</v>
+        <v>214200</v>
       </c>
       <c r="E57" s="3">
-        <v>124600</v>
+        <v>123300</v>
       </c>
       <c r="F57" s="3">
-        <v>135300</v>
+        <v>133900</v>
       </c>
       <c r="G57" s="3">
-        <v>132800</v>
+        <v>131400</v>
       </c>
       <c r="H57" s="3">
-        <v>141500</v>
+        <v>140000</v>
       </c>
       <c r="I57" s="3">
-        <v>157800</v>
+        <v>156200</v>
       </c>
       <c r="J57" s="3">
-        <v>127800</v>
+        <v>126500</v>
       </c>
       <c r="K57" s="3">
         <v>149100</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3429000</v>
+        <v>3393900</v>
       </c>
       <c r="E58" s="3">
-        <v>3654500</v>
+        <v>3617100</v>
       </c>
       <c r="F58" s="3">
-        <v>4025300</v>
+        <v>3984100</v>
       </c>
       <c r="G58" s="3">
-        <v>3257200</v>
+        <v>3223900</v>
       </c>
       <c r="H58" s="3">
-        <v>2779400</v>
+        <v>2750900</v>
       </c>
       <c r="I58" s="3">
-        <v>2817000</v>
+        <v>2788200</v>
       </c>
       <c r="J58" s="3">
-        <v>3904800</v>
+        <v>3864800</v>
       </c>
       <c r="K58" s="3">
         <v>3038300</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4516300</v>
+        <v>4470000</v>
       </c>
       <c r="E59" s="3">
-        <v>4411400</v>
+        <v>4366200</v>
       </c>
       <c r="F59" s="3">
-        <v>4089700</v>
+        <v>4047800</v>
       </c>
       <c r="G59" s="3">
-        <v>4044400</v>
+        <v>4003000</v>
       </c>
       <c r="H59" s="3">
-        <v>4332100</v>
+        <v>4287800</v>
       </c>
       <c r="I59" s="3">
-        <v>4063800</v>
+        <v>4022200</v>
       </c>
       <c r="J59" s="3">
-        <v>3772000</v>
+        <v>3733400</v>
       </c>
       <c r="K59" s="3">
         <v>3862800</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8161800</v>
+        <v>8078200</v>
       </c>
       <c r="E60" s="3">
-        <v>8190400</v>
+        <v>8106600</v>
       </c>
       <c r="F60" s="3">
-        <v>8250200</v>
+        <v>8165800</v>
       </c>
       <c r="G60" s="3">
-        <v>7434400</v>
+        <v>7358300</v>
       </c>
       <c r="H60" s="3">
-        <v>7253000</v>
+        <v>7178800</v>
       </c>
       <c r="I60" s="3">
-        <v>7038600</v>
+        <v>6966500</v>
       </c>
       <c r="J60" s="3">
-        <v>7804600</v>
+        <v>7724700</v>
       </c>
       <c r="K60" s="3">
         <v>7050200</v>
@@ -4656,19 +4656,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>524900</v>
+        <v>519600</v>
       </c>
       <c r="E61" s="3">
-        <v>509800</v>
+        <v>504600</v>
       </c>
       <c r="F61" s="3">
-        <v>481900</v>
+        <v>477000</v>
       </c>
       <c r="G61" s="3">
-        <v>455900</v>
+        <v>451200</v>
       </c>
       <c r="H61" s="3">
-        <v>183100</v>
+        <v>181300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>488800</v>
+        <v>483800</v>
       </c>
       <c r="E62" s="3">
-        <v>356200</v>
+        <v>352500</v>
       </c>
       <c r="F62" s="3">
-        <v>355000</v>
+        <v>351400</v>
       </c>
       <c r="G62" s="3">
-        <v>364100</v>
+        <v>360400</v>
       </c>
       <c r="H62" s="3">
-        <v>350900</v>
+        <v>347400</v>
       </c>
       <c r="I62" s="3">
-        <v>334600</v>
+        <v>331200</v>
       </c>
       <c r="J62" s="3">
-        <v>287300</v>
+        <v>284400</v>
       </c>
       <c r="K62" s="3">
         <v>241500</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9770400</v>
+        <v>9670400</v>
       </c>
       <c r="E66" s="3">
-        <v>9671800</v>
+        <v>9572800</v>
       </c>
       <c r="F66" s="3">
-        <v>9672600</v>
+        <v>9573600</v>
       </c>
       <c r="G66" s="3">
-        <v>8843600</v>
+        <v>8753100</v>
       </c>
       <c r="H66" s="3">
-        <v>8375300</v>
+        <v>8289600</v>
       </c>
       <c r="I66" s="3">
-        <v>9192900</v>
+        <v>9098800</v>
       </c>
       <c r="J66" s="3">
-        <v>9869700</v>
+        <v>9768700</v>
       </c>
       <c r="K66" s="3">
         <v>9019800</v>
@@ -5516,8 +5516,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>37</v>
+      <c r="D72" s="3">
+        <v>13128000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>37</v>
@@ -5529,7 +5529,7 @@
         <v>37</v>
       </c>
       <c r="H72" s="3">
-        <v>11308600</v>
+        <v>11192800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>37</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15041500</v>
+        <v>14887600</v>
       </c>
       <c r="E76" s="3">
-        <v>15132500</v>
+        <v>14977600</v>
       </c>
       <c r="F76" s="3">
-        <v>14481300</v>
+        <v>14333100</v>
       </c>
       <c r="G76" s="3">
-        <v>14027600</v>
+        <v>13884000</v>
       </c>
       <c r="H76" s="3">
-        <v>13691000</v>
+        <v>13550900</v>
       </c>
       <c r="I76" s="3">
-        <v>12032500</v>
+        <v>11909300</v>
       </c>
       <c r="J76" s="3">
-        <v>12370900</v>
+        <v>12244200</v>
       </c>
       <c r="K76" s="3">
         <v>11930300</v>
@@ -6103,25 +6103,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>567700</v>
+        <v>561900</v>
       </c>
       <c r="E81" s="3">
-        <v>962200</v>
+        <v>952300</v>
       </c>
       <c r="F81" s="3">
-        <v>760000</v>
+        <v>752200</v>
       </c>
       <c r="G81" s="3">
-        <v>631100</v>
+        <v>624600</v>
       </c>
       <c r="H81" s="3">
-        <v>817800</v>
+        <v>809400</v>
       </c>
       <c r="I81" s="3">
-        <v>457000</v>
+        <v>452300</v>
       </c>
       <c r="J81" s="3">
-        <v>508700</v>
+        <v>503500</v>
       </c>
       <c r="K81" s="3">
         <v>617900</v>
@@ -6217,25 +6217,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>110500</v>
+        <v>109300</v>
       </c>
       <c r="E83" s="3">
-        <v>102500</v>
+        <v>101500</v>
       </c>
       <c r="F83" s="3">
-        <v>87500</v>
+        <v>86600</v>
       </c>
       <c r="G83" s="3">
-        <v>110000</v>
+        <v>108900</v>
       </c>
       <c r="H83" s="3">
-        <v>120100</v>
+        <v>118800</v>
       </c>
       <c r="I83" s="3">
-        <v>115700</v>
+        <v>114500</v>
       </c>
       <c r="J83" s="3">
-        <v>117000</v>
+        <v>115800</v>
       </c>
       <c r="K83" s="3">
         <v>114100</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1293900</v>
+        <v>1280700</v>
       </c>
       <c r="E89" s="3">
-        <v>1075200</v>
+        <v>1064200</v>
       </c>
       <c r="F89" s="3">
-        <v>952400</v>
+        <v>942600</v>
       </c>
       <c r="G89" s="3">
-        <v>658100</v>
+        <v>651400</v>
       </c>
       <c r="H89" s="3">
-        <v>1201900</v>
+        <v>1189600</v>
       </c>
       <c r="I89" s="3">
-        <v>903800</v>
+        <v>894500</v>
       </c>
       <c r="J89" s="3">
-        <v>678300</v>
+        <v>671300</v>
       </c>
       <c r="K89" s="3">
         <v>771500</v>
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50100</v>
+        <v>-510800</v>
       </c>
       <c r="E91" s="3">
-        <v>-80000</v>
+        <v>-709300</v>
       </c>
       <c r="F91" s="3">
-        <v>-63900</v>
+        <v>-530200</v>
       </c>
       <c r="G91" s="3">
-        <v>-107600</v>
+        <v>-893200</v>
       </c>
       <c r="H91" s="3">
-        <v>-63600</v>
+        <v>-739700</v>
       </c>
       <c r="I91" s="3">
-        <v>-58600</v>
+        <v>-625900</v>
       </c>
       <c r="J91" s="3">
-        <v>-60600</v>
+        <v>-988600</v>
       </c>
       <c r="K91" s="3">
         <v>-45900</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>555000</v>
+        <v>549300</v>
       </c>
       <c r="E94" s="3">
-        <v>141800</v>
+        <v>140300</v>
       </c>
       <c r="F94" s="3">
-        <v>-169900</v>
+        <v>-168200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1585200</v>
+        <v>-1569000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2235800</v>
+        <v>-2212900</v>
       </c>
       <c r="I94" s="3">
-        <v>3038700</v>
+        <v>3007600</v>
       </c>
       <c r="J94" s="3">
-        <v>-796100</v>
+        <v>-788000</v>
       </c>
       <c r="K94" s="3">
         <v>-991800</v>
@@ -7192,25 +7192,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-290000</v>
+        <v>-287000</v>
       </c>
       <c r="E96" s="3">
-        <v>-232300</v>
+        <v>-229900</v>
       </c>
       <c r="F96" s="3">
-        <v>-201600</v>
+        <v>-199500</v>
       </c>
       <c r="G96" s="3">
-        <v>-241800</v>
+        <v>-239300</v>
       </c>
       <c r="H96" s="3">
-        <v>-135100</v>
+        <v>-133700</v>
       </c>
       <c r="I96" s="3">
-        <v>-147700</v>
+        <v>-146100</v>
       </c>
       <c r="J96" s="3">
-        <v>-183700</v>
+        <v>-181800</v>
       </c>
       <c r="K96" s="3">
         <v>-36300</v>
@@ -7524,25 +7524,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-888000</v>
+        <v>-878900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1031900</v>
+        <v>-1021300</v>
       </c>
       <c r="F100" s="3">
-        <v>120800</v>
+        <v>119500</v>
       </c>
       <c r="G100" s="3">
-        <v>328700</v>
+        <v>325400</v>
       </c>
       <c r="H100" s="3">
-        <v>-154200</v>
+        <v>-152600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2139100</v>
+        <v>-2117200</v>
       </c>
       <c r="J100" s="3">
-        <v>284000</v>
+        <v>281100</v>
       </c>
       <c r="K100" s="3">
         <v>195600</v>
@@ -7613,13 +7613,13 @@
         <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="G101" s="3">
         <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="I101" s="3">
         <v>2100</v>
@@ -7690,25 +7690,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>968600</v>
+        <v>958600</v>
       </c>
       <c r="E102" s="3">
-        <v>185600</v>
+        <v>183700</v>
       </c>
       <c r="F102" s="3">
-        <v>914000</v>
+        <v>904600</v>
       </c>
       <c r="G102" s="3">
-        <v>-601400</v>
+        <v>-595200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1199700</v>
+        <v>-1187400</v>
       </c>
       <c r="I102" s="3">
-        <v>1805300</v>
+        <v>1786900</v>
       </c>
       <c r="J102" s="3">
-        <v>162500</v>
+        <v>160900</v>
       </c>
       <c r="K102" s="3">
         <v>-19700</v>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3604100</v>
+        <v>3308300</v>
       </c>
       <c r="E8" s="3">
-        <v>3472300</v>
+        <v>3450900</v>
       </c>
       <c r="F8" s="3">
-        <v>3292100</v>
+        <v>3493300</v>
       </c>
       <c r="G8" s="3">
-        <v>3348500</v>
+        <v>3365500</v>
       </c>
       <c r="H8" s="3">
-        <v>3464700</v>
+        <v>3190900</v>
       </c>
       <c r="I8" s="3">
+        <v>3245500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3358200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3154400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2917600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2856000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2750800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2749500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2679700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2691800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2422800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2253600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2207400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2203400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1098200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1841900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2336400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2033500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2167900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1851800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1985100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2024400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1759600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1721400</v>
+        <v>1327600</v>
       </c>
       <c r="E9" s="3">
-        <v>1518600</v>
+        <v>1398400</v>
       </c>
       <c r="F9" s="3">
-        <v>1452400</v>
+        <v>1668500</v>
       </c>
       <c r="G9" s="3">
-        <v>1523800</v>
+        <v>1471900</v>
       </c>
       <c r="H9" s="3">
-        <v>1628400</v>
+        <v>1407800</v>
       </c>
       <c r="I9" s="3">
+        <v>1476900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1578400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1475500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1327000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1317500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1368900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1292700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1236700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1212300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1131300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1041700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1025400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1021300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>92700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>830800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1296900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1179300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1315400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>969100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>985300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>913700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>819600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1882700</v>
+        <v>1980600</v>
       </c>
       <c r="E10" s="3">
-        <v>1953700</v>
+        <v>2052400</v>
       </c>
       <c r="F10" s="3">
-        <v>1839600</v>
+        <v>1824800</v>
       </c>
       <c r="G10" s="3">
-        <v>1824700</v>
+        <v>1893600</v>
       </c>
       <c r="H10" s="3">
-        <v>1836300</v>
+        <v>1783100</v>
       </c>
       <c r="I10" s="3">
+        <v>1768600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1779800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1678900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1590600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1538500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1381900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1456800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1443000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1479400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1291500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1211900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1182000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1182200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1005500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1011100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1039500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>854200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>852600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>882700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>999800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1110600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>940000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>581400</v>
+        <v>538600</v>
       </c>
       <c r="E12" s="3">
-        <v>564200</v>
+        <v>516600</v>
       </c>
       <c r="F12" s="3">
-        <v>509100</v>
+        <v>563500</v>
       </c>
       <c r="G12" s="3">
-        <v>483000</v>
+        <v>546900</v>
       </c>
       <c r="H12" s="3">
-        <v>547000</v>
+        <v>493500</v>
       </c>
       <c r="I12" s="3">
+        <v>468200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K12" s="3">
         <v>534700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>484300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>426000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>421700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>411000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>354900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>338000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>349100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>332900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>297300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>311300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>269400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>300500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>275100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>209300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>184400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>171100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>156000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>137200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>127600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2973900</v>
+        <v>2473000</v>
       </c>
       <c r="E17" s="3">
-        <v>2798200</v>
+        <v>2456100</v>
       </c>
       <c r="F17" s="3">
-        <v>2588900</v>
+        <v>2882500</v>
       </c>
       <c r="G17" s="3">
-        <v>2565600</v>
+        <v>2712200</v>
       </c>
       <c r="H17" s="3">
-        <v>2809700</v>
+        <v>2509400</v>
       </c>
       <c r="I17" s="3">
+        <v>2486800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2723300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2617800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2383300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2260800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2331600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2326500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2065200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1984000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1964500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1740100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1638400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1629700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>531600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1487000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2001600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1860400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1956200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1473400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1479700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1316200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1197200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>630200</v>
+        <v>835300</v>
       </c>
       <c r="E18" s="3">
-        <v>674000</v>
+        <v>994800</v>
       </c>
       <c r="F18" s="3">
-        <v>703100</v>
+        <v>610800</v>
       </c>
       <c r="G18" s="3">
-        <v>782800</v>
+        <v>653300</v>
       </c>
       <c r="H18" s="3">
-        <v>655100</v>
+        <v>681500</v>
       </c>
       <c r="I18" s="3">
+        <v>758800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>634900</v>
+      </c>
+      <c r="K18" s="3">
         <v>536600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>534200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>595200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>419300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>422900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>614500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>707800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>458300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>513500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>569000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>573700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>566600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>354900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>334800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>173200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>211700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>378400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>505400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>708200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>562300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,174 +1682,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>48700</v>
+        <v>387000</v>
       </c>
       <c r="E20" s="3">
-        <v>492700</v>
+        <v>154200</v>
       </c>
       <c r="F20" s="3">
-        <v>111600</v>
+        <v>47200</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>477500</v>
       </c>
       <c r="H20" s="3">
-        <v>282700</v>
+        <v>108100</v>
       </c>
       <c r="I20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>274000</v>
+      </c>
+      <c r="K20" s="3">
         <v>50600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>118200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>210400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-212200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>39200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>227800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>86200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>152700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>140900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>55000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>49800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>68900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>55200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>50200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-17100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>24600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>32300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>43400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>27100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>105700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>788300</v>
+        <v>1313500</v>
       </c>
       <c r="E21" s="3">
-        <v>1268200</v>
+        <v>1298100</v>
       </c>
       <c r="F21" s="3">
-        <v>901300</v>
+        <v>764000</v>
       </c>
       <c r="G21" s="3">
-        <v>895700</v>
+        <v>1229200</v>
       </c>
       <c r="H21" s="3">
-        <v>1056600</v>
+        <v>873600</v>
       </c>
       <c r="I21" s="3">
+        <v>868200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1024100</v>
+      </c>
+      <c r="K21" s="3">
         <v>701700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>768200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>919700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>341000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>596700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>973700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>902800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>718200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>762700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>720800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>712200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>734400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>489200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>452600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>208600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>277000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>441900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>574100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>756900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>682100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1865,174 +1945,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>678900</v>
+        <v>1222300</v>
       </c>
       <c r="E23" s="3">
-        <v>1166700</v>
+        <v>1148900</v>
       </c>
       <c r="F23" s="3">
-        <v>814700</v>
+        <v>658100</v>
       </c>
       <c r="G23" s="3">
-        <v>786800</v>
+        <v>1130900</v>
       </c>
       <c r="H23" s="3">
-        <v>937700</v>
+        <v>789700</v>
       </c>
       <c r="I23" s="3">
+        <v>762600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>908900</v>
+      </c>
+      <c r="K23" s="3">
         <v>587200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>652400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>805600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>207100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>462100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>842300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>794000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>611000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>654400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>624000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>623500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>635400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>410100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>385000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>156000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>236300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>410700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>548800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>735300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>668100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>137400</v>
+        <v>98100</v>
       </c>
       <c r="E24" s="3">
-        <v>225500</v>
+        <v>224400</v>
       </c>
       <c r="F24" s="3">
-        <v>179000</v>
+        <v>133200</v>
       </c>
       <c r="G24" s="3">
-        <v>173300</v>
+        <v>218600</v>
       </c>
       <c r="H24" s="3">
+        <v>173500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>168000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>114800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>158200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>177300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>76900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>50500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>156900</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>170700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>134900</v>
+      </c>
+      <c r="S24" s="3">
+        <v>13500</v>
+      </c>
+      <c r="T24" s="3">
+        <v>104500</v>
+      </c>
+      <c r="U24" s="3">
+        <v>193500</v>
+      </c>
+      <c r="V24" s="3">
         <v>132800</v>
       </c>
-      <c r="I24" s="3">
-        <v>114800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>158200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>177300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>76900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>50500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>156900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>170700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>134900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>13500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>104500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>193500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>132800</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>118000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>60300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>40600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>43100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>33500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>104400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>140000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>128300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>541500</v>
+        <v>1124200</v>
       </c>
       <c r="E26" s="3">
-        <v>941200</v>
+        <v>924600</v>
       </c>
       <c r="F26" s="3">
-        <v>635700</v>
+        <v>524900</v>
       </c>
       <c r="G26" s="3">
-        <v>613500</v>
+        <v>912200</v>
       </c>
       <c r="H26" s="3">
-        <v>805000</v>
+        <v>616100</v>
       </c>
       <c r="I26" s="3">
+        <v>594600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>780200</v>
+      </c>
+      <c r="K26" s="3">
         <v>472400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>494200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>628300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>130100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>411600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>685400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>623300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>476100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>640900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>519600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>429900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>502600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>292100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>324700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>115500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>193200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>377200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>444400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>595300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>539800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>561900</v>
+        <v>1135700</v>
       </c>
       <c r="E27" s="3">
-        <v>952300</v>
+        <v>930700</v>
       </c>
       <c r="F27" s="3">
-        <v>663400</v>
+        <v>544600</v>
       </c>
       <c r="G27" s="3">
-        <v>624600</v>
+        <v>923000</v>
       </c>
       <c r="H27" s="3">
-        <v>809400</v>
+        <v>643000</v>
       </c>
       <c r="I27" s="3">
+        <v>605400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K27" s="3">
         <v>452300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>503500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>617900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>135800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>441800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>668700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>560200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>470200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>636600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>512500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>417500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>489400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>288700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>302200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>107900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>190800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>375100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>441100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>582200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>535600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,37 +2479,43 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="3">
-        <v>88800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>37</v>
+        <v>86100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>37</v>
@@ -2401,39 +2523,39 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1323600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-43200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-53600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-242900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-65300</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-48700</v>
+        <v>-387000</v>
       </c>
       <c r="E32" s="3">
-        <v>-492700</v>
+        <v>-154200</v>
       </c>
       <c r="F32" s="3">
-        <v>-111600</v>
+        <v>-47200</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-477500</v>
       </c>
       <c r="H32" s="3">
-        <v>-282700</v>
+        <v>-108100</v>
       </c>
       <c r="I32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-274000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-50600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-118200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-210400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>212200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-39200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-227800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-86200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-152700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-140900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-55000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-49800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-68900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-55200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-50200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>17100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-24600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-32300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-43400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-27100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-105700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>561900</v>
+        <v>1135700</v>
       </c>
       <c r="E33" s="3">
-        <v>952300</v>
+        <v>930700</v>
       </c>
       <c r="F33" s="3">
-        <v>752200</v>
+        <v>544600</v>
       </c>
       <c r="G33" s="3">
-        <v>624600</v>
+        <v>923000</v>
       </c>
       <c r="H33" s="3">
-        <v>809400</v>
+        <v>729100</v>
       </c>
       <c r="I33" s="3">
+        <v>605400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K33" s="3">
         <v>452300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>503500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>617900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>135800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>441800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>668700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>560200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>470200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1960200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>469200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>363900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>246600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>223400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>302200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>107900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>190800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>375100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>441100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>582200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>535600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>561900</v>
+        <v>1135700</v>
       </c>
       <c r="E35" s="3">
-        <v>952300</v>
+        <v>930700</v>
       </c>
       <c r="F35" s="3">
-        <v>752200</v>
+        <v>544600</v>
       </c>
       <c r="G35" s="3">
-        <v>624600</v>
+        <v>923000</v>
       </c>
       <c r="H35" s="3">
-        <v>809400</v>
+        <v>729100</v>
       </c>
       <c r="I35" s="3">
+        <v>605400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K35" s="3">
         <v>452300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>503500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>617900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>135800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>441800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>668700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>560200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>470200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1960200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>469200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>363900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>246600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>223400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>302200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>107900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>190800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>375100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>441100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>582200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>535600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,672 +3266,722 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3538000</v>
+        <v>1758900</v>
       </c>
       <c r="E41" s="3">
-        <v>2558600</v>
+        <v>1887700</v>
       </c>
       <c r="F41" s="3">
-        <v>2340100</v>
+        <v>3429200</v>
       </c>
       <c r="G41" s="3">
-        <v>1400500</v>
+        <v>2479900</v>
       </c>
       <c r="H41" s="3">
-        <v>2060900</v>
+        <v>2268100</v>
       </c>
       <c r="I41" s="3">
+        <v>1357400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1997600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3165200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1412400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1223700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1269100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>952900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1565400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>882300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>499900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>422100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>738300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>631300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>724500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>668700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>441800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>534800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>410200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>382200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>447100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>587600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>791100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13158900</v>
+        <v>13370400</v>
       </c>
       <c r="E42" s="3">
-        <v>13964300</v>
+        <v>14707200</v>
       </c>
       <c r="F42" s="3">
-        <v>13516100</v>
+        <v>12754300</v>
       </c>
       <c r="G42" s="3">
-        <v>13170100</v>
+        <v>13535000</v>
       </c>
       <c r="H42" s="3">
-        <v>11803600</v>
+        <v>13100600</v>
       </c>
       <c r="I42" s="3">
+        <v>12765200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11440800</v>
+      </c>
+      <c r="K42" s="3">
         <v>9817800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>12928100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>12628000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>11741800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13547400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12606300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>11025600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10593800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>9029400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>7748900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>7283200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>6473600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>5270700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>5889700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>5683300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>5987800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>5655100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>5658600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>5370000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>4500100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>711200</v>
+        <v>736200</v>
       </c>
       <c r="E43" s="3">
-        <v>740300</v>
+        <v>839300</v>
       </c>
       <c r="F43" s="3">
-        <v>741000</v>
+        <v>689300</v>
       </c>
       <c r="G43" s="3">
-        <v>750200</v>
+        <v>717600</v>
       </c>
       <c r="H43" s="3">
-        <v>783000</v>
+        <v>718300</v>
       </c>
       <c r="I43" s="3">
+        <v>727100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>758900</v>
+      </c>
+      <c r="K43" s="3">
         <v>770800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>632900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>703900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>637000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>729300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>739500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>719300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>642000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>724700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>686700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>774700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>598200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>639500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>554400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>637900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>537200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>483700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>505200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>546600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>618300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>141200</v>
+        <v>111200</v>
       </c>
       <c r="E44" s="3">
-        <v>132600</v>
+        <v>120700</v>
       </c>
       <c r="F44" s="3">
-        <v>119900</v>
+        <v>136900</v>
       </c>
       <c r="G44" s="3">
-        <v>122400</v>
+        <v>128500</v>
       </c>
       <c r="H44" s="3">
-        <v>137100</v>
+        <v>116300</v>
       </c>
       <c r="I44" s="3">
+        <v>118700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K44" s="3">
         <v>147600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>125700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>121800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>86500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>77300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>82300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>88700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>100200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>105700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>606000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>653500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>154800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>880500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>814400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>734800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>812500</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB44" s="3">
-        <v>229500</v>
+      <c r="AB44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>229500</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1158100</v>
+        <v>1138900</v>
       </c>
       <c r="E45" s="3">
-        <v>1310000</v>
+        <v>1120800</v>
       </c>
       <c r="F45" s="3">
-        <v>1479400</v>
+        <v>1122500</v>
       </c>
       <c r="G45" s="3">
-        <v>1483100</v>
+        <v>1269800</v>
       </c>
       <c r="H45" s="3">
-        <v>1295400</v>
+        <v>1433900</v>
       </c>
       <c r="I45" s="3">
+        <v>1437500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1255600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1584900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1384500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1404200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1275600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1457600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1380100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1517400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1268600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2428400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1379700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1603500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2028600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1351100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1249200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1503400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1445900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>2209500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1940600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1537400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>1120900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18707400</v>
+        <v>17115600</v>
       </c>
       <c r="E46" s="3">
-        <v>18705800</v>
+        <v>18675700</v>
       </c>
       <c r="F46" s="3">
-        <v>18196500</v>
+        <v>18132300</v>
       </c>
       <c r="G46" s="3">
-        <v>16926300</v>
+        <v>18130700</v>
       </c>
       <c r="H46" s="3">
-        <v>16080000</v>
+        <v>17637100</v>
       </c>
       <c r="I46" s="3">
+        <v>16406000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15585700</v>
+      </c>
+      <c r="K46" s="3">
         <v>15486300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16483600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16081600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15010100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>16764400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>16373600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>14233300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13104500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>12710400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>11159600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10946200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9979600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8810600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8949500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>9094200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>9193700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8730600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>8551400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>8041600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>7181800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3058800</v>
+        <v>369500</v>
       </c>
       <c r="E47" s="3">
-        <v>636000</v>
+        <v>376400</v>
       </c>
       <c r="F47" s="3">
-        <v>636000</v>
+        <v>2964800</v>
       </c>
       <c r="G47" s="3">
-        <v>636000</v>
+        <v>616400</v>
       </c>
       <c r="H47" s="3">
-        <v>3501000</v>
+        <v>616400</v>
       </c>
       <c r="I47" s="3">
+        <v>616400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3393300</v>
+      </c>
+      <c r="K47" s="3">
         <v>988400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1009300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>938200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2553100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>626300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1005500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>607400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1794500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>7600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>7600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>776400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>21000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>21500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>21500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>413300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>7400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>7400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>74200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>366500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1027800</v>
+        <v>1012300</v>
       </c>
       <c r="E48" s="3">
-        <v>876400</v>
+        <v>911800</v>
       </c>
       <c r="F48" s="3">
-        <v>856100</v>
+        <v>996200</v>
       </c>
       <c r="G48" s="3">
-        <v>830500</v>
+        <v>849400</v>
       </c>
       <c r="H48" s="3">
-        <v>920800</v>
+        <v>829800</v>
       </c>
       <c r="I48" s="3">
+        <v>804900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>892500</v>
+      </c>
+      <c r="K48" s="3">
         <v>704600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>667300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>647500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>741700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>654200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>650800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1302800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1353900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1301600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>945300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>944100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>678700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>742600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>699200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>611500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>559400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>498100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>442500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>398600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>351900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3811,38 +4033,44 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>492700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>84200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>84700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>88000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>88500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>86500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>86900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>85600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1764000</v>
+        <v>4636700</v>
       </c>
       <c r="E52" s="3">
-        <v>4332300</v>
+        <v>4594200</v>
       </c>
       <c r="F52" s="3">
-        <v>4218200</v>
+        <v>1709800</v>
       </c>
       <c r="G52" s="3">
-        <v>4244400</v>
+        <v>4199100</v>
       </c>
       <c r="H52" s="3">
-        <v>1338600</v>
+        <v>4088500</v>
       </c>
       <c r="I52" s="3">
+        <v>4113900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1297500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3828800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3852800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3282900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1444000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3282800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3215000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2575400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1012100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2275000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2065600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2072100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1957600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1128300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1064000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>773500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>287400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>544500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>588900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>726800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>453800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24558000</v>
+        <v>23134100</v>
       </c>
       <c r="E54" s="3">
-        <v>24550400</v>
+        <v>24558100</v>
       </c>
       <c r="F54" s="3">
-        <v>23906700</v>
+        <v>23803000</v>
       </c>
       <c r="G54" s="3">
-        <v>22637100</v>
+        <v>23795700</v>
       </c>
       <c r="H54" s="3">
-        <v>21840500</v>
+        <v>23171800</v>
       </c>
       <c r="I54" s="3">
+        <v>21941200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21169100</v>
+      </c>
+      <c r="K54" s="3">
         <v>21008100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22012900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>20950100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>19748900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21327700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21244900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18718800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17264900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16294800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>14178000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>13970100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12630400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>11195300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10818400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10585300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10541800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>9869200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>9676800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>9328300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>8439600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,363 +4578,389 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>214200</v>
+        <v>102000</v>
       </c>
       <c r="E57" s="3">
-        <v>123300</v>
+        <v>114500</v>
       </c>
       <c r="F57" s="3">
-        <v>133900</v>
+        <v>207700</v>
       </c>
       <c r="G57" s="3">
-        <v>131400</v>
+        <v>119500</v>
       </c>
       <c r="H57" s="3">
-        <v>140000</v>
+        <v>129800</v>
       </c>
       <c r="I57" s="3">
+        <v>127400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K57" s="3">
         <v>156200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>126500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>149100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>157900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>146900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>125800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>188800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>186700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>187800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>398700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>450600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>174500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>360300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>331200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>339400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>362500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>307000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>281800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>234400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>203000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3393900</v>
+        <v>1637100</v>
       </c>
       <c r="E58" s="3">
-        <v>3617100</v>
+        <v>3774200</v>
       </c>
       <c r="F58" s="3">
-        <v>3984100</v>
+        <v>3289600</v>
       </c>
       <c r="G58" s="3">
-        <v>3223900</v>
+        <v>3505900</v>
       </c>
       <c r="H58" s="3">
-        <v>2750900</v>
+        <v>3861600</v>
       </c>
       <c r="I58" s="3">
+        <v>3124800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2666400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2788200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3864800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3038300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2715100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3278400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3232000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3096000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2591200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2385900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2070800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2159500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1983600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1909900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1825900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1365400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>983000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>850800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>798100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>665400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>554900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4470000</v>
+        <v>4094400</v>
       </c>
       <c r="E59" s="3">
-        <v>4366200</v>
+        <v>4127400</v>
       </c>
       <c r="F59" s="3">
-        <v>4047800</v>
+        <v>4332600</v>
       </c>
       <c r="G59" s="3">
-        <v>4003000</v>
+        <v>4232000</v>
       </c>
       <c r="H59" s="3">
-        <v>4287800</v>
+        <v>3923400</v>
       </c>
       <c r="I59" s="3">
+        <v>3879900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4022200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3733400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3862800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3633700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3490100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3302200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3563100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3110800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2755700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2714800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2925100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2940700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2365900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2092900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2295300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2179300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1824600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1916500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2096200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2083000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8078200</v>
+        <v>5833500</v>
       </c>
       <c r="E60" s="3">
-        <v>8106600</v>
+        <v>8016100</v>
       </c>
       <c r="F60" s="3">
-        <v>8165800</v>
+        <v>7829900</v>
       </c>
       <c r="G60" s="3">
-        <v>7358300</v>
+        <v>7857400</v>
       </c>
       <c r="H60" s="3">
-        <v>7178800</v>
+        <v>7914700</v>
       </c>
       <c r="I60" s="3">
+        <v>7132100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6958100</v>
+      </c>
+      <c r="K60" s="3">
         <v>6966500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7724700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7050200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6506700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6915400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6660000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6848000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5888700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5329300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5184200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5535100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5098900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4636100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4250000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4000100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3524800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2982400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2996300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2995900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>2788800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>519600</v>
+        <v>544700</v>
       </c>
       <c r="E61" s="3">
-        <v>504600</v>
+        <v>513900</v>
       </c>
       <c r="F61" s="3">
-        <v>477000</v>
+        <v>503600</v>
       </c>
       <c r="G61" s="3">
-        <v>451200</v>
+        <v>489100</v>
       </c>
       <c r="H61" s="3">
-        <v>181300</v>
+        <v>462300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>437300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>175700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4733,91 +5019,103 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>483800</v>
+        <v>461200</v>
       </c>
       <c r="E62" s="3">
-        <v>352500</v>
+        <v>503900</v>
       </c>
       <c r="F62" s="3">
-        <v>351400</v>
+        <v>469000</v>
       </c>
       <c r="G62" s="3">
-        <v>360400</v>
+        <v>341700</v>
       </c>
       <c r="H62" s="3">
-        <v>347400</v>
+        <v>340600</v>
       </c>
       <c r="I62" s="3">
+        <v>349300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>336700</v>
+      </c>
+      <c r="K62" s="3">
         <v>331200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>284400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>241500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>186100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>154400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>214700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>166100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>129300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>185900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>210400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>168600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>65000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>87600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>84800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>60500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>34400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>17800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>41800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>27800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>57100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9670400</v>
+        <v>7390600</v>
       </c>
       <c r="E66" s="3">
-        <v>9572800</v>
+        <v>9589400</v>
       </c>
       <c r="F66" s="3">
-        <v>9573600</v>
+        <v>9373100</v>
       </c>
       <c r="G66" s="3">
-        <v>8753100</v>
+        <v>9278500</v>
       </c>
       <c r="H66" s="3">
-        <v>8289600</v>
+        <v>9279300</v>
       </c>
       <c r="I66" s="3">
+        <v>8484000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8034800</v>
+      </c>
+      <c r="K66" s="3">
         <v>9098800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9768700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9019800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8316900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8765700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8600700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8843500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7802300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6535300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6393700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6672100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6061400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5124400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4561000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4202100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3754700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3188400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3215300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3151400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2885400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,67 +5853,73 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>13128000</v>
+      <c r="D72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>37</v>
+      <c r="F72" s="3">
+        <v>12724400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="3">
-        <v>11192800</v>
+      <c r="H72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>37</v>
+      <c r="J72" s="3">
+        <v>10848700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L72" s="3">
-        <v>9102400</v>
+      <c r="L72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>37</v>
+      <c r="N72" s="3">
+        <v>9102400</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P72" s="3">
-        <v>8870600</v>
+      <c r="P72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>37</v>
+      <c r="R72" s="3">
+        <v>8870600</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T72" s="3">
-        <v>6566100</v>
+      <c r="T72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>37</v>
+      <c r="V72" s="3">
+        <v>6566100</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>37</v>
@@ -5588,14 +5936,20 @@
       <c r="AA72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB72" s="3">
-        <v>5306600</v>
+      <c r="AB72" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>5306600</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14887600</v>
+        <v>15743400</v>
       </c>
       <c r="E76" s="3">
-        <v>14977600</v>
+        <v>14968700</v>
       </c>
       <c r="F76" s="3">
-        <v>14333100</v>
+        <v>14429900</v>
       </c>
       <c r="G76" s="3">
-        <v>13884000</v>
+        <v>14517200</v>
       </c>
       <c r="H76" s="3">
-        <v>13550900</v>
+        <v>13892500</v>
       </c>
       <c r="I76" s="3">
+        <v>13457200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>13134300</v>
+      </c>
+      <c r="K76" s="3">
         <v>11909300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12244200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11930300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11432100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12562000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12644200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9875400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9462600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9759400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7784300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7298000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6569000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6070900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6257400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6383200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6787100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6680800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6461500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>6176800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>5554100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>561900</v>
+        <v>1135700</v>
       </c>
       <c r="E81" s="3">
-        <v>952300</v>
+        <v>930700</v>
       </c>
       <c r="F81" s="3">
-        <v>752200</v>
+        <v>544600</v>
       </c>
       <c r="G81" s="3">
-        <v>624600</v>
+        <v>923000</v>
       </c>
       <c r="H81" s="3">
-        <v>809400</v>
+        <v>729100</v>
       </c>
       <c r="I81" s="3">
+        <v>605400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K81" s="3">
         <v>452300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>503500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>617900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>135800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>441800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>668700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>560200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>470200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1960200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>469200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>363900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>246600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>223400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>302200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>107900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>190800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>375100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>441100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>582200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>535600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>109300</v>
+        <v>91100</v>
       </c>
       <c r="E83" s="3">
-        <v>101500</v>
+        <v>149100</v>
       </c>
       <c r="F83" s="3">
-        <v>86600</v>
+        <v>106000</v>
       </c>
       <c r="G83" s="3">
+        <v>98400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>83900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>105600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>114500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>115800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>114100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>134000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>134500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>131500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>108900</v>
       </c>
-      <c r="H83" s="3">
-        <v>118800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>114500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>115800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>114100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>134000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>134500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>131500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>108900</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>107100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>106000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>98100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>89700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>98200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>79800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>67600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>52600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>40700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>31300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>25300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>21700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>14100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1280700</v>
+        <v>1057900</v>
       </c>
       <c r="E89" s="3">
-        <v>1064200</v>
+        <v>826800</v>
       </c>
       <c r="F89" s="3">
-        <v>942600</v>
+        <v>1241300</v>
       </c>
       <c r="G89" s="3">
-        <v>651400</v>
+        <v>1031500</v>
       </c>
       <c r="H89" s="3">
-        <v>1189600</v>
+        <v>913600</v>
       </c>
       <c r="I89" s="3">
+        <v>631400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1153000</v>
+      </c>
+      <c r="K89" s="3">
         <v>894500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>671300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>771500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1143400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>795900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>703200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1025500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>848500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>593400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>682300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>517400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>862000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>506300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>280900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>273300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>576000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>245700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>344500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>598300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>782200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-803900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1479600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-510800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-709300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-530200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-893200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-739700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-625900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-988600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-45900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-42200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-51700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-34900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-25900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-50800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-41900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-56500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-73400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-80900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-111200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-96200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-84900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-76000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-64300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-48300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-67700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>549300</v>
+        <v>1596800</v>
       </c>
       <c r="E94" s="3">
-        <v>140300</v>
+        <v>-2396300</v>
       </c>
       <c r="F94" s="3">
-        <v>-168200</v>
+        <v>532400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1569000</v>
+        <v>136000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2212900</v>
+        <v>-163000</v>
       </c>
       <c r="I94" s="3">
+        <v>-1520800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2144900</v>
+      </c>
+      <c r="K94" s="3">
         <v>3007600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-788000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-991800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>145500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1105500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2985100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-391000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1069600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1090100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-514900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-724400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-55800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-555300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-153300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-592900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-140100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-343300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-831600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-670000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7652,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-287000</v>
+        <v>-292000</v>
       </c>
       <c r="E96" s="3">
-        <v>-229900</v>
+        <v>-167000</v>
       </c>
       <c r="F96" s="3">
-        <v>-199500</v>
+        <v>-278200</v>
       </c>
       <c r="G96" s="3">
-        <v>-239300</v>
+        <v>-222900</v>
       </c>
       <c r="H96" s="3">
-        <v>-133700</v>
+        <v>-193400</v>
       </c>
       <c r="I96" s="3">
+        <v>-231900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-146100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-181800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-36300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-119900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-203000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-164300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-146200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1061000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-142200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-93700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-63200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-58000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-74700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-27500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-45300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-92700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-109200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-145500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-136100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-100700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-878900</v>
+        <v>-2800400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1021300</v>
+        <v>78900</v>
       </c>
       <c r="F100" s="3">
-        <v>119500</v>
+        <v>-851900</v>
       </c>
       <c r="G100" s="3">
-        <v>325400</v>
+        <v>-989900</v>
       </c>
       <c r="H100" s="3">
-        <v>-152600</v>
+        <v>115900</v>
       </c>
       <c r="I100" s="3">
+        <v>315400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-147900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2117200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>281100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>195600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-887500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-367800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2973500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-219900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>180400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>112800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-188300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>62800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>406100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-127900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-41900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-171000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-31700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>16300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>17200</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="M101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>26500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="S101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="T101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="W101" s="3">
         <v>7600</v>
       </c>
-      <c r="E101" s="3">
-        <v>500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>26500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>11700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>5900</v>
-      </c>
-      <c r="R101" s="3">
-        <v>5400</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>7600</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>11200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-5100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>9900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>958600</v>
+        <v>-152300</v>
       </c>
       <c r="E102" s="3">
-        <v>183700</v>
+        <v>-1488500</v>
       </c>
       <c r="F102" s="3">
-        <v>904600</v>
+        <v>929200</v>
       </c>
       <c r="G102" s="3">
-        <v>-595200</v>
+        <v>178000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1187400</v>
+        <v>876800</v>
       </c>
       <c r="I102" s="3">
+        <v>-576900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1150900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1786900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>160900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-19700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>392000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-681100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>718200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>426300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-378000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-15500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-146900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>70400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>330100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-305100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>114500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-25400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-61500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-217600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>139300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-112800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3308300</v>
+        <v>3765500</v>
       </c>
       <c r="E8" s="3">
-        <v>3450900</v>
+        <v>3315500</v>
       </c>
       <c r="F8" s="3">
-        <v>3493300</v>
+        <v>3458400</v>
       </c>
       <c r="G8" s="3">
-        <v>3365500</v>
+        <v>3500900</v>
       </c>
       <c r="H8" s="3">
-        <v>3190900</v>
+        <v>3372900</v>
       </c>
       <c r="I8" s="3">
-        <v>3245500</v>
+        <v>3197800</v>
       </c>
       <c r="J8" s="3">
+        <v>3252600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3358200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3154400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2917600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2856000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2750800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2749500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2679700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2691800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2422800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2253600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2207400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2203400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1098200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1841900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2336400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2033500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2167900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1851800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1985100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2024400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1759600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1339600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1327600</v>
+        <v>1422800</v>
       </c>
       <c r="E9" s="3">
-        <v>1398400</v>
+        <v>1330500</v>
       </c>
       <c r="F9" s="3">
-        <v>1668500</v>
+        <v>1401500</v>
       </c>
       <c r="G9" s="3">
-        <v>1471900</v>
+        <v>1672100</v>
       </c>
       <c r="H9" s="3">
-        <v>1407800</v>
+        <v>1475100</v>
       </c>
       <c r="I9" s="3">
-        <v>1476900</v>
+        <v>1410800</v>
       </c>
       <c r="J9" s="3">
+        <v>1480100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1578400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1475500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1327000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1317500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1368900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1292700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1236700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1212300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1131300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1041700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1025400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1021300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>92700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>830800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1296900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1179300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1315400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>969100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>985300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>913700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>819600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>564000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1980600</v>
+        <v>2342700</v>
       </c>
       <c r="E10" s="3">
-        <v>2052400</v>
+        <v>1985000</v>
       </c>
       <c r="F10" s="3">
-        <v>1824800</v>
+        <v>2056900</v>
       </c>
       <c r="G10" s="3">
-        <v>1893600</v>
+        <v>1828800</v>
       </c>
       <c r="H10" s="3">
-        <v>1783100</v>
+        <v>1897800</v>
       </c>
       <c r="I10" s="3">
-        <v>1768600</v>
+        <v>1787000</v>
       </c>
       <c r="J10" s="3">
+        <v>1772400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1779800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1678900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1590600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1538500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1381900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1456800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1443000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1479400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1291500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1211900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1182000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1182200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1005500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1011100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1039500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>854200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>852600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>882700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>999800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1110600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>940000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>775700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>538600</v>
+        <v>600200</v>
       </c>
       <c r="E12" s="3">
-        <v>516600</v>
+        <v>539700</v>
       </c>
       <c r="F12" s="3">
-        <v>563500</v>
+        <v>517800</v>
       </c>
       <c r="G12" s="3">
-        <v>546900</v>
+        <v>564800</v>
       </c>
       <c r="H12" s="3">
-        <v>493500</v>
+        <v>548100</v>
       </c>
       <c r="I12" s="3">
-        <v>468200</v>
+        <v>494600</v>
       </c>
       <c r="J12" s="3">
+        <v>469200</v>
+      </c>
+      <c r="K12" s="3">
         <v>530100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>534700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>484300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>426000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>421700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>411000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>354900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>338000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>349100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>332900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>297300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>311300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>269400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>275100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>209300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>184400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>171100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>156000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>137200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>127600</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2473000</v>
+        <v>2721900</v>
       </c>
       <c r="E17" s="3">
-        <v>2456100</v>
+        <v>2478300</v>
       </c>
       <c r="F17" s="3">
-        <v>2882500</v>
+        <v>2461400</v>
       </c>
       <c r="G17" s="3">
-        <v>2712200</v>
+        <v>2888700</v>
       </c>
       <c r="H17" s="3">
-        <v>2509400</v>
+        <v>2718100</v>
       </c>
       <c r="I17" s="3">
-        <v>2486800</v>
+        <v>2514800</v>
       </c>
       <c r="J17" s="3">
+        <v>2492200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2723300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2617800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2383300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2260800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2331600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2326500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2065200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1984000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1964500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1740100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1638400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1629700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>531600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1487000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2001600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1860400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1956200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1473400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1479700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1316200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1197200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>925700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>835300</v>
+        <v>1043600</v>
       </c>
       <c r="E18" s="3">
-        <v>994800</v>
+        <v>837100</v>
       </c>
       <c r="F18" s="3">
-        <v>610800</v>
+        <v>997000</v>
       </c>
       <c r="G18" s="3">
-        <v>653300</v>
+        <v>612200</v>
       </c>
       <c r="H18" s="3">
-        <v>681500</v>
+        <v>654700</v>
       </c>
       <c r="I18" s="3">
-        <v>758800</v>
+        <v>683000</v>
       </c>
       <c r="J18" s="3">
+        <v>760400</v>
+      </c>
+      <c r="K18" s="3">
         <v>634900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>536600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>534200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>595200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>419300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>422900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>614500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>707800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>458300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>513500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>569000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>573700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>566600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>354900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>334800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>173200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>211700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>378400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>505400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>708200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>562300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>414000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>387000</v>
+        <v>213100</v>
       </c>
       <c r="E20" s="3">
-        <v>154200</v>
+        <v>387900</v>
       </c>
       <c r="F20" s="3">
-        <v>47200</v>
+        <v>154500</v>
       </c>
       <c r="G20" s="3">
-        <v>477500</v>
+        <v>47300</v>
       </c>
       <c r="H20" s="3">
-        <v>108100</v>
+        <v>478600</v>
       </c>
       <c r="I20" s="3">
+        <v>108400</v>
+      </c>
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>274000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>118200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>210400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-212200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>39200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>227800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>86200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>152700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>140900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>55000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>49800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>68900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>55200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>50200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-17100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>24600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>32300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>43400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>27100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>105700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1313500</v>
+        <v>1346700</v>
       </c>
       <c r="E21" s="3">
-        <v>1298100</v>
+        <v>1316300</v>
       </c>
       <c r="F21" s="3">
-        <v>764000</v>
+        <v>1300900</v>
       </c>
       <c r="G21" s="3">
-        <v>1229200</v>
+        <v>765700</v>
       </c>
       <c r="H21" s="3">
-        <v>873600</v>
+        <v>1231900</v>
       </c>
       <c r="I21" s="3">
-        <v>868200</v>
+        <v>875500</v>
       </c>
       <c r="J21" s="3">
+        <v>870100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1024100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>701700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>768200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>919700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>341000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>596700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>973700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>902800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>718200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>762700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>720800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>712200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>734400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>489200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>452600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>208600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>277000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>441900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>574100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>756900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>682100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1222300</v>
+        <v>1256700</v>
       </c>
       <c r="E23" s="3">
-        <v>1148900</v>
+        <v>1225000</v>
       </c>
       <c r="F23" s="3">
-        <v>658100</v>
+        <v>1151400</v>
       </c>
       <c r="G23" s="3">
-        <v>1130900</v>
+        <v>659500</v>
       </c>
       <c r="H23" s="3">
-        <v>789700</v>
+        <v>1133300</v>
       </c>
       <c r="I23" s="3">
-        <v>762600</v>
+        <v>791400</v>
       </c>
       <c r="J23" s="3">
+        <v>764300</v>
+      </c>
+      <c r="K23" s="3">
         <v>908900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>587200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>652400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>805600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>207100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>462100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>842300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>794000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>611000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>654400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>624000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>623500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>635400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>410100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>385000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>156000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>236300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>410700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>548800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>735300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>668100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>468700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>98100</v>
+        <v>178200</v>
       </c>
       <c r="E24" s="3">
-        <v>224400</v>
+        <v>98300</v>
       </c>
       <c r="F24" s="3">
-        <v>133200</v>
+        <v>224900</v>
       </c>
       <c r="G24" s="3">
-        <v>218600</v>
+        <v>133500</v>
       </c>
       <c r="H24" s="3">
-        <v>173500</v>
+        <v>219100</v>
       </c>
       <c r="I24" s="3">
-        <v>168000</v>
+        <v>173900</v>
       </c>
       <c r="J24" s="3">
+        <v>168400</v>
+      </c>
+      <c r="K24" s="3">
         <v>128700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>158200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>177300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>76900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>156900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>170700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>134900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>104500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>193500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>132800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>118000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>60300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>40600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>43100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>33500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>104400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>140000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>128300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1124200</v>
+        <v>1078500</v>
       </c>
       <c r="E26" s="3">
-        <v>924600</v>
+        <v>1126700</v>
       </c>
       <c r="F26" s="3">
-        <v>524900</v>
+        <v>926600</v>
       </c>
       <c r="G26" s="3">
-        <v>912200</v>
+        <v>526000</v>
       </c>
       <c r="H26" s="3">
-        <v>616100</v>
+        <v>914200</v>
       </c>
       <c r="I26" s="3">
-        <v>594600</v>
+        <v>617500</v>
       </c>
       <c r="J26" s="3">
+        <v>595900</v>
+      </c>
+      <c r="K26" s="3">
         <v>780200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>472400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>494200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>628300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>130100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>411600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>685400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>623300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>476100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>640900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>519600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>429900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>502600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>292100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>324700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>115500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>193200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>377200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>444400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>595300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>539800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1135700</v>
+        <v>1082100</v>
       </c>
       <c r="E27" s="3">
-        <v>930700</v>
+        <v>1138200</v>
       </c>
       <c r="F27" s="3">
-        <v>544600</v>
+        <v>932700</v>
       </c>
       <c r="G27" s="3">
-        <v>923000</v>
+        <v>545800</v>
       </c>
       <c r="H27" s="3">
-        <v>643000</v>
+        <v>925000</v>
       </c>
       <c r="I27" s="3">
-        <v>605400</v>
+        <v>644400</v>
       </c>
       <c r="J27" s="3">
+        <v>606700</v>
+      </c>
+      <c r="K27" s="3">
         <v>784500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>452300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>503500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>617900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>441800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>668700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>560200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>470200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>636600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>512500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>417500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>489400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>288700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>302200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>107900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>190800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>375100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>441100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>582200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>535600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,34 +2543,37 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>86100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>86300</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>37</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>37</v>
@@ -2520,14 +2581,14 @@
       <c r="M29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2536,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>1323600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-43200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-53600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-242900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-65300</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-387000</v>
+        <v>-213100</v>
       </c>
       <c r="E32" s="3">
-        <v>-154200</v>
+        <v>-387900</v>
       </c>
       <c r="F32" s="3">
-        <v>-47200</v>
+        <v>-154500</v>
       </c>
       <c r="G32" s="3">
-        <v>-477500</v>
+        <v>-47300</v>
       </c>
       <c r="H32" s="3">
-        <v>-108100</v>
+        <v>-478600</v>
       </c>
       <c r="I32" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-274000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-118200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-210400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>212200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-39200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-227800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-86200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-152700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-140900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-55000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-49800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-68900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-55200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-50200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>17100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-24600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-32300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-43400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-27100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-105700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-54700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1135700</v>
+        <v>1082100</v>
       </c>
       <c r="E33" s="3">
-        <v>930700</v>
+        <v>1138200</v>
       </c>
       <c r="F33" s="3">
-        <v>544600</v>
+        <v>932700</v>
       </c>
       <c r="G33" s="3">
-        <v>923000</v>
+        <v>545800</v>
       </c>
       <c r="H33" s="3">
-        <v>729100</v>
+        <v>925000</v>
       </c>
       <c r="I33" s="3">
-        <v>605400</v>
+        <v>730600</v>
       </c>
       <c r="J33" s="3">
+        <v>606700</v>
+      </c>
+      <c r="K33" s="3">
         <v>784500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>452300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>503500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>617900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>135800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>441800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>668700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>560200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>470200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1960200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>469200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>363900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>246600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>223400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>302200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>107900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>190800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>375100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>441100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>582200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>535600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1135700</v>
+        <v>1082100</v>
       </c>
       <c r="E35" s="3">
-        <v>930700</v>
+        <v>1138200</v>
       </c>
       <c r="F35" s="3">
-        <v>544600</v>
+        <v>932700</v>
       </c>
       <c r="G35" s="3">
-        <v>923000</v>
+        <v>545800</v>
       </c>
       <c r="H35" s="3">
-        <v>729100</v>
+        <v>925000</v>
       </c>
       <c r="I35" s="3">
-        <v>605400</v>
+        <v>730600</v>
       </c>
       <c r="J35" s="3">
+        <v>606700</v>
+      </c>
+      <c r="K35" s="3">
         <v>784500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>452300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>503500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>617900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>135800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>441800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>668700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>560200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>470200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1960200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>469200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>363900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>246600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>223400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>302200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>107900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>190800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>375100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>441100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>582200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>535600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3268,349 +3354,359 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1758900</v>
+        <v>2087300</v>
       </c>
       <c r="E41" s="3">
-        <v>1887700</v>
+        <v>1762800</v>
       </c>
       <c r="F41" s="3">
-        <v>3429200</v>
+        <v>1891800</v>
       </c>
       <c r="G41" s="3">
-        <v>2479900</v>
+        <v>3436700</v>
       </c>
       <c r="H41" s="3">
-        <v>2268100</v>
+        <v>2485300</v>
       </c>
       <c r="I41" s="3">
-        <v>1357400</v>
+        <v>2273100</v>
       </c>
       <c r="J41" s="3">
+        <v>1360400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1997600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3165200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1412400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1223700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1269100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>952900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1565400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>882300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>499900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>422100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>738300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>631300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>724500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>668700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>441800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>534800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>410200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>382200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>447100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>587600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>791100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>651800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13370400</v>
+        <v>13215700</v>
       </c>
       <c r="E42" s="3">
-        <v>14707200</v>
+        <v>13399500</v>
       </c>
       <c r="F42" s="3">
-        <v>12754300</v>
+        <v>14739200</v>
       </c>
       <c r="G42" s="3">
-        <v>13535000</v>
+        <v>12782100</v>
       </c>
       <c r="H42" s="3">
-        <v>13100600</v>
+        <v>13564400</v>
       </c>
       <c r="I42" s="3">
-        <v>12765200</v>
+        <v>13129100</v>
       </c>
       <c r="J42" s="3">
+        <v>12793000</v>
+      </c>
+      <c r="K42" s="3">
         <v>11440800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9817800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12928100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12628000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11741800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13547400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12606300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11025600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10593800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9029400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7748900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7283200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6473600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5270700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5889700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5683300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5987800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5655100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>5658600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>5370000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>4500100</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>3836200</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>736200</v>
+        <v>896400</v>
       </c>
       <c r="E43" s="3">
-        <v>839300</v>
+        <v>737800</v>
       </c>
       <c r="F43" s="3">
-        <v>689300</v>
+        <v>841100</v>
       </c>
       <c r="G43" s="3">
-        <v>717600</v>
+        <v>690800</v>
       </c>
       <c r="H43" s="3">
-        <v>718300</v>
+        <v>719100</v>
       </c>
       <c r="I43" s="3">
-        <v>727100</v>
+        <v>719800</v>
       </c>
       <c r="J43" s="3">
+        <v>728700</v>
+      </c>
+      <c r="K43" s="3">
         <v>758900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>770800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>632900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>703900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>637000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>729300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>739500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>719300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>642000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>724700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>686700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>774700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>598200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>639500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>554400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>637900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>537200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>483700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>505200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>546600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>618300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>387100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>111200</v>
+        <v>99700</v>
       </c>
       <c r="E44" s="3">
-        <v>120700</v>
+        <v>111400</v>
       </c>
       <c r="F44" s="3">
-        <v>136900</v>
+        <v>121000</v>
       </c>
       <c r="G44" s="3">
-        <v>128500</v>
+        <v>137200</v>
       </c>
       <c r="H44" s="3">
-        <v>116300</v>
+        <v>128800</v>
       </c>
       <c r="I44" s="3">
-        <v>118700</v>
+        <v>116500</v>
       </c>
       <c r="J44" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K44" s="3">
         <v>132900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>147600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>125700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>121800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>82300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>88700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>100200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>105700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>606000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>653500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>154800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>880500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>814400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>734800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>812500</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>37</v>
@@ -3618,370 +3714,385 @@
       <c r="AC44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE44" s="3">
         <v>229500</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AF44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1138900</v>
+        <v>1315100</v>
       </c>
       <c r="E45" s="3">
-        <v>1120800</v>
+        <v>1141300</v>
       </c>
       <c r="F45" s="3">
-        <v>1122500</v>
+        <v>1123200</v>
       </c>
       <c r="G45" s="3">
-        <v>1269800</v>
+        <v>1125000</v>
       </c>
       <c r="H45" s="3">
-        <v>1433900</v>
+        <v>1272500</v>
       </c>
       <c r="I45" s="3">
-        <v>1437500</v>
+        <v>1437000</v>
       </c>
       <c r="J45" s="3">
+        <v>1440700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1255600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1584900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1384500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1404200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1275600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1457600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1380100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1517400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1268600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2428400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1379700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1603500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2028600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1351100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1249200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1503400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1445900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2209500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1940600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1537400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1120900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>922600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17115600</v>
+        <v>17614200</v>
       </c>
       <c r="E46" s="3">
-        <v>18675700</v>
+        <v>17152800</v>
       </c>
       <c r="F46" s="3">
-        <v>18132300</v>
+        <v>18716400</v>
       </c>
       <c r="G46" s="3">
-        <v>18130700</v>
+        <v>18171800</v>
       </c>
       <c r="H46" s="3">
-        <v>17637100</v>
+        <v>18170200</v>
       </c>
       <c r="I46" s="3">
-        <v>16406000</v>
+        <v>17675500</v>
       </c>
       <c r="J46" s="3">
+        <v>16441700</v>
+      </c>
+      <c r="K46" s="3">
         <v>15585700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15486300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16483600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16081600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15010100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16764400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16373600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14233300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13104500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12710400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11159600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10946200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9979600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8810600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8949500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9094200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9193700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8730600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8551400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8041600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7181800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>5797700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>369500</v>
+        <v>306700</v>
       </c>
       <c r="E47" s="3">
-        <v>376400</v>
+        <v>370300</v>
       </c>
       <c r="F47" s="3">
-        <v>2964800</v>
+        <v>377200</v>
       </c>
       <c r="G47" s="3">
-        <v>616400</v>
+        <v>2971200</v>
       </c>
       <c r="H47" s="3">
-        <v>616400</v>
+        <v>617700</v>
       </c>
       <c r="I47" s="3">
-        <v>616400</v>
+        <v>617700</v>
       </c>
       <c r="J47" s="3">
+        <v>617700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3393300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>988400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1009300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>938200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2553100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>626300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1005500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>607400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1794500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7700</v>
-      </c>
-      <c r="T47" s="3">
-        <v>7600</v>
       </c>
       <c r="U47" s="3">
         <v>7600</v>
       </c>
       <c r="V47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W47" s="3">
         <v>776400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>21000</v>
-      </c>
-      <c r="X47" s="3">
-        <v>21500</v>
       </c>
       <c r="Y47" s="3">
         <v>21500</v>
       </c>
       <c r="Z47" s="3">
+        <v>21500</v>
+      </c>
+      <c r="AA47" s="3">
         <v>413300</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>7400</v>
       </c>
       <c r="AB47" s="3">
         <v>7400</v>
       </c>
       <c r="AC47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="AD47" s="3">
         <v>74200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>366500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1012300</v>
+        <v>1047000</v>
       </c>
       <c r="E48" s="3">
-        <v>911800</v>
+        <v>1014500</v>
       </c>
       <c r="F48" s="3">
-        <v>996200</v>
+        <v>913800</v>
       </c>
       <c r="G48" s="3">
-        <v>849400</v>
+        <v>998400</v>
       </c>
       <c r="H48" s="3">
-        <v>829800</v>
+        <v>851300</v>
       </c>
       <c r="I48" s="3">
-        <v>804900</v>
+        <v>831600</v>
       </c>
       <c r="J48" s="3">
+        <v>806700</v>
+      </c>
+      <c r="K48" s="3">
         <v>892500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>704600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>667300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>647500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>741700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>654200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>650800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1302800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1353900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1301600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>945300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>944100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>678700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>742600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>699200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>611500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>559400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>498100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>442500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>398600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>351900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4039,38 +4150,41 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>492700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>84200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>84700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>88000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>88500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>86500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>86900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>85600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4636700</v>
+        <v>4723200</v>
       </c>
       <c r="E52" s="3">
-        <v>4594200</v>
+        <v>4646800</v>
       </c>
       <c r="F52" s="3">
-        <v>1709800</v>
+        <v>4604200</v>
       </c>
       <c r="G52" s="3">
-        <v>4199100</v>
+        <v>1713500</v>
       </c>
       <c r="H52" s="3">
-        <v>4088500</v>
+        <v>4208200</v>
       </c>
       <c r="I52" s="3">
-        <v>4113900</v>
+        <v>4097400</v>
       </c>
       <c r="J52" s="3">
+        <v>4122900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1297500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3828800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3852800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3282900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1444000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3282800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3215000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2575400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1012100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2275000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2065600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2072100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1957600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1128300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1064000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>773500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>287400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>544500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>588900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>726800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>453800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23134100</v>
+        <v>23691100</v>
       </c>
       <c r="E54" s="3">
-        <v>24558100</v>
+        <v>23184400</v>
       </c>
       <c r="F54" s="3">
-        <v>23803000</v>
+        <v>24611600</v>
       </c>
       <c r="G54" s="3">
-        <v>23795700</v>
+        <v>23854800</v>
       </c>
       <c r="H54" s="3">
-        <v>23171800</v>
+        <v>23847500</v>
       </c>
       <c r="I54" s="3">
-        <v>21941200</v>
+        <v>23222200</v>
       </c>
       <c r="J54" s="3">
+        <v>21989000</v>
+      </c>
+      <c r="K54" s="3">
         <v>21169100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21008100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22012900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20950100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19748900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21327700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21244900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18718800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17264900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16294800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14178000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13970100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12630400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11195300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10818400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10585300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10541800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9869200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>9676800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>9328300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8439600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>7221400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,391 +4710,404 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>102000</v>
+        <v>119200</v>
       </c>
       <c r="E57" s="3">
-        <v>114500</v>
+        <v>102300</v>
       </c>
       <c r="F57" s="3">
-        <v>207700</v>
+        <v>114800</v>
       </c>
       <c r="G57" s="3">
-        <v>119500</v>
+        <v>208100</v>
       </c>
       <c r="H57" s="3">
-        <v>129800</v>
+        <v>119800</v>
       </c>
       <c r="I57" s="3">
-        <v>127400</v>
+        <v>130100</v>
       </c>
       <c r="J57" s="3">
+        <v>127700</v>
+      </c>
+      <c r="K57" s="3">
         <v>135700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>156200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>126500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>149100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>157900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>146900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>125800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>188800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>186700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>187800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>398700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>450600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>174500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>360300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>331200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>339400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>362500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>307000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>281800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>234400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>203000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1637100</v>
+        <v>1549400</v>
       </c>
       <c r="E58" s="3">
-        <v>3774200</v>
+        <v>1640600</v>
       </c>
       <c r="F58" s="3">
-        <v>3289600</v>
+        <v>3782400</v>
       </c>
       <c r="G58" s="3">
-        <v>3505900</v>
+        <v>3296800</v>
       </c>
       <c r="H58" s="3">
-        <v>3861600</v>
+        <v>3513500</v>
       </c>
       <c r="I58" s="3">
-        <v>3124800</v>
+        <v>3870000</v>
       </c>
       <c r="J58" s="3">
+        <v>3131600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2666400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2788200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3864800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3038300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2715100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3278400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3232000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3096000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2591200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2385900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2070800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2159500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1983600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1909900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1825900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1365400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>983000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>850800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>798100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>665400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>554900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>437000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4094400</v>
+        <v>4388800</v>
       </c>
       <c r="E59" s="3">
-        <v>4127400</v>
+        <v>4103300</v>
       </c>
       <c r="F59" s="3">
-        <v>4332600</v>
+        <v>4136400</v>
       </c>
       <c r="G59" s="3">
-        <v>4232000</v>
+        <v>4342100</v>
       </c>
       <c r="H59" s="3">
-        <v>3923400</v>
+        <v>4241200</v>
       </c>
       <c r="I59" s="3">
-        <v>3879900</v>
+        <v>3931900</v>
       </c>
       <c r="J59" s="3">
+        <v>3888400</v>
+      </c>
+      <c r="K59" s="3">
         <v>4156000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4022200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3733400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3862800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3633700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3490100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3302200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3563100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3110800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2755700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2714800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2925100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2940700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2365900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2092900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2295300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2179300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1824600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1916500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2096200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2083000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1540700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5833500</v>
+        <v>6057400</v>
       </c>
       <c r="E60" s="3">
-        <v>8016100</v>
+        <v>5846200</v>
       </c>
       <c r="F60" s="3">
-        <v>7829900</v>
+        <v>8033600</v>
       </c>
       <c r="G60" s="3">
-        <v>7857400</v>
+        <v>7846900</v>
       </c>
       <c r="H60" s="3">
-        <v>7914700</v>
+        <v>7874500</v>
       </c>
       <c r="I60" s="3">
-        <v>7132100</v>
+        <v>7932000</v>
       </c>
       <c r="J60" s="3">
+        <v>7147600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6958100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6966500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7724700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7050200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6506700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6915400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6660000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6848000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5888700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5329300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5184200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5535100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5098900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4636100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4250000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4000100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3524800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2982400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2996300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2995900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2788800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2088600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>544700</v>
+        <v>59100</v>
       </c>
       <c r="E61" s="3">
-        <v>513900</v>
+        <v>545900</v>
       </c>
       <c r="F61" s="3">
-        <v>503600</v>
+        <v>515000</v>
       </c>
       <c r="G61" s="3">
-        <v>489100</v>
+        <v>504700</v>
       </c>
       <c r="H61" s="3">
-        <v>462300</v>
+        <v>490200</v>
       </c>
       <c r="I61" s="3">
-        <v>437300</v>
+        <v>463400</v>
       </c>
       <c r="J61" s="3">
+        <v>438300</v>
+      </c>
+      <c r="K61" s="3">
         <v>175700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -5025,97 +5168,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>461200</v>
+        <v>460200</v>
       </c>
       <c r="E62" s="3">
-        <v>503900</v>
+        <v>462200</v>
       </c>
       <c r="F62" s="3">
-        <v>469000</v>
+        <v>505000</v>
       </c>
       <c r="G62" s="3">
-        <v>341700</v>
+        <v>470000</v>
       </c>
       <c r="H62" s="3">
-        <v>340600</v>
+        <v>342400</v>
       </c>
       <c r="I62" s="3">
-        <v>349300</v>
+        <v>341400</v>
       </c>
       <c r="J62" s="3">
+        <v>350100</v>
+      </c>
+      <c r="K62" s="3">
         <v>336700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>284400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>241500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>186100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>154400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>214700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>166100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>129300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>185900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>210400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>168600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>65000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>87600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>84800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>60500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>34400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>41800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>27800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>57100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7390600</v>
+        <v>7124400</v>
       </c>
       <c r="E66" s="3">
-        <v>9589400</v>
+        <v>7406700</v>
       </c>
       <c r="F66" s="3">
-        <v>9373100</v>
+        <v>9610300</v>
       </c>
       <c r="G66" s="3">
-        <v>9278500</v>
+        <v>9393500</v>
       </c>
       <c r="H66" s="3">
-        <v>9279300</v>
+        <v>9298700</v>
       </c>
       <c r="I66" s="3">
-        <v>8484000</v>
+        <v>9299500</v>
       </c>
       <c r="J66" s="3">
+        <v>8502500</v>
+      </c>
+      <c r="K66" s="3">
         <v>8034800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9098800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9768700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9019800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8316900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8765700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8600700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8843500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7802300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6535300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6393700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6672100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6061400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5124400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4561000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4202100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3754700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3188400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3215300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3151400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2885400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2130900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5870,11 +6044,11 @@
       <c r="E72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="3">
-        <v>12724400</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="G72" s="3">
+        <v>12752100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
@@ -5882,11 +6056,11 @@
       <c r="I72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="3">
         <v>10848700</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>37</v>
@@ -5894,11 +6068,11 @@
       <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72" s="3">
         <v>9102400</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>37</v>
@@ -5906,11 +6080,11 @@
       <c r="Q72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="3">
         <v>8870600</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>37</v>
@@ -5918,11 +6092,11 @@
       <c r="U72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W72" s="3">
         <v>6566100</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>37</v>
@@ -5942,14 +6116,17 @@
       <c r="AC72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE72" s="3">
         <v>5306600</v>
       </c>
-      <c r="AE72" s="3" t="s">
+      <c r="AF72" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15743400</v>
+        <v>16566700</v>
       </c>
       <c r="E76" s="3">
-        <v>14968700</v>
+        <v>15777700</v>
       </c>
       <c r="F76" s="3">
-        <v>14429900</v>
+        <v>15001300</v>
       </c>
       <c r="G76" s="3">
-        <v>14517200</v>
+        <v>14461300</v>
       </c>
       <c r="H76" s="3">
-        <v>13892500</v>
+        <v>14548800</v>
       </c>
       <c r="I76" s="3">
-        <v>13457200</v>
+        <v>13922700</v>
       </c>
       <c r="J76" s="3">
+        <v>13486500</v>
+      </c>
+      <c r="K76" s="3">
         <v>13134300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11909300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12244200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11930300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11432100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12562000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12644200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9875400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9462600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9759400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7784300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7298000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6569000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6070900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6257400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6383200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6787100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6680800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6461500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6176800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5554100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>5090500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1135700</v>
+        <v>1082100</v>
       </c>
       <c r="E81" s="3">
-        <v>930700</v>
+        <v>1138200</v>
       </c>
       <c r="F81" s="3">
-        <v>544600</v>
+        <v>932700</v>
       </c>
       <c r="G81" s="3">
-        <v>923000</v>
+        <v>545800</v>
       </c>
       <c r="H81" s="3">
-        <v>729100</v>
+        <v>925000</v>
       </c>
       <c r="I81" s="3">
-        <v>605400</v>
+        <v>730600</v>
       </c>
       <c r="J81" s="3">
+        <v>606700</v>
+      </c>
+      <c r="K81" s="3">
         <v>784500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>452300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>503500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>617900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>135800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>441800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>668700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>560200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>470200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1960200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>469200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>363900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>246600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>223400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>302200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>107900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>190800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>375100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>441100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>582200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>535600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>398500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>91100</v>
+        <v>90000</v>
       </c>
       <c r="E83" s="3">
-        <v>149100</v>
+        <v>91300</v>
       </c>
       <c r="F83" s="3">
+        <v>149400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>106200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>98600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>84100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>115200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>114500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>115800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>114100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>134000</v>
+      </c>
+      <c r="P83" s="3">
+        <v>134500</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>131500</v>
+      </c>
+      <c r="R83" s="3">
+        <v>108900</v>
+      </c>
+      <c r="S83" s="3">
+        <v>107100</v>
+      </c>
+      <c r="T83" s="3">
         <v>106000</v>
       </c>
-      <c r="G83" s="3">
-        <v>98400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>83900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>105600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>115200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>114500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>115800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>114100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>134000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>134500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>131500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>108900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>107100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>106000</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>98100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>89700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>98200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>79800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>67600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>40700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>31300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>25300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>14100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1057900</v>
+        <v>1359200</v>
       </c>
       <c r="E89" s="3">
-        <v>826800</v>
+        <v>1060200</v>
       </c>
       <c r="F89" s="3">
-        <v>1241300</v>
+        <v>828600</v>
       </c>
       <c r="G89" s="3">
-        <v>1031500</v>
+        <v>1244000</v>
       </c>
       <c r="H89" s="3">
-        <v>913600</v>
+        <v>1033700</v>
       </c>
       <c r="I89" s="3">
-        <v>631400</v>
+        <v>915600</v>
       </c>
       <c r="J89" s="3">
+        <v>632800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1153000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>894500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>671300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>771500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1143400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>795900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>703200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1025500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>848500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>593400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>682300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>517400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>862000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>506300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>280900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>273300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>576000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>245700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>344500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>598300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>782200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>542400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1385700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-803900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1479600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-510800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-709300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-530200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-893200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-739700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-625900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-988600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-50800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-41900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-73400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-80900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-111200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-96200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-84900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-76000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-64300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-48300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-67700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1596800</v>
+        <v>-71200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2396300</v>
+        <v>1600300</v>
       </c>
       <c r="F94" s="3">
-        <v>532400</v>
+        <v>-2401500</v>
       </c>
       <c r="G94" s="3">
-        <v>136000</v>
+        <v>533600</v>
       </c>
       <c r="H94" s="3">
-        <v>-163000</v>
+        <v>136300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1520800</v>
+        <v>-163400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1524100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2144900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3007600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-788000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-991800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>145500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1105500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2985100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-391000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1069600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1090100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-514900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-724400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1195600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-55800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-555300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-153300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-592900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-140100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-343300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-831600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-670000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-658900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-292000</v>
+        <v>-334600</v>
       </c>
       <c r="E96" s="3">
-        <v>-167000</v>
+        <v>-292600</v>
       </c>
       <c r="F96" s="3">
-        <v>-278200</v>
+        <v>-167400</v>
       </c>
       <c r="G96" s="3">
-        <v>-222900</v>
+        <v>-278800</v>
       </c>
       <c r="H96" s="3">
-        <v>-193400</v>
+        <v>-223400</v>
       </c>
       <c r="I96" s="3">
-        <v>-231900</v>
+        <v>-193800</v>
       </c>
       <c r="J96" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-129600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-146100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-181800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-36300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-119900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-203000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-164300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-146200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1061000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-142200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-93700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-63200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-58000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-74700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-45300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-92700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-109200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-145500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-136100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-100700</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-99400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2800400</v>
+        <v>-946300</v>
       </c>
       <c r="E100" s="3">
-        <v>78900</v>
+        <v>-2806500</v>
       </c>
       <c r="F100" s="3">
-        <v>-851900</v>
+        <v>79000</v>
       </c>
       <c r="G100" s="3">
-        <v>-989900</v>
+        <v>-853700</v>
       </c>
       <c r="H100" s="3">
-        <v>115900</v>
+        <v>-992100</v>
       </c>
       <c r="I100" s="3">
-        <v>315400</v>
+        <v>116100</v>
       </c>
       <c r="J100" s="3">
+        <v>316100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-147900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2117200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>281100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>195600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-887500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-367800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2973500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-219900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>180400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>112800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-188300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>62800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>406100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-127900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-41900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-171000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-31700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>16300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>17200</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
-        <v>7300</v>
-      </c>
       <c r="G101" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>9900</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-152300</v>
+        <v>342300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1488500</v>
+        <v>-152600</v>
       </c>
       <c r="F102" s="3">
-        <v>929200</v>
+        <v>-1491800</v>
       </c>
       <c r="G102" s="3">
-        <v>178000</v>
+        <v>931200</v>
       </c>
       <c r="H102" s="3">
-        <v>876800</v>
+        <v>178400</v>
       </c>
       <c r="I102" s="3">
-        <v>-576900</v>
+        <v>878700</v>
       </c>
       <c r="J102" s="3">
+        <v>-578200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1150900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1786900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>160900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>392000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-681100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>718200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>426300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-44800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-378000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-146900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>70400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>330100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-305100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>114500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-25400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-61500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-217600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>139300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-112800</v>
       </c>
     </row>
